--- a/tests/test7pops.xlsx
+++ b/tests/test7pops.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="120" windowWidth="19410" windowHeight="10950" tabRatio="901" activeTab="7"/>
@@ -14,10 +14,11 @@
     <sheet name="Other epidemiology" sheetId="6" r:id="rId5"/>
     <sheet name="Optional indicators" sheetId="5" r:id="rId6"/>
     <sheet name="Testing &amp; treatment" sheetId="7" r:id="rId7"/>
-    <sheet name="Sexual behavior" sheetId="8" r:id="rId8"/>
-    <sheet name="Injecting behavior" sheetId="9" r:id="rId9"/>
-    <sheet name="Partnerships &amp; transitions" sheetId="10" r:id="rId10"/>
-    <sheet name="Constants" sheetId="12" r:id="rId11"/>
+    <sheet name="Cascade" sheetId="16" r:id="rId8"/>
+    <sheet name="Sexual behavior" sheetId="8" r:id="rId9"/>
+    <sheet name="Injecting behavior" sheetId="9" r:id="rId10"/>
+    <sheet name="Partnerships &amp; transitions" sheetId="10" r:id="rId11"/>
+    <sheet name="Constants" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -106,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="126">
   <si>
     <t>O P T I M A</t>
   </si>
@@ -163,9 +164,6 @@
   </si>
   <si>
     <t>Females 15+</t>
-  </si>
-  <si>
-    <t>Antiretroviral therapy</t>
   </si>
   <si>
     <t>PMTCT</t>
@@ -339,9 +337,6 @@
     <t>Acute to CD4(&gt;500)</t>
   </si>
   <si>
-    <t>CD4(350,500) to CD4(200-350)</t>
-  </si>
-  <si>
     <t>CD4(200-350) to CD4(50-200)</t>
   </si>
   <si>
@@ -441,9 +436,6 @@
     <t>Number of people on treatment</t>
   </si>
   <si>
-    <t>Change in transmissibility</t>
-  </si>
-  <si>
     <t>STI cofactor increase</t>
   </si>
   <si>
@@ -457,6 +449,42 @@
   </si>
   <si>
     <t>F 15+</t>
+  </si>
+  <si>
+    <t>CD4(350-500) to CD4(200-350)</t>
+  </si>
+  <si>
+    <t>Changes in transmissibility (%)</t>
+  </si>
+  <si>
+    <t>Unsuppressive ART</t>
+  </si>
+  <si>
+    <t>Suppressive ART</t>
+  </si>
+  <si>
+    <t>Probability of viral suppression on ART</t>
+  </si>
+  <si>
+    <t>Immediate linkage to care (%)</t>
+  </si>
+  <si>
+    <t>Linkage to care rate (%/year)</t>
+  </si>
+  <si>
+    <t>ART adherence achieving viral suppression (%/year)</t>
+  </si>
+  <si>
+    <t>Those who stop ART but are still in care (%)</t>
+  </si>
+  <si>
+    <t>Those in care who are lost to follow-up (%/year)</t>
+  </si>
+  <si>
+    <t>PLHIV lost to follow-up (%/year)</t>
+  </si>
+  <si>
+    <t>Biological failure rate (%/year)</t>
   </si>
 </sst>
 </file>
@@ -564,7 +592,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -599,6 +627,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF18C1FF"/>
         <bgColor rgb="FF18C1FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC0CB"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -811,7 +845,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -909,16 +943,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="67" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="67" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="67" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="67" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="6" borderId="1" xfId="67" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="6" borderId="1" xfId="67" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="11" fillId="6" borderId="1" xfId="67" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="4" fillId="2" borderId="1" xfId="68" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="67" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
@@ -935,6 +960,34 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="67" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="168">
@@ -1416,15 +1469,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52"/>
+      <c r="A2" s="47"/>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="52"/>
+      <c r="A3" s="47"/>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="28"/>
@@ -1439,7 +1492,7 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1451,6 +1504,739 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="C2" s="3">
+        <v>2000</v>
+      </c>
+      <c r="D2" s="3">
+        <v>2001</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2002</v>
+      </c>
+      <c r="F2" s="3">
+        <v>2003</v>
+      </c>
+      <c r="G2" s="3">
+        <v>2004</v>
+      </c>
+      <c r="H2" s="3">
+        <v>2005</v>
+      </c>
+      <c r="I2" s="3">
+        <v>2006</v>
+      </c>
+      <c r="J2" s="3">
+        <v>2007</v>
+      </c>
+      <c r="K2" s="3">
+        <v>2008</v>
+      </c>
+      <c r="L2" s="3">
+        <v>2009</v>
+      </c>
+      <c r="M2" s="3">
+        <v>2010</v>
+      </c>
+      <c r="N2" s="3">
+        <v>2011</v>
+      </c>
+      <c r="O2" s="3">
+        <v>2012</v>
+      </c>
+      <c r="P2" s="3">
+        <v>2013</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>2014</v>
+      </c>
+      <c r="R2" s="3">
+        <v>2015</v>
+      </c>
+      <c r="S2" s="3">
+        <v>2016</v>
+      </c>
+      <c r="T2" s="3">
+        <v>2017</v>
+      </c>
+      <c r="U2" s="3">
+        <v>2018</v>
+      </c>
+      <c r="V2" s="3">
+        <v>2019</v>
+      </c>
+      <c r="W2" s="3">
+        <v>2020</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="str">
+        <f>Populations!$C$3</f>
+        <v>FSW</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="str">
+        <f>Populations!$C$4</f>
+        <v>Clients</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="str">
+        <f>Populations!$C$5</f>
+        <v>MSM</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="str">
+        <f>Populations!$C$6</f>
+        <v>M 0-14</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="str">
+        <f>Populations!$C$7</f>
+        <v>F 0-14</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="str">
+        <f>Populations!$C$8</f>
+        <v>M 15+</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="str">
+        <f>Populations!$C$9</f>
+        <v>F 15+</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="C14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="D14" s="3">
+        <v>2001</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2002</v>
+      </c>
+      <c r="F14" s="3">
+        <v>2003</v>
+      </c>
+      <c r="G14" s="3">
+        <v>2004</v>
+      </c>
+      <c r="H14" s="3">
+        <v>2005</v>
+      </c>
+      <c r="I14" s="3">
+        <v>2006</v>
+      </c>
+      <c r="J14" s="3">
+        <v>2007</v>
+      </c>
+      <c r="K14" s="3">
+        <v>2008</v>
+      </c>
+      <c r="L14" s="3">
+        <v>2009</v>
+      </c>
+      <c r="M14" s="3">
+        <v>2010</v>
+      </c>
+      <c r="N14" s="3">
+        <v>2011</v>
+      </c>
+      <c r="O14" s="3">
+        <v>2012</v>
+      </c>
+      <c r="P14" s="3">
+        <v>2013</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>2014</v>
+      </c>
+      <c r="R14" s="3">
+        <v>2015</v>
+      </c>
+      <c r="S14" s="3">
+        <v>2016</v>
+      </c>
+      <c r="T14" s="3">
+        <v>2017</v>
+      </c>
+      <c r="U14" s="3">
+        <v>2018</v>
+      </c>
+      <c r="V14" s="3">
+        <v>2019</v>
+      </c>
+      <c r="W14" s="3">
+        <v>2020</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="str">
+        <f>Populations!$C$3</f>
+        <v>FSW</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y15" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="str">
+        <f>Populations!$C$4</f>
+        <v>Clients</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y16" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="str">
+        <f>Populations!$C$5</f>
+        <v>MSM</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y17" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="str">
+        <f>Populations!$C$6</f>
+        <v>M 0-14</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y18" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="str">
+        <f>Populations!$C$7</f>
+        <v>F 0-14</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="9"/>
+      <c r="X19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y19" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="str">
+        <f>Populations!$C$8</f>
+        <v>M 15+</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y20" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="str">
+        <f>Populations!$C$9</f>
+        <v>F 15+</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y21" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="C26" s="3">
+        <v>2000</v>
+      </c>
+      <c r="D26" s="3">
+        <v>2001</v>
+      </c>
+      <c r="E26" s="3">
+        <v>2002</v>
+      </c>
+      <c r="F26" s="3">
+        <v>2003</v>
+      </c>
+      <c r="G26" s="3">
+        <v>2004</v>
+      </c>
+      <c r="H26" s="3">
+        <v>2005</v>
+      </c>
+      <c r="I26" s="3">
+        <v>2006</v>
+      </c>
+      <c r="J26" s="3">
+        <v>2007</v>
+      </c>
+      <c r="K26" s="3">
+        <v>2008</v>
+      </c>
+      <c r="L26" s="3">
+        <v>2009</v>
+      </c>
+      <c r="M26" s="3">
+        <v>2010</v>
+      </c>
+      <c r="N26" s="3">
+        <v>2011</v>
+      </c>
+      <c r="O26" s="3">
+        <v>2012</v>
+      </c>
+      <c r="P26" s="3">
+        <v>2013</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>2014</v>
+      </c>
+      <c r="R26" s="3">
+        <v>2015</v>
+      </c>
+      <c r="S26" s="3">
+        <v>2016</v>
+      </c>
+      <c r="T26" s="3">
+        <v>2017</v>
+      </c>
+      <c r="U26" s="3">
+        <v>2018</v>
+      </c>
+      <c r="V26" s="3">
+        <v>2019</v>
+      </c>
+      <c r="W26" s="3">
+        <v>2020</v>
+      </c>
+      <c r="Y26" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="B27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+      <c r="X27" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I57"/>
   <sheetViews>
@@ -1465,7 +2251,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1599,7 +2385,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1735,7 +2521,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -1863,7 +2649,7 @@
     </row>
     <row r="37" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -1989,7 +2775,7 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -2127,12 +2913,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J78"/>
+  <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2141,129 +2927,129 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="51" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="48"/>
+      <c r="B3" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="42" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="38"/>
-      <c r="B3" s="41" t="s">
+      <c r="C3" s="52">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="D3" s="52">
+        <v>1E-4</v>
+      </c>
+      <c r="E3" s="52">
+        <v>1.4E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="48"/>
+      <c r="B4" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="44">
+      <c r="C4" s="52">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="D4" s="52">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="E4" s="52">
+        <v>1.1000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="48"/>
+      <c r="B5" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="52">
+        <v>1.38E-2</v>
+      </c>
+      <c r="D5" s="52">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="E5" s="52">
+        <v>1.8599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="48"/>
+      <c r="B6" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="52">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="D6" s="52">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="D3" s="44">
-        <v>1E-4</v>
-      </c>
-      <c r="E3" s="44">
-        <v>1.4E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="38"/>
-      <c r="B4" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="44">
-        <v>8.0000000000000004E-4</v>
-      </c>
-      <c r="D4" s="44">
-        <v>5.9999999999999995E-4</v>
-      </c>
-      <c r="E4" s="44">
-        <v>1.1000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
-      <c r="B5" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="44">
-        <v>1.38E-2</v>
-      </c>
-      <c r="D5" s="44">
-        <v>1.0200000000000001E-2</v>
-      </c>
-      <c r="E5" s="44">
-        <v>1.8599999999999998E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="38"/>
-      <c r="B6" s="41" t="s">
+      <c r="E6" s="52">
+        <v>2.8E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="48"/>
+      <c r="B7" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="44">
-        <v>1.1000000000000001E-3</v>
-      </c>
-      <c r="D6" s="44">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="E6" s="44">
-        <v>2.8E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
-      <c r="B7" s="41" t="s">
+      <c r="C7" s="52">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D7" s="52">
+        <v>6.3E-3</v>
+      </c>
+      <c r="E7" s="52">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="48"/>
+      <c r="B8" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="44">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="D7" s="44">
-        <v>6.3E-3</v>
-      </c>
-      <c r="E7" s="44">
-        <v>2.4E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
-      <c r="B8" s="41" t="s">
+      <c r="C8" s="52">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="D8" s="52">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="E8" s="52">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="48"/>
+      <c r="B9" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="44">
-        <v>0.36699999999999999</v>
-      </c>
-      <c r="D8" s="44">
-        <v>0.29399999999999998</v>
-      </c>
-      <c r="E8" s="44">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
-      <c r="B9" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="44">
+      <c r="C9" s="52">
         <v>0.20499999999999999</v>
       </c>
-      <c r="D9" s="44">
+      <c r="D9" s="52">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E9" s="44">
+      <c r="E9" s="52">
         <v>0.27</v>
       </c>
     </row>
@@ -2289,114 +3075,114 @@
       <c r="E12" s="38"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="48"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="51" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="48"/>
+      <c r="B15" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="42" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
-      <c r="B15" s="41" t="s">
+      <c r="C15" s="53">
+        <v>26.03</v>
+      </c>
+      <c r="D15" s="53">
+        <v>2</v>
+      </c>
+      <c r="E15" s="53">
+        <v>48.02</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="48"/>
+      <c r="B16" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="43">
-        <v>26.03</v>
-      </c>
-      <c r="D15" s="43">
-        <v>2</v>
-      </c>
-      <c r="E15" s="43">
-        <v>48.02</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="38"/>
-      <c r="B16" s="41" t="s">
+      <c r="C16" s="53">
+        <v>1</v>
+      </c>
+      <c r="D16" s="53">
+        <v>1</v>
+      </c>
+      <c r="E16" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="48"/>
+      <c r="B17" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="43">
+      <c r="C17" s="53">
         <v>1</v>
       </c>
-      <c r="D16" s="43">
+      <c r="D17" s="53">
         <v>1</v>
       </c>
-      <c r="E16" s="43">
+      <c r="E17" s="53">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
-      <c r="B17" s="41" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="48"/>
+      <c r="B18" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="43">
+      <c r="C18" s="53">
         <v>1</v>
       </c>
-      <c r="D17" s="43">
+      <c r="D18" s="53">
         <v>1</v>
       </c>
-      <c r="E17" s="43">
+      <c r="E18" s="53">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="38"/>
-      <c r="B18" s="41" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="48"/>
+      <c r="B19" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="43">
-        <v>1</v>
-      </c>
-      <c r="D18" s="43">
-        <v>1</v>
-      </c>
-      <c r="E18" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="38"/>
-      <c r="B19" s="41" t="s">
+      <c r="C19" s="53">
+        <v>3.49</v>
+      </c>
+      <c r="D19" s="53">
+        <v>1.76</v>
+      </c>
+      <c r="E19" s="53">
+        <v>6.92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="48"/>
+      <c r="B20" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="43">
-        <v>3.49</v>
-      </c>
-      <c r="D19" s="43">
-        <v>1.76</v>
-      </c>
-      <c r="E19" s="43">
-        <v>6.92</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
-      <c r="B20" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20" s="43">
+      <c r="C20" s="53">
         <v>7.17</v>
       </c>
-      <c r="D20" s="43">
+      <c r="D20" s="53">
         <v>3.9</v>
       </c>
-      <c r="E20" s="43">
+      <c r="E20" s="53">
         <v>12.08</v>
       </c>
     </row>
@@ -2422,99 +3208,99 @@
       <c r="E23" s="38"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="48"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="51" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="48"/>
+      <c r="B26" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="B24" s="40"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="38"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" s="42" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="38"/>
-      <c r="B26" s="41" t="s">
+      <c r="C26" s="54">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="D26" s="54">
+        <v>2</v>
+      </c>
+      <c r="E26" s="54">
+        <v>9.76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="48"/>
+      <c r="B27" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="54">
+        <v>1.05</v>
+      </c>
+      <c r="D27" s="54">
+        <v>0.86</v>
+      </c>
+      <c r="E27" s="54">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="48"/>
+      <c r="B28" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="C28" s="54">
+        <v>0.33</v>
+      </c>
+      <c r="D28" s="54">
+        <v>0.32</v>
+      </c>
+      <c r="E28" s="54">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="48"/>
+      <c r="B29" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="C26" s="45">
-        <v>4.1399999999999997</v>
-      </c>
-      <c r="D26" s="45">
-        <v>2</v>
-      </c>
-      <c r="E26" s="45">
-        <v>9.76</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="38"/>
-      <c r="B27" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="C27" s="45">
-        <v>1.05</v>
-      </c>
-      <c r="D27" s="45">
-        <v>0.86</v>
-      </c>
-      <c r="E27" s="45">
-        <v>1.61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="38"/>
-      <c r="B28" s="41" t="s">
+      <c r="C29" s="54">
+        <v>0.27</v>
+      </c>
+      <c r="D29" s="54">
+        <v>0.25</v>
+      </c>
+      <c r="E29" s="54">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="48"/>
+      <c r="B30" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="C28" s="45">
-        <v>0.33</v>
-      </c>
-      <c r="D28" s="45">
-        <v>0.32</v>
-      </c>
-      <c r="E28" s="45">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="38"/>
-      <c r="B29" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="C29" s="45">
-        <v>0.27</v>
-      </c>
-      <c r="D29" s="45">
-        <v>0.25</v>
-      </c>
-      <c r="E29" s="45">
-        <v>0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="38"/>
-      <c r="B30" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="C30" s="45">
+      <c r="C30" s="54">
         <v>0.67</v>
       </c>
-      <c r="D30" s="45">
+      <c r="D30" s="54">
         <v>0.44</v>
       </c>
-      <c r="E30" s="45">
+      <c r="E30" s="54">
         <v>0.88</v>
       </c>
     </row>
@@ -2540,84 +3326,84 @@
       <c r="E33" s="38"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="39" t="s">
+      <c r="A34" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" s="48"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="48"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" s="51" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="48"/>
+      <c r="B36" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="54">
+        <v>0.45</v>
+      </c>
+      <c r="D36" s="54">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E36" s="54">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="48"/>
+      <c r="B37" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="B34" s="40"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="38"/>
-      <c r="B35" s="40"/>
-      <c r="C35" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="D35" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="E35" s="42" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="38"/>
-      <c r="B36" s="41" t="s">
+      <c r="C37" s="54">
+        <v>0.7</v>
+      </c>
+      <c r="D37" s="54">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E37" s="54">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="48"/>
+      <c r="B38" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="C36" s="45">
-        <v>0.45</v>
-      </c>
-      <c r="D36" s="45">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E36" s="45">
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="38"/>
-      <c r="B37" s="41" t="s">
+      <c r="C38" s="54">
+        <v>0.47</v>
+      </c>
+      <c r="D38" s="54">
+        <v>0.33</v>
+      </c>
+      <c r="E38" s="54">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="48"/>
+      <c r="B39" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="C37" s="45">
-        <v>0.7</v>
-      </c>
-      <c r="D37" s="45">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="E37" s="45">
-        <v>1.1100000000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="38"/>
-      <c r="B38" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C38" s="45">
-        <v>0.47</v>
-      </c>
-      <c r="D38" s="45">
-        <v>0.33</v>
-      </c>
-      <c r="E38" s="45">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="38"/>
-      <c r="B39" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="C39" s="45">
+      <c r="C39" s="54">
         <v>1.52</v>
       </c>
-      <c r="D39" s="45">
+      <c r="D39" s="54">
         <v>1.06</v>
       </c>
-      <c r="E39" s="45">
+      <c r="E39" s="54">
         <v>1.96</v>
       </c>
     </row>
@@ -2643,99 +3429,99 @@
       <c r="E42" s="38"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="B43" s="40"/>
-      <c r="C43" s="38"/>
-      <c r="D43" s="38"/>
-      <c r="E43" s="38"/>
+      <c r="A43" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" s="48"/>
+      <c r="C43" s="48"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="48"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="38"/>
-      <c r="B44" s="40"/>
-      <c r="C44" s="42" t="s">
+      <c r="A44" s="48"/>
+      <c r="B44" s="48"/>
+      <c r="C44" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="D44" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="E44" s="42" t="s">
-        <v>24</v>
+      <c r="E44" s="51" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="38"/>
-      <c r="B45" s="41" t="s">
+      <c r="A45" s="48"/>
+      <c r="B45" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" s="52">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="D45" s="52">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="E45" s="52">
+        <v>4.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="48"/>
+      <c r="B46" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="C45" s="46">
+      <c r="C46" s="52">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="D45" s="46">
+      <c r="D46" s="52">
         <v>2.8999999999999998E-3</v>
       </c>
-      <c r="E45" s="46">
+      <c r="E46" s="52">
         <v>4.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="38"/>
-      <c r="B46" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="C46" s="46">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D46" s="46">
-        <v>2.8999999999999998E-3</v>
-      </c>
-      <c r="E46" s="46">
-        <v>4.4000000000000003E-3</v>
-      </c>
-    </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="38"/>
-      <c r="B47" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="C47" s="46">
+      <c r="A47" s="48"/>
+      <c r="B47" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="C47" s="52">
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="D47" s="46">
+      <c r="D47" s="52">
         <v>4.7999999999999996E-3</v>
       </c>
-      <c r="E47" s="46">
+      <c r="E47" s="52">
         <v>7.1000000000000004E-3</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="38"/>
-      <c r="B48" s="41" t="s">
+      <c r="A48" s="48"/>
+      <c r="B48" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="C48" s="52">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="D48" s="52">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E48" s="52">
+        <v>1.01E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="48"/>
+      <c r="B49" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="C48" s="46">
-        <v>8.8000000000000005E-3</v>
-      </c>
-      <c r="D48" s="46">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="E48" s="46">
-        <v>1.01E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="38"/>
-      <c r="B49" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="C49" s="46">
+      <c r="C49" s="52">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="D49" s="46">
+      <c r="D49" s="52">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="E49" s="46">
+      <c r="E49" s="52">
         <v>7.9000000000000001E-2</v>
       </c>
       <c r="F49" s="38"/>
@@ -2744,17 +3530,17 @@
       <c r="I49" s="38"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="38"/>
-      <c r="B50" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="C50" s="46">
+      <c r="A50" s="48"/>
+      <c r="B50" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="C50" s="52">
         <v>0.32300000000000001</v>
       </c>
-      <c r="D50" s="46">
+      <c r="D50" s="52">
         <v>0.29599999999999999</v>
       </c>
-      <c r="E50" s="46">
+      <c r="E50" s="52">
         <v>0.432</v>
       </c>
       <c r="F50" s="38"/>
@@ -2763,17 +3549,17 @@
       <c r="I50" s="38"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="38"/>
-      <c r="B51" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="C51" s="46">
+      <c r="A51" s="48"/>
+      <c r="B51" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="C51" s="52">
         <v>0.23</v>
       </c>
-      <c r="D51" s="46">
+      <c r="D51" s="52">
         <v>0.15</v>
       </c>
-      <c r="E51" s="46">
+      <c r="E51" s="52">
         <v>0.3</v>
       </c>
       <c r="F51" s="38"/>
@@ -2782,17 +3568,17 @@
       <c r="I51" s="38"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="38"/>
-      <c r="B52" s="41" t="s">
-        <v>88</v>
-      </c>
-      <c r="C52" s="46">
+      <c r="A52" s="48"/>
+      <c r="B52" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="C52" s="52">
         <v>2.17</v>
       </c>
-      <c r="D52" s="46">
+      <c r="D52" s="52">
         <v>1.27</v>
       </c>
-      <c r="E52" s="46">
+      <c r="E52" s="52">
         <v>3.71</v>
       </c>
       <c r="F52" s="38"/>
@@ -2834,29 +3620,29 @@
       <c r="I55" s="38"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="B56" s="40"/>
-      <c r="C56" s="38"/>
-      <c r="D56" s="38"/>
-      <c r="E56" s="38"/>
+      <c r="A56" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="B56" s="48"/>
+      <c r="C56" s="48"/>
+      <c r="D56" s="48"/>
+      <c r="E56" s="48"/>
       <c r="F56" s="38"/>
       <c r="G56" s="38"/>
       <c r="H56" s="38"/>
       <c r="I56" s="38"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="38"/>
-      <c r="B57" s="40"/>
-      <c r="C57" s="42" t="s">
+      <c r="A57" s="48"/>
+      <c r="B57" s="48"/>
+      <c r="C57" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="D57" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="D57" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="E57" s="42" t="s">
-        <v>24</v>
+      <c r="E57" s="51" t="s">
+        <v>23</v>
       </c>
       <c r="F57" s="38"/>
       <c r="G57" s="38"/>
@@ -2864,174 +3650,190 @@
       <c r="I57" s="38"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="38"/>
-      <c r="B58" s="41" t="s">
+      <c r="A58" s="48"/>
+      <c r="B58" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="C58" s="54">
+        <v>0.95</v>
+      </c>
+      <c r="D58" s="54">
+        <v>0.8</v>
+      </c>
+      <c r="E58" s="54">
+        <v>0.98</v>
+      </c>
+      <c r="F58" s="38"/>
+      <c r="G58" s="42"/>
+      <c r="H58" s="42"/>
+      <c r="I58" s="42"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="48"/>
+      <c r="B59" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="C59" s="54">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D59" s="54">
+        <v>0.47</v>
+      </c>
+      <c r="E59" s="54">
+        <v>0.67</v>
+      </c>
+      <c r="F59" s="38"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="42"/>
+      <c r="I59" s="42"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="48"/>
+      <c r="B60" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="C60" s="54">
+        <v>0.54</v>
+      </c>
+      <c r="D60" s="54">
+        <v>0.33</v>
+      </c>
+      <c r="E60" s="54">
+        <v>0.68</v>
+      </c>
+      <c r="F60" s="38"/>
+      <c r="G60" s="42"/>
+      <c r="H60" s="42"/>
+      <c r="I60" s="42"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="48"/>
+      <c r="B61" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="C61" s="54">
+        <v>0</v>
+      </c>
+      <c r="D61" s="54">
+        <v>0</v>
+      </c>
+      <c r="E61" s="54">
+        <v>0.68</v>
+      </c>
+      <c r="F61" s="38"/>
+      <c r="G61" s="42"/>
+      <c r="H61" s="42"/>
+      <c r="I61" s="42"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="48"/>
+      <c r="B62" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="C62" s="54">
+        <v>2.65</v>
+      </c>
+      <c r="D62" s="54">
+        <v>1.35</v>
+      </c>
+      <c r="E62" s="54">
+        <v>5.19</v>
+      </c>
+      <c r="F62" s="38"/>
+      <c r="G62" s="42"/>
+      <c r="H62" s="42"/>
+      <c r="I62" s="42"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="48"/>
+      <c r="B63" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="C58" s="45">
-        <v>0.7</v>
-      </c>
-      <c r="D58" s="45">
+      <c r="C63" s="54">
+        <v>0.9</v>
+      </c>
+      <c r="D63" s="54">
+        <v>0.82</v>
+      </c>
+      <c r="E63" s="54">
+        <v>0.93</v>
+      </c>
+      <c r="F63" s="38"/>
+      <c r="G63" s="42"/>
+      <c r="H63" s="42"/>
+      <c r="I63" s="42"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="48"/>
+      <c r="B64" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="C64" s="54">
+        <v>0.73</v>
+      </c>
+      <c r="D64" s="54">
+        <v>0.65</v>
+      </c>
+      <c r="E64" s="54">
+        <v>0.8</v>
+      </c>
+      <c r="F64" s="38"/>
+      <c r="G64" s="42"/>
+      <c r="H64" s="42"/>
+      <c r="I64" s="42"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="48"/>
+      <c r="B65" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="C65" s="54">
         <v>0.5</v>
       </c>
-      <c r="E58" s="45">
-        <v>0.9</v>
-      </c>
-      <c r="F58" s="38"/>
-      <c r="G58" s="47"/>
-      <c r="H58" s="47"/>
-      <c r="I58" s="47"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="38"/>
-      <c r="B59" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="C59" s="45">
-        <v>0.9</v>
-      </c>
-      <c r="D59" s="45">
-        <v>0.82000000000000006</v>
-      </c>
-      <c r="E59" s="45">
-        <v>0.92999999999999994</v>
-      </c>
-      <c r="F59" s="38"/>
-      <c r="G59" s="47"/>
-      <c r="H59" s="47"/>
-      <c r="I59" s="47"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="38"/>
-      <c r="B60" s="41" t="s">
-        <v>93</v>
-      </c>
-      <c r="C60" s="45">
-        <v>0.72499999999999998</v>
-      </c>
-      <c r="D60" s="45">
-        <v>0.65</v>
-      </c>
-      <c r="E60" s="45">
+      <c r="D65" s="54">
+        <v>0.3</v>
+      </c>
+      <c r="E65" s="54">
         <v>0.8</v>
       </c>
-      <c r="F60" s="38"/>
-      <c r="G60" s="47"/>
-      <c r="H60" s="47"/>
-      <c r="I60" s="47"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="38"/>
-      <c r="B61" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="C61" s="45">
+      <c r="F65" s="38"/>
+      <c r="G65" s="42"/>
+      <c r="H65" s="42"/>
+      <c r="I65" s="42"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="48"/>
+      <c r="B66" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="C66" s="54">
+        <v>0.92</v>
+      </c>
+      <c r="D66" s="54">
+        <v>0.8</v>
+      </c>
+      <c r="E66" s="54">
         <v>0.95</v>
       </c>
-      <c r="D61" s="45">
-        <v>0.8</v>
-      </c>
-      <c r="E61" s="45">
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="F61" s="38"/>
-      <c r="G61" s="47"/>
-      <c r="H61" s="47"/>
-      <c r="I61" s="47"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="38"/>
-      <c r="B62" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="C62" s="45">
-        <v>0.58000000000000007</v>
-      </c>
-      <c r="D62" s="45">
-        <v>0.47</v>
-      </c>
-      <c r="E62" s="45">
-        <v>0.66999999999999993</v>
-      </c>
-      <c r="F62" s="38"/>
-      <c r="G62" s="47"/>
-      <c r="H62" s="47"/>
-      <c r="I62" s="47"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="38"/>
-      <c r="B63" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="C63" s="45">
-        <v>0.54</v>
-      </c>
-      <c r="D63" s="45">
-        <v>0.32999999999999996</v>
-      </c>
-      <c r="E63" s="45">
-        <v>0.67999999999999994</v>
-      </c>
-      <c r="F63" s="38"/>
-      <c r="G63" s="47"/>
-      <c r="H63" s="47"/>
-      <c r="I63" s="47"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="38"/>
-      <c r="B64" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="C64" s="45">
-        <v>0</v>
-      </c>
-      <c r="D64" s="45">
-        <v>0</v>
-      </c>
-      <c r="E64" s="45">
-        <v>0.67999999999999994</v>
-      </c>
-      <c r="F64" s="38"/>
-      <c r="G64" s="47"/>
-      <c r="H64" s="47"/>
-      <c r="I64" s="47"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="38"/>
-      <c r="B65" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="C65" s="45">
-        <v>2.65</v>
-      </c>
-      <c r="D65" s="45">
-        <v>1.35</v>
-      </c>
-      <c r="E65" s="45">
-        <v>5.19</v>
-      </c>
-      <c r="F65" s="38"/>
-      <c r="G65" s="47"/>
-      <c r="H65" s="47"/>
-      <c r="I65" s="47"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="38"/>
-      <c r="B66" s="40"/>
-      <c r="C66" s="38"/>
-      <c r="D66" s="38"/>
-      <c r="E66" s="38"/>
       <c r="F66" s="38"/>
       <c r="G66" s="38"/>
       <c r="H66" s="38"/>
       <c r="I66" s="38"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="38"/>
-      <c r="B67" s="40"/>
-      <c r="C67" s="38"/>
-      <c r="D67" s="38"/>
-      <c r="E67" s="38"/>
+      <c r="A67" s="48"/>
+      <c r="B67" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="C67" s="54">
+        <v>0.9</v>
+      </c>
+      <c r="D67" s="54">
+        <v>0.8</v>
+      </c>
+      <c r="E67" s="54">
+        <v>0.95</v>
+      </c>
       <c r="F67" s="38"/>
       <c r="G67" s="38"/>
       <c r="H67" s="38"/>
@@ -3049,9 +3851,7 @@
       <c r="I68" s="38"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="39" t="s">
-        <v>94</v>
-      </c>
+      <c r="A69" s="39"/>
       <c r="B69" s="40"/>
       <c r="C69" s="38"/>
       <c r="D69" s="38"/>
@@ -3064,34 +3864,22 @@
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="38"/>
       <c r="B70" s="40"/>
-      <c r="C70" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="D70" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="E70" s="42" t="s">
-        <v>24</v>
-      </c>
+      <c r="C70" s="41"/>
+      <c r="D70" s="41"/>
+      <c r="E70" s="41"/>
       <c r="F70" s="38"/>
       <c r="G70" s="38"/>
       <c r="H70" s="38"/>
       <c r="I70" s="38"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="38"/>
-      <c r="B71" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="C71" s="43">
-        <v>0.14599999999999999</v>
-      </c>
-      <c r="D71" s="43">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="E71" s="43">
-        <v>0.20499999999999999</v>
-      </c>
+      <c r="A71" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="B71" s="48"/>
+      <c r="C71" s="48"/>
+      <c r="D71" s="48"/>
+      <c r="E71" s="48"/>
       <c r="F71" s="38"/>
       <c r="G71" s="38"/>
       <c r="H71" s="38"/>
@@ -3099,18 +3887,16 @@
       <c r="J71" s="27"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="38"/>
-      <c r="B72" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="C72" s="43">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="D72" s="43">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E72" s="43">
-        <v>1.0999999999999999E-2</v>
+      <c r="A72" s="48"/>
+      <c r="B72" s="48"/>
+      <c r="C72" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="D72" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="E72" s="51" t="s">
+        <v>23</v>
       </c>
       <c r="F72" s="38"/>
       <c r="G72" s="38"/>
@@ -3119,18 +3905,18 @@
       <c r="J72" s="27"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="38"/>
-      <c r="B73" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="C73" s="43">
-        <v>0.02</v>
-      </c>
-      <c r="D73" s="43">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="E73" s="43">
-        <v>2.9000000000000001E-2</v>
+      <c r="A73" s="48"/>
+      <c r="B73" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="C73" s="53">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="D73" s="53">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E73" s="53">
+        <v>0.20499999999999999</v>
       </c>
       <c r="F73" s="38"/>
       <c r="G73" s="38"/>
@@ -3139,18 +3925,18 @@
       <c r="J73" s="27"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="38"/>
-      <c r="B74" s="41" t="s">
-        <v>98</v>
-      </c>
-      <c r="C74" s="43">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D74" s="43">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="E74" s="43">
-        <v>9.4E-2</v>
+      <c r="A74" s="48"/>
+      <c r="B74" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="C74" s="53">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D74" s="53">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E74" s="53">
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="F74" s="38"/>
       <c r="G74" s="38"/>
@@ -3158,18 +3944,18 @@
       <c r="I74" s="38"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="38"/>
-      <c r="B75" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="C75" s="43">
-        <v>0.26500000000000001</v>
-      </c>
-      <c r="D75" s="43">
-        <v>0.114</v>
-      </c>
-      <c r="E75" s="43">
-        <v>0.47399999999999998</v>
+      <c r="A75" s="48"/>
+      <c r="B75" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="C75" s="53">
+        <v>0.02</v>
+      </c>
+      <c r="D75" s="53">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E75" s="53">
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="F75" s="38"/>
       <c r="G75" s="38"/>
@@ -3177,18 +3963,18 @@
       <c r="I75" s="38"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="38"/>
-      <c r="B76" s="41" t="s">
-        <v>100</v>
-      </c>
-      <c r="C76" s="43">
-        <v>0.54700000000000004</v>
-      </c>
-      <c r="D76" s="43">
-        <v>0.38200000000000001</v>
-      </c>
-      <c r="E76" s="43">
-        <v>0.71499999999999997</v>
+      <c r="A76" s="48"/>
+      <c r="B76" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="C76" s="53">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D76" s="53">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="E76" s="53">
+        <v>9.4E-2</v>
       </c>
       <c r="F76" s="38"/>
       <c r="G76" s="38"/>
@@ -3196,18 +3982,18 @@
       <c r="I76" s="38"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="38"/>
-      <c r="B77" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="C77" s="43">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="D77" s="43">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="E77" s="43">
-        <v>7.9000000000000001E-2</v>
+      <c r="A77" s="48"/>
+      <c r="B77" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="C77" s="53">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="D77" s="53">
+        <v>0.114</v>
+      </c>
+      <c r="E77" s="53">
+        <v>0.47399999999999998</v>
       </c>
       <c r="F77" s="38"/>
       <c r="G77" s="38"/>
@@ -3215,9 +4001,34 @@
       <c r="I77" s="38"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
+      <c r="A78" s="48"/>
+      <c r="B78" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="C78" s="53">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="D78" s="53">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="E78" s="53">
+        <v>0.71499999999999997</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="48"/>
+      <c r="B79" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="C79" s="53">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="D79" s="53">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="E79" s="53">
+        <v>7.9000000000000001E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3260,10 +4071,10 @@
         <v>6</v>
       </c>
       <c r="G2" s="30" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H2" s="31" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -3340,7 +4151,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>15</v>
@@ -3363,7 +4174,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>16</v>
@@ -3386,7 +4197,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>17</v>
@@ -3409,7 +4220,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>18</v>
@@ -3450,7 +4261,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K1" s="13"/>
     </row>
@@ -3519,7 +4330,7 @@
         <v>2020</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
@@ -3528,7 +4339,7 @@
         <v>FSW</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -3552,7 +4363,7 @@
       <c r="W3" s="7"/>
       <c r="X3" s="7"/>
       <c r="Y3" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z3" s="7"/>
     </row>
@@ -3562,7 +4373,7 @@
         <v>FSW</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="10">
         <v>139172.68199999997</v>
@@ -3608,7 +4419,7 @@
       <c r="W4" s="7"/>
       <c r="X4" s="7"/>
       <c r="Y4" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z4" s="7"/>
     </row>
@@ -3618,7 +4429,7 @@
         <v>FSW</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -3642,7 +4453,7 @@
       <c r="W5" s="7"/>
       <c r="X5" s="7"/>
       <c r="Y5" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z5" s="7"/>
     </row>
@@ -3652,7 +4463,7 @@
         <v>Clients</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -3676,7 +4487,7 @@
       <c r="W7" s="7"/>
       <c r="X7" s="7"/>
       <c r="Y7" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z7" s="7"/>
     </row>
@@ -3686,7 +4497,7 @@
         <v>Clients</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="11">
         <v>979330.74050000007</v>
@@ -3732,7 +4543,7 @@
       <c r="W8" s="7"/>
       <c r="X8" s="7"/>
       <c r="Y8" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z8" s="7"/>
     </row>
@@ -3742,7 +4553,7 @@
         <v>Clients</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
@@ -3766,7 +4577,7 @@
       <c r="W9" s="7"/>
       <c r="X9" s="7"/>
       <c r="Y9" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z9" s="7"/>
     </row>
@@ -3776,7 +4587,7 @@
         <v>MSM</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -3800,7 +4611,7 @@
       <c r="W11" s="7"/>
       <c r="X11" s="7"/>
       <c r="Y11" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z11" s="7"/>
     </row>
@@ -3810,7 +4621,7 @@
         <v>MSM</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="12">
         <v>233634.81954</v>
@@ -3856,7 +4667,7 @@
       <c r="W12" s="7"/>
       <c r="X12" s="7"/>
       <c r="Y12" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z12" s="7"/>
     </row>
@@ -3866,7 +4677,7 @@
         <v>MSM</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -3890,7 +4701,7 @@
       <c r="W13" s="7"/>
       <c r="X13" s="7"/>
       <c r="Y13" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z13" s="7"/>
     </row>
@@ -3913,7 +4724,7 @@
         <v>M 0-14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -3937,7 +4748,7 @@
       <c r="W15" s="7"/>
       <c r="X15" s="7"/>
       <c r="Y15" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z15" s="7"/>
     </row>
@@ -3947,7 +4758,7 @@
         <v>M 0-14</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16" s="10">
         <v>5723488.8407041095</v>
@@ -3993,7 +4804,7 @@
       <c r="W16" s="7"/>
       <c r="X16" s="7"/>
       <c r="Y16" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z16" s="7"/>
     </row>
@@ -4003,7 +4814,7 @@
         <v>M 0-14</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -4027,7 +4838,7 @@
       <c r="W17" s="7"/>
       <c r="X17" s="7"/>
       <c r="Y17" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z17" s="7"/>
     </row>
@@ -4037,7 +4848,7 @@
         <v>F 0-14</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
@@ -4061,7 +4872,7 @@
       <c r="W19" s="7"/>
       <c r="X19" s="7"/>
       <c r="Y19" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z19" s="7"/>
     </row>
@@ -4071,7 +4882,7 @@
         <v>F 0-14</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D20" s="10">
         <v>6556511.1592958905</v>
@@ -4117,7 +4928,7 @@
       <c r="W20" s="7"/>
       <c r="X20" s="7"/>
       <c r="Y20" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z20" s="7"/>
     </row>
@@ -4127,7 +4938,7 @@
         <v>F 0-14</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
@@ -4151,7 +4962,7 @@
       <c r="W21" s="7"/>
       <c r="X21" s="7"/>
       <c r="Y21" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z21" s="7"/>
     </row>
@@ -4161,7 +4972,7 @@
         <v>M 15+</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
@@ -4185,7 +4996,7 @@
       <c r="W23" s="7"/>
       <c r="X23" s="7"/>
       <c r="Y23" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z23" s="7"/>
     </row>
@@ -4195,7 +5006,7 @@
         <v>M 15+</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D24" s="11">
         <v>7233255.1607159991</v>
@@ -4241,7 +5052,7 @@
       <c r="W24" s="7"/>
       <c r="X24" s="7"/>
       <c r="Y24" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z24" s="7"/>
     </row>
@@ -4251,7 +5062,7 @@
         <v>M 15+</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
@@ -4275,7 +5086,7 @@
       <c r="W25" s="7"/>
       <c r="X25" s="7"/>
       <c r="Y25" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z25" s="7"/>
     </row>
@@ -4285,7 +5096,7 @@
         <v>F 15+</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
@@ -4309,7 +5120,7 @@
       <c r="W27" s="7"/>
       <c r="X27" s="7"/>
       <c r="Y27" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z27" s="7"/>
     </row>
@@ -4319,7 +5130,7 @@
         <v>F 15+</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D28" s="11">
         <v>7787827.318</v>
@@ -4365,7 +5176,7 @@
       <c r="W28" s="7"/>
       <c r="X28" s="7"/>
       <c r="Y28" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z28" s="7"/>
     </row>
@@ -4375,7 +5186,7 @@
         <v>F 15+</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
@@ -4399,13 +5210,13 @@
       <c r="W29" s="7"/>
       <c r="X29" s="7"/>
       <c r="Y29" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z29" s="7"/>
     </row>
     <row r="31" spans="2:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="M31" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="N31" s="24">
         <f>SUM(N4:N30)</f>
@@ -4414,7 +5225,7 @@
     </row>
     <row r="32" spans="2:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="M32" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="N32" s="25">
         <f>N31*0.0023</f>
@@ -4425,7 +5236,7 @@
         <v>68684.434076839912</v>
       </c>
       <c r="P32" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="14:16" ht="14.45" x14ac:dyDescent="0.3">
@@ -4434,7 +5245,7 @@
         <v>4.1617726613312378</v>
       </c>
       <c r="P33" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -4465,7 +5276,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
@@ -4533,7 +5344,7 @@
         <v>2020</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
@@ -4542,7 +5353,7 @@
         <v>FSW</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="5">
         <v>0.05</v>
@@ -4572,7 +5383,7 @@
       <c r="W3" s="5"/>
       <c r="X3" s="5"/>
       <c r="Y3" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z3" s="5"/>
     </row>
@@ -4582,7 +5393,7 @@
         <v>FSW</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="5">
         <v>3.5000000000000003E-2</v>
@@ -4612,7 +5423,7 @@
       <c r="W4" s="5"/>
       <c r="X4" s="5"/>
       <c r="Y4" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z4" s="5"/>
     </row>
@@ -4622,7 +5433,7 @@
         <v>FSW</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="5">
         <v>0.02</v>
@@ -4652,7 +5463,7 @@
       <c r="W5" s="5"/>
       <c r="X5" s="5"/>
       <c r="Y5" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z5" s="5"/>
     </row>
@@ -4662,7 +5473,7 @@
         <v>Clients</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -4686,7 +5497,7 @@
       <c r="W7" s="5"/>
       <c r="X7" s="5"/>
       <c r="Y7" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z7" s="5"/>
     </row>
@@ -4696,7 +5507,7 @@
         <v>Clients</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -4720,7 +5531,7 @@
       <c r="W8" s="5"/>
       <c r="X8" s="5"/>
       <c r="Y8" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z8" s="5">
         <v>8.9999999999999993E-3</v>
@@ -4732,7 +5543,7 @@
         <v>Clients</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -4756,7 +5567,7 @@
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
       <c r="Y9" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z9" s="5"/>
     </row>
@@ -4766,7 +5577,7 @@
         <v>MSM</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -4792,7 +5603,7 @@
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
       <c r="Y11" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z11" s="5"/>
     </row>
@@ -4802,7 +5613,7 @@
         <v>MSM</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -4834,7 +5645,7 @@
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
       <c r="Y12" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z12" s="5"/>
     </row>
@@ -4844,7 +5655,7 @@
         <v>MSM</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -4870,7 +5681,7 @@
       <c r="W13" s="5"/>
       <c r="X13" s="5"/>
       <c r="Y13" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z13" s="5"/>
     </row>
@@ -4880,7 +5691,7 @@
         <v>M 0-14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -4904,7 +5715,7 @@
       <c r="W15" s="5"/>
       <c r="X15" s="5"/>
       <c r="Y15" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z15" s="5"/>
     </row>
@@ -4914,7 +5725,7 @@
         <v>M 0-14</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -4938,7 +5749,7 @@
       <c r="W16" s="5"/>
       <c r="X16" s="5"/>
       <c r="Y16" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z16" s="5">
         <v>2.9999999999999997E-4</v>
@@ -4950,7 +5761,7 @@
         <v>M 0-14</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -4974,7 +5785,7 @@
       <c r="W17" s="5"/>
       <c r="X17" s="5"/>
       <c r="Y17" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z17" s="5"/>
     </row>
@@ -4984,7 +5795,7 @@
         <v>F 0-14</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -5008,7 +5819,7 @@
       <c r="W19" s="5"/>
       <c r="X19" s="5"/>
       <c r="Y19" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z19" s="5"/>
     </row>
@@ -5018,7 +5829,7 @@
         <v>F 0-14</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -5042,7 +5853,7 @@
       <c r="W20" s="5"/>
       <c r="X20" s="5"/>
       <c r="Y20" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z20" s="5">
         <v>2.9999999999999997E-4</v>
@@ -5054,7 +5865,7 @@
         <v>F 0-14</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -5078,7 +5889,7 @@
       <c r="W21" s="5"/>
       <c r="X21" s="5"/>
       <c r="Y21" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z21" s="5"/>
     </row>
@@ -5088,7 +5899,7 @@
         <v>M 15+</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -5112,7 +5923,7 @@
       <c r="W23" s="5"/>
       <c r="X23" s="5"/>
       <c r="Y23" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z23" s="5"/>
     </row>
@@ -5122,7 +5933,7 @@
         <v>M 15+</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D24" s="5">
         <v>5.0000000000000001E-4</v>
@@ -5160,7 +5971,7 @@
       <c r="W24" s="5"/>
       <c r="X24" s="5"/>
       <c r="Y24" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z24" s="5"/>
     </row>
@@ -5170,7 +5981,7 @@
         <v>M 15+</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -5194,7 +6005,7 @@
       <c r="W25" s="5"/>
       <c r="X25" s="5"/>
       <c r="Y25" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z25" s="5"/>
     </row>
@@ -5204,7 +6015,7 @@
         <v>F 15+</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -5228,7 +6039,7 @@
       <c r="W27" s="5"/>
       <c r="X27" s="5"/>
       <c r="Y27" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z27" s="5"/>
     </row>
@@ -5238,7 +6049,7 @@
         <v>F 15+</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D28" s="5">
         <v>8.4999999999999995E-4</v>
@@ -5276,7 +6087,7 @@
       <c r="W28" s="5"/>
       <c r="X28" s="5"/>
       <c r="Y28" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z28" s="5"/>
     </row>
@@ -5286,7 +6097,7 @@
         <v>F 15+</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -5310,7 +6121,7 @@
       <c r="W29" s="5"/>
       <c r="X29" s="5"/>
       <c r="Y29" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z29" s="5"/>
     </row>
@@ -5337,7 +6148,7 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
@@ -5405,7 +6216,7 @@
         <v>2020</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -5435,7 +6246,7 @@
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
       <c r="X3" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y3" s="5">
         <v>0.01</v>
@@ -5468,7 +6279,7 @@
       <c r="V4" s="5"/>
       <c r="W4" s="5"/>
       <c r="X4" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y4" s="5">
         <v>0.01</v>
@@ -5501,7 +6312,7 @@
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
       <c r="X5" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y5" s="5">
         <v>0.01</v>
@@ -5534,7 +6345,7 @@
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
       <c r="X6" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y6" s="5">
         <v>0.01</v>
@@ -5567,7 +6378,7 @@
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
       <c r="X7" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y7" s="5">
         <v>0.01</v>
@@ -5600,7 +6411,7 @@
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
       <c r="X8" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y8" s="5">
         <v>0.01</v>
@@ -5633,7 +6444,7 @@
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
       <c r="X9" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y9" s="5">
         <v>0.01</v>
@@ -5641,7 +6452,7 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -5709,7 +6520,7 @@
         <v>2020</v>
       </c>
       <c r="Y14" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
@@ -5741,7 +6552,7 @@
       <c r="V15" s="5"/>
       <c r="W15" s="5"/>
       <c r="X15" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y15" s="5"/>
     </row>
@@ -5772,7 +6583,7 @@
       <c r="V16" s="5"/>
       <c r="W16" s="5"/>
       <c r="X16" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y16" s="5">
         <v>0.02</v>
@@ -5807,7 +6618,7 @@
       <c r="V17" s="5"/>
       <c r="W17" s="5"/>
       <c r="X17" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y17" s="5"/>
     </row>
@@ -5838,7 +6649,7 @@
       <c r="V18" s="5"/>
       <c r="W18" s="5"/>
       <c r="X18" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y18" s="5">
         <v>0</v>
@@ -5871,7 +6682,7 @@
       <c r="V19" s="5"/>
       <c r="W19" s="5"/>
       <c r="X19" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y19" s="5">
         <v>0</v>
@@ -5904,7 +6715,7 @@
       <c r="V20" s="5"/>
       <c r="W20" s="5"/>
       <c r="X20" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y20" s="5">
         <v>0.01</v>
@@ -5937,7 +6748,7 @@
       <c r="V21" s="5"/>
       <c r="W21" s="5"/>
       <c r="X21" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y21" s="5">
         <v>0.01</v>
@@ -5945,7 +6756,7 @@
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
@@ -6013,7 +6824,7 @@
         <v>2020</v>
       </c>
       <c r="Y26" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
@@ -6045,7 +6856,7 @@
       <c r="V27" s="5"/>
       <c r="W27" s="5"/>
       <c r="X27" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y27" s="5"/>
     </row>
@@ -6078,7 +6889,7 @@
       <c r="V28" s="5"/>
       <c r="W28" s="5"/>
       <c r="X28" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y28" s="5"/>
     </row>
@@ -6111,7 +6922,7 @@
       <c r="V29" s="5"/>
       <c r="W29" s="5"/>
       <c r="X29" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y29" s="5"/>
     </row>
@@ -6142,7 +6953,7 @@
       <c r="V30" s="5"/>
       <c r="W30" s="5"/>
       <c r="X30" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y30" s="5">
         <v>0</v>
@@ -6175,7 +6986,7 @@
       <c r="V31" s="5"/>
       <c r="W31" s="5"/>
       <c r="X31" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y31" s="5">
         <v>0</v>
@@ -6210,7 +7021,7 @@
       <c r="V32" s="5"/>
       <c r="W32" s="5"/>
       <c r="X32" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y32" s="5"/>
     </row>
@@ -6243,7 +7054,7 @@
       <c r="V33" s="5"/>
       <c r="W33" s="5"/>
       <c r="X33" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y33" s="5"/>
     </row>
@@ -6277,7 +7088,7 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
@@ -6345,12 +7156,12 @@
         <v>2020</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -6388,13 +7199,13 @@
       <c r="V3" s="8"/>
       <c r="W3" s="8"/>
       <c r="X3" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y3" s="8"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -6462,12 +7273,12 @@
         <v>2020</v>
       </c>
       <c r="Y8" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -6495,13 +7306,13 @@
       <c r="V9" s="8"/>
       <c r="W9" s="8"/>
       <c r="X9" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y9" s="8"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -6569,12 +7380,12 @@
         <v>2020</v>
       </c>
       <c r="Y14" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="16">
         <v>3121.27</v>
@@ -6626,13 +7437,13 @@
       <c r="V15" s="8"/>
       <c r="W15" s="8"/>
       <c r="X15" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y15" s="8"/>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.25">
@@ -6700,70 +7511,70 @@
         <v>2020</v>
       </c>
       <c r="Y20" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="50">
+        <v>28</v>
+      </c>
+      <c r="C21" s="45">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="D21" s="50">
+      <c r="D21" s="45">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="E21" s="50">
+      <c r="E21" s="45">
         <v>1.4E-3</v>
       </c>
-      <c r="F21" s="50">
+      <c r="F21" s="45">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="G21" s="50">
+      <c r="G21" s="45">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="H21" s="50">
+      <c r="H21" s="45">
         <v>1.8E-3</v>
       </c>
-      <c r="I21" s="50">
+      <c r="I21" s="45">
         <v>1.9E-3</v>
       </c>
-      <c r="J21" s="50">
+      <c r="J21" s="45">
         <v>2E-3</v>
       </c>
-      <c r="K21" s="50">
+      <c r="K21" s="45">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="L21" s="50">
+      <c r="L21" s="45">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="M21" s="50">
+      <c r="M21" s="45">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="N21" s="50">
+      <c r="N21" s="45">
         <v>2.3E-3</v>
       </c>
-      <c r="O21" s="50">
+      <c r="O21" s="45">
         <v>2.3E-3</v>
       </c>
-      <c r="P21" s="50">
+      <c r="P21" s="45">
         <v>2.3E-3</v>
       </c>
-      <c r="Q21" s="50"/>
-      <c r="R21" s="50"/>
-      <c r="S21" s="50"/>
-      <c r="T21" s="50"/>
-      <c r="U21" s="50"/>
-      <c r="V21" s="50"/>
-      <c r="W21" s="50"/>
-      <c r="X21" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y21" s="48"/>
+      <c r="Q21" s="45"/>
+      <c r="R21" s="45"/>
+      <c r="S21" s="45"/>
+      <c r="T21" s="45"/>
+      <c r="U21" s="45"/>
+      <c r="V21" s="45"/>
+      <c r="W21" s="45"/>
+      <c r="X21" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y21" s="43"/>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -6898,13 +7709,13 @@
       </c>
       <c r="AH26" s="32"/>
       <c r="AI26" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27" s="32"/>
       <c r="B27" s="34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27" s="35"/>
       <c r="D27" s="35"/>
@@ -6938,13 +7749,13 @@
       <c r="AF27" s="35"/>
       <c r="AG27" s="35"/>
       <c r="AH27" s="36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI27" s="35"/>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.25">
@@ -7012,12 +7823,12 @@
         <v>2020</v>
       </c>
       <c r="Y31" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C32" s="16">
         <v>714</v>
@@ -7069,13 +7880,13 @@
       <c r="V32" s="8"/>
       <c r="W32" s="8"/>
       <c r="X32" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y32" s="8"/>
     </row>
     <row r="36" spans="1:25" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:25" ht="14.45" x14ac:dyDescent="0.3">
@@ -7143,12 +7954,12 @@
         <v>2020</v>
       </c>
       <c r="Y37" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:25" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B38" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
@@ -7180,7 +7991,7 @@
       <c r="V38" s="8"/>
       <c r="W38" s="8"/>
       <c r="X38" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y38" s="8"/>
     </row>
@@ -7194,14 +8005,14 @@
   <dimension ref="A1:Y54"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="S51" sqref="S51"/>
+      <selection activeCell="B28" sqref="B28:B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
@@ -7269,7 +8080,7 @@
         <v>2020</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -7303,7 +8114,7 @@
       <c r="V3" s="9"/>
       <c r="W3" s="9"/>
       <c r="X3" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y3" s="9"/>
     </row>
@@ -7340,7 +8151,7 @@
       <c r="V4" s="9"/>
       <c r="W4" s="9"/>
       <c r="X4" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y4" s="9"/>
     </row>
@@ -7373,7 +8184,7 @@
       <c r="V5" s="9"/>
       <c r="W5" s="9"/>
       <c r="X5" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y5" s="9"/>
     </row>
@@ -7404,7 +8215,7 @@
       <c r="V6" s="9"/>
       <c r="W6" s="9"/>
       <c r="X6" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y6" s="9">
         <v>1E-3</v>
@@ -7437,7 +8248,7 @@
       <c r="V7" s="9"/>
       <c r="W7" s="9"/>
       <c r="X7" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y7" s="9">
         <v>1E-3</v>
@@ -7476,7 +8287,7 @@
       <c r="V8" s="9"/>
       <c r="W8" s="9"/>
       <c r="X8" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y8" s="9"/>
     </row>
@@ -7513,13 +8324,13 @@
       <c r="V9" s="9"/>
       <c r="W9" s="9"/>
       <c r="X9" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y9" s="9"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -7587,12 +8398,12 @@
         <v>2020</v>
       </c>
       <c r="Y14" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -7618,13 +8429,13 @@
       <c r="V15" s="4"/>
       <c r="W15" s="4"/>
       <c r="X15" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y15" s="4"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
@@ -7692,12 +8503,12 @@
         <v>2020</v>
       </c>
       <c r="Y20" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" s="4">
         <v>0</v>
@@ -7739,13 +8550,13 @@
       <c r="V21" s="4"/>
       <c r="W21" s="4"/>
       <c r="X21" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y21" s="4"/>
     </row>
     <row r="26" spans="1:25" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:25" ht="14.45" x14ac:dyDescent="0.3">
@@ -7813,7 +8624,7 @@
         <v>2020</v>
       </c>
       <c r="Y27" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:25" ht="14.45" x14ac:dyDescent="0.3">
@@ -7843,7 +8654,7 @@
       <c r="V28" s="9"/>
       <c r="W28" s="9"/>
       <c r="X28" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y28" s="9">
         <v>0</v>
@@ -7876,7 +8687,7 @@
       <c r="V29" s="9"/>
       <c r="W29" s="9"/>
       <c r="X29" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y29" s="9">
         <v>0</v>
@@ -7909,7 +8720,7 @@
       <c r="V30" s="9"/>
       <c r="W30" s="9"/>
       <c r="X30" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y30" s="9">
         <v>0</v>
@@ -7942,7 +8753,7 @@
       <c r="V31" s="9"/>
       <c r="W31" s="9"/>
       <c r="X31" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y31" s="9">
         <v>0</v>
@@ -7975,7 +8786,7 @@
       <c r="V32" s="9"/>
       <c r="W32" s="9"/>
       <c r="X32" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y32" s="9">
         <v>0</v>
@@ -8008,7 +8819,7 @@
       <c r="V33" s="9"/>
       <c r="W33" s="9"/>
       <c r="X33" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y33" s="9">
         <v>0</v>
@@ -8041,7 +8852,7 @@
       <c r="V34" s="9"/>
       <c r="W34" s="9"/>
       <c r="X34" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y34" s="9">
         <v>0</v>
@@ -8049,7 +8860,7 @@
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
@@ -8117,12 +8928,12 @@
         <v>2020</v>
       </c>
       <c r="Y39" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C40" s="19"/>
       <c r="D40" s="19"/>
@@ -8150,13 +8961,13 @@
       <c r="V40" s="19"/>
       <c r="W40" s="19"/>
       <c r="X40" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y40" s="4"/>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
@@ -8224,7 +9035,7 @@
         <v>2020</v>
       </c>
       <c r="Y45" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
@@ -8276,7 +9087,7 @@
       <c r="V46" s="8"/>
       <c r="W46" s="8"/>
       <c r="X46" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y46" s="8"/>
     </row>
@@ -8307,7 +9118,7 @@
       <c r="V47" s="8"/>
       <c r="W47" s="8"/>
       <c r="X47" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y47" s="8">
         <v>0</v>
@@ -8362,13 +9173,13 @@
       <c r="V48" s="8"/>
       <c r="W48" s="8"/>
       <c r="X48" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y48" s="8"/>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.25">
@@ -8436,12 +9247,12 @@
         <v>2020</v>
       </c>
       <c r="Y53" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B54" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
@@ -8467,7 +9278,7 @@
       <c r="V54" s="9"/>
       <c r="W54" s="9"/>
       <c r="X54" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y54" s="9"/>
     </row>
@@ -8478,18 +9289,2194 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y75"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="AA70" sqref="AA70"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="57">
+        <v>2000</v>
+      </c>
+      <c r="D2" s="57">
+        <v>2001</v>
+      </c>
+      <c r="E2" s="57">
+        <v>2002</v>
+      </c>
+      <c r="F2" s="57">
+        <v>2003</v>
+      </c>
+      <c r="G2" s="57">
+        <v>2004</v>
+      </c>
+      <c r="H2" s="57">
+        <v>2005</v>
+      </c>
+      <c r="I2" s="57">
+        <v>2006</v>
+      </c>
+      <c r="J2" s="57">
+        <v>2007</v>
+      </c>
+      <c r="K2" s="57">
+        <v>2008</v>
+      </c>
+      <c r="L2" s="57">
+        <v>2009</v>
+      </c>
+      <c r="M2" s="57">
+        <v>2010</v>
+      </c>
+      <c r="N2" s="57">
+        <v>2011</v>
+      </c>
+      <c r="O2" s="57">
+        <v>2012</v>
+      </c>
+      <c r="P2" s="57">
+        <v>2013</v>
+      </c>
+      <c r="Q2" s="57">
+        <v>2014</v>
+      </c>
+      <c r="R2" s="57">
+        <v>2015</v>
+      </c>
+      <c r="S2" s="57">
+        <v>2016</v>
+      </c>
+      <c r="T2" s="57">
+        <v>2017</v>
+      </c>
+      <c r="U2" s="57">
+        <v>2018</v>
+      </c>
+      <c r="V2" s="57">
+        <v>2019</v>
+      </c>
+      <c r="W2" s="57">
+        <v>2020</v>
+      </c>
+      <c r="X2" s="55"/>
+      <c r="Y2" s="57" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="55"/>
+      <c r="B3" s="3" t="str">
+        <f>Populations!$C$3</f>
+        <v>FSW</v>
+      </c>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="59"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="59"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
+      <c r="V3" s="59"/>
+      <c r="W3" s="59"/>
+      <c r="X3" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y3" s="59">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="55"/>
+      <c r="B4" s="3" t="str">
+        <f>Populations!$C$4</f>
+        <v>Clients</v>
+      </c>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="59"/>
+      <c r="T4" s="59"/>
+      <c r="U4" s="59"/>
+      <c r="V4" s="59"/>
+      <c r="W4" s="59"/>
+      <c r="X4" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y4" s="59">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="55"/>
+      <c r="B5" s="3" t="str">
+        <f>Populations!$C$5</f>
+        <v>MSM</v>
+      </c>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="59"/>
+      <c r="P5" s="59"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="59"/>
+      <c r="T5" s="59"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="59"/>
+      <c r="W5" s="59"/>
+      <c r="X5" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y5" s="59">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="55"/>
+      <c r="B6" s="3" t="str">
+        <f>Populations!$C$6</f>
+        <v>M 0-14</v>
+      </c>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="59"/>
+      <c r="R6" s="59"/>
+      <c r="S6" s="59"/>
+      <c r="T6" s="59"/>
+      <c r="U6" s="59"/>
+      <c r="V6" s="59"/>
+      <c r="W6" s="59"/>
+      <c r="X6" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y6" s="59">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="55"/>
+      <c r="B7" s="3" t="str">
+        <f>Populations!$C$7</f>
+        <v>F 0-14</v>
+      </c>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="59"/>
+      <c r="P7" s="59"/>
+      <c r="Q7" s="59"/>
+      <c r="R7" s="59"/>
+      <c r="S7" s="59"/>
+      <c r="T7" s="59"/>
+      <c r="U7" s="59"/>
+      <c r="V7" s="59"/>
+      <c r="W7" s="59"/>
+      <c r="X7" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y7" s="59">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="55"/>
+      <c r="B8" s="3" t="str">
+        <f>Populations!$C$8</f>
+        <v>M 15+</v>
+      </c>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="59"/>
+      <c r="N8" s="59"/>
+      <c r="O8" s="59"/>
+      <c r="P8" s="59"/>
+      <c r="Q8" s="59"/>
+      <c r="R8" s="59"/>
+      <c r="S8" s="59"/>
+      <c r="T8" s="59"/>
+      <c r="U8" s="59"/>
+      <c r="V8" s="59"/>
+      <c r="W8" s="59"/>
+      <c r="X8" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y8" s="59">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="55"/>
+      <c r="B9" s="3" t="str">
+        <f>Populations!$C$9</f>
+        <v>F 15+</v>
+      </c>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="59"/>
+      <c r="P9" s="59"/>
+      <c r="Q9" s="59"/>
+      <c r="R9" s="59"/>
+      <c r="S9" s="59"/>
+      <c r="T9" s="59"/>
+      <c r="U9" s="59"/>
+      <c r="V9" s="59"/>
+      <c r="W9" s="59"/>
+      <c r="X9" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y9" s="59">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="56" t="s">
+        <v>120</v>
+      </c>
+      <c r="B13" s="55"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="55"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="55"/>
+      <c r="Q13" s="55"/>
+      <c r="R13" s="55"/>
+      <c r="S13" s="55"/>
+      <c r="T13" s="55"/>
+      <c r="U13" s="55"/>
+      <c r="V13" s="55"/>
+      <c r="W13" s="55"/>
+      <c r="X13" s="55"/>
+      <c r="Y13" s="55"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" s="55"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="57">
+        <v>2000</v>
+      </c>
+      <c r="D14" s="57">
+        <v>2001</v>
+      </c>
+      <c r="E14" s="57">
+        <v>2002</v>
+      </c>
+      <c r="F14" s="57">
+        <v>2003</v>
+      </c>
+      <c r="G14" s="57">
+        <v>2004</v>
+      </c>
+      <c r="H14" s="57">
+        <v>2005</v>
+      </c>
+      <c r="I14" s="57">
+        <v>2006</v>
+      </c>
+      <c r="J14" s="57">
+        <v>2007</v>
+      </c>
+      <c r="K14" s="57">
+        <v>2008</v>
+      </c>
+      <c r="L14" s="57">
+        <v>2009</v>
+      </c>
+      <c r="M14" s="57">
+        <v>2010</v>
+      </c>
+      <c r="N14" s="57">
+        <v>2011</v>
+      </c>
+      <c r="O14" s="57">
+        <v>2012</v>
+      </c>
+      <c r="P14" s="57">
+        <v>2013</v>
+      </c>
+      <c r="Q14" s="57">
+        <v>2014</v>
+      </c>
+      <c r="R14" s="57">
+        <v>2015</v>
+      </c>
+      <c r="S14" s="57">
+        <v>2016</v>
+      </c>
+      <c r="T14" s="57">
+        <v>2017</v>
+      </c>
+      <c r="U14" s="57">
+        <v>2018</v>
+      </c>
+      <c r="V14" s="57">
+        <v>2019</v>
+      </c>
+      <c r="W14" s="57">
+        <v>2020</v>
+      </c>
+      <c r="X14" s="55"/>
+      <c r="Y14" s="57" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" s="55"/>
+      <c r="B15" s="3" t="str">
+        <f>Populations!$C$3</f>
+        <v>FSW</v>
+      </c>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="59"/>
+      <c r="Q15" s="59"/>
+      <c r="R15" s="59"/>
+      <c r="S15" s="59"/>
+      <c r="T15" s="59"/>
+      <c r="U15" s="59"/>
+      <c r="V15" s="59"/>
+      <c r="W15" s="59"/>
+      <c r="X15" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y15" s="59">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16" s="55"/>
+      <c r="B16" s="3" t="str">
+        <f>Populations!$C$4</f>
+        <v>Clients</v>
+      </c>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="59"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="59"/>
+      <c r="P16" s="59"/>
+      <c r="Q16" s="59"/>
+      <c r="R16" s="59"/>
+      <c r="S16" s="59"/>
+      <c r="T16" s="59"/>
+      <c r="U16" s="59"/>
+      <c r="V16" s="59"/>
+      <c r="W16" s="59"/>
+      <c r="X16" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y16" s="59">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17" s="55"/>
+      <c r="B17" s="3" t="str">
+        <f>Populations!$C$5</f>
+        <v>MSM</v>
+      </c>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="59"/>
+      <c r="P17" s="59"/>
+      <c r="Q17" s="59"/>
+      <c r="R17" s="59"/>
+      <c r="S17" s="59"/>
+      <c r="T17" s="59"/>
+      <c r="U17" s="59"/>
+      <c r="V17" s="59"/>
+      <c r="W17" s="59"/>
+      <c r="X17" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y17" s="59">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18" s="55"/>
+      <c r="B18" s="3" t="str">
+        <f>Populations!$C$6</f>
+        <v>M 0-14</v>
+      </c>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="59"/>
+      <c r="M18" s="59"/>
+      <c r="N18" s="59"/>
+      <c r="O18" s="59"/>
+      <c r="P18" s="59"/>
+      <c r="Q18" s="59"/>
+      <c r="R18" s="59"/>
+      <c r="S18" s="59"/>
+      <c r="T18" s="59"/>
+      <c r="U18" s="59"/>
+      <c r="V18" s="59"/>
+      <c r="W18" s="59"/>
+      <c r="X18" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y18" s="59">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A19" s="55"/>
+      <c r="B19" s="3" t="str">
+        <f>Populations!$C$7</f>
+        <v>F 0-14</v>
+      </c>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="59"/>
+      <c r="O19" s="59"/>
+      <c r="P19" s="59"/>
+      <c r="Q19" s="59"/>
+      <c r="R19" s="59"/>
+      <c r="S19" s="59"/>
+      <c r="T19" s="59"/>
+      <c r="U19" s="59"/>
+      <c r="V19" s="59"/>
+      <c r="W19" s="59"/>
+      <c r="X19" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y19" s="59">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20" s="55"/>
+      <c r="B20" s="3" t="str">
+        <f>Populations!$C$8</f>
+        <v>M 15+</v>
+      </c>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="59"/>
+      <c r="N20" s="59"/>
+      <c r="O20" s="59"/>
+      <c r="P20" s="59"/>
+      <c r="Q20" s="59"/>
+      <c r="R20" s="59"/>
+      <c r="S20" s="59"/>
+      <c r="T20" s="59"/>
+      <c r="U20" s="59"/>
+      <c r="V20" s="59"/>
+      <c r="W20" s="59"/>
+      <c r="X20" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y20" s="59">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21" s="55"/>
+      <c r="B21" s="3" t="str">
+        <f>Populations!$C$9</f>
+        <v>F 15+</v>
+      </c>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="59"/>
+      <c r="M21" s="59"/>
+      <c r="N21" s="59"/>
+      <c r="O21" s="59"/>
+      <c r="P21" s="59"/>
+      <c r="Q21" s="59"/>
+      <c r="R21" s="59"/>
+      <c r="S21" s="59"/>
+      <c r="T21" s="59"/>
+      <c r="U21" s="59"/>
+      <c r="V21" s="59"/>
+      <c r="W21" s="59"/>
+      <c r="X21" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y21" s="59">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A25" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="55"/>
+      <c r="N25" s="55"/>
+      <c r="O25" s="55"/>
+      <c r="P25" s="55"/>
+      <c r="Q25" s="55"/>
+      <c r="R25" s="55"/>
+      <c r="S25" s="55"/>
+      <c r="T25" s="55"/>
+      <c r="U25" s="55"/>
+      <c r="V25" s="55"/>
+      <c r="W25" s="55"/>
+      <c r="X25" s="55"/>
+      <c r="Y25" s="55"/>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A26" s="55"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="57">
+        <v>2000</v>
+      </c>
+      <c r="D26" s="57">
+        <v>2001</v>
+      </c>
+      <c r="E26" s="57">
+        <v>2002</v>
+      </c>
+      <c r="F26" s="57">
+        <v>2003</v>
+      </c>
+      <c r="G26" s="57">
+        <v>2004</v>
+      </c>
+      <c r="H26" s="57">
+        <v>2005</v>
+      </c>
+      <c r="I26" s="57">
+        <v>2006</v>
+      </c>
+      <c r="J26" s="57">
+        <v>2007</v>
+      </c>
+      <c r="K26" s="57">
+        <v>2008</v>
+      </c>
+      <c r="L26" s="57">
+        <v>2009</v>
+      </c>
+      <c r="M26" s="57">
+        <v>2010</v>
+      </c>
+      <c r="N26" s="57">
+        <v>2011</v>
+      </c>
+      <c r="O26" s="57">
+        <v>2012</v>
+      </c>
+      <c r="P26" s="57">
+        <v>2013</v>
+      </c>
+      <c r="Q26" s="57">
+        <v>2014</v>
+      </c>
+      <c r="R26" s="57">
+        <v>2015</v>
+      </c>
+      <c r="S26" s="57">
+        <v>2016</v>
+      </c>
+      <c r="T26" s="57">
+        <v>2017</v>
+      </c>
+      <c r="U26" s="57">
+        <v>2018</v>
+      </c>
+      <c r="V26" s="57">
+        <v>2019</v>
+      </c>
+      <c r="W26" s="57">
+        <v>2020</v>
+      </c>
+      <c r="X26" s="55"/>
+      <c r="Y26" s="57" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A27" s="55"/>
+      <c r="B27" s="3" t="str">
+        <f>Populations!$C$3</f>
+        <v>FSW</v>
+      </c>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="59"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="59"/>
+      <c r="M27" s="59"/>
+      <c r="N27" s="59"/>
+      <c r="O27" s="59"/>
+      <c r="P27" s="59"/>
+      <c r="Q27" s="59"/>
+      <c r="R27" s="59"/>
+      <c r="S27" s="59"/>
+      <c r="T27" s="59"/>
+      <c r="U27" s="59"/>
+      <c r="V27" s="59"/>
+      <c r="W27" s="59"/>
+      <c r="X27" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y27" s="59">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A28" s="55"/>
+      <c r="B28" s="3" t="str">
+        <f>Populations!$C$4</f>
+        <v>Clients</v>
+      </c>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="59"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="59"/>
+      <c r="M28" s="59"/>
+      <c r="N28" s="59"/>
+      <c r="O28" s="59"/>
+      <c r="P28" s="59"/>
+      <c r="Q28" s="59"/>
+      <c r="R28" s="59"/>
+      <c r="S28" s="59"/>
+      <c r="T28" s="59"/>
+      <c r="U28" s="59"/>
+      <c r="V28" s="59"/>
+      <c r="W28" s="59"/>
+      <c r="X28" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y28" s="59">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A29" s="55"/>
+      <c r="B29" s="3" t="str">
+        <f>Populations!$C$5</f>
+        <v>MSM</v>
+      </c>
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="59"/>
+      <c r="J29" s="59"/>
+      <c r="K29" s="59"/>
+      <c r="L29" s="59"/>
+      <c r="M29" s="59"/>
+      <c r="N29" s="59"/>
+      <c r="O29" s="59"/>
+      <c r="P29" s="59"/>
+      <c r="Q29" s="59"/>
+      <c r="R29" s="59"/>
+      <c r="S29" s="59"/>
+      <c r="T29" s="59"/>
+      <c r="U29" s="59"/>
+      <c r="V29" s="59"/>
+      <c r="W29" s="59"/>
+      <c r="X29" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y29" s="59">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A30" s="55"/>
+      <c r="B30" s="3" t="str">
+        <f>Populations!$C$6</f>
+        <v>M 0-14</v>
+      </c>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="59"/>
+      <c r="K30" s="59"/>
+      <c r="L30" s="59"/>
+      <c r="M30" s="59"/>
+      <c r="N30" s="59"/>
+      <c r="O30" s="59"/>
+      <c r="P30" s="59"/>
+      <c r="Q30" s="59"/>
+      <c r="R30" s="59"/>
+      <c r="S30" s="59"/>
+      <c r="T30" s="59"/>
+      <c r="U30" s="59"/>
+      <c r="V30" s="59"/>
+      <c r="W30" s="59"/>
+      <c r="X30" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y30" s="59">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A31" s="55"/>
+      <c r="B31" s="3" t="str">
+        <f>Populations!$C$7</f>
+        <v>F 0-14</v>
+      </c>
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="59"/>
+      <c r="K31" s="59"/>
+      <c r="L31" s="59"/>
+      <c r="M31" s="59"/>
+      <c r="N31" s="59"/>
+      <c r="O31" s="59"/>
+      <c r="P31" s="59"/>
+      <c r="Q31" s="59"/>
+      <c r="R31" s="59"/>
+      <c r="S31" s="59"/>
+      <c r="T31" s="59"/>
+      <c r="U31" s="59"/>
+      <c r="V31" s="59"/>
+      <c r="W31" s="59"/>
+      <c r="X31" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y31" s="59">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A32" s="55"/>
+      <c r="B32" s="3" t="str">
+        <f>Populations!$C$8</f>
+        <v>M 15+</v>
+      </c>
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="59"/>
+      <c r="K32" s="59"/>
+      <c r="L32" s="59"/>
+      <c r="M32" s="59"/>
+      <c r="N32" s="59"/>
+      <c r="O32" s="59"/>
+      <c r="P32" s="59"/>
+      <c r="Q32" s="59"/>
+      <c r="R32" s="59"/>
+      <c r="S32" s="59"/>
+      <c r="T32" s="59"/>
+      <c r="U32" s="59"/>
+      <c r="V32" s="59"/>
+      <c r="W32" s="59"/>
+      <c r="X32" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y32" s="59">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A33" s="55"/>
+      <c r="B33" s="3" t="str">
+        <f>Populations!$C$9</f>
+        <v>F 15+</v>
+      </c>
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="59"/>
+      <c r="J33" s="59"/>
+      <c r="K33" s="59"/>
+      <c r="L33" s="59"/>
+      <c r="M33" s="59"/>
+      <c r="N33" s="59"/>
+      <c r="O33" s="59"/>
+      <c r="P33" s="59"/>
+      <c r="Q33" s="59"/>
+      <c r="R33" s="59"/>
+      <c r="S33" s="59"/>
+      <c r="T33" s="59"/>
+      <c r="U33" s="59"/>
+      <c r="V33" s="59"/>
+      <c r="W33" s="59"/>
+      <c r="X33" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y33" s="59">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A37" s="56" t="s">
+        <v>122</v>
+      </c>
+      <c r="B37" s="55"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="55"/>
+      <c r="H37" s="55"/>
+      <c r="I37" s="55"/>
+      <c r="J37" s="55"/>
+      <c r="K37" s="55"/>
+      <c r="L37" s="55"/>
+      <c r="M37" s="55"/>
+      <c r="N37" s="55"/>
+      <c r="O37" s="55"/>
+      <c r="P37" s="55"/>
+      <c r="Q37" s="55"/>
+      <c r="R37" s="55"/>
+      <c r="S37" s="55"/>
+      <c r="T37" s="55"/>
+      <c r="U37" s="55"/>
+      <c r="V37" s="55"/>
+      <c r="W37" s="55"/>
+      <c r="X37" s="55"/>
+      <c r="Y37" s="55"/>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A38" s="55"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="57">
+        <v>2000</v>
+      </c>
+      <c r="D38" s="57">
+        <v>2001</v>
+      </c>
+      <c r="E38" s="57">
+        <v>2002</v>
+      </c>
+      <c r="F38" s="57">
+        <v>2003</v>
+      </c>
+      <c r="G38" s="57">
+        <v>2004</v>
+      </c>
+      <c r="H38" s="57">
+        <v>2005</v>
+      </c>
+      <c r="I38" s="57">
+        <v>2006</v>
+      </c>
+      <c r="J38" s="57">
+        <v>2007</v>
+      </c>
+      <c r="K38" s="57">
+        <v>2008</v>
+      </c>
+      <c r="L38" s="57">
+        <v>2009</v>
+      </c>
+      <c r="M38" s="57">
+        <v>2010</v>
+      </c>
+      <c r="N38" s="57">
+        <v>2011</v>
+      </c>
+      <c r="O38" s="57">
+        <v>2012</v>
+      </c>
+      <c r="P38" s="57">
+        <v>2013</v>
+      </c>
+      <c r="Q38" s="57">
+        <v>2014</v>
+      </c>
+      <c r="R38" s="57">
+        <v>2015</v>
+      </c>
+      <c r="S38" s="57">
+        <v>2016</v>
+      </c>
+      <c r="T38" s="57">
+        <v>2017</v>
+      </c>
+      <c r="U38" s="57">
+        <v>2018</v>
+      </c>
+      <c r="V38" s="57">
+        <v>2019</v>
+      </c>
+      <c r="W38" s="57">
+        <v>2020</v>
+      </c>
+      <c r="X38" s="55"/>
+      <c r="Y38" s="57" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A39" s="55"/>
+      <c r="B39" s="3" t="str">
+        <f>Populations!$C$3</f>
+        <v>FSW</v>
+      </c>
+      <c r="C39" s="59"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="59"/>
+      <c r="H39" s="59"/>
+      <c r="I39" s="59"/>
+      <c r="J39" s="59"/>
+      <c r="K39" s="59"/>
+      <c r="L39" s="59"/>
+      <c r="M39" s="59"/>
+      <c r="N39" s="59"/>
+      <c r="O39" s="59"/>
+      <c r="P39" s="59"/>
+      <c r="Q39" s="59"/>
+      <c r="R39" s="59"/>
+      <c r="S39" s="59"/>
+      <c r="T39" s="59"/>
+      <c r="U39" s="59"/>
+      <c r="V39" s="59"/>
+      <c r="W39" s="59"/>
+      <c r="X39" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y39" s="59">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A40" s="55"/>
+      <c r="B40" s="3" t="str">
+        <f>Populations!$C$4</f>
+        <v>Clients</v>
+      </c>
+      <c r="C40" s="59"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="59"/>
+      <c r="H40" s="59"/>
+      <c r="I40" s="59"/>
+      <c r="J40" s="59"/>
+      <c r="K40" s="59"/>
+      <c r="L40" s="59"/>
+      <c r="M40" s="59"/>
+      <c r="N40" s="59"/>
+      <c r="O40" s="59"/>
+      <c r="P40" s="59"/>
+      <c r="Q40" s="59"/>
+      <c r="R40" s="59"/>
+      <c r="S40" s="59"/>
+      <c r="T40" s="59"/>
+      <c r="U40" s="59"/>
+      <c r="V40" s="59"/>
+      <c r="W40" s="59"/>
+      <c r="X40" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y40" s="59">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A41" s="55"/>
+      <c r="B41" s="3" t="str">
+        <f>Populations!$C$5</f>
+        <v>MSM</v>
+      </c>
+      <c r="C41" s="59"/>
+      <c r="D41" s="59"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="59"/>
+      <c r="H41" s="59"/>
+      <c r="I41" s="59"/>
+      <c r="J41" s="59"/>
+      <c r="K41" s="59"/>
+      <c r="L41" s="59"/>
+      <c r="M41" s="59"/>
+      <c r="N41" s="59"/>
+      <c r="O41" s="59"/>
+      <c r="P41" s="59"/>
+      <c r="Q41" s="59"/>
+      <c r="R41" s="59"/>
+      <c r="S41" s="59"/>
+      <c r="T41" s="59"/>
+      <c r="U41" s="59"/>
+      <c r="V41" s="59"/>
+      <c r="W41" s="59"/>
+      <c r="X41" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y41" s="59">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A42" s="55"/>
+      <c r="B42" s="3" t="str">
+        <f>Populations!$C$6</f>
+        <v>M 0-14</v>
+      </c>
+      <c r="C42" s="59"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="59"/>
+      <c r="H42" s="59"/>
+      <c r="I42" s="59"/>
+      <c r="J42" s="59"/>
+      <c r="K42" s="59"/>
+      <c r="L42" s="59"/>
+      <c r="M42" s="59"/>
+      <c r="N42" s="59"/>
+      <c r="O42" s="59"/>
+      <c r="P42" s="59"/>
+      <c r="Q42" s="59"/>
+      <c r="R42" s="59"/>
+      <c r="S42" s="59"/>
+      <c r="T42" s="59"/>
+      <c r="U42" s="59"/>
+      <c r="V42" s="59"/>
+      <c r="W42" s="59"/>
+      <c r="X42" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y42" s="59">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A43" s="55"/>
+      <c r="B43" s="3" t="str">
+        <f>Populations!$C$7</f>
+        <v>F 0-14</v>
+      </c>
+      <c r="C43" s="59"/>
+      <c r="D43" s="59"/>
+      <c r="E43" s="59"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="59"/>
+      <c r="H43" s="59"/>
+      <c r="I43" s="59"/>
+      <c r="J43" s="59"/>
+      <c r="K43" s="59"/>
+      <c r="L43" s="59"/>
+      <c r="M43" s="59"/>
+      <c r="N43" s="59"/>
+      <c r="O43" s="59"/>
+      <c r="P43" s="59"/>
+      <c r="Q43" s="59"/>
+      <c r="R43" s="59"/>
+      <c r="S43" s="59"/>
+      <c r="T43" s="59"/>
+      <c r="U43" s="59"/>
+      <c r="V43" s="59"/>
+      <c r="W43" s="59"/>
+      <c r="X43" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y43" s="59">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A44" s="55"/>
+      <c r="B44" s="3" t="str">
+        <f>Populations!$C$8</f>
+        <v>M 15+</v>
+      </c>
+      <c r="C44" s="59"/>
+      <c r="D44" s="59"/>
+      <c r="E44" s="59"/>
+      <c r="F44" s="59"/>
+      <c r="G44" s="59"/>
+      <c r="H44" s="59"/>
+      <c r="I44" s="59"/>
+      <c r="J44" s="59"/>
+      <c r="K44" s="59"/>
+      <c r="L44" s="59"/>
+      <c r="M44" s="59"/>
+      <c r="N44" s="59"/>
+      <c r="O44" s="59"/>
+      <c r="P44" s="59"/>
+      <c r="Q44" s="59"/>
+      <c r="R44" s="59"/>
+      <c r="S44" s="59"/>
+      <c r="T44" s="59"/>
+      <c r="U44" s="59"/>
+      <c r="V44" s="59"/>
+      <c r="W44" s="59"/>
+      <c r="X44" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y44" s="59">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A45" s="55"/>
+      <c r="B45" s="3" t="str">
+        <f>Populations!$C$9</f>
+        <v>F 15+</v>
+      </c>
+      <c r="C45" s="59"/>
+      <c r="D45" s="59"/>
+      <c r="E45" s="59"/>
+      <c r="F45" s="59"/>
+      <c r="G45" s="59"/>
+      <c r="H45" s="59"/>
+      <c r="I45" s="59"/>
+      <c r="J45" s="59"/>
+      <c r="K45" s="59"/>
+      <c r="L45" s="59"/>
+      <c r="M45" s="59"/>
+      <c r="N45" s="59"/>
+      <c r="O45" s="59"/>
+      <c r="P45" s="59"/>
+      <c r="Q45" s="59"/>
+      <c r="R45" s="59"/>
+      <c r="S45" s="59"/>
+      <c r="T45" s="59"/>
+      <c r="U45" s="59"/>
+      <c r="V45" s="59"/>
+      <c r="W45" s="59"/>
+      <c r="X45" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y45" s="59">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A49" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="B49" s="55"/>
+      <c r="C49" s="55"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="55"/>
+      <c r="F49" s="55"/>
+      <c r="G49" s="55"/>
+      <c r="H49" s="55"/>
+      <c r="I49" s="55"/>
+      <c r="J49" s="55"/>
+      <c r="K49" s="55"/>
+      <c r="L49" s="55"/>
+      <c r="M49" s="55"/>
+      <c r="N49" s="55"/>
+      <c r="O49" s="55"/>
+      <c r="P49" s="55"/>
+      <c r="Q49" s="55"/>
+      <c r="R49" s="55"/>
+      <c r="S49" s="55"/>
+      <c r="T49" s="55"/>
+      <c r="U49" s="55"/>
+      <c r="V49" s="55"/>
+      <c r="W49" s="55"/>
+      <c r="X49" s="55"/>
+      <c r="Y49" s="55"/>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A50" s="55"/>
+      <c r="B50" s="55"/>
+      <c r="C50" s="57">
+        <v>2000</v>
+      </c>
+      <c r="D50" s="57">
+        <v>2001</v>
+      </c>
+      <c r="E50" s="57">
+        <v>2002</v>
+      </c>
+      <c r="F50" s="57">
+        <v>2003</v>
+      </c>
+      <c r="G50" s="57">
+        <v>2004</v>
+      </c>
+      <c r="H50" s="57">
+        <v>2005</v>
+      </c>
+      <c r="I50" s="57">
+        <v>2006</v>
+      </c>
+      <c r="J50" s="57">
+        <v>2007</v>
+      </c>
+      <c r="K50" s="57">
+        <v>2008</v>
+      </c>
+      <c r="L50" s="57">
+        <v>2009</v>
+      </c>
+      <c r="M50" s="57">
+        <v>2010</v>
+      </c>
+      <c r="N50" s="57">
+        <v>2011</v>
+      </c>
+      <c r="O50" s="57">
+        <v>2012</v>
+      </c>
+      <c r="P50" s="57">
+        <v>2013</v>
+      </c>
+      <c r="Q50" s="57">
+        <v>2014</v>
+      </c>
+      <c r="R50" s="57">
+        <v>2015</v>
+      </c>
+      <c r="S50" s="57">
+        <v>2016</v>
+      </c>
+      <c r="T50" s="57">
+        <v>2017</v>
+      </c>
+      <c r="U50" s="57">
+        <v>2018</v>
+      </c>
+      <c r="V50" s="57">
+        <v>2019</v>
+      </c>
+      <c r="W50" s="57">
+        <v>2020</v>
+      </c>
+      <c r="X50" s="55"/>
+      <c r="Y50" s="57" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A51" s="55"/>
+      <c r="B51" s="3" t="str">
+        <f>Populations!$C$3</f>
+        <v>FSW</v>
+      </c>
+      <c r="C51" s="59"/>
+      <c r="D51" s="59"/>
+      <c r="E51" s="59"/>
+      <c r="F51" s="59"/>
+      <c r="G51" s="59"/>
+      <c r="H51" s="59"/>
+      <c r="I51" s="59"/>
+      <c r="J51" s="59"/>
+      <c r="K51" s="59"/>
+      <c r="L51" s="59"/>
+      <c r="M51" s="59"/>
+      <c r="N51" s="59"/>
+      <c r="O51" s="59"/>
+      <c r="P51" s="59"/>
+      <c r="Q51" s="59"/>
+      <c r="R51" s="59"/>
+      <c r="S51" s="59"/>
+      <c r="T51" s="59"/>
+      <c r="U51" s="59"/>
+      <c r="V51" s="59"/>
+      <c r="W51" s="59"/>
+      <c r="X51" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y51" s="59">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A52" s="55"/>
+      <c r="B52" s="3" t="str">
+        <f>Populations!$C$4</f>
+        <v>Clients</v>
+      </c>
+      <c r="C52" s="59"/>
+      <c r="D52" s="59"/>
+      <c r="E52" s="59"/>
+      <c r="F52" s="59"/>
+      <c r="G52" s="59"/>
+      <c r="H52" s="59"/>
+      <c r="I52" s="59"/>
+      <c r="J52" s="59"/>
+      <c r="K52" s="59"/>
+      <c r="L52" s="59"/>
+      <c r="M52" s="59"/>
+      <c r="N52" s="59"/>
+      <c r="O52" s="59"/>
+      <c r="P52" s="59"/>
+      <c r="Q52" s="59"/>
+      <c r="R52" s="59"/>
+      <c r="S52" s="59"/>
+      <c r="T52" s="59"/>
+      <c r="U52" s="59"/>
+      <c r="V52" s="59"/>
+      <c r="W52" s="59"/>
+      <c r="X52" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y52" s="59">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A53" s="55"/>
+      <c r="B53" s="3" t="str">
+        <f>Populations!$C$5</f>
+        <v>MSM</v>
+      </c>
+      <c r="C53" s="59"/>
+      <c r="D53" s="59"/>
+      <c r="E53" s="59"/>
+      <c r="F53" s="59"/>
+      <c r="G53" s="59"/>
+      <c r="H53" s="59"/>
+      <c r="I53" s="59"/>
+      <c r="J53" s="59"/>
+      <c r="K53" s="59"/>
+      <c r="L53" s="59"/>
+      <c r="M53" s="59"/>
+      <c r="N53" s="59"/>
+      <c r="O53" s="59"/>
+      <c r="P53" s="59"/>
+      <c r="Q53" s="59"/>
+      <c r="R53" s="59"/>
+      <c r="S53" s="59"/>
+      <c r="T53" s="59"/>
+      <c r="U53" s="59"/>
+      <c r="V53" s="59"/>
+      <c r="W53" s="59"/>
+      <c r="X53" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y53" s="59">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A54" s="55"/>
+      <c r="B54" s="3" t="str">
+        <f>Populations!$C$6</f>
+        <v>M 0-14</v>
+      </c>
+      <c r="C54" s="59"/>
+      <c r="D54" s="59"/>
+      <c r="E54" s="59"/>
+      <c r="F54" s="59"/>
+      <c r="G54" s="59"/>
+      <c r="H54" s="59"/>
+      <c r="I54" s="59"/>
+      <c r="J54" s="59"/>
+      <c r="K54" s="59"/>
+      <c r="L54" s="59"/>
+      <c r="M54" s="59"/>
+      <c r="N54" s="59"/>
+      <c r="O54" s="59"/>
+      <c r="P54" s="59"/>
+      <c r="Q54" s="59"/>
+      <c r="R54" s="59"/>
+      <c r="S54" s="59"/>
+      <c r="T54" s="59"/>
+      <c r="U54" s="59"/>
+      <c r="V54" s="59"/>
+      <c r="W54" s="59"/>
+      <c r="X54" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y54" s="59">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A55" s="55"/>
+      <c r="B55" s="3" t="str">
+        <f>Populations!$C$7</f>
+        <v>F 0-14</v>
+      </c>
+      <c r="C55" s="59"/>
+      <c r="D55" s="59"/>
+      <c r="E55" s="59"/>
+      <c r="F55" s="59"/>
+      <c r="G55" s="59"/>
+      <c r="H55" s="59"/>
+      <c r="I55" s="59"/>
+      <c r="J55" s="59"/>
+      <c r="K55" s="59"/>
+      <c r="L55" s="59"/>
+      <c r="M55" s="59"/>
+      <c r="N55" s="59"/>
+      <c r="O55" s="59"/>
+      <c r="P55" s="59"/>
+      <c r="Q55" s="59"/>
+      <c r="R55" s="59"/>
+      <c r="S55" s="59"/>
+      <c r="T55" s="59"/>
+      <c r="U55" s="59"/>
+      <c r="V55" s="59"/>
+      <c r="W55" s="59"/>
+      <c r="X55" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y55" s="59">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A56" s="55"/>
+      <c r="B56" s="3" t="str">
+        <f>Populations!$C$8</f>
+        <v>M 15+</v>
+      </c>
+      <c r="C56" s="59"/>
+      <c r="D56" s="59"/>
+      <c r="E56" s="59"/>
+      <c r="F56" s="59"/>
+      <c r="G56" s="59"/>
+      <c r="H56" s="59"/>
+      <c r="I56" s="59"/>
+      <c r="J56" s="59"/>
+      <c r="K56" s="59"/>
+      <c r="L56" s="59"/>
+      <c r="M56" s="59"/>
+      <c r="N56" s="59"/>
+      <c r="O56" s="59"/>
+      <c r="P56" s="59"/>
+      <c r="Q56" s="59"/>
+      <c r="R56" s="59"/>
+      <c r="S56" s="59"/>
+      <c r="T56" s="59"/>
+      <c r="U56" s="59"/>
+      <c r="V56" s="59"/>
+      <c r="W56" s="59"/>
+      <c r="X56" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y56" s="59">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A57" s="55"/>
+      <c r="B57" s="3" t="str">
+        <f>Populations!$C$9</f>
+        <v>F 15+</v>
+      </c>
+      <c r="C57" s="59"/>
+      <c r="D57" s="59"/>
+      <c r="E57" s="59"/>
+      <c r="F57" s="59"/>
+      <c r="G57" s="59"/>
+      <c r="H57" s="59"/>
+      <c r="I57" s="59"/>
+      <c r="J57" s="59"/>
+      <c r="K57" s="59"/>
+      <c r="L57" s="59"/>
+      <c r="M57" s="59"/>
+      <c r="N57" s="59"/>
+      <c r="O57" s="59"/>
+      <c r="P57" s="59"/>
+      <c r="Q57" s="59"/>
+      <c r="R57" s="59"/>
+      <c r="S57" s="59"/>
+      <c r="T57" s="59"/>
+      <c r="U57" s="59"/>
+      <c r="V57" s="59"/>
+      <c r="W57" s="59"/>
+      <c r="X57" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y57" s="59">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A61" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="B61" s="55"/>
+      <c r="C61" s="55"/>
+      <c r="D61" s="55"/>
+      <c r="E61" s="55"/>
+      <c r="F61" s="55"/>
+      <c r="G61" s="55"/>
+      <c r="H61" s="55"/>
+      <c r="I61" s="55"/>
+      <c r="J61" s="55"/>
+      <c r="K61" s="55"/>
+      <c r="L61" s="55"/>
+      <c r="M61" s="55"/>
+      <c r="N61" s="55"/>
+      <c r="O61" s="55"/>
+      <c r="P61" s="55"/>
+      <c r="Q61" s="55"/>
+      <c r="R61" s="55"/>
+      <c r="S61" s="55"/>
+      <c r="T61" s="55"/>
+      <c r="U61" s="55"/>
+      <c r="V61" s="55"/>
+      <c r="W61" s="55"/>
+      <c r="X61" s="55"/>
+      <c r="Y61" s="55"/>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A62" s="55"/>
+      <c r="B62" s="55"/>
+      <c r="C62" s="57">
+        <v>2000</v>
+      </c>
+      <c r="D62" s="57">
+        <v>2001</v>
+      </c>
+      <c r="E62" s="57">
+        <v>2002</v>
+      </c>
+      <c r="F62" s="57">
+        <v>2003</v>
+      </c>
+      <c r="G62" s="57">
+        <v>2004</v>
+      </c>
+      <c r="H62" s="57">
+        <v>2005</v>
+      </c>
+      <c r="I62" s="57">
+        <v>2006</v>
+      </c>
+      <c r="J62" s="57">
+        <v>2007</v>
+      </c>
+      <c r="K62" s="57">
+        <v>2008</v>
+      </c>
+      <c r="L62" s="57">
+        <v>2009</v>
+      </c>
+      <c r="M62" s="57">
+        <v>2010</v>
+      </c>
+      <c r="N62" s="57">
+        <v>2011</v>
+      </c>
+      <c r="O62" s="57">
+        <v>2012</v>
+      </c>
+      <c r="P62" s="57">
+        <v>2013</v>
+      </c>
+      <c r="Q62" s="57">
+        <v>2014</v>
+      </c>
+      <c r="R62" s="57">
+        <v>2015</v>
+      </c>
+      <c r="S62" s="57">
+        <v>2016</v>
+      </c>
+      <c r="T62" s="57">
+        <v>2017</v>
+      </c>
+      <c r="U62" s="57">
+        <v>2018</v>
+      </c>
+      <c r="V62" s="57">
+        <v>2019</v>
+      </c>
+      <c r="W62" s="57">
+        <v>2020</v>
+      </c>
+      <c r="X62" s="55"/>
+      <c r="Y62" s="57" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A63" s="55"/>
+      <c r="B63" s="3" t="str">
+        <f>Populations!$C$3</f>
+        <v>FSW</v>
+      </c>
+      <c r="C63" s="59"/>
+      <c r="D63" s="59"/>
+      <c r="E63" s="59"/>
+      <c r="F63" s="59"/>
+      <c r="G63" s="59"/>
+      <c r="H63" s="59"/>
+      <c r="I63" s="59"/>
+      <c r="J63" s="59"/>
+      <c r="K63" s="59"/>
+      <c r="L63" s="59"/>
+      <c r="M63" s="59"/>
+      <c r="N63" s="59"/>
+      <c r="O63" s="59"/>
+      <c r="P63" s="59"/>
+      <c r="Q63" s="59"/>
+      <c r="R63" s="59"/>
+      <c r="S63" s="59"/>
+      <c r="T63" s="59"/>
+      <c r="U63" s="59"/>
+      <c r="V63" s="59"/>
+      <c r="W63" s="59"/>
+      <c r="X63" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y63" s="59">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A64" s="55"/>
+      <c r="B64" s="3" t="str">
+        <f>Populations!$C$4</f>
+        <v>Clients</v>
+      </c>
+      <c r="C64" s="59"/>
+      <c r="D64" s="59"/>
+      <c r="E64" s="59"/>
+      <c r="F64" s="59"/>
+      <c r="G64" s="59"/>
+      <c r="H64" s="59"/>
+      <c r="I64" s="59"/>
+      <c r="J64" s="59"/>
+      <c r="K64" s="59"/>
+      <c r="L64" s="59"/>
+      <c r="M64" s="59"/>
+      <c r="N64" s="59"/>
+      <c r="O64" s="59"/>
+      <c r="P64" s="59"/>
+      <c r="Q64" s="59"/>
+      <c r="R64" s="59"/>
+      <c r="S64" s="59"/>
+      <c r="T64" s="59"/>
+      <c r="U64" s="59"/>
+      <c r="V64" s="59"/>
+      <c r="W64" s="59"/>
+      <c r="X64" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y64" s="59">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A65" s="55"/>
+      <c r="B65" s="3" t="str">
+        <f>Populations!$C$5</f>
+        <v>MSM</v>
+      </c>
+      <c r="C65" s="59"/>
+      <c r="D65" s="59"/>
+      <c r="E65" s="59"/>
+      <c r="F65" s="59"/>
+      <c r="G65" s="59"/>
+      <c r="H65" s="59"/>
+      <c r="I65" s="59"/>
+      <c r="J65" s="59"/>
+      <c r="K65" s="59"/>
+      <c r="L65" s="59"/>
+      <c r="M65" s="59"/>
+      <c r="N65" s="59"/>
+      <c r="O65" s="59"/>
+      <c r="P65" s="59"/>
+      <c r="Q65" s="59"/>
+      <c r="R65" s="59"/>
+      <c r="S65" s="59"/>
+      <c r="T65" s="59"/>
+      <c r="U65" s="59"/>
+      <c r="V65" s="59"/>
+      <c r="W65" s="59"/>
+      <c r="X65" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y65" s="59">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A66" s="55"/>
+      <c r="B66" s="3" t="str">
+        <f>Populations!$C$6</f>
+        <v>M 0-14</v>
+      </c>
+      <c r="C66" s="59"/>
+      <c r="D66" s="59"/>
+      <c r="E66" s="59"/>
+      <c r="F66" s="59"/>
+      <c r="G66" s="59"/>
+      <c r="H66" s="59"/>
+      <c r="I66" s="59"/>
+      <c r="J66" s="59"/>
+      <c r="K66" s="59"/>
+      <c r="L66" s="59"/>
+      <c r="M66" s="59"/>
+      <c r="N66" s="59"/>
+      <c r="O66" s="59"/>
+      <c r="P66" s="59"/>
+      <c r="Q66" s="59"/>
+      <c r="R66" s="59"/>
+      <c r="S66" s="59"/>
+      <c r="T66" s="59"/>
+      <c r="U66" s="59"/>
+      <c r="V66" s="59"/>
+      <c r="W66" s="59"/>
+      <c r="X66" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y66" s="59">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A67" s="55"/>
+      <c r="B67" s="3" t="str">
+        <f>Populations!$C$7</f>
+        <v>F 0-14</v>
+      </c>
+      <c r="C67" s="59"/>
+      <c r="D67" s="59"/>
+      <c r="E67" s="59"/>
+      <c r="F67" s="59"/>
+      <c r="G67" s="59"/>
+      <c r="H67" s="59"/>
+      <c r="I67" s="59"/>
+      <c r="J67" s="59"/>
+      <c r="K67" s="59"/>
+      <c r="L67" s="59"/>
+      <c r="M67" s="59"/>
+      <c r="N67" s="59"/>
+      <c r="O67" s="59"/>
+      <c r="P67" s="59"/>
+      <c r="Q67" s="59"/>
+      <c r="R67" s="59"/>
+      <c r="S67" s="59"/>
+      <c r="T67" s="59"/>
+      <c r="U67" s="59"/>
+      <c r="V67" s="59"/>
+      <c r="W67" s="59"/>
+      <c r="X67" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y67" s="59">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A68" s="55"/>
+      <c r="B68" s="3" t="str">
+        <f>Populations!$C$8</f>
+        <v>M 15+</v>
+      </c>
+      <c r="C68" s="59"/>
+      <c r="D68" s="59"/>
+      <c r="E68" s="59"/>
+      <c r="F68" s="59"/>
+      <c r="G68" s="59"/>
+      <c r="H68" s="59"/>
+      <c r="I68" s="59"/>
+      <c r="J68" s="59"/>
+      <c r="K68" s="59"/>
+      <c r="L68" s="59"/>
+      <c r="M68" s="59"/>
+      <c r="N68" s="59"/>
+      <c r="O68" s="59"/>
+      <c r="P68" s="59"/>
+      <c r="Q68" s="59"/>
+      <c r="R68" s="59"/>
+      <c r="S68" s="59"/>
+      <c r="T68" s="59"/>
+      <c r="U68" s="59"/>
+      <c r="V68" s="59"/>
+      <c r="W68" s="59"/>
+      <c r="X68" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y68" s="59">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A69" s="55"/>
+      <c r="B69" s="3" t="str">
+        <f>Populations!$C$9</f>
+        <v>F 15+</v>
+      </c>
+      <c r="C69" s="59"/>
+      <c r="D69" s="59"/>
+      <c r="E69" s="59"/>
+      <c r="F69" s="59"/>
+      <c r="G69" s="59"/>
+      <c r="H69" s="59"/>
+      <c r="I69" s="59"/>
+      <c r="J69" s="59"/>
+      <c r="K69" s="59"/>
+      <c r="L69" s="59"/>
+      <c r="M69" s="59"/>
+      <c r="N69" s="59"/>
+      <c r="O69" s="59"/>
+      <c r="P69" s="59"/>
+      <c r="Q69" s="59"/>
+      <c r="R69" s="59"/>
+      <c r="S69" s="59"/>
+      <c r="T69" s="59"/>
+      <c r="U69" s="59"/>
+      <c r="V69" s="59"/>
+      <c r="W69" s="59"/>
+      <c r="X69" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y69" s="59">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A73" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="B73" s="55"/>
+      <c r="C73" s="55"/>
+      <c r="D73" s="55"/>
+      <c r="E73" s="55"/>
+      <c r="F73" s="55"/>
+      <c r="G73" s="55"/>
+      <c r="H73" s="55"/>
+      <c r="I73" s="55"/>
+      <c r="J73" s="55"/>
+      <c r="K73" s="55"/>
+      <c r="L73" s="55"/>
+      <c r="M73" s="55"/>
+      <c r="N73" s="55"/>
+      <c r="O73" s="55"/>
+      <c r="P73" s="55"/>
+      <c r="Q73" s="55"/>
+      <c r="R73" s="55"/>
+      <c r="S73" s="55"/>
+      <c r="T73" s="55"/>
+      <c r="U73" s="55"/>
+      <c r="V73" s="55"/>
+      <c r="W73" s="55"/>
+      <c r="X73" s="55"/>
+      <c r="Y73" s="55"/>
+    </row>
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A74" s="55"/>
+      <c r="B74" s="55"/>
+      <c r="C74" s="57">
+        <v>2000</v>
+      </c>
+      <c r="D74" s="57">
+        <v>2001</v>
+      </c>
+      <c r="E74" s="57">
+        <v>2002</v>
+      </c>
+      <c r="F74" s="57">
+        <v>2003</v>
+      </c>
+      <c r="G74" s="57">
+        <v>2004</v>
+      </c>
+      <c r="H74" s="57">
+        <v>2005</v>
+      </c>
+      <c r="I74" s="57">
+        <v>2006</v>
+      </c>
+      <c r="J74" s="57">
+        <v>2007</v>
+      </c>
+      <c r="K74" s="57">
+        <v>2008</v>
+      </c>
+      <c r="L74" s="57">
+        <v>2009</v>
+      </c>
+      <c r="M74" s="57">
+        <v>2010</v>
+      </c>
+      <c r="N74" s="57">
+        <v>2011</v>
+      </c>
+      <c r="O74" s="57">
+        <v>2012</v>
+      </c>
+      <c r="P74" s="57">
+        <v>2013</v>
+      </c>
+      <c r="Q74" s="57">
+        <v>2014</v>
+      </c>
+      <c r="R74" s="57">
+        <v>2015</v>
+      </c>
+      <c r="S74" s="57">
+        <v>2016</v>
+      </c>
+      <c r="T74" s="57">
+        <v>2017</v>
+      </c>
+      <c r="U74" s="57">
+        <v>2018</v>
+      </c>
+      <c r="V74" s="57">
+        <v>2019</v>
+      </c>
+      <c r="W74" s="57">
+        <v>2020</v>
+      </c>
+      <c r="X74" s="55"/>
+      <c r="Y74" s="57" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A75" s="55"/>
+      <c r="B75" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="C75" s="59"/>
+      <c r="D75" s="59"/>
+      <c r="E75" s="59"/>
+      <c r="F75" s="59"/>
+      <c r="G75" s="59"/>
+      <c r="H75" s="59"/>
+      <c r="I75" s="59"/>
+      <c r="J75" s="59"/>
+      <c r="K75" s="59"/>
+      <c r="L75" s="59"/>
+      <c r="M75" s="59"/>
+      <c r="N75" s="59"/>
+      <c r="O75" s="59"/>
+      <c r="P75" s="59"/>
+      <c r="Q75" s="59"/>
+      <c r="R75" s="59"/>
+      <c r="S75" s="59"/>
+      <c r="T75" s="59"/>
+      <c r="U75" s="59"/>
+      <c r="V75" s="59"/>
+      <c r="W75" s="59"/>
+      <c r="X75" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y75" s="59">
+        <v>0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
@@ -8557,7 +11544,7 @@
         <v>2020</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -8589,7 +11576,7 @@
       <c r="V3" s="4"/>
       <c r="W3" s="4"/>
       <c r="X3" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y3" s="4"/>
     </row>
@@ -8622,7 +11609,7 @@
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
       <c r="X4" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y4" s="4"/>
     </row>
@@ -8655,7 +11642,7 @@
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
       <c r="X5" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y5" s="4"/>
     </row>
@@ -8686,7 +11673,7 @@
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
       <c r="X6" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y6" s="4">
         <v>0</v>
@@ -8719,7 +11706,7 @@
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
       <c r="X7" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y7" s="4">
         <v>0</v>
@@ -8754,7 +11741,7 @@
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
       <c r="X8" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y8" s="4"/>
     </row>
@@ -8787,13 +11774,13 @@
       <c r="V9" s="4"/>
       <c r="W9" s="4"/>
       <c r="X9" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y9" s="4"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -8861,7 +11848,7 @@
         <v>2020</v>
       </c>
       <c r="Y14" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
@@ -8893,7 +11880,7 @@
       <c r="V15" s="4"/>
       <c r="W15" s="4"/>
       <c r="X15" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y15" s="4"/>
     </row>
@@ -8926,7 +11913,7 @@
       <c r="V16" s="4"/>
       <c r="W16" s="4"/>
       <c r="X16" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y16" s="4"/>
     </row>
@@ -8959,7 +11946,7 @@
       <c r="V17" s="4"/>
       <c r="W17" s="4"/>
       <c r="X17" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y17" s="4"/>
     </row>
@@ -8990,7 +11977,7 @@
       <c r="V18" s="4"/>
       <c r="W18" s="4"/>
       <c r="X18" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y18" s="4">
         <v>0</v>
@@ -9023,7 +12010,7 @@
       <c r="V19" s="4"/>
       <c r="W19" s="4"/>
       <c r="X19" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y19" s="4">
         <v>0</v>
@@ -9058,7 +12045,7 @@
       <c r="V20" s="4"/>
       <c r="W20" s="4"/>
       <c r="X20" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y20" s="4"/>
     </row>
@@ -9091,13 +12078,13 @@
       <c r="V21" s="4"/>
       <c r="W21" s="4"/>
       <c r="X21" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y21" s="4"/>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
@@ -9165,7 +12152,7 @@
         <v>2020</v>
       </c>
       <c r="Y26" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
@@ -9197,7 +12184,7 @@
       <c r="V27" s="4"/>
       <c r="W27" s="4"/>
       <c r="X27" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y27" s="4"/>
     </row>
@@ -9230,7 +12217,7 @@
       <c r="V28" s="4"/>
       <c r="W28" s="4"/>
       <c r="X28" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y28" s="4"/>
     </row>
@@ -9261,7 +12248,7 @@
       <c r="V29" s="4"/>
       <c r="W29" s="4"/>
       <c r="X29" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y29" s="4">
         <v>0</v>
@@ -9294,7 +12281,7 @@
       <c r="V30" s="4"/>
       <c r="W30" s="4"/>
       <c r="X30" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y30" s="4">
         <v>0</v>
@@ -9327,7 +12314,7 @@
       <c r="V31" s="4"/>
       <c r="W31" s="4"/>
       <c r="X31" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y31" s="4">
         <v>0</v>
@@ -9360,7 +12347,7 @@
       <c r="V32" s="4"/>
       <c r="W32" s="4"/>
       <c r="X32" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y32" s="4">
         <v>0</v>
@@ -9393,7 +12380,7 @@
       <c r="V33" s="4"/>
       <c r="W33" s="4"/>
       <c r="X33" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y33" s="4">
         <v>0</v>
@@ -9401,7 +12388,7 @@
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
@@ -9469,7 +12456,7 @@
         <v>2020</v>
       </c>
       <c r="Y38" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
@@ -9501,7 +12488,7 @@
       <c r="V39" s="9"/>
       <c r="W39" s="9"/>
       <c r="X39" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y39" s="9"/>
     </row>
@@ -9534,7 +12521,7 @@
       <c r="V40" s="9"/>
       <c r="W40" s="9"/>
       <c r="X40" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y40" s="9"/>
     </row>
@@ -9567,7 +12554,7 @@
       <c r="V41" s="9"/>
       <c r="W41" s="9"/>
       <c r="X41" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y41" s="9"/>
     </row>
@@ -9598,7 +12585,7 @@
       <c r="V42" s="9"/>
       <c r="W42" s="9"/>
       <c r="X42" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y42" s="9">
         <v>0</v>
@@ -9631,7 +12618,7 @@
       <c r="V43" s="9"/>
       <c r="W43" s="9"/>
       <c r="X43" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y43" s="9">
         <v>0</v>
@@ -9666,7 +12653,7 @@
       <c r="V44" s="9"/>
       <c r="W44" s="9"/>
       <c r="X44" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y44" s="9"/>
     </row>
@@ -9699,13 +12686,13 @@
       <c r="V45" s="9"/>
       <c r="W45" s="9"/>
       <c r="X45" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y45" s="9"/>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
@@ -9773,7 +12760,7 @@
         <v>2020</v>
       </c>
       <c r="Y50" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
@@ -9805,7 +12792,7 @@
       <c r="V51" s="9"/>
       <c r="W51" s="9"/>
       <c r="X51" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y51" s="9"/>
     </row>
@@ -9842,7 +12829,7 @@
       <c r="V52" s="9"/>
       <c r="W52" s="9"/>
       <c r="X52" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y52" s="9"/>
     </row>
@@ -9875,7 +12862,7 @@
       <c r="V53" s="9"/>
       <c r="W53" s="9"/>
       <c r="X53" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y53" s="9"/>
     </row>
@@ -9906,7 +12893,7 @@
       <c r="V54" s="9"/>
       <c r="W54" s="9"/>
       <c r="X54" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y54" s="9">
         <v>0</v>
@@ -9939,7 +12926,7 @@
       <c r="V55" s="9"/>
       <c r="W55" s="9"/>
       <c r="X55" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y55" s="9">
         <v>0</v>
@@ -9978,7 +12965,7 @@
       <c r="V56" s="9"/>
       <c r="W56" s="9"/>
       <c r="X56" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y56" s="9"/>
     </row>
@@ -10015,13 +13002,13 @@
       <c r="V57" s="9"/>
       <c r="W57" s="9"/>
       <c r="X57" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y57" s="9"/>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
@@ -10089,7 +13076,7 @@
         <v>2020</v>
       </c>
       <c r="Y62" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
@@ -10123,7 +13110,7 @@
       <c r="V63" s="9"/>
       <c r="W63" s="9"/>
       <c r="X63" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y63" s="9"/>
     </row>
@@ -10154,7 +13141,7 @@
       <c r="V64" s="9"/>
       <c r="W64" s="9"/>
       <c r="X64" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y64" s="9">
         <v>0</v>
@@ -10187,7 +13174,7 @@
       <c r="V65" s="9"/>
       <c r="W65" s="9"/>
       <c r="X65" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y65" s="9">
         <v>0</v>
@@ -10220,7 +13207,7 @@
       <c r="V66" s="9"/>
       <c r="W66" s="9"/>
       <c r="X66" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y66" s="9">
         <v>0</v>
@@ -10253,7 +13240,7 @@
       <c r="V67" s="9"/>
       <c r="W67" s="9"/>
       <c r="X67" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y67" s="9">
         <v>0</v>
@@ -10286,7 +13273,7 @@
       <c r="V68" s="9"/>
       <c r="W68" s="9"/>
       <c r="X68" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y68" s="9">
         <v>0</v>
@@ -10319,7 +13306,7 @@
       <c r="V69" s="9"/>
       <c r="W69" s="9"/>
       <c r="X69" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y69" s="9">
         <v>0</v>
@@ -10327,7 +13314,7 @@
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.25">
@@ -10395,7 +13382,7 @@
         <v>2020</v>
       </c>
       <c r="Y74" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.25">
@@ -10427,7 +13414,7 @@
       <c r="V75" s="9"/>
       <c r="W75" s="9"/>
       <c r="X75" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y75" s="9"/>
     </row>
@@ -10460,7 +13447,7 @@
       <c r="V76" s="9"/>
       <c r="W76" s="9"/>
       <c r="X76" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y76" s="9"/>
     </row>
@@ -10493,7 +13480,7 @@
       <c r="V77" s="9"/>
       <c r="W77" s="9"/>
       <c r="X77" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y77" s="9"/>
     </row>
@@ -10526,7 +13513,7 @@
       <c r="V78" s="9"/>
       <c r="W78" s="9"/>
       <c r="X78" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y78" s="9"/>
     </row>
@@ -10539,737 +13526,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C2" s="3">
-        <v>2000</v>
-      </c>
-      <c r="D2" s="3">
-        <v>2001</v>
-      </c>
-      <c r="E2" s="3">
-        <v>2002</v>
-      </c>
-      <c r="F2" s="3">
-        <v>2003</v>
-      </c>
-      <c r="G2" s="3">
-        <v>2004</v>
-      </c>
-      <c r="H2" s="3">
-        <v>2005</v>
-      </c>
-      <c r="I2" s="3">
-        <v>2006</v>
-      </c>
-      <c r="J2" s="3">
-        <v>2007</v>
-      </c>
-      <c r="K2" s="3">
-        <v>2008</v>
-      </c>
-      <c r="L2" s="3">
-        <v>2009</v>
-      </c>
-      <c r="M2" s="3">
-        <v>2010</v>
-      </c>
-      <c r="N2" s="3">
-        <v>2011</v>
-      </c>
-      <c r="O2" s="3">
-        <v>2012</v>
-      </c>
-      <c r="P2" s="3">
-        <v>2013</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>2014</v>
-      </c>
-      <c r="R2" s="3">
-        <v>2015</v>
-      </c>
-      <c r="S2" s="3">
-        <v>2016</v>
-      </c>
-      <c r="T2" s="3">
-        <v>2017</v>
-      </c>
-      <c r="U2" s="3">
-        <v>2018</v>
-      </c>
-      <c r="V2" s="3">
-        <v>2019</v>
-      </c>
-      <c r="W2" s="3">
-        <v>2020</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="str">
-        <f>Populations!$C$3</f>
-        <v>FSW</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="str">
-        <f>Populations!$C$4</f>
-        <v>Clients</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="str">
-        <f>Populations!$C$5</f>
-        <v>MSM</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="str">
-        <f>Populations!$C$6</f>
-        <v>M 0-14</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y6" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="str">
-        <f>Populations!$C$7</f>
-        <v>F 0-14</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y7" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="str">
-        <f>Populations!$C$8</f>
-        <v>M 15+</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y8" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="str">
-        <f>Populations!$C$9</f>
-        <v>F 15+</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y9" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C14" s="3">
-        <v>2000</v>
-      </c>
-      <c r="D14" s="3">
-        <v>2001</v>
-      </c>
-      <c r="E14" s="3">
-        <v>2002</v>
-      </c>
-      <c r="F14" s="3">
-        <v>2003</v>
-      </c>
-      <c r="G14" s="3">
-        <v>2004</v>
-      </c>
-      <c r="H14" s="3">
-        <v>2005</v>
-      </c>
-      <c r="I14" s="3">
-        <v>2006</v>
-      </c>
-      <c r="J14" s="3">
-        <v>2007</v>
-      </c>
-      <c r="K14" s="3">
-        <v>2008</v>
-      </c>
-      <c r="L14" s="3">
-        <v>2009</v>
-      </c>
-      <c r="M14" s="3">
-        <v>2010</v>
-      </c>
-      <c r="N14" s="3">
-        <v>2011</v>
-      </c>
-      <c r="O14" s="3">
-        <v>2012</v>
-      </c>
-      <c r="P14" s="3">
-        <v>2013</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>2014</v>
-      </c>
-      <c r="R14" s="3">
-        <v>2015</v>
-      </c>
-      <c r="S14" s="3">
-        <v>2016</v>
-      </c>
-      <c r="T14" s="3">
-        <v>2017</v>
-      </c>
-      <c r="U14" s="3">
-        <v>2018</v>
-      </c>
-      <c r="V14" s="3">
-        <v>2019</v>
-      </c>
-      <c r="W14" s="3">
-        <v>2020</v>
-      </c>
-      <c r="Y14" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="str">
-        <f>Populations!$C$3</f>
-        <v>FSW</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="9"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="9"/>
-      <c r="X15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y15" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="str">
-        <f>Populations!$C$4</f>
-        <v>Clients</v>
-      </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="9"/>
-      <c r="W16" s="9"/>
-      <c r="X16" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y16" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="str">
-        <f>Populations!$C$5</f>
-        <v>MSM</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="9"/>
-      <c r="W17" s="9"/>
-      <c r="X17" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y17" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="str">
-        <f>Populations!$C$6</f>
-        <v>M 0-14</v>
-      </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="9"/>
-      <c r="W18" s="9"/>
-      <c r="X18" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y18" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="str">
-        <f>Populations!$C$7</f>
-        <v>F 0-14</v>
-      </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
-      <c r="W19" s="9"/>
-      <c r="X19" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y19" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="str">
-        <f>Populations!$C$8</f>
-        <v>M 15+</v>
-      </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="9"/>
-      <c r="X20" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y20" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B21" s="3" t="str">
-        <f>Populations!$C$9</f>
-        <v>F 15+</v>
-      </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
-      <c r="U21" s="9"/>
-      <c r="V21" s="9"/>
-      <c r="W21" s="9"/>
-      <c r="X21" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y21" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="C26" s="3">
-        <v>2000</v>
-      </c>
-      <c r="D26" s="3">
-        <v>2001</v>
-      </c>
-      <c r="E26" s="3">
-        <v>2002</v>
-      </c>
-      <c r="F26" s="3">
-        <v>2003</v>
-      </c>
-      <c r="G26" s="3">
-        <v>2004</v>
-      </c>
-      <c r="H26" s="3">
-        <v>2005</v>
-      </c>
-      <c r="I26" s="3">
-        <v>2006</v>
-      </c>
-      <c r="J26" s="3">
-        <v>2007</v>
-      </c>
-      <c r="K26" s="3">
-        <v>2008</v>
-      </c>
-      <c r="L26" s="3">
-        <v>2009</v>
-      </c>
-      <c r="M26" s="3">
-        <v>2010</v>
-      </c>
-      <c r="N26" s="3">
-        <v>2011</v>
-      </c>
-      <c r="O26" s="3">
-        <v>2012</v>
-      </c>
-      <c r="P26" s="3">
-        <v>2013</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>2014</v>
-      </c>
-      <c r="R26" s="3">
-        <v>2015</v>
-      </c>
-      <c r="S26" s="3">
-        <v>2016</v>
-      </c>
-      <c r="T26" s="3">
-        <v>2017</v>
-      </c>
-      <c r="U26" s="3">
-        <v>2018</v>
-      </c>
-      <c r="V26" s="3">
-        <v>2019</v>
-      </c>
-      <c r="W26" s="3">
-        <v>2020</v>
-      </c>
-      <c r="Y26" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B27" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="4"/>
-      <c r="U27" s="4"/>
-      <c r="V27" s="4"/>
-      <c r="W27" s="4"/>
-      <c r="X27" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y27" s="4">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/tests/test7pops.xlsx
+++ b/tests/test7pops.xlsx
@@ -9292,8 +9292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="AA70" sqref="AA70"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/tests/test7pops.xlsx
+++ b/tests/test7pops.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="19410" windowHeight="10950" tabRatio="901" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="19410" windowHeight="10950" tabRatio="901"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -110,9 +110,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="126">
   <si>
     <t>O P T I M A</t>
-  </si>
-  <si>
-    <t>Welcome to the Optima data entry spreadsheet. This is where all data for the model will be entered. At first glance the spreadsheet looks complicated and confusing. Unfortunately, it is. So please ask someone from the Optima development team if you need help, or use the default contact (info@optimamodel.com).</t>
   </si>
   <si>
     <t>Populations</t>
@@ -486,6 +483,9 @@
   <si>
     <t>Biological failure rate (%/year)</t>
   </si>
+  <si>
+    <t>Welcome to the Optima data entry spreadsheet. This is where all data for the model will be entered. At first glance the spreadsheet may look complicated. So please ask someone from the Optima development team if you need help, or use the default contact (info@optimamodel.com).</t>
+  </si>
 </sst>
 </file>
 
@@ -955,12 +955,6 @@
     <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="67" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="67" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -988,6 +982,12 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="67" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="67" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="168">
@@ -1459,8 +1459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1469,22 +1469,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
+      <c r="A2" s="59"/>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
+      <c r="A3" s="59"/>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="28"/>
     </row>
     <row r="5" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
-        <v>1</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
@@ -1492,7 +1492,7 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1515,7 +1515,7 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
@@ -1583,7 +1583,7 @@
         <v>2020</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -1613,7 +1613,7 @@
       <c r="V3" s="4"/>
       <c r="W3" s="4"/>
       <c r="X3" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y3" s="4">
         <v>0</v>
@@ -1646,7 +1646,7 @@
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
       <c r="X4" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y4" s="4">
         <v>0</v>
@@ -1679,7 +1679,7 @@
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
       <c r="X5" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y5" s="4">
         <v>0</v>
@@ -1712,7 +1712,7 @@
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
       <c r="X6" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y6" s="4">
         <v>0</v>
@@ -1745,7 +1745,7 @@
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
       <c r="X7" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y7" s="4">
         <v>0</v>
@@ -1778,7 +1778,7 @@
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
       <c r="X8" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y8" s="4">
         <v>0</v>
@@ -1811,7 +1811,7 @@
       <c r="V9" s="4"/>
       <c r="W9" s="4"/>
       <c r="X9" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y9" s="4">
         <v>0</v>
@@ -1819,7 +1819,7 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -1887,7 +1887,7 @@
         <v>2020</v>
       </c>
       <c r="Y14" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
@@ -1917,7 +1917,7 @@
       <c r="V15" s="9"/>
       <c r="W15" s="9"/>
       <c r="X15" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y15" s="9">
         <v>0</v>
@@ -1950,7 +1950,7 @@
       <c r="V16" s="9"/>
       <c r="W16" s="9"/>
       <c r="X16" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y16" s="9">
         <v>0</v>
@@ -1983,7 +1983,7 @@
       <c r="V17" s="9"/>
       <c r="W17" s="9"/>
       <c r="X17" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y17" s="9">
         <v>0</v>
@@ -2016,7 +2016,7 @@
       <c r="V18" s="9"/>
       <c r="W18" s="9"/>
       <c r="X18" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y18" s="9">
         <v>0</v>
@@ -2049,7 +2049,7 @@
       <c r="V19" s="9"/>
       <c r="W19" s="9"/>
       <c r="X19" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y19" s="9">
         <v>0</v>
@@ -2082,7 +2082,7 @@
       <c r="V20" s="9"/>
       <c r="W20" s="9"/>
       <c r="X20" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y20" s="9">
         <v>0</v>
@@ -2115,7 +2115,7 @@
       <c r="V21" s="9"/>
       <c r="W21" s="9"/>
       <c r="X21" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y21" s="9">
         <v>0</v>
@@ -2123,7 +2123,7 @@
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:25" ht="14.45" x14ac:dyDescent="0.3">
@@ -2191,12 +2191,12 @@
         <v>2020</v>
       </c>
       <c r="Y26" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:25" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B27" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -2220,7 +2220,7 @@
       <c r="V27" s="4"/>
       <c r="W27" s="4"/>
       <c r="X27" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y27" s="4">
         <v>0</v>
@@ -2251,7 +2251,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -2385,7 +2385,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -2521,7 +2521,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -2649,7 +2649,7 @@
     </row>
     <row r="37" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -2775,7 +2775,7 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -2927,129 +2927,129 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="49" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="46"/>
+      <c r="B3" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="51" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="48"/>
-      <c r="B3" s="50" t="s">
+      <c r="C3" s="50">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="D3" s="50">
+        <v>1E-4</v>
+      </c>
+      <c r="E3" s="50">
+        <v>1.4E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="46"/>
+      <c r="B4" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="52">
+      <c r="C4" s="50">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="D4" s="50">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="E4" s="50">
+        <v>1.1000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="46"/>
+      <c r="B5" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="50">
+        <v>1.38E-2</v>
+      </c>
+      <c r="D5" s="50">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="E5" s="50">
+        <v>1.8599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="46"/>
+      <c r="B6" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="50">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="D6" s="50">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="D3" s="52">
-        <v>1E-4</v>
-      </c>
-      <c r="E3" s="52">
-        <v>1.4E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="48"/>
-      <c r="B4" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="52">
-        <v>8.0000000000000004E-4</v>
-      </c>
-      <c r="D4" s="52">
-        <v>5.9999999999999995E-4</v>
-      </c>
-      <c r="E4" s="52">
-        <v>1.1000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="48"/>
-      <c r="B5" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="52">
-        <v>1.38E-2</v>
-      </c>
-      <c r="D5" s="52">
-        <v>1.0200000000000001E-2</v>
-      </c>
-      <c r="E5" s="52">
-        <v>1.8599999999999998E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="48"/>
-      <c r="B6" s="50" t="s">
+      <c r="E6" s="50">
+        <v>2.8E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="46"/>
+      <c r="B7" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="52">
-        <v>1.1000000000000001E-3</v>
-      </c>
-      <c r="D6" s="52">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="E6" s="52">
-        <v>2.8E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="48"/>
-      <c r="B7" s="50" t="s">
+      <c r="C7" s="50">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D7" s="50">
+        <v>6.3E-3</v>
+      </c>
+      <c r="E7" s="50">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="46"/>
+      <c r="B8" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="52">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="D7" s="52">
-        <v>6.3E-3</v>
-      </c>
-      <c r="E7" s="52">
-        <v>2.4E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="48"/>
-      <c r="B8" s="50" t="s">
+      <c r="C8" s="50">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="D8" s="50">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="E8" s="50">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="46"/>
+      <c r="B9" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="52">
-        <v>0.36699999999999999</v>
-      </c>
-      <c r="D8" s="52">
-        <v>0.29399999999999998</v>
-      </c>
-      <c r="E8" s="52">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="48"/>
-      <c r="B9" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="52">
+      <c r="C9" s="50">
         <v>0.20499999999999999</v>
       </c>
-      <c r="D9" s="52">
+      <c r="D9" s="50">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E9" s="52">
+      <c r="E9" s="50">
         <v>0.27</v>
       </c>
     </row>
@@ -3075,114 +3075,114 @@
       <c r="E12" s="38"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="46"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="49" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="46"/>
+      <c r="B15" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="48"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="51" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="48"/>
-      <c r="B15" s="50" t="s">
+      <c r="C15" s="51">
+        <v>26.03</v>
+      </c>
+      <c r="D15" s="51">
+        <v>2</v>
+      </c>
+      <c r="E15" s="51">
+        <v>48.02</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="46"/>
+      <c r="B16" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="53">
-        <v>26.03</v>
-      </c>
-      <c r="D15" s="53">
-        <v>2</v>
-      </c>
-      <c r="E15" s="53">
-        <v>48.02</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="48"/>
-      <c r="B16" s="50" t="s">
+      <c r="C16" s="51">
+        <v>1</v>
+      </c>
+      <c r="D16" s="51">
+        <v>1</v>
+      </c>
+      <c r="E16" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="46"/>
+      <c r="B17" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="53">
+      <c r="C17" s="51">
         <v>1</v>
       </c>
-      <c r="D16" s="53">
+      <c r="D17" s="51">
         <v>1</v>
       </c>
-      <c r="E16" s="53">
+      <c r="E17" s="51">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="48"/>
-      <c r="B17" s="50" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="46"/>
+      <c r="B18" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="53">
+      <c r="C18" s="51">
         <v>1</v>
       </c>
-      <c r="D17" s="53">
+      <c r="D18" s="51">
         <v>1</v>
       </c>
-      <c r="E17" s="53">
+      <c r="E18" s="51">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="48"/>
-      <c r="B18" s="50" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="46"/>
+      <c r="B19" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="53">
-        <v>1</v>
-      </c>
-      <c r="D18" s="53">
-        <v>1</v>
-      </c>
-      <c r="E18" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="48"/>
-      <c r="B19" s="50" t="s">
+      <c r="C19" s="51">
+        <v>3.49</v>
+      </c>
+      <c r="D19" s="51">
+        <v>1.76</v>
+      </c>
+      <c r="E19" s="51">
+        <v>6.92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="46"/>
+      <c r="B20" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="53">
-        <v>3.49</v>
-      </c>
-      <c r="D19" s="53">
-        <v>1.76</v>
-      </c>
-      <c r="E19" s="53">
-        <v>6.92</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="48"/>
-      <c r="B20" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" s="53">
+      <c r="C20" s="51">
         <v>7.17</v>
       </c>
-      <c r="D20" s="53">
+      <c r="D20" s="51">
         <v>3.9</v>
       </c>
-      <c r="E20" s="53">
+      <c r="E20" s="51">
         <v>12.08</v>
       </c>
     </row>
@@ -3208,99 +3208,99 @@
       <c r="E23" s="38"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="49" t="s">
+      <c r="A24" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="46"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="49" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="46"/>
+      <c r="B26" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="B24" s="48"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="48"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25" s="51" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="48"/>
-      <c r="B26" s="50" t="s">
+      <c r="C26" s="52">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="D26" s="52">
+        <v>2</v>
+      </c>
+      <c r="E26" s="52">
+        <v>9.76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="46"/>
+      <c r="B27" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="52">
+        <v>1.05</v>
+      </c>
+      <c r="D27" s="52">
+        <v>0.86</v>
+      </c>
+      <c r="E27" s="52">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="46"/>
+      <c r="B28" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" s="52">
+        <v>0.33</v>
+      </c>
+      <c r="D28" s="52">
+        <v>0.32</v>
+      </c>
+      <c r="E28" s="52">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="46"/>
+      <c r="B29" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="54">
-        <v>4.1399999999999997</v>
-      </c>
-      <c r="D26" s="54">
-        <v>2</v>
-      </c>
-      <c r="E26" s="54">
-        <v>9.76</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="48"/>
-      <c r="B27" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" s="54">
-        <v>1.05</v>
-      </c>
-      <c r="D27" s="54">
-        <v>0.86</v>
-      </c>
-      <c r="E27" s="54">
-        <v>1.61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="48"/>
-      <c r="B28" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="C28" s="54">
-        <v>0.33</v>
-      </c>
-      <c r="D28" s="54">
-        <v>0.32</v>
-      </c>
-      <c r="E28" s="54">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="48"/>
-      <c r="B29" s="50" t="s">
+      <c r="C29" s="52">
+        <v>0.27</v>
+      </c>
+      <c r="D29" s="52">
+        <v>0.25</v>
+      </c>
+      <c r="E29" s="52">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="46"/>
+      <c r="B30" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="C29" s="54">
-        <v>0.27</v>
-      </c>
-      <c r="D29" s="54">
-        <v>0.25</v>
-      </c>
-      <c r="E29" s="54">
-        <v>0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="48"/>
-      <c r="B30" s="50" t="s">
-        <v>77</v>
-      </c>
-      <c r="C30" s="54">
+      <c r="C30" s="52">
         <v>0.67</v>
       </c>
-      <c r="D30" s="54">
+      <c r="D30" s="52">
         <v>0.44</v>
       </c>
-      <c r="E30" s="54">
+      <c r="E30" s="52">
         <v>0.88</v>
       </c>
     </row>
@@ -3326,84 +3326,84 @@
       <c r="E33" s="38"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="49" t="s">
+      <c r="A34" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="46"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" s="49" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="46"/>
+      <c r="B36" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="B34" s="48"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="48"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="48"/>
-      <c r="B35" s="48"/>
-      <c r="C35" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="D35" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="E35" s="51" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="48"/>
-      <c r="B36" s="50" t="s">
+      <c r="C36" s="52">
+        <v>0.45</v>
+      </c>
+      <c r="D36" s="52">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E36" s="52">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="46"/>
+      <c r="B37" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="C36" s="54">
-        <v>0.45</v>
-      </c>
-      <c r="D36" s="54">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E36" s="54">
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="48"/>
-      <c r="B37" s="50" t="s">
+      <c r="C37" s="52">
+        <v>0.7</v>
+      </c>
+      <c r="D37" s="52">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E37" s="52">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="46"/>
+      <c r="B38" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="54">
-        <v>0.7</v>
-      </c>
-      <c r="D37" s="54">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="E37" s="54">
-        <v>1.1100000000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="48"/>
-      <c r="B38" s="50" t="s">
+      <c r="C38" s="52">
+        <v>0.47</v>
+      </c>
+      <c r="D38" s="52">
+        <v>0.33</v>
+      </c>
+      <c r="E38" s="52">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="46"/>
+      <c r="B39" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="C38" s="54">
-        <v>0.47</v>
-      </c>
-      <c r="D38" s="54">
-        <v>0.33</v>
-      </c>
-      <c r="E38" s="54">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="48"/>
-      <c r="B39" s="50" t="s">
-        <v>82</v>
-      </c>
-      <c r="C39" s="54">
+      <c r="C39" s="52">
         <v>1.52</v>
       </c>
-      <c r="D39" s="54">
+      <c r="D39" s="52">
         <v>1.06</v>
       </c>
-      <c r="E39" s="54">
+      <c r="E39" s="52">
         <v>1.96</v>
       </c>
     </row>
@@ -3429,99 +3429,99 @@
       <c r="E42" s="38"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="49" t="s">
+      <c r="A43" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" s="46"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="46"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="46"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" s="49" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="46"/>
+      <c r="B45" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" s="50">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="D45" s="50">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="E45" s="50">
+        <v>4.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="46"/>
+      <c r="B46" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46" s="50">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="D46" s="50">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="E46" s="50">
+        <v>4.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="46"/>
+      <c r="B47" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="B43" s="48"/>
-      <c r="C43" s="48"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="48"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="48"/>
-      <c r="B44" s="48"/>
-      <c r="C44" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="D44" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="E44" s="51" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="48"/>
-      <c r="B45" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="C45" s="52">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D45" s="52">
-        <v>2.8999999999999998E-3</v>
-      </c>
-      <c r="E45" s="52">
-        <v>4.4000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="48"/>
-      <c r="B46" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="C46" s="52">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D46" s="52">
-        <v>2.8999999999999998E-3</v>
-      </c>
-      <c r="E46" s="52">
-        <v>4.4000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="48"/>
-      <c r="B47" s="50" t="s">
-        <v>84</v>
-      </c>
-      <c r="C47" s="52">
+      <c r="C47" s="50">
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="D47" s="52">
+      <c r="D47" s="50">
         <v>4.7999999999999996E-3</v>
       </c>
-      <c r="E47" s="52">
+      <c r="E47" s="50">
         <v>7.1000000000000004E-3</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="48"/>
-      <c r="B48" s="50" t="s">
+      <c r="A48" s="46"/>
+      <c r="B48" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="C48" s="50">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="D48" s="50">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E48" s="50">
+        <v>1.01E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="46"/>
+      <c r="B49" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="C48" s="52">
-        <v>8.8000000000000005E-3</v>
-      </c>
-      <c r="D48" s="52">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="E48" s="52">
-        <v>1.01E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="48"/>
-      <c r="B49" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="C49" s="52">
+      <c r="C49" s="50">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="D49" s="52">
+      <c r="D49" s="50">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="E49" s="52">
+      <c r="E49" s="50">
         <v>7.9000000000000001E-2</v>
       </c>
       <c r="F49" s="38"/>
@@ -3530,17 +3530,17 @@
       <c r="I49" s="38"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="48"/>
-      <c r="B50" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="C50" s="52">
+      <c r="A50" s="46"/>
+      <c r="B50" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="C50" s="50">
         <v>0.32300000000000001</v>
       </c>
-      <c r="D50" s="52">
+      <c r="D50" s="50">
         <v>0.29599999999999999</v>
       </c>
-      <c r="E50" s="52">
+      <c r="E50" s="50">
         <v>0.432</v>
       </c>
       <c r="F50" s="38"/>
@@ -3549,17 +3549,17 @@
       <c r="I50" s="38"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="48"/>
-      <c r="B51" s="50" t="s">
-        <v>85</v>
-      </c>
-      <c r="C51" s="52">
+      <c r="A51" s="46"/>
+      <c r="B51" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="C51" s="50">
         <v>0.23</v>
       </c>
-      <c r="D51" s="52">
+      <c r="D51" s="50">
         <v>0.15</v>
       </c>
-      <c r="E51" s="52">
+      <c r="E51" s="50">
         <v>0.3</v>
       </c>
       <c r="F51" s="38"/>
@@ -3568,17 +3568,17 @@
       <c r="I51" s="38"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="48"/>
-      <c r="B52" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="C52" s="52">
+      <c r="A52" s="46"/>
+      <c r="B52" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="C52" s="50">
         <v>2.17</v>
       </c>
-      <c r="D52" s="52">
+      <c r="D52" s="50">
         <v>1.27</v>
       </c>
-      <c r="E52" s="52">
+      <c r="E52" s="50">
         <v>3.71</v>
       </c>
       <c r="F52" s="38"/>
@@ -3620,29 +3620,29 @@
       <c r="I55" s="38"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="49" t="s">
-        <v>115</v>
-      </c>
-      <c r="B56" s="48"/>
-      <c r="C56" s="48"/>
-      <c r="D56" s="48"/>
-      <c r="E56" s="48"/>
+      <c r="A56" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="B56" s="46"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="46"/>
+      <c r="E56" s="46"/>
       <c r="F56" s="38"/>
       <c r="G56" s="38"/>
       <c r="H56" s="38"/>
       <c r="I56" s="38"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="48"/>
-      <c r="B57" s="48"/>
-      <c r="C57" s="51" t="s">
+      <c r="A57" s="46"/>
+      <c r="B57" s="46"/>
+      <c r="C57" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="D57" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="D57" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="E57" s="51" t="s">
-        <v>23</v>
+      <c r="E57" s="49" t="s">
+        <v>22</v>
       </c>
       <c r="F57" s="38"/>
       <c r="G57" s="38"/>
@@ -3650,17 +3650,17 @@
       <c r="I57" s="38"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="48"/>
-      <c r="B58" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="C58" s="54">
+      <c r="A58" s="46"/>
+      <c r="B58" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="C58" s="52">
         <v>0.95</v>
       </c>
-      <c r="D58" s="54">
+      <c r="D58" s="52">
         <v>0.8</v>
       </c>
-      <c r="E58" s="54">
+      <c r="E58" s="52">
         <v>0.98</v>
       </c>
       <c r="F58" s="38"/>
@@ -3669,17 +3669,17 @@
       <c r="I58" s="42"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="48"/>
-      <c r="B59" s="50" t="s">
-        <v>88</v>
-      </c>
-      <c r="C59" s="54">
+      <c r="A59" s="46"/>
+      <c r="B59" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="C59" s="52">
         <v>0.57999999999999996</v>
       </c>
-      <c r="D59" s="54">
+      <c r="D59" s="52">
         <v>0.47</v>
       </c>
-      <c r="E59" s="54">
+      <c r="E59" s="52">
         <v>0.67</v>
       </c>
       <c r="F59" s="38"/>
@@ -3688,17 +3688,17 @@
       <c r="I59" s="42"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="48"/>
-      <c r="B60" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="C60" s="54">
+      <c r="A60" s="46"/>
+      <c r="B60" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="C60" s="52">
         <v>0.54</v>
       </c>
-      <c r="D60" s="54">
+      <c r="D60" s="52">
         <v>0.33</v>
       </c>
-      <c r="E60" s="54">
+      <c r="E60" s="52">
         <v>0.68</v>
       </c>
       <c r="F60" s="38"/>
@@ -3707,17 +3707,17 @@
       <c r="I60" s="42"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="48"/>
-      <c r="B61" s="50" t="s">
-        <v>109</v>
-      </c>
-      <c r="C61" s="54">
+      <c r="A61" s="46"/>
+      <c r="B61" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="C61" s="52">
         <v>0</v>
       </c>
-      <c r="D61" s="54">
+      <c r="D61" s="52">
         <v>0</v>
       </c>
-      <c r="E61" s="54">
+      <c r="E61" s="52">
         <v>0.68</v>
       </c>
       <c r="F61" s="38"/>
@@ -3726,17 +3726,17 @@
       <c r="I61" s="42"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="48"/>
-      <c r="B62" s="50" t="s">
-        <v>90</v>
-      </c>
-      <c r="C62" s="54">
+      <c r="A62" s="46"/>
+      <c r="B62" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="C62" s="52">
         <v>2.65</v>
       </c>
-      <c r="D62" s="54">
+      <c r="D62" s="52">
         <v>1.35</v>
       </c>
-      <c r="E62" s="54">
+      <c r="E62" s="52">
         <v>5.19</v>
       </c>
       <c r="F62" s="38"/>
@@ -3745,17 +3745,17 @@
       <c r="I62" s="42"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="48"/>
-      <c r="B63" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="C63" s="54">
+      <c r="A63" s="46"/>
+      <c r="B63" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63" s="52">
         <v>0.9</v>
       </c>
-      <c r="D63" s="54">
+      <c r="D63" s="52">
         <v>0.82</v>
       </c>
-      <c r="E63" s="54">
+      <c r="E63" s="52">
         <v>0.93</v>
       </c>
       <c r="F63" s="38"/>
@@ -3764,17 +3764,17 @@
       <c r="I63" s="42"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="48"/>
-      <c r="B64" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="C64" s="54">
+      <c r="A64" s="46"/>
+      <c r="B64" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="C64" s="52">
         <v>0.73</v>
       </c>
-      <c r="D64" s="54">
+      <c r="D64" s="52">
         <v>0.65</v>
       </c>
-      <c r="E64" s="54">
+      <c r="E64" s="52">
         <v>0.8</v>
       </c>
       <c r="F64" s="38"/>
@@ -3783,17 +3783,17 @@
       <c r="I64" s="42"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="48"/>
-      <c r="B65" s="50" t="s">
-        <v>116</v>
-      </c>
-      <c r="C65" s="54">
+      <c r="A65" s="46"/>
+      <c r="B65" s="48" t="s">
+        <v>115</v>
+      </c>
+      <c r="C65" s="52">
         <v>0.5</v>
       </c>
-      <c r="D65" s="54">
+      <c r="D65" s="52">
         <v>0.3</v>
       </c>
-      <c r="E65" s="54">
+      <c r="E65" s="52">
         <v>0.8</v>
       </c>
       <c r="F65" s="38"/>
@@ -3802,17 +3802,17 @@
       <c r="I65" s="42"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="48"/>
-      <c r="B66" s="50" t="s">
-        <v>117</v>
-      </c>
-      <c r="C66" s="54">
+      <c r="A66" s="46"/>
+      <c r="B66" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="C66" s="52">
         <v>0.92</v>
       </c>
-      <c r="D66" s="54">
+      <c r="D66" s="52">
         <v>0.8</v>
       </c>
-      <c r="E66" s="54">
+      <c r="E66" s="52">
         <v>0.95</v>
       </c>
       <c r="F66" s="38"/>
@@ -3821,17 +3821,17 @@
       <c r="I66" s="38"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="48"/>
-      <c r="B67" s="50" t="s">
-        <v>118</v>
-      </c>
-      <c r="C67" s="54">
+      <c r="A67" s="46"/>
+      <c r="B67" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="C67" s="52">
         <v>0.9</v>
       </c>
-      <c r="D67" s="54">
+      <c r="D67" s="52">
         <v>0.8</v>
       </c>
-      <c r="E67" s="54">
+      <c r="E67" s="52">
         <v>0.95</v>
       </c>
       <c r="F67" s="38"/>
@@ -3873,13 +3873,13 @@
       <c r="I70" s="38"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="B71" s="48"/>
-      <c r="C71" s="48"/>
-      <c r="D71" s="48"/>
-      <c r="E71" s="48"/>
+      <c r="A71" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="B71" s="46"/>
+      <c r="C71" s="46"/>
+      <c r="D71" s="46"/>
+      <c r="E71" s="46"/>
       <c r="F71" s="38"/>
       <c r="G71" s="38"/>
       <c r="H71" s="38"/>
@@ -3887,16 +3887,16 @@
       <c r="J71" s="27"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="48"/>
-      <c r="B72" s="48"/>
-      <c r="C72" s="51" t="s">
+      <c r="A72" s="46"/>
+      <c r="B72" s="46"/>
+      <c r="C72" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="D72" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="D72" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="E72" s="51" t="s">
-        <v>23</v>
+      <c r="E72" s="49" t="s">
+        <v>22</v>
       </c>
       <c r="F72" s="38"/>
       <c r="G72" s="38"/>
@@ -3905,17 +3905,17 @@
       <c r="J72" s="27"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="48"/>
-      <c r="B73" s="50" t="s">
-        <v>93</v>
-      </c>
-      <c r="C73" s="53">
+      <c r="A73" s="46"/>
+      <c r="B73" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="C73" s="51">
         <v>0.14599999999999999</v>
       </c>
-      <c r="D73" s="53">
+      <c r="D73" s="51">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="E73" s="53">
+      <c r="E73" s="51">
         <v>0.20499999999999999</v>
       </c>
       <c r="F73" s="38"/>
@@ -3925,17 +3925,17 @@
       <c r="J73" s="27"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="48"/>
-      <c r="B74" s="50" t="s">
-        <v>94</v>
-      </c>
-      <c r="C74" s="53">
+      <c r="A74" s="46"/>
+      <c r="B74" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="C74" s="51">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="D74" s="53">
+      <c r="D74" s="51">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E74" s="53">
+      <c r="E74" s="51">
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="F74" s="38"/>
@@ -3944,17 +3944,17 @@
       <c r="I74" s="38"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="48"/>
-      <c r="B75" s="50" t="s">
-        <v>95</v>
-      </c>
-      <c r="C75" s="53">
+      <c r="A75" s="46"/>
+      <c r="B75" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="C75" s="51">
         <v>0.02</v>
       </c>
-      <c r="D75" s="53">
+      <c r="D75" s="51">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="E75" s="53">
+      <c r="E75" s="51">
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="F75" s="38"/>
@@ -3963,17 +3963,17 @@
       <c r="I75" s="38"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="48"/>
-      <c r="B76" s="50" t="s">
-        <v>96</v>
-      </c>
-      <c r="C76" s="53">
+      <c r="A76" s="46"/>
+      <c r="B76" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="C76" s="51">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D76" s="53">
+      <c r="D76" s="51">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="E76" s="53">
+      <c r="E76" s="51">
         <v>9.4E-2</v>
       </c>
       <c r="F76" s="38"/>
@@ -3982,17 +3982,17 @@
       <c r="I76" s="38"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="48"/>
-      <c r="B77" s="50" t="s">
-        <v>97</v>
-      </c>
-      <c r="C77" s="53">
+      <c r="A77" s="46"/>
+      <c r="B77" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="C77" s="51">
         <v>0.26500000000000001</v>
       </c>
-      <c r="D77" s="53">
+      <c r="D77" s="51">
         <v>0.114</v>
       </c>
-      <c r="E77" s="53">
+      <c r="E77" s="51">
         <v>0.47399999999999998</v>
       </c>
       <c r="F77" s="38"/>
@@ -4001,32 +4001,32 @@
       <c r="I77" s="38"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="48"/>
-      <c r="B78" s="50" t="s">
+      <c r="A78" s="46"/>
+      <c r="B78" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="C78" s="51">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="D78" s="51">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="E78" s="51">
+        <v>0.71499999999999997</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="46"/>
+      <c r="B79" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="C78" s="53">
-        <v>0.54700000000000004</v>
-      </c>
-      <c r="D78" s="53">
-        <v>0.38200000000000001</v>
-      </c>
-      <c r="E78" s="53">
-        <v>0.71499999999999997</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="48"/>
-      <c r="B79" s="50" t="s">
-        <v>99</v>
-      </c>
-      <c r="C79" s="53">
+      <c r="C79" s="51">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="D79" s="53">
+      <c r="D79" s="51">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="E79" s="53">
+      <c r="E79" s="51">
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
@@ -4054,27 +4054,27 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="G2" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="H2" s="31" t="s">
         <v>105</v>
-      </c>
-      <c r="H2" s="31" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -4082,16 +4082,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="G3" s="4">
         <v>15</v>
@@ -4105,16 +4105,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="E4" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G4" s="4">
         <v>15</v>
@@ -4128,16 +4128,16 @@
         <v>3</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="E5" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G5" s="4">
         <v>15</v>
@@ -4151,16 +4151,16 @@
         <v>4</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G6" s="4">
         <v>0</v>
@@ -4174,16 +4174,16 @@
         <v>5</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="G7" s="4">
         <v>0</v>
@@ -4197,16 +4197,16 @@
         <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G8" s="4">
         <v>15</v>
@@ -4220,16 +4220,16 @@
         <v>7</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="G9" s="4">
         <v>15</v>
@@ -4261,7 +4261,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K1" s="13"/>
     </row>
@@ -4330,7 +4330,7 @@
         <v>2020</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
@@ -4339,7 +4339,7 @@
         <v>FSW</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -4363,7 +4363,7 @@
       <c r="W3" s="7"/>
       <c r="X3" s="7"/>
       <c r="Y3" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z3" s="7"/>
     </row>
@@ -4373,7 +4373,7 @@
         <v>FSW</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="10">
         <v>139172.68199999997</v>
@@ -4419,7 +4419,7 @@
       <c r="W4" s="7"/>
       <c r="X4" s="7"/>
       <c r="Y4" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z4" s="7"/>
     </row>
@@ -4429,7 +4429,7 @@
         <v>FSW</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -4453,7 +4453,7 @@
       <c r="W5" s="7"/>
       <c r="X5" s="7"/>
       <c r="Y5" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z5" s="7"/>
     </row>
@@ -4463,7 +4463,7 @@
         <v>Clients</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -4487,7 +4487,7 @@
       <c r="W7" s="7"/>
       <c r="X7" s="7"/>
       <c r="Y7" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z7" s="7"/>
     </row>
@@ -4497,7 +4497,7 @@
         <v>Clients</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" s="11">
         <v>979330.74050000007</v>
@@ -4543,7 +4543,7 @@
       <c r="W8" s="7"/>
       <c r="X8" s="7"/>
       <c r="Y8" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z8" s="7"/>
     </row>
@@ -4553,7 +4553,7 @@
         <v>Clients</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
@@ -4577,7 +4577,7 @@
       <c r="W9" s="7"/>
       <c r="X9" s="7"/>
       <c r="Y9" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z9" s="7"/>
     </row>
@@ -4587,7 +4587,7 @@
         <v>MSM</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -4611,7 +4611,7 @@
       <c r="W11" s="7"/>
       <c r="X11" s="7"/>
       <c r="Y11" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z11" s="7"/>
     </row>
@@ -4621,7 +4621,7 @@
         <v>MSM</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" s="12">
         <v>233634.81954</v>
@@ -4667,7 +4667,7 @@
       <c r="W12" s="7"/>
       <c r="X12" s="7"/>
       <c r="Y12" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z12" s="7"/>
     </row>
@@ -4677,7 +4677,7 @@
         <v>MSM</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -4701,7 +4701,7 @@
       <c r="W13" s="7"/>
       <c r="X13" s="7"/>
       <c r="Y13" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z13" s="7"/>
     </row>
@@ -4724,7 +4724,7 @@
         <v>M 0-14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -4748,7 +4748,7 @@
       <c r="W15" s="7"/>
       <c r="X15" s="7"/>
       <c r="Y15" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z15" s="7"/>
     </row>
@@ -4758,7 +4758,7 @@
         <v>M 0-14</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16" s="10">
         <v>5723488.8407041095</v>
@@ -4804,7 +4804,7 @@
       <c r="W16" s="7"/>
       <c r="X16" s="7"/>
       <c r="Y16" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z16" s="7"/>
     </row>
@@ -4814,7 +4814,7 @@
         <v>M 0-14</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -4838,7 +4838,7 @@
       <c r="W17" s="7"/>
       <c r="X17" s="7"/>
       <c r="Y17" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z17" s="7"/>
     </row>
@@ -4848,7 +4848,7 @@
         <v>F 0-14</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
@@ -4872,7 +4872,7 @@
       <c r="W19" s="7"/>
       <c r="X19" s="7"/>
       <c r="Y19" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z19" s="7"/>
     </row>
@@ -4882,7 +4882,7 @@
         <v>F 0-14</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D20" s="10">
         <v>6556511.1592958905</v>
@@ -4928,7 +4928,7 @@
       <c r="W20" s="7"/>
       <c r="X20" s="7"/>
       <c r="Y20" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z20" s="7"/>
     </row>
@@ -4938,7 +4938,7 @@
         <v>F 0-14</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
@@ -4962,7 +4962,7 @@
       <c r="W21" s="7"/>
       <c r="X21" s="7"/>
       <c r="Y21" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z21" s="7"/>
     </row>
@@ -4972,7 +4972,7 @@
         <v>M 15+</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
@@ -4996,7 +4996,7 @@
       <c r="W23" s="7"/>
       <c r="X23" s="7"/>
       <c r="Y23" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z23" s="7"/>
     </row>
@@ -5006,7 +5006,7 @@
         <v>M 15+</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D24" s="11">
         <v>7233255.1607159991</v>
@@ -5052,7 +5052,7 @@
       <c r="W24" s="7"/>
       <c r="X24" s="7"/>
       <c r="Y24" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z24" s="7"/>
     </row>
@@ -5062,7 +5062,7 @@
         <v>M 15+</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
@@ -5086,7 +5086,7 @@
       <c r="W25" s="7"/>
       <c r="X25" s="7"/>
       <c r="Y25" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z25" s="7"/>
     </row>
@@ -5096,7 +5096,7 @@
         <v>F 15+</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
@@ -5120,7 +5120,7 @@
       <c r="W27" s="7"/>
       <c r="X27" s="7"/>
       <c r="Y27" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z27" s="7"/>
     </row>
@@ -5130,7 +5130,7 @@
         <v>F 15+</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D28" s="11">
         <v>7787827.318</v>
@@ -5176,7 +5176,7 @@
       <c r="W28" s="7"/>
       <c r="X28" s="7"/>
       <c r="Y28" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z28" s="7"/>
     </row>
@@ -5186,7 +5186,7 @@
         <v>F 15+</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
@@ -5210,13 +5210,13 @@
       <c r="W29" s="7"/>
       <c r="X29" s="7"/>
       <c r="Y29" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z29" s="7"/>
     </row>
     <row r="31" spans="2:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="M31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N31" s="24">
         <f>SUM(N4:N30)</f>
@@ -5225,7 +5225,7 @@
     </row>
     <row r="32" spans="2:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="M32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N32" s="25">
         <f>N31*0.0023</f>
@@ -5236,7 +5236,7 @@
         <v>68684.434076839912</v>
       </c>
       <c r="P32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="14:16" ht="14.45" x14ac:dyDescent="0.3">
@@ -5245,7 +5245,7 @@
         <v>4.1617726613312378</v>
       </c>
       <c r="P33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -5276,7 +5276,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
@@ -5344,7 +5344,7 @@
         <v>2020</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
@@ -5353,7 +5353,7 @@
         <v>FSW</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="5">
         <v>0.05</v>
@@ -5383,7 +5383,7 @@
       <c r="W3" s="5"/>
       <c r="X3" s="5"/>
       <c r="Y3" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z3" s="5"/>
     </row>
@@ -5393,7 +5393,7 @@
         <v>FSW</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="5">
         <v>3.5000000000000003E-2</v>
@@ -5423,7 +5423,7 @@
       <c r="W4" s="5"/>
       <c r="X4" s="5"/>
       <c r="Y4" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z4" s="5"/>
     </row>
@@ -5433,7 +5433,7 @@
         <v>FSW</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="5">
         <v>0.02</v>
@@ -5463,7 +5463,7 @@
       <c r="W5" s="5"/>
       <c r="X5" s="5"/>
       <c r="Y5" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z5" s="5"/>
     </row>
@@ -5473,7 +5473,7 @@
         <v>Clients</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -5497,7 +5497,7 @@
       <c r="W7" s="5"/>
       <c r="X7" s="5"/>
       <c r="Y7" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z7" s="5"/>
     </row>
@@ -5507,7 +5507,7 @@
         <v>Clients</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -5531,7 +5531,7 @@
       <c r="W8" s="5"/>
       <c r="X8" s="5"/>
       <c r="Y8" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z8" s="5">
         <v>8.9999999999999993E-3</v>
@@ -5543,7 +5543,7 @@
         <v>Clients</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -5567,7 +5567,7 @@
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
       <c r="Y9" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z9" s="5"/>
     </row>
@@ -5577,7 +5577,7 @@
         <v>MSM</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -5603,7 +5603,7 @@
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
       <c r="Y11" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z11" s="5"/>
     </row>
@@ -5613,7 +5613,7 @@
         <v>MSM</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -5645,7 +5645,7 @@
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
       <c r="Y12" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z12" s="5"/>
     </row>
@@ -5655,7 +5655,7 @@
         <v>MSM</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -5681,7 +5681,7 @@
       <c r="W13" s="5"/>
       <c r="X13" s="5"/>
       <c r="Y13" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z13" s="5"/>
     </row>
@@ -5691,7 +5691,7 @@
         <v>M 0-14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -5715,7 +5715,7 @@
       <c r="W15" s="5"/>
       <c r="X15" s="5"/>
       <c r="Y15" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z15" s="5"/>
     </row>
@@ -5725,7 +5725,7 @@
         <v>M 0-14</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -5749,7 +5749,7 @@
       <c r="W16" s="5"/>
       <c r="X16" s="5"/>
       <c r="Y16" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z16" s="5">
         <v>2.9999999999999997E-4</v>
@@ -5761,7 +5761,7 @@
         <v>M 0-14</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -5785,7 +5785,7 @@
       <c r="W17" s="5"/>
       <c r="X17" s="5"/>
       <c r="Y17" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z17" s="5"/>
     </row>
@@ -5795,7 +5795,7 @@
         <v>F 0-14</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -5819,7 +5819,7 @@
       <c r="W19" s="5"/>
       <c r="X19" s="5"/>
       <c r="Y19" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z19" s="5"/>
     </row>
@@ -5829,7 +5829,7 @@
         <v>F 0-14</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -5853,7 +5853,7 @@
       <c r="W20" s="5"/>
       <c r="X20" s="5"/>
       <c r="Y20" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z20" s="5">
         <v>2.9999999999999997E-4</v>
@@ -5865,7 +5865,7 @@
         <v>F 0-14</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -5889,7 +5889,7 @@
       <c r="W21" s="5"/>
       <c r="X21" s="5"/>
       <c r="Y21" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z21" s="5"/>
     </row>
@@ -5899,7 +5899,7 @@
         <v>M 15+</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -5923,7 +5923,7 @@
       <c r="W23" s="5"/>
       <c r="X23" s="5"/>
       <c r="Y23" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z23" s="5"/>
     </row>
@@ -5933,7 +5933,7 @@
         <v>M 15+</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D24" s="5">
         <v>5.0000000000000001E-4</v>
@@ -5971,7 +5971,7 @@
       <c r="W24" s="5"/>
       <c r="X24" s="5"/>
       <c r="Y24" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z24" s="5"/>
     </row>
@@ -5981,7 +5981,7 @@
         <v>M 15+</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -6005,7 +6005,7 @@
       <c r="W25" s="5"/>
       <c r="X25" s="5"/>
       <c r="Y25" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z25" s="5"/>
     </row>
@@ -6015,7 +6015,7 @@
         <v>F 15+</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -6039,7 +6039,7 @@
       <c r="W27" s="5"/>
       <c r="X27" s="5"/>
       <c r="Y27" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z27" s="5"/>
     </row>
@@ -6049,7 +6049,7 @@
         <v>F 15+</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D28" s="5">
         <v>8.4999999999999995E-4</v>
@@ -6087,7 +6087,7 @@
       <c r="W28" s="5"/>
       <c r="X28" s="5"/>
       <c r="Y28" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z28" s="5"/>
     </row>
@@ -6097,7 +6097,7 @@
         <v>F 15+</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -6121,7 +6121,7 @@
       <c r="W29" s="5"/>
       <c r="X29" s="5"/>
       <c r="Y29" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z29" s="5"/>
     </row>
@@ -6148,7 +6148,7 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
@@ -6216,7 +6216,7 @@
         <v>2020</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -6246,7 +6246,7 @@
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
       <c r="X3" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y3" s="5">
         <v>0.01</v>
@@ -6279,7 +6279,7 @@
       <c r="V4" s="5"/>
       <c r="W4" s="5"/>
       <c r="X4" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y4" s="5">
         <v>0.01</v>
@@ -6312,7 +6312,7 @@
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
       <c r="X5" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y5" s="5">
         <v>0.01</v>
@@ -6345,7 +6345,7 @@
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
       <c r="X6" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y6" s="5">
         <v>0.01</v>
@@ -6378,7 +6378,7 @@
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
       <c r="X7" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y7" s="5">
         <v>0.01</v>
@@ -6411,7 +6411,7 @@
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
       <c r="X8" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y8" s="5">
         <v>0.01</v>
@@ -6444,7 +6444,7 @@
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
       <c r="X9" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y9" s="5">
         <v>0.01</v>
@@ -6452,7 +6452,7 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -6520,7 +6520,7 @@
         <v>2020</v>
       </c>
       <c r="Y14" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
@@ -6552,7 +6552,7 @@
       <c r="V15" s="5"/>
       <c r="W15" s="5"/>
       <c r="X15" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y15" s="5"/>
     </row>
@@ -6583,7 +6583,7 @@
       <c r="V16" s="5"/>
       <c r="W16" s="5"/>
       <c r="X16" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y16" s="5">
         <v>0.02</v>
@@ -6618,7 +6618,7 @@
       <c r="V17" s="5"/>
       <c r="W17" s="5"/>
       <c r="X17" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y17" s="5"/>
     </row>
@@ -6649,7 +6649,7 @@
       <c r="V18" s="5"/>
       <c r="W18" s="5"/>
       <c r="X18" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y18" s="5">
         <v>0</v>
@@ -6682,7 +6682,7 @@
       <c r="V19" s="5"/>
       <c r="W19" s="5"/>
       <c r="X19" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y19" s="5">
         <v>0</v>
@@ -6715,7 +6715,7 @@
       <c r="V20" s="5"/>
       <c r="W20" s="5"/>
       <c r="X20" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y20" s="5">
         <v>0.01</v>
@@ -6748,7 +6748,7 @@
       <c r="V21" s="5"/>
       <c r="W21" s="5"/>
       <c r="X21" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y21" s="5">
         <v>0.01</v>
@@ -6756,7 +6756,7 @@
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
@@ -6824,7 +6824,7 @@
         <v>2020</v>
       </c>
       <c r="Y26" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
@@ -6856,7 +6856,7 @@
       <c r="V27" s="5"/>
       <c r="W27" s="5"/>
       <c r="X27" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y27" s="5"/>
     </row>
@@ -6889,7 +6889,7 @@
       <c r="V28" s="5"/>
       <c r="W28" s="5"/>
       <c r="X28" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y28" s="5"/>
     </row>
@@ -6922,7 +6922,7 @@
       <c r="V29" s="5"/>
       <c r="W29" s="5"/>
       <c r="X29" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y29" s="5"/>
     </row>
@@ -6953,7 +6953,7 @@
       <c r="V30" s="5"/>
       <c r="W30" s="5"/>
       <c r="X30" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y30" s="5">
         <v>0</v>
@@ -6986,7 +6986,7 @@
       <c r="V31" s="5"/>
       <c r="W31" s="5"/>
       <c r="X31" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y31" s="5">
         <v>0</v>
@@ -7021,7 +7021,7 @@
       <c r="V32" s="5"/>
       <c r="W32" s="5"/>
       <c r="X32" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y32" s="5"/>
     </row>
@@ -7054,7 +7054,7 @@
       <c r="V33" s="5"/>
       <c r="W33" s="5"/>
       <c r="X33" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y33" s="5"/>
     </row>
@@ -7088,7 +7088,7 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
@@ -7156,12 +7156,12 @@
         <v>2020</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -7199,13 +7199,13 @@
       <c r="V3" s="8"/>
       <c r="W3" s="8"/>
       <c r="X3" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y3" s="8"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -7273,12 +7273,12 @@
         <v>2020</v>
       </c>
       <c r="Y8" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -7306,13 +7306,13 @@
       <c r="V9" s="8"/>
       <c r="W9" s="8"/>
       <c r="X9" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y9" s="8"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -7380,12 +7380,12 @@
         <v>2020</v>
       </c>
       <c r="Y14" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="16">
         <v>3121.27</v>
@@ -7437,13 +7437,13 @@
       <c r="V15" s="8"/>
       <c r="W15" s="8"/>
       <c r="X15" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y15" s="8"/>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.25">
@@ -7511,12 +7511,12 @@
         <v>2020</v>
       </c>
       <c r="Y20" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" s="45">
         <v>1.1000000000000001E-3</v>
@@ -7568,13 +7568,13 @@
       <c r="V21" s="45"/>
       <c r="W21" s="45"/>
       <c r="X21" s="44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y21" s="43"/>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -7709,13 +7709,13 @@
       </c>
       <c r="AH26" s="32"/>
       <c r="AI26" s="34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27" s="32"/>
       <c r="B27" s="34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27" s="35"/>
       <c r="D27" s="35"/>
@@ -7749,13 +7749,13 @@
       <c r="AF27" s="35"/>
       <c r="AG27" s="35"/>
       <c r="AH27" s="36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI27" s="35"/>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.25">
@@ -7823,12 +7823,12 @@
         <v>2020</v>
       </c>
       <c r="Y31" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C32" s="16">
         <v>714</v>
@@ -7880,13 +7880,13 @@
       <c r="V32" s="8"/>
       <c r="W32" s="8"/>
       <c r="X32" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y32" s="8"/>
     </row>
     <row r="36" spans="1:25" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:25" ht="14.45" x14ac:dyDescent="0.3">
@@ -7954,12 +7954,12 @@
         <v>2020</v>
       </c>
       <c r="Y37" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:25" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B38" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
@@ -7991,7 +7991,7 @@
       <c r="V38" s="8"/>
       <c r="W38" s="8"/>
       <c r="X38" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y38" s="8"/>
     </row>
@@ -8012,7 +8012,7 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
@@ -8080,7 +8080,7 @@
         <v>2020</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -8114,7 +8114,7 @@
       <c r="V3" s="9"/>
       <c r="W3" s="9"/>
       <c r="X3" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y3" s="9"/>
     </row>
@@ -8151,7 +8151,7 @@
       <c r="V4" s="9"/>
       <c r="W4" s="9"/>
       <c r="X4" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y4" s="9"/>
     </row>
@@ -8184,7 +8184,7 @@
       <c r="V5" s="9"/>
       <c r="W5" s="9"/>
       <c r="X5" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y5" s="9"/>
     </row>
@@ -8215,7 +8215,7 @@
       <c r="V6" s="9"/>
       <c r="W6" s="9"/>
       <c r="X6" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y6" s="9">
         <v>1E-3</v>
@@ -8248,7 +8248,7 @@
       <c r="V7" s="9"/>
       <c r="W7" s="9"/>
       <c r="X7" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y7" s="9">
         <v>1E-3</v>
@@ -8287,7 +8287,7 @@
       <c r="V8" s="9"/>
       <c r="W8" s="9"/>
       <c r="X8" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y8" s="9"/>
     </row>
@@ -8324,13 +8324,13 @@
       <c r="V9" s="9"/>
       <c r="W9" s="9"/>
       <c r="X9" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y9" s="9"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -8398,12 +8398,12 @@
         <v>2020</v>
       </c>
       <c r="Y14" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -8429,13 +8429,13 @@
       <c r="V15" s="4"/>
       <c r="W15" s="4"/>
       <c r="X15" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y15" s="4"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
@@ -8503,12 +8503,12 @@
         <v>2020</v>
       </c>
       <c r="Y20" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" s="4">
         <v>0</v>
@@ -8550,13 +8550,13 @@
       <c r="V21" s="4"/>
       <c r="W21" s="4"/>
       <c r="X21" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y21" s="4"/>
     </row>
     <row r="26" spans="1:25" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:25" ht="14.45" x14ac:dyDescent="0.3">
@@ -8624,7 +8624,7 @@
         <v>2020</v>
       </c>
       <c r="Y27" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:25" ht="14.45" x14ac:dyDescent="0.3">
@@ -8654,7 +8654,7 @@
       <c r="V28" s="9"/>
       <c r="W28" s="9"/>
       <c r="X28" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y28" s="9">
         <v>0</v>
@@ -8687,7 +8687,7 @@
       <c r="V29" s="9"/>
       <c r="W29" s="9"/>
       <c r="X29" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y29" s="9">
         <v>0</v>
@@ -8720,7 +8720,7 @@
       <c r="V30" s="9"/>
       <c r="W30" s="9"/>
       <c r="X30" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y30" s="9">
         <v>0</v>
@@ -8753,7 +8753,7 @@
       <c r="V31" s="9"/>
       <c r="W31" s="9"/>
       <c r="X31" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y31" s="9">
         <v>0</v>
@@ -8786,7 +8786,7 @@
       <c r="V32" s="9"/>
       <c r="W32" s="9"/>
       <c r="X32" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y32" s="9">
         <v>0</v>
@@ -8819,7 +8819,7 @@
       <c r="V33" s="9"/>
       <c r="W33" s="9"/>
       <c r="X33" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y33" s="9">
         <v>0</v>
@@ -8852,7 +8852,7 @@
       <c r="V34" s="9"/>
       <c r="W34" s="9"/>
       <c r="X34" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y34" s="9">
         <v>0</v>
@@ -8860,7 +8860,7 @@
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
@@ -8928,12 +8928,12 @@
         <v>2020</v>
       </c>
       <c r="Y39" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C40" s="19"/>
       <c r="D40" s="19"/>
@@ -8961,13 +8961,13 @@
       <c r="V40" s="19"/>
       <c r="W40" s="19"/>
       <c r="X40" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y40" s="4"/>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
@@ -9035,7 +9035,7 @@
         <v>2020</v>
       </c>
       <c r="Y45" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
@@ -9087,7 +9087,7 @@
       <c r="V46" s="8"/>
       <c r="W46" s="8"/>
       <c r="X46" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y46" s="8"/>
     </row>
@@ -9118,7 +9118,7 @@
       <c r="V47" s="8"/>
       <c r="W47" s="8"/>
       <c r="X47" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y47" s="8">
         <v>0</v>
@@ -9173,13 +9173,13 @@
       <c r="V48" s="8"/>
       <c r="W48" s="8"/>
       <c r="X48" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y48" s="8"/>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.25">
@@ -9247,12 +9247,12 @@
         <v>2020</v>
       </c>
       <c r="Y53" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B54" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
@@ -9278,7 +9278,7 @@
       <c r="V54" s="9"/>
       <c r="W54" s="9"/>
       <c r="X54" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y54" s="9"/>
     </row>
@@ -9292,2170 +9292,2170 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="55"/>
+      <c r="A1" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="55"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="57">
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="55">
         <v>2000</v>
       </c>
-      <c r="D2" s="57">
+      <c r="D2" s="55">
         <v>2001</v>
       </c>
-      <c r="E2" s="57">
+      <c r="E2" s="55">
         <v>2002</v>
       </c>
-      <c r="F2" s="57">
+      <c r="F2" s="55">
         <v>2003</v>
       </c>
-      <c r="G2" s="57">
+      <c r="G2" s="55">
         <v>2004</v>
       </c>
-      <c r="H2" s="57">
+      <c r="H2" s="55">
         <v>2005</v>
       </c>
-      <c r="I2" s="57">
+      <c r="I2" s="55">
         <v>2006</v>
       </c>
-      <c r="J2" s="57">
+      <c r="J2" s="55">
         <v>2007</v>
       </c>
-      <c r="K2" s="57">
+      <c r="K2" s="55">
         <v>2008</v>
       </c>
-      <c r="L2" s="57">
+      <c r="L2" s="55">
         <v>2009</v>
       </c>
-      <c r="M2" s="57">
+      <c r="M2" s="55">
         <v>2010</v>
       </c>
-      <c r="N2" s="57">
+      <c r="N2" s="55">
         <v>2011</v>
       </c>
-      <c r="O2" s="57">
+      <c r="O2" s="55">
         <v>2012</v>
       </c>
-      <c r="P2" s="57">
+      <c r="P2" s="55">
         <v>2013</v>
       </c>
-      <c r="Q2" s="57">
+      <c r="Q2" s="55">
         <v>2014</v>
       </c>
-      <c r="R2" s="57">
+      <c r="R2" s="55">
         <v>2015</v>
       </c>
-      <c r="S2" s="57">
+      <c r="S2" s="55">
         <v>2016</v>
       </c>
-      <c r="T2" s="57">
+      <c r="T2" s="55">
         <v>2017</v>
       </c>
-      <c r="U2" s="57">
+      <c r="U2" s="55">
         <v>2018</v>
       </c>
-      <c r="V2" s="57">
+      <c r="V2" s="55">
         <v>2019</v>
       </c>
-      <c r="W2" s="57">
+      <c r="W2" s="55">
         <v>2020</v>
       </c>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="57" t="s">
-        <v>20</v>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="55" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="55"/>
+      <c r="A3" s="53"/>
       <c r="B3" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="59"/>
-      <c r="X3" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y3" s="59">
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="57"/>
+      <c r="U3" s="57"/>
+      <c r="V3" s="57"/>
+      <c r="W3" s="57"/>
+      <c r="X3" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y3" s="57">
         <v>0.8</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="55"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="59"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="59"/>
-      <c r="U4" s="59"/>
-      <c r="V4" s="59"/>
-      <c r="W4" s="59"/>
-      <c r="X4" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y4" s="59">
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="57"/>
+      <c r="U4" s="57"/>
+      <c r="V4" s="57"/>
+      <c r="W4" s="57"/>
+      <c r="X4" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y4" s="57">
         <v>0.8</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="55"/>
+      <c r="A5" s="53"/>
       <c r="B5" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
       </c>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="59"/>
-      <c r="O5" s="59"/>
-      <c r="P5" s="59"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="59"/>
-      <c r="S5" s="59"/>
-      <c r="T5" s="59"/>
-      <c r="U5" s="59"/>
-      <c r="V5" s="59"/>
-      <c r="W5" s="59"/>
-      <c r="X5" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y5" s="59">
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="57"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="57"/>
+      <c r="T5" s="57"/>
+      <c r="U5" s="57"/>
+      <c r="V5" s="57"/>
+      <c r="W5" s="57"/>
+      <c r="X5" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y5" s="57">
         <v>0.8</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="55"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="59"/>
-      <c r="S6" s="59"/>
-      <c r="T6" s="59"/>
-      <c r="U6" s="59"/>
-      <c r="V6" s="59"/>
-      <c r="W6" s="59"/>
-      <c r="X6" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y6" s="59">
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="57"/>
+      <c r="R6" s="57"/>
+      <c r="S6" s="57"/>
+      <c r="T6" s="57"/>
+      <c r="U6" s="57"/>
+      <c r="V6" s="57"/>
+      <c r="W6" s="57"/>
+      <c r="X6" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y6" s="57">
         <v>0.8</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="55"/>
+      <c r="A7" s="53"/>
       <c r="B7" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
       </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="59"/>
-      <c r="S7" s="59"/>
-      <c r="T7" s="59"/>
-      <c r="U7" s="59"/>
-      <c r="V7" s="59"/>
-      <c r="W7" s="59"/>
-      <c r="X7" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y7" s="59">
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="57"/>
+      <c r="R7" s="57"/>
+      <c r="S7" s="57"/>
+      <c r="T7" s="57"/>
+      <c r="U7" s="57"/>
+      <c r="V7" s="57"/>
+      <c r="W7" s="57"/>
+      <c r="X7" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y7" s="57">
         <v>0.8</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="55"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15+</v>
       </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="59"/>
-      <c r="M8" s="59"/>
-      <c r="N8" s="59"/>
-      <c r="O8" s="59"/>
-      <c r="P8" s="59"/>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="59"/>
-      <c r="S8" s="59"/>
-      <c r="T8" s="59"/>
-      <c r="U8" s="59"/>
-      <c r="V8" s="59"/>
-      <c r="W8" s="59"/>
-      <c r="X8" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y8" s="59">
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="57"/>
+      <c r="R8" s="57"/>
+      <c r="S8" s="57"/>
+      <c r="T8" s="57"/>
+      <c r="U8" s="57"/>
+      <c r="V8" s="57"/>
+      <c r="W8" s="57"/>
+      <c r="X8" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y8" s="57">
         <v>0.8</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="55"/>
+      <c r="A9" s="53"/>
       <c r="B9" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15+</v>
       </c>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="59"/>
-      <c r="O9" s="59"/>
-      <c r="P9" s="59"/>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="59"/>
-      <c r="S9" s="59"/>
-      <c r="T9" s="59"/>
-      <c r="U9" s="59"/>
-      <c r="V9" s="59"/>
-      <c r="W9" s="59"/>
-      <c r="X9" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y9" s="59">
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="57"/>
+      <c r="R9" s="57"/>
+      <c r="S9" s="57"/>
+      <c r="T9" s="57"/>
+      <c r="U9" s="57"/>
+      <c r="V9" s="57"/>
+      <c r="W9" s="57"/>
+      <c r="X9" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y9" s="57">
         <v>0.8</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="56" t="s">
-        <v>120</v>
-      </c>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="55"/>
-      <c r="N13" s="55"/>
-      <c r="O13" s="55"/>
-      <c r="P13" s="55"/>
-      <c r="Q13" s="55"/>
-      <c r="R13" s="55"/>
-      <c r="S13" s="55"/>
-      <c r="T13" s="55"/>
-      <c r="U13" s="55"/>
-      <c r="V13" s="55"/>
-      <c r="W13" s="55"/>
-      <c r="X13" s="55"/>
-      <c r="Y13" s="55"/>
+      <c r="A13" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="53"/>
+      <c r="R13" s="53"/>
+      <c r="S13" s="53"/>
+      <c r="T13" s="53"/>
+      <c r="U13" s="53"/>
+      <c r="V13" s="53"/>
+      <c r="W13" s="53"/>
+      <c r="X13" s="53"/>
+      <c r="Y13" s="53"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="55"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="57">
+      <c r="A14" s="53"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="55">
         <v>2000</v>
       </c>
-      <c r="D14" s="57">
+      <c r="D14" s="55">
         <v>2001</v>
       </c>
-      <c r="E14" s="57">
+      <c r="E14" s="55">
         <v>2002</v>
       </c>
-      <c r="F14" s="57">
+      <c r="F14" s="55">
         <v>2003</v>
       </c>
-      <c r="G14" s="57">
+      <c r="G14" s="55">
         <v>2004</v>
       </c>
-      <c r="H14" s="57">
+      <c r="H14" s="55">
         <v>2005</v>
       </c>
-      <c r="I14" s="57">
+      <c r="I14" s="55">
         <v>2006</v>
       </c>
-      <c r="J14" s="57">
+      <c r="J14" s="55">
         <v>2007</v>
       </c>
-      <c r="K14" s="57">
+      <c r="K14" s="55">
         <v>2008</v>
       </c>
-      <c r="L14" s="57">
+      <c r="L14" s="55">
         <v>2009</v>
       </c>
-      <c r="M14" s="57">
+      <c r="M14" s="55">
         <v>2010</v>
       </c>
-      <c r="N14" s="57">
+      <c r="N14" s="55">
         <v>2011</v>
       </c>
-      <c r="O14" s="57">
+      <c r="O14" s="55">
         <v>2012</v>
       </c>
-      <c r="P14" s="57">
+      <c r="P14" s="55">
         <v>2013</v>
       </c>
-      <c r="Q14" s="57">
+      <c r="Q14" s="55">
         <v>2014</v>
       </c>
-      <c r="R14" s="57">
+      <c r="R14" s="55">
         <v>2015</v>
       </c>
-      <c r="S14" s="57">
+      <c r="S14" s="55">
         <v>2016</v>
       </c>
-      <c r="T14" s="57">
+      <c r="T14" s="55">
         <v>2017</v>
       </c>
-      <c r="U14" s="57">
+      <c r="U14" s="55">
         <v>2018</v>
       </c>
-      <c r="V14" s="57">
+      <c r="V14" s="55">
         <v>2019</v>
       </c>
-      <c r="W14" s="57">
+      <c r="W14" s="55">
         <v>2020</v>
       </c>
-      <c r="X14" s="55"/>
-      <c r="Y14" s="57" t="s">
-        <v>20</v>
+      <c r="X14" s="53"/>
+      <c r="Y14" s="55" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="55"/>
+      <c r="A15" s="53"/>
       <c r="B15" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
       </c>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="59"/>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="59"/>
-      <c r="S15" s="59"/>
-      <c r="T15" s="59"/>
-      <c r="U15" s="59"/>
-      <c r="V15" s="59"/>
-      <c r="W15" s="59"/>
-      <c r="X15" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y15" s="59">
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="57"/>
+      <c r="Q15" s="57"/>
+      <c r="R15" s="57"/>
+      <c r="S15" s="57"/>
+      <c r="T15" s="57"/>
+      <c r="U15" s="57"/>
+      <c r="V15" s="57"/>
+      <c r="W15" s="57"/>
+      <c r="X15" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y15" s="57">
         <v>0.8</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="55"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
       </c>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="59"/>
-      <c r="N16" s="59"/>
-      <c r="O16" s="59"/>
-      <c r="P16" s="59"/>
-      <c r="Q16" s="59"/>
-      <c r="R16" s="59"/>
-      <c r="S16" s="59"/>
-      <c r="T16" s="59"/>
-      <c r="U16" s="59"/>
-      <c r="V16" s="59"/>
-      <c r="W16" s="59"/>
-      <c r="X16" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y16" s="59">
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="57"/>
+      <c r="R16" s="57"/>
+      <c r="S16" s="57"/>
+      <c r="T16" s="57"/>
+      <c r="U16" s="57"/>
+      <c r="V16" s="57"/>
+      <c r="W16" s="57"/>
+      <c r="X16" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y16" s="57">
         <v>0.8</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="55"/>
+      <c r="A17" s="53"/>
       <c r="B17" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
       </c>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="59"/>
-      <c r="O17" s="59"/>
-      <c r="P17" s="59"/>
-      <c r="Q17" s="59"/>
-      <c r="R17" s="59"/>
-      <c r="S17" s="59"/>
-      <c r="T17" s="59"/>
-      <c r="U17" s="59"/>
-      <c r="V17" s="59"/>
-      <c r="W17" s="59"/>
-      <c r="X17" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y17" s="59">
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="57"/>
+      <c r="Q17" s="57"/>
+      <c r="R17" s="57"/>
+      <c r="S17" s="57"/>
+      <c r="T17" s="57"/>
+      <c r="U17" s="57"/>
+      <c r="V17" s="57"/>
+      <c r="W17" s="57"/>
+      <c r="X17" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y17" s="57">
         <v>0.8</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" s="55"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
       </c>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="59"/>
-      <c r="N18" s="59"/>
-      <c r="O18" s="59"/>
-      <c r="P18" s="59"/>
-      <c r="Q18" s="59"/>
-      <c r="R18" s="59"/>
-      <c r="S18" s="59"/>
-      <c r="T18" s="59"/>
-      <c r="U18" s="59"/>
-      <c r="V18" s="59"/>
-      <c r="W18" s="59"/>
-      <c r="X18" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y18" s="59">
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="57"/>
+      <c r="P18" s="57"/>
+      <c r="Q18" s="57"/>
+      <c r="R18" s="57"/>
+      <c r="S18" s="57"/>
+      <c r="T18" s="57"/>
+      <c r="U18" s="57"/>
+      <c r="V18" s="57"/>
+      <c r="W18" s="57"/>
+      <c r="X18" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y18" s="57">
         <v>0.8</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A19" s="55"/>
+      <c r="A19" s="53"/>
       <c r="B19" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
       </c>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="59"/>
-      <c r="O19" s="59"/>
-      <c r="P19" s="59"/>
-      <c r="Q19" s="59"/>
-      <c r="R19" s="59"/>
-      <c r="S19" s="59"/>
-      <c r="T19" s="59"/>
-      <c r="U19" s="59"/>
-      <c r="V19" s="59"/>
-      <c r="W19" s="59"/>
-      <c r="X19" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y19" s="59">
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="57"/>
+      <c r="O19" s="57"/>
+      <c r="P19" s="57"/>
+      <c r="Q19" s="57"/>
+      <c r="R19" s="57"/>
+      <c r="S19" s="57"/>
+      <c r="T19" s="57"/>
+      <c r="U19" s="57"/>
+      <c r="V19" s="57"/>
+      <c r="W19" s="57"/>
+      <c r="X19" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y19" s="57">
         <v>0.8</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A20" s="55"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15+</v>
       </c>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="59"/>
-      <c r="M20" s="59"/>
-      <c r="N20" s="59"/>
-      <c r="O20" s="59"/>
-      <c r="P20" s="59"/>
-      <c r="Q20" s="59"/>
-      <c r="R20" s="59"/>
-      <c r="S20" s="59"/>
-      <c r="T20" s="59"/>
-      <c r="U20" s="59"/>
-      <c r="V20" s="59"/>
-      <c r="W20" s="59"/>
-      <c r="X20" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y20" s="59">
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="57"/>
+      <c r="P20" s="57"/>
+      <c r="Q20" s="57"/>
+      <c r="R20" s="57"/>
+      <c r="S20" s="57"/>
+      <c r="T20" s="57"/>
+      <c r="U20" s="57"/>
+      <c r="V20" s="57"/>
+      <c r="W20" s="57"/>
+      <c r="X20" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y20" s="57">
         <v>0.8</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="55"/>
+      <c r="A21" s="53"/>
       <c r="B21" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15+</v>
       </c>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="59"/>
-      <c r="M21" s="59"/>
-      <c r="N21" s="59"/>
-      <c r="O21" s="59"/>
-      <c r="P21" s="59"/>
-      <c r="Q21" s="59"/>
-      <c r="R21" s="59"/>
-      <c r="S21" s="59"/>
-      <c r="T21" s="59"/>
-      <c r="U21" s="59"/>
-      <c r="V21" s="59"/>
-      <c r="W21" s="59"/>
-      <c r="X21" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y21" s="59">
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="57"/>
+      <c r="N21" s="57"/>
+      <c r="O21" s="57"/>
+      <c r="P21" s="57"/>
+      <c r="Q21" s="57"/>
+      <c r="R21" s="57"/>
+      <c r="S21" s="57"/>
+      <c r="T21" s="57"/>
+      <c r="U21" s="57"/>
+      <c r="V21" s="57"/>
+      <c r="W21" s="57"/>
+      <c r="X21" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y21" s="57">
         <v>0.8</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A25" s="56" t="s">
-        <v>121</v>
-      </c>
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="55"/>
-      <c r="M25" s="55"/>
-      <c r="N25" s="55"/>
-      <c r="O25" s="55"/>
-      <c r="P25" s="55"/>
-      <c r="Q25" s="55"/>
-      <c r="R25" s="55"/>
-      <c r="S25" s="55"/>
-      <c r="T25" s="55"/>
-      <c r="U25" s="55"/>
-      <c r="V25" s="55"/>
-      <c r="W25" s="55"/>
-      <c r="X25" s="55"/>
-      <c r="Y25" s="55"/>
+      <c r="A25" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="53"/>
+      <c r="N25" s="53"/>
+      <c r="O25" s="53"/>
+      <c r="P25" s="53"/>
+      <c r="Q25" s="53"/>
+      <c r="R25" s="53"/>
+      <c r="S25" s="53"/>
+      <c r="T25" s="53"/>
+      <c r="U25" s="53"/>
+      <c r="V25" s="53"/>
+      <c r="W25" s="53"/>
+      <c r="X25" s="53"/>
+      <c r="Y25" s="53"/>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A26" s="55"/>
-      <c r="B26" s="55"/>
-      <c r="C26" s="57">
+      <c r="A26" s="53"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="55">
         <v>2000</v>
       </c>
-      <c r="D26" s="57">
+      <c r="D26" s="55">
         <v>2001</v>
       </c>
-      <c r="E26" s="57">
+      <c r="E26" s="55">
         <v>2002</v>
       </c>
-      <c r="F26" s="57">
+      <c r="F26" s="55">
         <v>2003</v>
       </c>
-      <c r="G26" s="57">
+      <c r="G26" s="55">
         <v>2004</v>
       </c>
-      <c r="H26" s="57">
+      <c r="H26" s="55">
         <v>2005</v>
       </c>
-      <c r="I26" s="57">
+      <c r="I26" s="55">
         <v>2006</v>
       </c>
-      <c r="J26" s="57">
+      <c r="J26" s="55">
         <v>2007</v>
       </c>
-      <c r="K26" s="57">
+      <c r="K26" s="55">
         <v>2008</v>
       </c>
-      <c r="L26" s="57">
+      <c r="L26" s="55">
         <v>2009</v>
       </c>
-      <c r="M26" s="57">
+      <c r="M26" s="55">
         <v>2010</v>
       </c>
-      <c r="N26" s="57">
+      <c r="N26" s="55">
         <v>2011</v>
       </c>
-      <c r="O26" s="57">
+      <c r="O26" s="55">
         <v>2012</v>
       </c>
-      <c r="P26" s="57">
+      <c r="P26" s="55">
         <v>2013</v>
       </c>
-      <c r="Q26" s="57">
+      <c r="Q26" s="55">
         <v>2014</v>
       </c>
-      <c r="R26" s="57">
+      <c r="R26" s="55">
         <v>2015</v>
       </c>
-      <c r="S26" s="57">
+      <c r="S26" s="55">
         <v>2016</v>
       </c>
-      <c r="T26" s="57">
+      <c r="T26" s="55">
         <v>2017</v>
       </c>
-      <c r="U26" s="57">
+      <c r="U26" s="55">
         <v>2018</v>
       </c>
-      <c r="V26" s="57">
+      <c r="V26" s="55">
         <v>2019</v>
       </c>
-      <c r="W26" s="57">
+      <c r="W26" s="55">
         <v>2020</v>
       </c>
-      <c r="X26" s="55"/>
-      <c r="Y26" s="57" t="s">
-        <v>20</v>
+      <c r="X26" s="53"/>
+      <c r="Y26" s="55" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A27" s="55"/>
+      <c r="A27" s="53"/>
       <c r="B27" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
       </c>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="59"/>
-      <c r="L27" s="59"/>
-      <c r="M27" s="59"/>
-      <c r="N27" s="59"/>
-      <c r="O27" s="59"/>
-      <c r="P27" s="59"/>
-      <c r="Q27" s="59"/>
-      <c r="R27" s="59"/>
-      <c r="S27" s="59"/>
-      <c r="T27" s="59"/>
-      <c r="U27" s="59"/>
-      <c r="V27" s="59"/>
-      <c r="W27" s="59"/>
-      <c r="X27" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y27" s="59">
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="57"/>
+      <c r="L27" s="57"/>
+      <c r="M27" s="57"/>
+      <c r="N27" s="57"/>
+      <c r="O27" s="57"/>
+      <c r="P27" s="57"/>
+      <c r="Q27" s="57"/>
+      <c r="R27" s="57"/>
+      <c r="S27" s="57"/>
+      <c r="T27" s="57"/>
+      <c r="U27" s="57"/>
+      <c r="V27" s="57"/>
+      <c r="W27" s="57"/>
+      <c r="X27" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y27" s="57">
         <v>0.8</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A28" s="55"/>
+      <c r="A28" s="53"/>
       <c r="B28" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
       </c>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="59"/>
-      <c r="J28" s="59"/>
-      <c r="K28" s="59"/>
-      <c r="L28" s="59"/>
-      <c r="M28" s="59"/>
-      <c r="N28" s="59"/>
-      <c r="O28" s="59"/>
-      <c r="P28" s="59"/>
-      <c r="Q28" s="59"/>
-      <c r="R28" s="59"/>
-      <c r="S28" s="59"/>
-      <c r="T28" s="59"/>
-      <c r="U28" s="59"/>
-      <c r="V28" s="59"/>
-      <c r="W28" s="59"/>
-      <c r="X28" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y28" s="59">
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="57"/>
+      <c r="M28" s="57"/>
+      <c r="N28" s="57"/>
+      <c r="O28" s="57"/>
+      <c r="P28" s="57"/>
+      <c r="Q28" s="57"/>
+      <c r="R28" s="57"/>
+      <c r="S28" s="57"/>
+      <c r="T28" s="57"/>
+      <c r="U28" s="57"/>
+      <c r="V28" s="57"/>
+      <c r="W28" s="57"/>
+      <c r="X28" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y28" s="57">
         <v>0.8</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A29" s="55"/>
+      <c r="A29" s="53"/>
       <c r="B29" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
       </c>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="59"/>
-      <c r="J29" s="59"/>
-      <c r="K29" s="59"/>
-      <c r="L29" s="59"/>
-      <c r="M29" s="59"/>
-      <c r="N29" s="59"/>
-      <c r="O29" s="59"/>
-      <c r="P29" s="59"/>
-      <c r="Q29" s="59"/>
-      <c r="R29" s="59"/>
-      <c r="S29" s="59"/>
-      <c r="T29" s="59"/>
-      <c r="U29" s="59"/>
-      <c r="V29" s="59"/>
-      <c r="W29" s="59"/>
-      <c r="X29" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y29" s="59">
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="57"/>
+      <c r="L29" s="57"/>
+      <c r="M29" s="57"/>
+      <c r="N29" s="57"/>
+      <c r="O29" s="57"/>
+      <c r="P29" s="57"/>
+      <c r="Q29" s="57"/>
+      <c r="R29" s="57"/>
+      <c r="S29" s="57"/>
+      <c r="T29" s="57"/>
+      <c r="U29" s="57"/>
+      <c r="V29" s="57"/>
+      <c r="W29" s="57"/>
+      <c r="X29" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y29" s="57">
         <v>0.8</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A30" s="55"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
       </c>
-      <c r="C30" s="59"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="59"/>
-      <c r="I30" s="59"/>
-      <c r="J30" s="59"/>
-      <c r="K30" s="59"/>
-      <c r="L30" s="59"/>
-      <c r="M30" s="59"/>
-      <c r="N30" s="59"/>
-      <c r="O30" s="59"/>
-      <c r="P30" s="59"/>
-      <c r="Q30" s="59"/>
-      <c r="R30" s="59"/>
-      <c r="S30" s="59"/>
-      <c r="T30" s="59"/>
-      <c r="U30" s="59"/>
-      <c r="V30" s="59"/>
-      <c r="W30" s="59"/>
-      <c r="X30" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y30" s="59">
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="57"/>
+      <c r="M30" s="57"/>
+      <c r="N30" s="57"/>
+      <c r="O30" s="57"/>
+      <c r="P30" s="57"/>
+      <c r="Q30" s="57"/>
+      <c r="R30" s="57"/>
+      <c r="S30" s="57"/>
+      <c r="T30" s="57"/>
+      <c r="U30" s="57"/>
+      <c r="V30" s="57"/>
+      <c r="W30" s="57"/>
+      <c r="X30" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y30" s="57">
         <v>0.8</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A31" s="55"/>
+      <c r="A31" s="53"/>
       <c r="B31" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
       </c>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="59"/>
-      <c r="J31" s="59"/>
-      <c r="K31" s="59"/>
-      <c r="L31" s="59"/>
-      <c r="M31" s="59"/>
-      <c r="N31" s="59"/>
-      <c r="O31" s="59"/>
-      <c r="P31" s="59"/>
-      <c r="Q31" s="59"/>
-      <c r="R31" s="59"/>
-      <c r="S31" s="59"/>
-      <c r="T31" s="59"/>
-      <c r="U31" s="59"/>
-      <c r="V31" s="59"/>
-      <c r="W31" s="59"/>
-      <c r="X31" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y31" s="59">
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="57"/>
+      <c r="N31" s="57"/>
+      <c r="O31" s="57"/>
+      <c r="P31" s="57"/>
+      <c r="Q31" s="57"/>
+      <c r="R31" s="57"/>
+      <c r="S31" s="57"/>
+      <c r="T31" s="57"/>
+      <c r="U31" s="57"/>
+      <c r="V31" s="57"/>
+      <c r="W31" s="57"/>
+      <c r="X31" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y31" s="57">
         <v>0.8</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A32" s="55"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15+</v>
       </c>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
-      <c r="I32" s="59"/>
-      <c r="J32" s="59"/>
-      <c r="K32" s="59"/>
-      <c r="L32" s="59"/>
-      <c r="M32" s="59"/>
-      <c r="N32" s="59"/>
-      <c r="O32" s="59"/>
-      <c r="P32" s="59"/>
-      <c r="Q32" s="59"/>
-      <c r="R32" s="59"/>
-      <c r="S32" s="59"/>
-      <c r="T32" s="59"/>
-      <c r="U32" s="59"/>
-      <c r="V32" s="59"/>
-      <c r="W32" s="59"/>
-      <c r="X32" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y32" s="59">
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="57"/>
+      <c r="N32" s="57"/>
+      <c r="O32" s="57"/>
+      <c r="P32" s="57"/>
+      <c r="Q32" s="57"/>
+      <c r="R32" s="57"/>
+      <c r="S32" s="57"/>
+      <c r="T32" s="57"/>
+      <c r="U32" s="57"/>
+      <c r="V32" s="57"/>
+      <c r="W32" s="57"/>
+      <c r="X32" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y32" s="57">
         <v>0.8</v>
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A33" s="55"/>
+      <c r="A33" s="53"/>
       <c r="B33" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15+</v>
       </c>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="59"/>
-      <c r="J33" s="59"/>
-      <c r="K33" s="59"/>
-      <c r="L33" s="59"/>
-      <c r="M33" s="59"/>
-      <c r="N33" s="59"/>
-      <c r="O33" s="59"/>
-      <c r="P33" s="59"/>
-      <c r="Q33" s="59"/>
-      <c r="R33" s="59"/>
-      <c r="S33" s="59"/>
-      <c r="T33" s="59"/>
-      <c r="U33" s="59"/>
-      <c r="V33" s="59"/>
-      <c r="W33" s="59"/>
-      <c r="X33" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y33" s="59">
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="57"/>
+      <c r="J33" s="57"/>
+      <c r="K33" s="57"/>
+      <c r="L33" s="57"/>
+      <c r="M33" s="57"/>
+      <c r="N33" s="57"/>
+      <c r="O33" s="57"/>
+      <c r="P33" s="57"/>
+      <c r="Q33" s="57"/>
+      <c r="R33" s="57"/>
+      <c r="S33" s="57"/>
+      <c r="T33" s="57"/>
+      <c r="U33" s="57"/>
+      <c r="V33" s="57"/>
+      <c r="W33" s="57"/>
+      <c r="X33" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y33" s="57">
         <v>0.8</v>
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A37" s="56" t="s">
-        <v>122</v>
-      </c>
-      <c r="B37" s="55"/>
-      <c r="C37" s="55"/>
-      <c r="D37" s="55"/>
-      <c r="E37" s="55"/>
-      <c r="F37" s="55"/>
-      <c r="G37" s="55"/>
-      <c r="H37" s="55"/>
-      <c r="I37" s="55"/>
-      <c r="J37" s="55"/>
-      <c r="K37" s="55"/>
-      <c r="L37" s="55"/>
-      <c r="M37" s="55"/>
-      <c r="N37" s="55"/>
-      <c r="O37" s="55"/>
-      <c r="P37" s="55"/>
-      <c r="Q37" s="55"/>
-      <c r="R37" s="55"/>
-      <c r="S37" s="55"/>
-      <c r="T37" s="55"/>
-      <c r="U37" s="55"/>
-      <c r="V37" s="55"/>
-      <c r="W37" s="55"/>
-      <c r="X37" s="55"/>
-      <c r="Y37" s="55"/>
+      <c r="A37" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="B37" s="53"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="53"/>
+      <c r="I37" s="53"/>
+      <c r="J37" s="53"/>
+      <c r="K37" s="53"/>
+      <c r="L37" s="53"/>
+      <c r="M37" s="53"/>
+      <c r="N37" s="53"/>
+      <c r="O37" s="53"/>
+      <c r="P37" s="53"/>
+      <c r="Q37" s="53"/>
+      <c r="R37" s="53"/>
+      <c r="S37" s="53"/>
+      <c r="T37" s="53"/>
+      <c r="U37" s="53"/>
+      <c r="V37" s="53"/>
+      <c r="W37" s="53"/>
+      <c r="X37" s="53"/>
+      <c r="Y37" s="53"/>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A38" s="55"/>
-      <c r="B38" s="55"/>
-      <c r="C38" s="57">
+      <c r="A38" s="53"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="55">
         <v>2000</v>
       </c>
-      <c r="D38" s="57">
+      <c r="D38" s="55">
         <v>2001</v>
       </c>
-      <c r="E38" s="57">
+      <c r="E38" s="55">
         <v>2002</v>
       </c>
-      <c r="F38" s="57">
+      <c r="F38" s="55">
         <v>2003</v>
       </c>
-      <c r="G38" s="57">
+      <c r="G38" s="55">
         <v>2004</v>
       </c>
-      <c r="H38" s="57">
+      <c r="H38" s="55">
         <v>2005</v>
       </c>
-      <c r="I38" s="57">
+      <c r="I38" s="55">
         <v>2006</v>
       </c>
-      <c r="J38" s="57">
+      <c r="J38" s="55">
         <v>2007</v>
       </c>
-      <c r="K38" s="57">
+      <c r="K38" s="55">
         <v>2008</v>
       </c>
-      <c r="L38" s="57">
+      <c r="L38" s="55">
         <v>2009</v>
       </c>
-      <c r="M38" s="57">
+      <c r="M38" s="55">
         <v>2010</v>
       </c>
-      <c r="N38" s="57">
+      <c r="N38" s="55">
         <v>2011</v>
       </c>
-      <c r="O38" s="57">
+      <c r="O38" s="55">
         <v>2012</v>
       </c>
-      <c r="P38" s="57">
+      <c r="P38" s="55">
         <v>2013</v>
       </c>
-      <c r="Q38" s="57">
+      <c r="Q38" s="55">
         <v>2014</v>
       </c>
-      <c r="R38" s="57">
+      <c r="R38" s="55">
         <v>2015</v>
       </c>
-      <c r="S38" s="57">
+      <c r="S38" s="55">
         <v>2016</v>
       </c>
-      <c r="T38" s="57">
+      <c r="T38" s="55">
         <v>2017</v>
       </c>
-      <c r="U38" s="57">
+      <c r="U38" s="55">
         <v>2018</v>
       </c>
-      <c r="V38" s="57">
+      <c r="V38" s="55">
         <v>2019</v>
       </c>
-      <c r="W38" s="57">
+      <c r="W38" s="55">
         <v>2020</v>
       </c>
-      <c r="X38" s="55"/>
-      <c r="Y38" s="57" t="s">
-        <v>20</v>
+      <c r="X38" s="53"/>
+      <c r="Y38" s="55" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A39" s="55"/>
+      <c r="A39" s="53"/>
       <c r="B39" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
       </c>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="59"/>
-      <c r="G39" s="59"/>
-      <c r="H39" s="59"/>
-      <c r="I39" s="59"/>
-      <c r="J39" s="59"/>
-      <c r="K39" s="59"/>
-      <c r="L39" s="59"/>
-      <c r="M39" s="59"/>
-      <c r="N39" s="59"/>
-      <c r="O39" s="59"/>
-      <c r="P39" s="59"/>
-      <c r="Q39" s="59"/>
-      <c r="R39" s="59"/>
-      <c r="S39" s="59"/>
-      <c r="T39" s="59"/>
-      <c r="U39" s="59"/>
-      <c r="V39" s="59"/>
-      <c r="W39" s="59"/>
-      <c r="X39" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y39" s="59">
+      <c r="C39" s="57"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="57"/>
+      <c r="H39" s="57"/>
+      <c r="I39" s="57"/>
+      <c r="J39" s="57"/>
+      <c r="K39" s="57"/>
+      <c r="L39" s="57"/>
+      <c r="M39" s="57"/>
+      <c r="N39" s="57"/>
+      <c r="O39" s="57"/>
+      <c r="P39" s="57"/>
+      <c r="Q39" s="57"/>
+      <c r="R39" s="57"/>
+      <c r="S39" s="57"/>
+      <c r="T39" s="57"/>
+      <c r="U39" s="57"/>
+      <c r="V39" s="57"/>
+      <c r="W39" s="57"/>
+      <c r="X39" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y39" s="57">
         <v>0.8</v>
       </c>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A40" s="55"/>
+      <c r="A40" s="53"/>
       <c r="B40" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
       </c>
-      <c r="C40" s="59"/>
-      <c r="D40" s="59"/>
-      <c r="E40" s="59"/>
-      <c r="F40" s="59"/>
-      <c r="G40" s="59"/>
-      <c r="H40" s="59"/>
-      <c r="I40" s="59"/>
-      <c r="J40" s="59"/>
-      <c r="K40" s="59"/>
-      <c r="L40" s="59"/>
-      <c r="M40" s="59"/>
-      <c r="N40" s="59"/>
-      <c r="O40" s="59"/>
-      <c r="P40" s="59"/>
-      <c r="Q40" s="59"/>
-      <c r="R40" s="59"/>
-      <c r="S40" s="59"/>
-      <c r="T40" s="59"/>
-      <c r="U40" s="59"/>
-      <c r="V40" s="59"/>
-      <c r="W40" s="59"/>
-      <c r="X40" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y40" s="59">
+      <c r="C40" s="57"/>
+      <c r="D40" s="57"/>
+      <c r="E40" s="57"/>
+      <c r="F40" s="57"/>
+      <c r="G40" s="57"/>
+      <c r="H40" s="57"/>
+      <c r="I40" s="57"/>
+      <c r="J40" s="57"/>
+      <c r="K40" s="57"/>
+      <c r="L40" s="57"/>
+      <c r="M40" s="57"/>
+      <c r="N40" s="57"/>
+      <c r="O40" s="57"/>
+      <c r="P40" s="57"/>
+      <c r="Q40" s="57"/>
+      <c r="R40" s="57"/>
+      <c r="S40" s="57"/>
+      <c r="T40" s="57"/>
+      <c r="U40" s="57"/>
+      <c r="V40" s="57"/>
+      <c r="W40" s="57"/>
+      <c r="X40" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y40" s="57">
         <v>0.8</v>
       </c>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A41" s="55"/>
+      <c r="A41" s="53"/>
       <c r="B41" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
       </c>
-      <c r="C41" s="59"/>
-      <c r="D41" s="59"/>
-      <c r="E41" s="59"/>
-      <c r="F41" s="59"/>
-      <c r="G41" s="59"/>
-      <c r="H41" s="59"/>
-      <c r="I41" s="59"/>
-      <c r="J41" s="59"/>
-      <c r="K41" s="59"/>
-      <c r="L41" s="59"/>
-      <c r="M41" s="59"/>
-      <c r="N41" s="59"/>
-      <c r="O41" s="59"/>
-      <c r="P41" s="59"/>
-      <c r="Q41" s="59"/>
-      <c r="R41" s="59"/>
-      <c r="S41" s="59"/>
-      <c r="T41" s="59"/>
-      <c r="U41" s="59"/>
-      <c r="V41" s="59"/>
-      <c r="W41" s="59"/>
-      <c r="X41" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y41" s="59">
+      <c r="C41" s="57"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="57"/>
+      <c r="G41" s="57"/>
+      <c r="H41" s="57"/>
+      <c r="I41" s="57"/>
+      <c r="J41" s="57"/>
+      <c r="K41" s="57"/>
+      <c r="L41" s="57"/>
+      <c r="M41" s="57"/>
+      <c r="N41" s="57"/>
+      <c r="O41" s="57"/>
+      <c r="P41" s="57"/>
+      <c r="Q41" s="57"/>
+      <c r="R41" s="57"/>
+      <c r="S41" s="57"/>
+      <c r="T41" s="57"/>
+      <c r="U41" s="57"/>
+      <c r="V41" s="57"/>
+      <c r="W41" s="57"/>
+      <c r="X41" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y41" s="57">
         <v>0.8</v>
       </c>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A42" s="55"/>
+      <c r="A42" s="53"/>
       <c r="B42" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
       </c>
-      <c r="C42" s="59"/>
-      <c r="D42" s="59"/>
-      <c r="E42" s="59"/>
-      <c r="F42" s="59"/>
-      <c r="G42" s="59"/>
-      <c r="H42" s="59"/>
-      <c r="I42" s="59"/>
-      <c r="J42" s="59"/>
-      <c r="K42" s="59"/>
-      <c r="L42" s="59"/>
-      <c r="M42" s="59"/>
-      <c r="N42" s="59"/>
-      <c r="O42" s="59"/>
-      <c r="P42" s="59"/>
-      <c r="Q42" s="59"/>
-      <c r="R42" s="59"/>
-      <c r="S42" s="59"/>
-      <c r="T42" s="59"/>
-      <c r="U42" s="59"/>
-      <c r="V42" s="59"/>
-      <c r="W42" s="59"/>
-      <c r="X42" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y42" s="59">
+      <c r="C42" s="57"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="57"/>
+      <c r="G42" s="57"/>
+      <c r="H42" s="57"/>
+      <c r="I42" s="57"/>
+      <c r="J42" s="57"/>
+      <c r="K42" s="57"/>
+      <c r="L42" s="57"/>
+      <c r="M42" s="57"/>
+      <c r="N42" s="57"/>
+      <c r="O42" s="57"/>
+      <c r="P42" s="57"/>
+      <c r="Q42" s="57"/>
+      <c r="R42" s="57"/>
+      <c r="S42" s="57"/>
+      <c r="T42" s="57"/>
+      <c r="U42" s="57"/>
+      <c r="V42" s="57"/>
+      <c r="W42" s="57"/>
+      <c r="X42" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y42" s="57">
         <v>0.8</v>
       </c>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A43" s="55"/>
+      <c r="A43" s="53"/>
       <c r="B43" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
       </c>
-      <c r="C43" s="59"/>
-      <c r="D43" s="59"/>
-      <c r="E43" s="59"/>
-      <c r="F43" s="59"/>
-      <c r="G43" s="59"/>
-      <c r="H43" s="59"/>
-      <c r="I43" s="59"/>
-      <c r="J43" s="59"/>
-      <c r="K43" s="59"/>
-      <c r="L43" s="59"/>
-      <c r="M43" s="59"/>
-      <c r="N43" s="59"/>
-      <c r="O43" s="59"/>
-      <c r="P43" s="59"/>
-      <c r="Q43" s="59"/>
-      <c r="R43" s="59"/>
-      <c r="S43" s="59"/>
-      <c r="T43" s="59"/>
-      <c r="U43" s="59"/>
-      <c r="V43" s="59"/>
-      <c r="W43" s="59"/>
-      <c r="X43" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y43" s="59">
+      <c r="C43" s="57"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="57"/>
+      <c r="G43" s="57"/>
+      <c r="H43" s="57"/>
+      <c r="I43" s="57"/>
+      <c r="J43" s="57"/>
+      <c r="K43" s="57"/>
+      <c r="L43" s="57"/>
+      <c r="M43" s="57"/>
+      <c r="N43" s="57"/>
+      <c r="O43" s="57"/>
+      <c r="P43" s="57"/>
+      <c r="Q43" s="57"/>
+      <c r="R43" s="57"/>
+      <c r="S43" s="57"/>
+      <c r="T43" s="57"/>
+      <c r="U43" s="57"/>
+      <c r="V43" s="57"/>
+      <c r="W43" s="57"/>
+      <c r="X43" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y43" s="57">
         <v>0.8</v>
       </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A44" s="55"/>
+      <c r="A44" s="53"/>
       <c r="B44" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15+</v>
       </c>
-      <c r="C44" s="59"/>
-      <c r="D44" s="59"/>
-      <c r="E44" s="59"/>
-      <c r="F44" s="59"/>
-      <c r="G44" s="59"/>
-      <c r="H44" s="59"/>
-      <c r="I44" s="59"/>
-      <c r="J44" s="59"/>
-      <c r="K44" s="59"/>
-      <c r="L44" s="59"/>
-      <c r="M44" s="59"/>
-      <c r="N44" s="59"/>
-      <c r="O44" s="59"/>
-      <c r="P44" s="59"/>
-      <c r="Q44" s="59"/>
-      <c r="R44" s="59"/>
-      <c r="S44" s="59"/>
-      <c r="T44" s="59"/>
-      <c r="U44" s="59"/>
-      <c r="V44" s="59"/>
-      <c r="W44" s="59"/>
-      <c r="X44" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y44" s="59">
+      <c r="C44" s="57"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="57"/>
+      <c r="G44" s="57"/>
+      <c r="H44" s="57"/>
+      <c r="I44" s="57"/>
+      <c r="J44" s="57"/>
+      <c r="K44" s="57"/>
+      <c r="L44" s="57"/>
+      <c r="M44" s="57"/>
+      <c r="N44" s="57"/>
+      <c r="O44" s="57"/>
+      <c r="P44" s="57"/>
+      <c r="Q44" s="57"/>
+      <c r="R44" s="57"/>
+      <c r="S44" s="57"/>
+      <c r="T44" s="57"/>
+      <c r="U44" s="57"/>
+      <c r="V44" s="57"/>
+      <c r="W44" s="57"/>
+      <c r="X44" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y44" s="57">
         <v>0.8</v>
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A45" s="55"/>
+      <c r="A45" s="53"/>
       <c r="B45" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15+</v>
       </c>
-      <c r="C45" s="59"/>
-      <c r="D45" s="59"/>
-      <c r="E45" s="59"/>
-      <c r="F45" s="59"/>
-      <c r="G45" s="59"/>
-      <c r="H45" s="59"/>
-      <c r="I45" s="59"/>
-      <c r="J45" s="59"/>
-      <c r="K45" s="59"/>
-      <c r="L45" s="59"/>
-      <c r="M45" s="59"/>
-      <c r="N45" s="59"/>
-      <c r="O45" s="59"/>
-      <c r="P45" s="59"/>
-      <c r="Q45" s="59"/>
-      <c r="R45" s="59"/>
-      <c r="S45" s="59"/>
-      <c r="T45" s="59"/>
-      <c r="U45" s="59"/>
-      <c r="V45" s="59"/>
-      <c r="W45" s="59"/>
-      <c r="X45" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y45" s="59">
+      <c r="C45" s="57"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="57"/>
+      <c r="G45" s="57"/>
+      <c r="H45" s="57"/>
+      <c r="I45" s="57"/>
+      <c r="J45" s="57"/>
+      <c r="K45" s="57"/>
+      <c r="L45" s="57"/>
+      <c r="M45" s="57"/>
+      <c r="N45" s="57"/>
+      <c r="O45" s="57"/>
+      <c r="P45" s="57"/>
+      <c r="Q45" s="57"/>
+      <c r="R45" s="57"/>
+      <c r="S45" s="57"/>
+      <c r="T45" s="57"/>
+      <c r="U45" s="57"/>
+      <c r="V45" s="57"/>
+      <c r="W45" s="57"/>
+      <c r="X45" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y45" s="57">
         <v>0.8</v>
       </c>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A49" s="56" t="s">
-        <v>123</v>
-      </c>
-      <c r="B49" s="55"/>
-      <c r="C49" s="55"/>
-      <c r="D49" s="55"/>
-      <c r="E49" s="55"/>
-      <c r="F49" s="55"/>
-      <c r="G49" s="55"/>
-      <c r="H49" s="55"/>
-      <c r="I49" s="55"/>
-      <c r="J49" s="55"/>
-      <c r="K49" s="55"/>
-      <c r="L49" s="55"/>
-      <c r="M49" s="55"/>
-      <c r="N49" s="55"/>
-      <c r="O49" s="55"/>
-      <c r="P49" s="55"/>
-      <c r="Q49" s="55"/>
-      <c r="R49" s="55"/>
-      <c r="S49" s="55"/>
-      <c r="T49" s="55"/>
-      <c r="U49" s="55"/>
-      <c r="V49" s="55"/>
-      <c r="W49" s="55"/>
-      <c r="X49" s="55"/>
-      <c r="Y49" s="55"/>
+      <c r="A49" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="B49" s="53"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="53"/>
+      <c r="E49" s="53"/>
+      <c r="F49" s="53"/>
+      <c r="G49" s="53"/>
+      <c r="H49" s="53"/>
+      <c r="I49" s="53"/>
+      <c r="J49" s="53"/>
+      <c r="K49" s="53"/>
+      <c r="L49" s="53"/>
+      <c r="M49" s="53"/>
+      <c r="N49" s="53"/>
+      <c r="O49" s="53"/>
+      <c r="P49" s="53"/>
+      <c r="Q49" s="53"/>
+      <c r="R49" s="53"/>
+      <c r="S49" s="53"/>
+      <c r="T49" s="53"/>
+      <c r="U49" s="53"/>
+      <c r="V49" s="53"/>
+      <c r="W49" s="53"/>
+      <c r="X49" s="53"/>
+      <c r="Y49" s="53"/>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A50" s="55"/>
-      <c r="B50" s="55"/>
-      <c r="C50" s="57">
+      <c r="A50" s="53"/>
+      <c r="B50" s="53"/>
+      <c r="C50" s="55">
         <v>2000</v>
       </c>
-      <c r="D50" s="57">
+      <c r="D50" s="55">
         <v>2001</v>
       </c>
-      <c r="E50" s="57">
+      <c r="E50" s="55">
         <v>2002</v>
       </c>
-      <c r="F50" s="57">
+      <c r="F50" s="55">
         <v>2003</v>
       </c>
-      <c r="G50" s="57">
+      <c r="G50" s="55">
         <v>2004</v>
       </c>
-      <c r="H50" s="57">
+      <c r="H50" s="55">
         <v>2005</v>
       </c>
-      <c r="I50" s="57">
+      <c r="I50" s="55">
         <v>2006</v>
       </c>
-      <c r="J50" s="57">
+      <c r="J50" s="55">
         <v>2007</v>
       </c>
-      <c r="K50" s="57">
+      <c r="K50" s="55">
         <v>2008</v>
       </c>
-      <c r="L50" s="57">
+      <c r="L50" s="55">
         <v>2009</v>
       </c>
-      <c r="M50" s="57">
+      <c r="M50" s="55">
         <v>2010</v>
       </c>
-      <c r="N50" s="57">
+      <c r="N50" s="55">
         <v>2011</v>
       </c>
-      <c r="O50" s="57">
+      <c r="O50" s="55">
         <v>2012</v>
       </c>
-      <c r="P50" s="57">
+      <c r="P50" s="55">
         <v>2013</v>
       </c>
-      <c r="Q50" s="57">
+      <c r="Q50" s="55">
         <v>2014</v>
       </c>
-      <c r="R50" s="57">
+      <c r="R50" s="55">
         <v>2015</v>
       </c>
-      <c r="S50" s="57">
+      <c r="S50" s="55">
         <v>2016</v>
       </c>
-      <c r="T50" s="57">
+      <c r="T50" s="55">
         <v>2017</v>
       </c>
-      <c r="U50" s="57">
+      <c r="U50" s="55">
         <v>2018</v>
       </c>
-      <c r="V50" s="57">
+      <c r="V50" s="55">
         <v>2019</v>
       </c>
-      <c r="W50" s="57">
+      <c r="W50" s="55">
         <v>2020</v>
       </c>
-      <c r="X50" s="55"/>
-      <c r="Y50" s="57" t="s">
-        <v>20</v>
+      <c r="X50" s="53"/>
+      <c r="Y50" s="55" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A51" s="55"/>
+      <c r="A51" s="53"/>
       <c r="B51" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
       </c>
-      <c r="C51" s="59"/>
-      <c r="D51" s="59"/>
-      <c r="E51" s="59"/>
-      <c r="F51" s="59"/>
-      <c r="G51" s="59"/>
-      <c r="H51" s="59"/>
-      <c r="I51" s="59"/>
-      <c r="J51" s="59"/>
-      <c r="K51" s="59"/>
-      <c r="L51" s="59"/>
-      <c r="M51" s="59"/>
-      <c r="N51" s="59"/>
-      <c r="O51" s="59"/>
-      <c r="P51" s="59"/>
-      <c r="Q51" s="59"/>
-      <c r="R51" s="59"/>
-      <c r="S51" s="59"/>
-      <c r="T51" s="59"/>
-      <c r="U51" s="59"/>
-      <c r="V51" s="59"/>
-      <c r="W51" s="59"/>
-      <c r="X51" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y51" s="59">
+      <c r="C51" s="57"/>
+      <c r="D51" s="57"/>
+      <c r="E51" s="57"/>
+      <c r="F51" s="57"/>
+      <c r="G51" s="57"/>
+      <c r="H51" s="57"/>
+      <c r="I51" s="57"/>
+      <c r="J51" s="57"/>
+      <c r="K51" s="57"/>
+      <c r="L51" s="57"/>
+      <c r="M51" s="57"/>
+      <c r="N51" s="57"/>
+      <c r="O51" s="57"/>
+      <c r="P51" s="57"/>
+      <c r="Q51" s="57"/>
+      <c r="R51" s="57"/>
+      <c r="S51" s="57"/>
+      <c r="T51" s="57"/>
+      <c r="U51" s="57"/>
+      <c r="V51" s="57"/>
+      <c r="W51" s="57"/>
+      <c r="X51" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y51" s="57">
         <v>0.1</v>
       </c>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A52" s="55"/>
+      <c r="A52" s="53"/>
       <c r="B52" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
       </c>
-      <c r="C52" s="59"/>
-      <c r="D52" s="59"/>
-      <c r="E52" s="59"/>
-      <c r="F52" s="59"/>
-      <c r="G52" s="59"/>
-      <c r="H52" s="59"/>
-      <c r="I52" s="59"/>
-      <c r="J52" s="59"/>
-      <c r="K52" s="59"/>
-      <c r="L52" s="59"/>
-      <c r="M52" s="59"/>
-      <c r="N52" s="59"/>
-      <c r="O52" s="59"/>
-      <c r="P52" s="59"/>
-      <c r="Q52" s="59"/>
-      <c r="R52" s="59"/>
-      <c r="S52" s="59"/>
-      <c r="T52" s="59"/>
-      <c r="U52" s="59"/>
-      <c r="V52" s="59"/>
-      <c r="W52" s="59"/>
-      <c r="X52" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y52" s="59">
+      <c r="C52" s="57"/>
+      <c r="D52" s="57"/>
+      <c r="E52" s="57"/>
+      <c r="F52" s="57"/>
+      <c r="G52" s="57"/>
+      <c r="H52" s="57"/>
+      <c r="I52" s="57"/>
+      <c r="J52" s="57"/>
+      <c r="K52" s="57"/>
+      <c r="L52" s="57"/>
+      <c r="M52" s="57"/>
+      <c r="N52" s="57"/>
+      <c r="O52" s="57"/>
+      <c r="P52" s="57"/>
+      <c r="Q52" s="57"/>
+      <c r="R52" s="57"/>
+      <c r="S52" s="57"/>
+      <c r="T52" s="57"/>
+      <c r="U52" s="57"/>
+      <c r="V52" s="57"/>
+      <c r="W52" s="57"/>
+      <c r="X52" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y52" s="57">
         <v>0.1</v>
       </c>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A53" s="55"/>
+      <c r="A53" s="53"/>
       <c r="B53" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
       </c>
-      <c r="C53" s="59"/>
-      <c r="D53" s="59"/>
-      <c r="E53" s="59"/>
-      <c r="F53" s="59"/>
-      <c r="G53" s="59"/>
-      <c r="H53" s="59"/>
-      <c r="I53" s="59"/>
-      <c r="J53" s="59"/>
-      <c r="K53" s="59"/>
-      <c r="L53" s="59"/>
-      <c r="M53" s="59"/>
-      <c r="N53" s="59"/>
-      <c r="O53" s="59"/>
-      <c r="P53" s="59"/>
-      <c r="Q53" s="59"/>
-      <c r="R53" s="59"/>
-      <c r="S53" s="59"/>
-      <c r="T53" s="59"/>
-      <c r="U53" s="59"/>
-      <c r="V53" s="59"/>
-      <c r="W53" s="59"/>
-      <c r="X53" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y53" s="59">
+      <c r="C53" s="57"/>
+      <c r="D53" s="57"/>
+      <c r="E53" s="57"/>
+      <c r="F53" s="57"/>
+      <c r="G53" s="57"/>
+      <c r="H53" s="57"/>
+      <c r="I53" s="57"/>
+      <c r="J53" s="57"/>
+      <c r="K53" s="57"/>
+      <c r="L53" s="57"/>
+      <c r="M53" s="57"/>
+      <c r="N53" s="57"/>
+      <c r="O53" s="57"/>
+      <c r="P53" s="57"/>
+      <c r="Q53" s="57"/>
+      <c r="R53" s="57"/>
+      <c r="S53" s="57"/>
+      <c r="T53" s="57"/>
+      <c r="U53" s="57"/>
+      <c r="V53" s="57"/>
+      <c r="W53" s="57"/>
+      <c r="X53" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y53" s="57">
         <v>0.1</v>
       </c>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A54" s="55"/>
+      <c r="A54" s="53"/>
       <c r="B54" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
       </c>
-      <c r="C54" s="59"/>
-      <c r="D54" s="59"/>
-      <c r="E54" s="59"/>
-      <c r="F54" s="59"/>
-      <c r="G54" s="59"/>
-      <c r="H54" s="59"/>
-      <c r="I54" s="59"/>
-      <c r="J54" s="59"/>
-      <c r="K54" s="59"/>
-      <c r="L54" s="59"/>
-      <c r="M54" s="59"/>
-      <c r="N54" s="59"/>
-      <c r="O54" s="59"/>
-      <c r="P54" s="59"/>
-      <c r="Q54" s="59"/>
-      <c r="R54" s="59"/>
-      <c r="S54" s="59"/>
-      <c r="T54" s="59"/>
-      <c r="U54" s="59"/>
-      <c r="V54" s="59"/>
-      <c r="W54" s="59"/>
-      <c r="X54" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y54" s="59">
+      <c r="C54" s="57"/>
+      <c r="D54" s="57"/>
+      <c r="E54" s="57"/>
+      <c r="F54" s="57"/>
+      <c r="G54" s="57"/>
+      <c r="H54" s="57"/>
+      <c r="I54" s="57"/>
+      <c r="J54" s="57"/>
+      <c r="K54" s="57"/>
+      <c r="L54" s="57"/>
+      <c r="M54" s="57"/>
+      <c r="N54" s="57"/>
+      <c r="O54" s="57"/>
+      <c r="P54" s="57"/>
+      <c r="Q54" s="57"/>
+      <c r="R54" s="57"/>
+      <c r="S54" s="57"/>
+      <c r="T54" s="57"/>
+      <c r="U54" s="57"/>
+      <c r="V54" s="57"/>
+      <c r="W54" s="57"/>
+      <c r="X54" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y54" s="57">
         <v>0.1</v>
       </c>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A55" s="55"/>
+      <c r="A55" s="53"/>
       <c r="B55" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
       </c>
-      <c r="C55" s="59"/>
-      <c r="D55" s="59"/>
-      <c r="E55" s="59"/>
-      <c r="F55" s="59"/>
-      <c r="G55" s="59"/>
-      <c r="H55" s="59"/>
-      <c r="I55" s="59"/>
-      <c r="J55" s="59"/>
-      <c r="K55" s="59"/>
-      <c r="L55" s="59"/>
-      <c r="M55" s="59"/>
-      <c r="N55" s="59"/>
-      <c r="O55" s="59"/>
-      <c r="P55" s="59"/>
-      <c r="Q55" s="59"/>
-      <c r="R55" s="59"/>
-      <c r="S55" s="59"/>
-      <c r="T55" s="59"/>
-      <c r="U55" s="59"/>
-      <c r="V55" s="59"/>
-      <c r="W55" s="59"/>
-      <c r="X55" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y55" s="59">
+      <c r="C55" s="57"/>
+      <c r="D55" s="57"/>
+      <c r="E55" s="57"/>
+      <c r="F55" s="57"/>
+      <c r="G55" s="57"/>
+      <c r="H55" s="57"/>
+      <c r="I55" s="57"/>
+      <c r="J55" s="57"/>
+      <c r="K55" s="57"/>
+      <c r="L55" s="57"/>
+      <c r="M55" s="57"/>
+      <c r="N55" s="57"/>
+      <c r="O55" s="57"/>
+      <c r="P55" s="57"/>
+      <c r="Q55" s="57"/>
+      <c r="R55" s="57"/>
+      <c r="S55" s="57"/>
+      <c r="T55" s="57"/>
+      <c r="U55" s="57"/>
+      <c r="V55" s="57"/>
+      <c r="W55" s="57"/>
+      <c r="X55" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y55" s="57">
         <v>0.1</v>
       </c>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A56" s="55"/>
+      <c r="A56" s="53"/>
       <c r="B56" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15+</v>
       </c>
-      <c r="C56" s="59"/>
-      <c r="D56" s="59"/>
-      <c r="E56" s="59"/>
-      <c r="F56" s="59"/>
-      <c r="G56" s="59"/>
-      <c r="H56" s="59"/>
-      <c r="I56" s="59"/>
-      <c r="J56" s="59"/>
-      <c r="K56" s="59"/>
-      <c r="L56" s="59"/>
-      <c r="M56" s="59"/>
-      <c r="N56" s="59"/>
-      <c r="O56" s="59"/>
-      <c r="P56" s="59"/>
-      <c r="Q56" s="59"/>
-      <c r="R56" s="59"/>
-      <c r="S56" s="59"/>
-      <c r="T56" s="59"/>
-      <c r="U56" s="59"/>
-      <c r="V56" s="59"/>
-      <c r="W56" s="59"/>
-      <c r="X56" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y56" s="59">
+      <c r="C56" s="57"/>
+      <c r="D56" s="57"/>
+      <c r="E56" s="57"/>
+      <c r="F56" s="57"/>
+      <c r="G56" s="57"/>
+      <c r="H56" s="57"/>
+      <c r="I56" s="57"/>
+      <c r="J56" s="57"/>
+      <c r="K56" s="57"/>
+      <c r="L56" s="57"/>
+      <c r="M56" s="57"/>
+      <c r="N56" s="57"/>
+      <c r="O56" s="57"/>
+      <c r="P56" s="57"/>
+      <c r="Q56" s="57"/>
+      <c r="R56" s="57"/>
+      <c r="S56" s="57"/>
+      <c r="T56" s="57"/>
+      <c r="U56" s="57"/>
+      <c r="V56" s="57"/>
+      <c r="W56" s="57"/>
+      <c r="X56" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y56" s="57">
         <v>0.1</v>
       </c>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A57" s="55"/>
+      <c r="A57" s="53"/>
       <c r="B57" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15+</v>
       </c>
-      <c r="C57" s="59"/>
-      <c r="D57" s="59"/>
-      <c r="E57" s="59"/>
-      <c r="F57" s="59"/>
-      <c r="G57" s="59"/>
-      <c r="H57" s="59"/>
-      <c r="I57" s="59"/>
-      <c r="J57" s="59"/>
-      <c r="K57" s="59"/>
-      <c r="L57" s="59"/>
-      <c r="M57" s="59"/>
-      <c r="N57" s="59"/>
-      <c r="O57" s="59"/>
-      <c r="P57" s="59"/>
-      <c r="Q57" s="59"/>
-      <c r="R57" s="59"/>
-      <c r="S57" s="59"/>
-      <c r="T57" s="59"/>
-      <c r="U57" s="59"/>
-      <c r="V57" s="59"/>
-      <c r="W57" s="59"/>
-      <c r="X57" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y57" s="59">
+      <c r="C57" s="57"/>
+      <c r="D57" s="57"/>
+      <c r="E57" s="57"/>
+      <c r="F57" s="57"/>
+      <c r="G57" s="57"/>
+      <c r="H57" s="57"/>
+      <c r="I57" s="57"/>
+      <c r="J57" s="57"/>
+      <c r="K57" s="57"/>
+      <c r="L57" s="57"/>
+      <c r="M57" s="57"/>
+      <c r="N57" s="57"/>
+      <c r="O57" s="57"/>
+      <c r="P57" s="57"/>
+      <c r="Q57" s="57"/>
+      <c r="R57" s="57"/>
+      <c r="S57" s="57"/>
+      <c r="T57" s="57"/>
+      <c r="U57" s="57"/>
+      <c r="V57" s="57"/>
+      <c r="W57" s="57"/>
+      <c r="X57" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y57" s="57">
         <v>0.1</v>
       </c>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A61" s="56" t="s">
-        <v>124</v>
-      </c>
-      <c r="B61" s="55"/>
-      <c r="C61" s="55"/>
-      <c r="D61" s="55"/>
-      <c r="E61" s="55"/>
-      <c r="F61" s="55"/>
-      <c r="G61" s="55"/>
-      <c r="H61" s="55"/>
-      <c r="I61" s="55"/>
-      <c r="J61" s="55"/>
-      <c r="K61" s="55"/>
-      <c r="L61" s="55"/>
-      <c r="M61" s="55"/>
-      <c r="N61" s="55"/>
-      <c r="O61" s="55"/>
-      <c r="P61" s="55"/>
-      <c r="Q61" s="55"/>
-      <c r="R61" s="55"/>
-      <c r="S61" s="55"/>
-      <c r="T61" s="55"/>
-      <c r="U61" s="55"/>
-      <c r="V61" s="55"/>
-      <c r="W61" s="55"/>
-      <c r="X61" s="55"/>
-      <c r="Y61" s="55"/>
+      <c r="A61" s="54" t="s">
+        <v>123</v>
+      </c>
+      <c r="B61" s="53"/>
+      <c r="C61" s="53"/>
+      <c r="D61" s="53"/>
+      <c r="E61" s="53"/>
+      <c r="F61" s="53"/>
+      <c r="G61" s="53"/>
+      <c r="H61" s="53"/>
+      <c r="I61" s="53"/>
+      <c r="J61" s="53"/>
+      <c r="K61" s="53"/>
+      <c r="L61" s="53"/>
+      <c r="M61" s="53"/>
+      <c r="N61" s="53"/>
+      <c r="O61" s="53"/>
+      <c r="P61" s="53"/>
+      <c r="Q61" s="53"/>
+      <c r="R61" s="53"/>
+      <c r="S61" s="53"/>
+      <c r="T61" s="53"/>
+      <c r="U61" s="53"/>
+      <c r="V61" s="53"/>
+      <c r="W61" s="53"/>
+      <c r="X61" s="53"/>
+      <c r="Y61" s="53"/>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A62" s="55"/>
-      <c r="B62" s="55"/>
-      <c r="C62" s="57">
+      <c r="A62" s="53"/>
+      <c r="B62" s="53"/>
+      <c r="C62" s="55">
         <v>2000</v>
       </c>
-      <c r="D62" s="57">
+      <c r="D62" s="55">
         <v>2001</v>
       </c>
-      <c r="E62" s="57">
+      <c r="E62" s="55">
         <v>2002</v>
       </c>
-      <c r="F62" s="57">
+      <c r="F62" s="55">
         <v>2003</v>
       </c>
-      <c r="G62" s="57">
+      <c r="G62" s="55">
         <v>2004</v>
       </c>
-      <c r="H62" s="57">
+      <c r="H62" s="55">
         <v>2005</v>
       </c>
-      <c r="I62" s="57">
+      <c r="I62" s="55">
         <v>2006</v>
       </c>
-      <c r="J62" s="57">
+      <c r="J62" s="55">
         <v>2007</v>
       </c>
-      <c r="K62" s="57">
+      <c r="K62" s="55">
         <v>2008</v>
       </c>
-      <c r="L62" s="57">
+      <c r="L62" s="55">
         <v>2009</v>
       </c>
-      <c r="M62" s="57">
+      <c r="M62" s="55">
         <v>2010</v>
       </c>
-      <c r="N62" s="57">
+      <c r="N62" s="55">
         <v>2011</v>
       </c>
-      <c r="O62" s="57">
+      <c r="O62" s="55">
         <v>2012</v>
       </c>
-      <c r="P62" s="57">
+      <c r="P62" s="55">
         <v>2013</v>
       </c>
-      <c r="Q62" s="57">
+      <c r="Q62" s="55">
         <v>2014</v>
       </c>
-      <c r="R62" s="57">
+      <c r="R62" s="55">
         <v>2015</v>
       </c>
-      <c r="S62" s="57">
+      <c r="S62" s="55">
         <v>2016</v>
       </c>
-      <c r="T62" s="57">
+      <c r="T62" s="55">
         <v>2017</v>
       </c>
-      <c r="U62" s="57">
+      <c r="U62" s="55">
         <v>2018</v>
       </c>
-      <c r="V62" s="57">
+      <c r="V62" s="55">
         <v>2019</v>
       </c>
-      <c r="W62" s="57">
+      <c r="W62" s="55">
         <v>2020</v>
       </c>
-      <c r="X62" s="55"/>
-      <c r="Y62" s="57" t="s">
-        <v>20</v>
+      <c r="X62" s="53"/>
+      <c r="Y62" s="55" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A63" s="55"/>
+      <c r="A63" s="53"/>
       <c r="B63" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
       </c>
-      <c r="C63" s="59"/>
-      <c r="D63" s="59"/>
-      <c r="E63" s="59"/>
-      <c r="F63" s="59"/>
-      <c r="G63" s="59"/>
-      <c r="H63" s="59"/>
-      <c r="I63" s="59"/>
-      <c r="J63" s="59"/>
-      <c r="K63" s="59"/>
-      <c r="L63" s="59"/>
-      <c r="M63" s="59"/>
-      <c r="N63" s="59"/>
-      <c r="O63" s="59"/>
-      <c r="P63" s="59"/>
-      <c r="Q63" s="59"/>
-      <c r="R63" s="59"/>
-      <c r="S63" s="59"/>
-      <c r="T63" s="59"/>
-      <c r="U63" s="59"/>
-      <c r="V63" s="59"/>
-      <c r="W63" s="59"/>
-      <c r="X63" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y63" s="59">
+      <c r="C63" s="57"/>
+      <c r="D63" s="57"/>
+      <c r="E63" s="57"/>
+      <c r="F63" s="57"/>
+      <c r="G63" s="57"/>
+      <c r="H63" s="57"/>
+      <c r="I63" s="57"/>
+      <c r="J63" s="57"/>
+      <c r="K63" s="57"/>
+      <c r="L63" s="57"/>
+      <c r="M63" s="57"/>
+      <c r="N63" s="57"/>
+      <c r="O63" s="57"/>
+      <c r="P63" s="57"/>
+      <c r="Q63" s="57"/>
+      <c r="R63" s="57"/>
+      <c r="S63" s="57"/>
+      <c r="T63" s="57"/>
+      <c r="U63" s="57"/>
+      <c r="V63" s="57"/>
+      <c r="W63" s="57"/>
+      <c r="X63" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y63" s="57">
         <v>0.1</v>
       </c>
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A64" s="55"/>
+      <c r="A64" s="53"/>
       <c r="B64" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
       </c>
-      <c r="C64" s="59"/>
-      <c r="D64" s="59"/>
-      <c r="E64" s="59"/>
-      <c r="F64" s="59"/>
-      <c r="G64" s="59"/>
-      <c r="H64" s="59"/>
-      <c r="I64" s="59"/>
-      <c r="J64" s="59"/>
-      <c r="K64" s="59"/>
-      <c r="L64" s="59"/>
-      <c r="M64" s="59"/>
-      <c r="N64" s="59"/>
-      <c r="O64" s="59"/>
-      <c r="P64" s="59"/>
-      <c r="Q64" s="59"/>
-      <c r="R64" s="59"/>
-      <c r="S64" s="59"/>
-      <c r="T64" s="59"/>
-      <c r="U64" s="59"/>
-      <c r="V64" s="59"/>
-      <c r="W64" s="59"/>
-      <c r="X64" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y64" s="59">
+      <c r="C64" s="57"/>
+      <c r="D64" s="57"/>
+      <c r="E64" s="57"/>
+      <c r="F64" s="57"/>
+      <c r="G64" s="57"/>
+      <c r="H64" s="57"/>
+      <c r="I64" s="57"/>
+      <c r="J64" s="57"/>
+      <c r="K64" s="57"/>
+      <c r="L64" s="57"/>
+      <c r="M64" s="57"/>
+      <c r="N64" s="57"/>
+      <c r="O64" s="57"/>
+      <c r="P64" s="57"/>
+      <c r="Q64" s="57"/>
+      <c r="R64" s="57"/>
+      <c r="S64" s="57"/>
+      <c r="T64" s="57"/>
+      <c r="U64" s="57"/>
+      <c r="V64" s="57"/>
+      <c r="W64" s="57"/>
+      <c r="X64" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y64" s="57">
         <v>0.1</v>
       </c>
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A65" s="55"/>
+      <c r="A65" s="53"/>
       <c r="B65" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
       </c>
-      <c r="C65" s="59"/>
-      <c r="D65" s="59"/>
-      <c r="E65" s="59"/>
-      <c r="F65" s="59"/>
-      <c r="G65" s="59"/>
-      <c r="H65" s="59"/>
-      <c r="I65" s="59"/>
-      <c r="J65" s="59"/>
-      <c r="K65" s="59"/>
-      <c r="L65" s="59"/>
-      <c r="M65" s="59"/>
-      <c r="N65" s="59"/>
-      <c r="O65" s="59"/>
-      <c r="P65" s="59"/>
-      <c r="Q65" s="59"/>
-      <c r="R65" s="59"/>
-      <c r="S65" s="59"/>
-      <c r="T65" s="59"/>
-      <c r="U65" s="59"/>
-      <c r="V65" s="59"/>
-      <c r="W65" s="59"/>
-      <c r="X65" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y65" s="59">
+      <c r="C65" s="57"/>
+      <c r="D65" s="57"/>
+      <c r="E65" s="57"/>
+      <c r="F65" s="57"/>
+      <c r="G65" s="57"/>
+      <c r="H65" s="57"/>
+      <c r="I65" s="57"/>
+      <c r="J65" s="57"/>
+      <c r="K65" s="57"/>
+      <c r="L65" s="57"/>
+      <c r="M65" s="57"/>
+      <c r="N65" s="57"/>
+      <c r="O65" s="57"/>
+      <c r="P65" s="57"/>
+      <c r="Q65" s="57"/>
+      <c r="R65" s="57"/>
+      <c r="S65" s="57"/>
+      <c r="T65" s="57"/>
+      <c r="U65" s="57"/>
+      <c r="V65" s="57"/>
+      <c r="W65" s="57"/>
+      <c r="X65" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y65" s="57">
         <v>0.1</v>
       </c>
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A66" s="55"/>
+      <c r="A66" s="53"/>
       <c r="B66" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
       </c>
-      <c r="C66" s="59"/>
-      <c r="D66" s="59"/>
-      <c r="E66" s="59"/>
-      <c r="F66" s="59"/>
-      <c r="G66" s="59"/>
-      <c r="H66" s="59"/>
-      <c r="I66" s="59"/>
-      <c r="J66" s="59"/>
-      <c r="K66" s="59"/>
-      <c r="L66" s="59"/>
-      <c r="M66" s="59"/>
-      <c r="N66" s="59"/>
-      <c r="O66" s="59"/>
-      <c r="P66" s="59"/>
-      <c r="Q66" s="59"/>
-      <c r="R66" s="59"/>
-      <c r="S66" s="59"/>
-      <c r="T66" s="59"/>
-      <c r="U66" s="59"/>
-      <c r="V66" s="59"/>
-      <c r="W66" s="59"/>
-      <c r="X66" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y66" s="59">
+      <c r="C66" s="57"/>
+      <c r="D66" s="57"/>
+      <c r="E66" s="57"/>
+      <c r="F66" s="57"/>
+      <c r="G66" s="57"/>
+      <c r="H66" s="57"/>
+      <c r="I66" s="57"/>
+      <c r="J66" s="57"/>
+      <c r="K66" s="57"/>
+      <c r="L66" s="57"/>
+      <c r="M66" s="57"/>
+      <c r="N66" s="57"/>
+      <c r="O66" s="57"/>
+      <c r="P66" s="57"/>
+      <c r="Q66" s="57"/>
+      <c r="R66" s="57"/>
+      <c r="S66" s="57"/>
+      <c r="T66" s="57"/>
+      <c r="U66" s="57"/>
+      <c r="V66" s="57"/>
+      <c r="W66" s="57"/>
+      <c r="X66" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y66" s="57">
         <v>0.1</v>
       </c>
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A67" s="55"/>
+      <c r="A67" s="53"/>
       <c r="B67" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
       </c>
-      <c r="C67" s="59"/>
-      <c r="D67" s="59"/>
-      <c r="E67" s="59"/>
-      <c r="F67" s="59"/>
-      <c r="G67" s="59"/>
-      <c r="H67" s="59"/>
-      <c r="I67" s="59"/>
-      <c r="J67" s="59"/>
-      <c r="K67" s="59"/>
-      <c r="L67" s="59"/>
-      <c r="M67" s="59"/>
-      <c r="N67" s="59"/>
-      <c r="O67" s="59"/>
-      <c r="P67" s="59"/>
-      <c r="Q67" s="59"/>
-      <c r="R67" s="59"/>
-      <c r="S67" s="59"/>
-      <c r="T67" s="59"/>
-      <c r="U67" s="59"/>
-      <c r="V67" s="59"/>
-      <c r="W67" s="59"/>
-      <c r="X67" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y67" s="59">
+      <c r="C67" s="57"/>
+      <c r="D67" s="57"/>
+      <c r="E67" s="57"/>
+      <c r="F67" s="57"/>
+      <c r="G67" s="57"/>
+      <c r="H67" s="57"/>
+      <c r="I67" s="57"/>
+      <c r="J67" s="57"/>
+      <c r="K67" s="57"/>
+      <c r="L67" s="57"/>
+      <c r="M67" s="57"/>
+      <c r="N67" s="57"/>
+      <c r="O67" s="57"/>
+      <c r="P67" s="57"/>
+      <c r="Q67" s="57"/>
+      <c r="R67" s="57"/>
+      <c r="S67" s="57"/>
+      <c r="T67" s="57"/>
+      <c r="U67" s="57"/>
+      <c r="V67" s="57"/>
+      <c r="W67" s="57"/>
+      <c r="X67" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y67" s="57">
         <v>0.1</v>
       </c>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A68" s="55"/>
+      <c r="A68" s="53"/>
       <c r="B68" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15+</v>
       </c>
-      <c r="C68" s="59"/>
-      <c r="D68" s="59"/>
-      <c r="E68" s="59"/>
-      <c r="F68" s="59"/>
-      <c r="G68" s="59"/>
-      <c r="H68" s="59"/>
-      <c r="I68" s="59"/>
-      <c r="J68" s="59"/>
-      <c r="K68" s="59"/>
-      <c r="L68" s="59"/>
-      <c r="M68" s="59"/>
-      <c r="N68" s="59"/>
-      <c r="O68" s="59"/>
-      <c r="P68" s="59"/>
-      <c r="Q68" s="59"/>
-      <c r="R68" s="59"/>
-      <c r="S68" s="59"/>
-      <c r="T68" s="59"/>
-      <c r="U68" s="59"/>
-      <c r="V68" s="59"/>
-      <c r="W68" s="59"/>
-      <c r="X68" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y68" s="59">
+      <c r="C68" s="57"/>
+      <c r="D68" s="57"/>
+      <c r="E68" s="57"/>
+      <c r="F68" s="57"/>
+      <c r="G68" s="57"/>
+      <c r="H68" s="57"/>
+      <c r="I68" s="57"/>
+      <c r="J68" s="57"/>
+      <c r="K68" s="57"/>
+      <c r="L68" s="57"/>
+      <c r="M68" s="57"/>
+      <c r="N68" s="57"/>
+      <c r="O68" s="57"/>
+      <c r="P68" s="57"/>
+      <c r="Q68" s="57"/>
+      <c r="R68" s="57"/>
+      <c r="S68" s="57"/>
+      <c r="T68" s="57"/>
+      <c r="U68" s="57"/>
+      <c r="V68" s="57"/>
+      <c r="W68" s="57"/>
+      <c r="X68" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y68" s="57">
         <v>0.1</v>
       </c>
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A69" s="55"/>
+      <c r="A69" s="53"/>
       <c r="B69" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15+</v>
       </c>
-      <c r="C69" s="59"/>
-      <c r="D69" s="59"/>
-      <c r="E69" s="59"/>
-      <c r="F69" s="59"/>
-      <c r="G69" s="59"/>
-      <c r="H69" s="59"/>
-      <c r="I69" s="59"/>
-      <c r="J69" s="59"/>
-      <c r="K69" s="59"/>
-      <c r="L69" s="59"/>
-      <c r="M69" s="59"/>
-      <c r="N69" s="59"/>
-      <c r="O69" s="59"/>
-      <c r="P69" s="59"/>
-      <c r="Q69" s="59"/>
-      <c r="R69" s="59"/>
-      <c r="S69" s="59"/>
-      <c r="T69" s="59"/>
-      <c r="U69" s="59"/>
-      <c r="V69" s="59"/>
-      <c r="W69" s="59"/>
-      <c r="X69" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y69" s="59">
+      <c r="C69" s="57"/>
+      <c r="D69" s="57"/>
+      <c r="E69" s="57"/>
+      <c r="F69" s="57"/>
+      <c r="G69" s="57"/>
+      <c r="H69" s="57"/>
+      <c r="I69" s="57"/>
+      <c r="J69" s="57"/>
+      <c r="K69" s="57"/>
+      <c r="L69" s="57"/>
+      <c r="M69" s="57"/>
+      <c r="N69" s="57"/>
+      <c r="O69" s="57"/>
+      <c r="P69" s="57"/>
+      <c r="Q69" s="57"/>
+      <c r="R69" s="57"/>
+      <c r="S69" s="57"/>
+      <c r="T69" s="57"/>
+      <c r="U69" s="57"/>
+      <c r="V69" s="57"/>
+      <c r="W69" s="57"/>
+      <c r="X69" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y69" s="57">
         <v>0.1</v>
       </c>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A73" s="56" t="s">
-        <v>125</v>
-      </c>
-      <c r="B73" s="55"/>
-      <c r="C73" s="55"/>
-      <c r="D73" s="55"/>
-      <c r="E73" s="55"/>
-      <c r="F73" s="55"/>
-      <c r="G73" s="55"/>
-      <c r="H73" s="55"/>
-      <c r="I73" s="55"/>
-      <c r="J73" s="55"/>
-      <c r="K73" s="55"/>
-      <c r="L73" s="55"/>
-      <c r="M73" s="55"/>
-      <c r="N73" s="55"/>
-      <c r="O73" s="55"/>
-      <c r="P73" s="55"/>
-      <c r="Q73" s="55"/>
-      <c r="R73" s="55"/>
-      <c r="S73" s="55"/>
-      <c r="T73" s="55"/>
-      <c r="U73" s="55"/>
-      <c r="V73" s="55"/>
-      <c r="W73" s="55"/>
-      <c r="X73" s="55"/>
-      <c r="Y73" s="55"/>
+      <c r="A73" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="B73" s="53"/>
+      <c r="C73" s="53"/>
+      <c r="D73" s="53"/>
+      <c r="E73" s="53"/>
+      <c r="F73" s="53"/>
+      <c r="G73" s="53"/>
+      <c r="H73" s="53"/>
+      <c r="I73" s="53"/>
+      <c r="J73" s="53"/>
+      <c r="K73" s="53"/>
+      <c r="L73" s="53"/>
+      <c r="M73" s="53"/>
+      <c r="N73" s="53"/>
+      <c r="O73" s="53"/>
+      <c r="P73" s="53"/>
+      <c r="Q73" s="53"/>
+      <c r="R73" s="53"/>
+      <c r="S73" s="53"/>
+      <c r="T73" s="53"/>
+      <c r="U73" s="53"/>
+      <c r="V73" s="53"/>
+      <c r="W73" s="53"/>
+      <c r="X73" s="53"/>
+      <c r="Y73" s="53"/>
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A74" s="55"/>
-      <c r="B74" s="55"/>
-      <c r="C74" s="57">
+      <c r="A74" s="53"/>
+      <c r="B74" s="53"/>
+      <c r="C74" s="55">
         <v>2000</v>
       </c>
-      <c r="D74" s="57">
+      <c r="D74" s="55">
         <v>2001</v>
       </c>
-      <c r="E74" s="57">
+      <c r="E74" s="55">
         <v>2002</v>
       </c>
-      <c r="F74" s="57">
+      <c r="F74" s="55">
         <v>2003</v>
       </c>
-      <c r="G74" s="57">
+      <c r="G74" s="55">
         <v>2004</v>
       </c>
-      <c r="H74" s="57">
+      <c r="H74" s="55">
         <v>2005</v>
       </c>
-      <c r="I74" s="57">
+      <c r="I74" s="55">
         <v>2006</v>
       </c>
-      <c r="J74" s="57">
+      <c r="J74" s="55">
         <v>2007</v>
       </c>
-      <c r="K74" s="57">
+      <c r="K74" s="55">
         <v>2008</v>
       </c>
-      <c r="L74" s="57">
+      <c r="L74" s="55">
         <v>2009</v>
       </c>
-      <c r="M74" s="57">
+      <c r="M74" s="55">
         <v>2010</v>
       </c>
-      <c r="N74" s="57">
+      <c r="N74" s="55">
         <v>2011</v>
       </c>
-      <c r="O74" s="57">
+      <c r="O74" s="55">
         <v>2012</v>
       </c>
-      <c r="P74" s="57">
+      <c r="P74" s="55">
         <v>2013</v>
       </c>
-      <c r="Q74" s="57">
+      <c r="Q74" s="55">
         <v>2014</v>
       </c>
-      <c r="R74" s="57">
+      <c r="R74" s="55">
         <v>2015</v>
       </c>
-      <c r="S74" s="57">
+      <c r="S74" s="55">
         <v>2016</v>
       </c>
-      <c r="T74" s="57">
+      <c r="T74" s="55">
         <v>2017</v>
       </c>
-      <c r="U74" s="57">
+      <c r="U74" s="55">
         <v>2018</v>
       </c>
-      <c r="V74" s="57">
+      <c r="V74" s="55">
         <v>2019</v>
       </c>
-      <c r="W74" s="57">
+      <c r="W74" s="55">
         <v>2020</v>
       </c>
-      <c r="X74" s="55"/>
-      <c r="Y74" s="57" t="s">
-        <v>20</v>
+      <c r="X74" s="53"/>
+      <c r="Y74" s="55" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A75" s="55"/>
-      <c r="B75" s="57" t="s">
-        <v>39</v>
-      </c>
-      <c r="C75" s="59"/>
-      <c r="D75" s="59"/>
-      <c r="E75" s="59"/>
-      <c r="F75" s="59"/>
-      <c r="G75" s="59"/>
-      <c r="H75" s="59"/>
-      <c r="I75" s="59"/>
-      <c r="J75" s="59"/>
-      <c r="K75" s="59"/>
-      <c r="L75" s="59"/>
-      <c r="M75" s="59"/>
-      <c r="N75" s="59"/>
-      <c r="O75" s="59"/>
-      <c r="P75" s="59"/>
-      <c r="Q75" s="59"/>
-      <c r="R75" s="59"/>
-      <c r="S75" s="59"/>
-      <c r="T75" s="59"/>
-      <c r="U75" s="59"/>
-      <c r="V75" s="59"/>
-      <c r="W75" s="59"/>
-      <c r="X75" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y75" s="59">
+      <c r="A75" s="53"/>
+      <c r="B75" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="C75" s="57"/>
+      <c r="D75" s="57"/>
+      <c r="E75" s="57"/>
+      <c r="F75" s="57"/>
+      <c r="G75" s="57"/>
+      <c r="H75" s="57"/>
+      <c r="I75" s="57"/>
+      <c r="J75" s="57"/>
+      <c r="K75" s="57"/>
+      <c r="L75" s="57"/>
+      <c r="M75" s="57"/>
+      <c r="N75" s="57"/>
+      <c r="O75" s="57"/>
+      <c r="P75" s="57"/>
+      <c r="Q75" s="57"/>
+      <c r="R75" s="57"/>
+      <c r="S75" s="57"/>
+      <c r="T75" s="57"/>
+      <c r="U75" s="57"/>
+      <c r="V75" s="57"/>
+      <c r="W75" s="57"/>
+      <c r="X75" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y75" s="57">
         <v>0.1</v>
       </c>
     </row>
@@ -11476,7 +11476,7 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
@@ -11544,7 +11544,7 @@
         <v>2020</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -11576,7 +11576,7 @@
       <c r="V3" s="4"/>
       <c r="W3" s="4"/>
       <c r="X3" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y3" s="4"/>
     </row>
@@ -11609,7 +11609,7 @@
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
       <c r="X4" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y4" s="4"/>
     </row>
@@ -11642,7 +11642,7 @@
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
       <c r="X5" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y5" s="4"/>
     </row>
@@ -11673,7 +11673,7 @@
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
       <c r="X6" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y6" s="4">
         <v>0</v>
@@ -11706,7 +11706,7 @@
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
       <c r="X7" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y7" s="4">
         <v>0</v>
@@ -11741,7 +11741,7 @@
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
       <c r="X8" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y8" s="4"/>
     </row>
@@ -11774,13 +11774,13 @@
       <c r="V9" s="4"/>
       <c r="W9" s="4"/>
       <c r="X9" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y9" s="4"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -11848,7 +11848,7 @@
         <v>2020</v>
       </c>
       <c r="Y14" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
@@ -11880,7 +11880,7 @@
       <c r="V15" s="4"/>
       <c r="W15" s="4"/>
       <c r="X15" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y15" s="4"/>
     </row>
@@ -11913,7 +11913,7 @@
       <c r="V16" s="4"/>
       <c r="W16" s="4"/>
       <c r="X16" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y16" s="4"/>
     </row>
@@ -11946,7 +11946,7 @@
       <c r="V17" s="4"/>
       <c r="W17" s="4"/>
       <c r="X17" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y17" s="4"/>
     </row>
@@ -11977,7 +11977,7 @@
       <c r="V18" s="4"/>
       <c r="W18" s="4"/>
       <c r="X18" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y18" s="4">
         <v>0</v>
@@ -12010,7 +12010,7 @@
       <c r="V19" s="4"/>
       <c r="W19" s="4"/>
       <c r="X19" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y19" s="4">
         <v>0</v>
@@ -12045,7 +12045,7 @@
       <c r="V20" s="4"/>
       <c r="W20" s="4"/>
       <c r="X20" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y20" s="4"/>
     </row>
@@ -12078,13 +12078,13 @@
       <c r="V21" s="4"/>
       <c r="W21" s="4"/>
       <c r="X21" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y21" s="4"/>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
@@ -12152,7 +12152,7 @@
         <v>2020</v>
       </c>
       <c r="Y26" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
@@ -12184,7 +12184,7 @@
       <c r="V27" s="4"/>
       <c r="W27" s="4"/>
       <c r="X27" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y27" s="4"/>
     </row>
@@ -12217,7 +12217,7 @@
       <c r="V28" s="4"/>
       <c r="W28" s="4"/>
       <c r="X28" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y28" s="4"/>
     </row>
@@ -12248,7 +12248,7 @@
       <c r="V29" s="4"/>
       <c r="W29" s="4"/>
       <c r="X29" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y29" s="4">
         <v>0</v>
@@ -12281,7 +12281,7 @@
       <c r="V30" s="4"/>
       <c r="W30" s="4"/>
       <c r="X30" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y30" s="4">
         <v>0</v>
@@ -12314,7 +12314,7 @@
       <c r="V31" s="4"/>
       <c r="W31" s="4"/>
       <c r="X31" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y31" s="4">
         <v>0</v>
@@ -12347,7 +12347,7 @@
       <c r="V32" s="4"/>
       <c r="W32" s="4"/>
       <c r="X32" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y32" s="4">
         <v>0</v>
@@ -12380,7 +12380,7 @@
       <c r="V33" s="4"/>
       <c r="W33" s="4"/>
       <c r="X33" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y33" s="4">
         <v>0</v>
@@ -12388,7 +12388,7 @@
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
@@ -12456,7 +12456,7 @@
         <v>2020</v>
       </c>
       <c r="Y38" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
@@ -12488,7 +12488,7 @@
       <c r="V39" s="9"/>
       <c r="W39" s="9"/>
       <c r="X39" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y39" s="9"/>
     </row>
@@ -12521,7 +12521,7 @@
       <c r="V40" s="9"/>
       <c r="W40" s="9"/>
       <c r="X40" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y40" s="9"/>
     </row>
@@ -12554,7 +12554,7 @@
       <c r="V41" s="9"/>
       <c r="W41" s="9"/>
       <c r="X41" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y41" s="9"/>
     </row>
@@ -12585,7 +12585,7 @@
       <c r="V42" s="9"/>
       <c r="W42" s="9"/>
       <c r="X42" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y42" s="9">
         <v>0</v>
@@ -12618,7 +12618,7 @@
       <c r="V43" s="9"/>
       <c r="W43" s="9"/>
       <c r="X43" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y43" s="9">
         <v>0</v>
@@ -12653,7 +12653,7 @@
       <c r="V44" s="9"/>
       <c r="W44" s="9"/>
       <c r="X44" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y44" s="9"/>
     </row>
@@ -12686,13 +12686,13 @@
       <c r="V45" s="9"/>
       <c r="W45" s="9"/>
       <c r="X45" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y45" s="9"/>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
@@ -12760,7 +12760,7 @@
         <v>2020</v>
       </c>
       <c r="Y50" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
@@ -12792,7 +12792,7 @@
       <c r="V51" s="9"/>
       <c r="W51" s="9"/>
       <c r="X51" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y51" s="9"/>
     </row>
@@ -12829,7 +12829,7 @@
       <c r="V52" s="9"/>
       <c r="W52" s="9"/>
       <c r="X52" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y52" s="9"/>
     </row>
@@ -12862,7 +12862,7 @@
       <c r="V53" s="9"/>
       <c r="W53" s="9"/>
       <c r="X53" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y53" s="9"/>
     </row>
@@ -12893,7 +12893,7 @@
       <c r="V54" s="9"/>
       <c r="W54" s="9"/>
       <c r="X54" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y54" s="9">
         <v>0</v>
@@ -12926,7 +12926,7 @@
       <c r="V55" s="9"/>
       <c r="W55" s="9"/>
       <c r="X55" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y55" s="9">
         <v>0</v>
@@ -12965,7 +12965,7 @@
       <c r="V56" s="9"/>
       <c r="W56" s="9"/>
       <c r="X56" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y56" s="9"/>
     </row>
@@ -13002,13 +13002,13 @@
       <c r="V57" s="9"/>
       <c r="W57" s="9"/>
       <c r="X57" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y57" s="9"/>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
@@ -13076,7 +13076,7 @@
         <v>2020</v>
       </c>
       <c r="Y62" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
@@ -13110,7 +13110,7 @@
       <c r="V63" s="9"/>
       <c r="W63" s="9"/>
       <c r="X63" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y63" s="9"/>
     </row>
@@ -13141,7 +13141,7 @@
       <c r="V64" s="9"/>
       <c r="W64" s="9"/>
       <c r="X64" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y64" s="9">
         <v>0</v>
@@ -13174,7 +13174,7 @@
       <c r="V65" s="9"/>
       <c r="W65" s="9"/>
       <c r="X65" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y65" s="9">
         <v>0</v>
@@ -13207,7 +13207,7 @@
       <c r="V66" s="9"/>
       <c r="W66" s="9"/>
       <c r="X66" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y66" s="9">
         <v>0</v>
@@ -13240,7 +13240,7 @@
       <c r="V67" s="9"/>
       <c r="W67" s="9"/>
       <c r="X67" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y67" s="9">
         <v>0</v>
@@ -13273,7 +13273,7 @@
       <c r="V68" s="9"/>
       <c r="W68" s="9"/>
       <c r="X68" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y68" s="9">
         <v>0</v>
@@ -13306,7 +13306,7 @@
       <c r="V69" s="9"/>
       <c r="W69" s="9"/>
       <c r="X69" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y69" s="9">
         <v>0</v>
@@ -13314,7 +13314,7 @@
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.25">
@@ -13382,7 +13382,7 @@
         <v>2020</v>
       </c>
       <c r="Y74" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.25">
@@ -13414,7 +13414,7 @@
       <c r="V75" s="9"/>
       <c r="W75" s="9"/>
       <c r="X75" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y75" s="9"/>
     </row>
@@ -13447,7 +13447,7 @@
       <c r="V76" s="9"/>
       <c r="W76" s="9"/>
       <c r="X76" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y76" s="9"/>
     </row>
@@ -13480,7 +13480,7 @@
       <c r="V77" s="9"/>
       <c r="W77" s="9"/>
       <c r="X77" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y77" s="9"/>
     </row>
@@ -13513,7 +13513,7 @@
       <c r="V78" s="9"/>
       <c r="W78" s="9"/>
       <c r="X78" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y78" s="9"/>
     </row>

--- a/tests/test7pops.xlsx
+++ b/tests/test7pops.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25725"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="19410" windowHeight="10950" tabRatio="901" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="19420" windowHeight="10960" tabRatio="901"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,12 @@
     <sheet name="Partnerships &amp; transitions" sheetId="10" r:id="rId11"/>
     <sheet name="Constants" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -110,9 +115,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="126">
   <si>
     <t>O P T I M A</t>
-  </si>
-  <si>
-    <t>Welcome to the Optima data entry spreadsheet. This is where all data for the model will be entered. At first glance the spreadsheet looks complicated and confusing. Unfortunately, it is. So please ask someone from the Optima development team if you need help, or use the default contact (info@optimamodel.com).</t>
   </si>
   <si>
     <t>Populations</t>
@@ -424,12 +426,6 @@
     <t>For further details please visit: http://optimamodel.com/file/indicator-guide</t>
   </si>
   <si>
-    <t>Age from</t>
-  </si>
-  <si>
-    <t>Age to</t>
-  </si>
-  <si>
     <t>Modeled estimate of number of PLHIV</t>
   </si>
   <si>
@@ -466,19 +462,10 @@
     <t>Probability of viral suppression on ART</t>
   </si>
   <si>
-    <t>Immediate linkage to care (%)</t>
-  </si>
-  <si>
     <t>Linkage to care rate (%/year)</t>
   </si>
   <si>
     <t>ART adherence achieving viral suppression (%/year)</t>
-  </si>
-  <si>
-    <t>Those who stop ART but are still in care (%)</t>
-  </si>
-  <si>
-    <t>Those in care who are lost to follow-up (%/year)</t>
   </si>
   <si>
     <t>PLHIV lost to follow-up (%/year)</t>
@@ -486,14 +473,32 @@
   <si>
     <t>Biological failure rate (%/year)</t>
   </si>
+  <si>
+    <t>Linkage to care from diagnosis within 1 month (%)</t>
+  </si>
+  <si>
+    <t>Percentage of people who receive ART in the year who stop taking ART (%/year)</t>
+  </si>
+  <si>
+    <t>Percentage of people in care who are lost to follow-up per year (%/year)</t>
+  </si>
+  <si>
+    <t>Age from (years)</t>
+  </si>
+  <si>
+    <t>Age to (years)</t>
+  </si>
+  <si>
+    <t>Welcome to the Optima data entry spreadsheet. This is where all data for the model will be entered. Please ask someone from the Optima development team if you need help, or use the default contact (info@optimamodel.com).</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="7">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="#,##0_ ;\-#,##0\ "/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
@@ -677,12 +682,12 @@
   </borders>
   <cellStyleXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -745,7 +750,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -881,7 +886,7 @@
     <xf numFmtId="166" fontId="0" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -955,12 +960,6 @@
     <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="67" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="67" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -988,6 +987,12 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="67" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="67" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="168">
@@ -1459,40 +1464,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="89.28515625" customWidth="1"/>
+    <col min="1" max="1" width="89.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
+      <c r="A2" s="59"/>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="59"/>
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4" s="28"/>
     </row>
-    <row r="5" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="28">
       <c r="A5" s="28" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" s="28"/>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" s="29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1500,6 +1505,11 @@
     <mergeCell ref="A1:A3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1511,14 +1521,14 @@
       <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
       <c r="C2" s="3">
         <v>2000</v>
       </c>
@@ -1583,10 +1593,10 @@
         <v>2020</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
       <c r="B3" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -1613,13 +1623,13 @@
       <c r="V3" s="4"/>
       <c r="W3" s="4"/>
       <c r="X3" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y3" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25">
       <c r="B4" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -1646,13 +1656,13 @@
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
       <c r="X4" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y4" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25">
       <c r="B5" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -1679,13 +1689,13 @@
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
       <c r="X5" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y5" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25">
       <c r="B6" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -1712,13 +1722,13 @@
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
       <c r="X6" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y6" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25">
       <c r="B7" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -1745,13 +1755,13 @@
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
       <c r="X7" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y7" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25">
       <c r="B8" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15+</v>
@@ -1778,13 +1788,13 @@
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
       <c r="X8" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y8" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25">
       <c r="B9" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15+</v>
@@ -1811,18 +1821,18 @@
       <c r="V9" s="4"/>
       <c r="W9" s="4"/>
       <c r="X9" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y9" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25">
       <c r="A13" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
       <c r="C14" s="3">
         <v>2000</v>
       </c>
@@ -1887,10 +1897,10 @@
         <v>2020</v>
       </c>
       <c r="Y14" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
       <c r="B15" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -1917,13 +1927,13 @@
       <c r="V15" s="9"/>
       <c r="W15" s="9"/>
       <c r="X15" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y15" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25">
       <c r="B16" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -1950,13 +1960,13 @@
       <c r="V16" s="9"/>
       <c r="W16" s="9"/>
       <c r="X16" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y16" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25">
       <c r="B17" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -1983,13 +1993,13 @@
       <c r="V17" s="9"/>
       <c r="W17" s="9"/>
       <c r="X17" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y17" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25">
       <c r="B18" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -2016,13 +2026,13 @@
       <c r="V18" s="9"/>
       <c r="W18" s="9"/>
       <c r="X18" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y18" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25">
       <c r="B19" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -2049,13 +2059,13 @@
       <c r="V19" s="9"/>
       <c r="W19" s="9"/>
       <c r="X19" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y19" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25">
       <c r="B20" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15+</v>
@@ -2082,13 +2092,13 @@
       <c r="V20" s="9"/>
       <c r="W20" s="9"/>
       <c r="X20" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y20" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25">
       <c r="B21" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15+</v>
@@ -2115,18 +2125,18 @@
       <c r="V21" s="9"/>
       <c r="W21" s="9"/>
       <c r="X21" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y21" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25">
       <c r="A25" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" ht="14.45" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25">
       <c r="C26" s="3">
         <v>2000</v>
       </c>
@@ -2191,12 +2201,12 @@
         <v>2020</v>
       </c>
       <c r="Y26" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" ht="14.45" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25">
       <c r="B27" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -2220,7 +2230,7 @@
       <c r="V27" s="4"/>
       <c r="W27" s="4"/>
       <c r="X27" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y27" s="4">
         <v>0</v>
@@ -2244,17 +2254,17 @@
       <selection activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="9" width="12.7109375" customWidth="1"/>
+    <col min="3" max="9" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="C2" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -2284,7 +2294,7 @@
         <v>F 15+</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="B3" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -2297,7 +2307,7 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="B4" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -2312,7 +2322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="B5" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -2327,7 +2337,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="B6" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -2340,7 +2350,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="B7" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -2353,7 +2363,7 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="B8" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15+</v>
@@ -2370,7 +2380,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="B9" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15+</v>
@@ -2383,12 +2393,12 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="C14" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -2418,7 +2428,7 @@
         <v>F 15+</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="B15" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -2431,7 +2441,7 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="B16" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -2448,7 +2458,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="B17" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -2463,7 +2473,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="B18" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -2476,7 +2486,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="B19" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -2489,7 +2499,7 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="B20" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15+</v>
@@ -2506,7 +2516,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="B21" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15+</v>
@@ -2519,12 +2529,12 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="C26" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -2554,7 +2564,7 @@
         <v>F 15+</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9">
       <c r="B27" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -2567,7 +2577,7 @@
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9">
       <c r="B28" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -2582,7 +2592,7 @@
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
     </row>
-    <row r="29" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9">
       <c r="B29" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -2595,7 +2605,7 @@
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
     </row>
-    <row r="30" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9">
       <c r="B30" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -2608,7 +2618,7 @@
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
     </row>
-    <row r="31" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9">
       <c r="B31" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -2621,7 +2631,7 @@
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
     </row>
-    <row r="32" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9">
       <c r="B32" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15+</v>
@@ -2634,7 +2644,7 @@
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
     </row>
-    <row r="33" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9">
       <c r="B33" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15+</v>
@@ -2647,12 +2657,12 @@
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
     </row>
-    <row r="37" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="C38" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -2682,7 +2692,7 @@
         <v>F 15+</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9">
       <c r="B39" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -2695,7 +2705,7 @@
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
     </row>
-    <row r="40" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9">
       <c r="B40" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -2708,7 +2718,7 @@
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
     </row>
-    <row r="41" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9">
       <c r="B41" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -2721,7 +2731,7 @@
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
     </row>
-    <row r="42" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9">
       <c r="B42" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -2734,7 +2744,7 @@
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9">
       <c r="B43" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -2747,7 +2757,7 @@
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9">
       <c r="B44" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15+</v>
@@ -2760,7 +2770,7 @@
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9">
       <c r="B45" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15+</v>
@@ -2773,12 +2783,12 @@
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="C50" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -2808,7 +2818,7 @@
         <v>F 15+</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9">
       <c r="B51" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -2823,7 +2833,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9">
       <c r="B52" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -2838,7 +2848,7 @@
       </c>
       <c r="I52" s="4"/>
     </row>
-    <row r="53" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9">
       <c r="B53" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -2851,7 +2861,7 @@
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
     </row>
-    <row r="54" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9">
       <c r="B54" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -2864,7 +2874,7 @@
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
     </row>
-    <row r="55" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9">
       <c r="B55" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -2877,7 +2887,7 @@
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
     </row>
-    <row r="56" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9">
       <c r="B56" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15+</v>
@@ -2890,7 +2900,7 @@
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
     </row>
-    <row r="57" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9">
       <c r="B57" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15+</v>
@@ -2921,607 +2931,607 @@
       <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="49" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="46"/>
+      <c r="B3" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="51" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="48"/>
-      <c r="B3" s="50" t="s">
+      <c r="C3" s="50">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="D3" s="50">
+        <v>1E-4</v>
+      </c>
+      <c r="E3" s="50">
+        <v>1.4E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="46"/>
+      <c r="B4" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="52">
+      <c r="C4" s="50">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="D4" s="50">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="E4" s="50">
+        <v>1.1000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="46"/>
+      <c r="B5" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="50">
+        <v>1.38E-2</v>
+      </c>
+      <c r="D5" s="50">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="E5" s="50">
+        <v>1.8599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="46"/>
+      <c r="B6" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="50">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="D6" s="50">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="D3" s="52">
-        <v>1E-4</v>
-      </c>
-      <c r="E3" s="52">
-        <v>1.4E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="48"/>
-      <c r="B4" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="52">
-        <v>8.0000000000000004E-4</v>
-      </c>
-      <c r="D4" s="52">
-        <v>5.9999999999999995E-4</v>
-      </c>
-      <c r="E4" s="52">
-        <v>1.1000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="48"/>
-      <c r="B5" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="52">
-        <v>1.38E-2</v>
-      </c>
-      <c r="D5" s="52">
-        <v>1.0200000000000001E-2</v>
-      </c>
-      <c r="E5" s="52">
-        <v>1.8599999999999998E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="48"/>
-      <c r="B6" s="50" t="s">
+      <c r="E6" s="50">
+        <v>2.8E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="46"/>
+      <c r="B7" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="52">
-        <v>1.1000000000000001E-3</v>
-      </c>
-      <c r="D6" s="52">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="E6" s="52">
-        <v>2.8E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="48"/>
-      <c r="B7" s="50" t="s">
+      <c r="C7" s="50">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D7" s="50">
+        <v>6.3E-3</v>
+      </c>
+      <c r="E7" s="50">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="46"/>
+      <c r="B8" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="52">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="D7" s="52">
-        <v>6.3E-3</v>
-      </c>
-      <c r="E7" s="52">
-        <v>2.4E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="48"/>
-      <c r="B8" s="50" t="s">
+      <c r="C8" s="50">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="D8" s="50">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="E8" s="50">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="46"/>
+      <c r="B9" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="52">
-        <v>0.36699999999999999</v>
-      </c>
-      <c r="D8" s="52">
-        <v>0.29399999999999998</v>
-      </c>
-      <c r="E8" s="52">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="48"/>
-      <c r="B9" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="52">
+      <c r="C9" s="50">
         <v>0.20499999999999999</v>
       </c>
-      <c r="D9" s="52">
+      <c r="D9" s="50">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E9" s="52">
+      <c r="E9" s="50">
         <v>0.27</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="38"/>
       <c r="B10" s="40"/>
       <c r="C10" s="38"/>
       <c r="D10" s="38"/>
       <c r="E10" s="38"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="38"/>
       <c r="B11" s="40"/>
       <c r="C11" s="38"/>
       <c r="D11" s="38"/>
       <c r="E11" s="38"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="38"/>
       <c r="B12" s="40"/>
       <c r="C12" s="38"/>
       <c r="D12" s="38"/>
       <c r="E12" s="38"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="49" t="s">
+    <row r="13" spans="1:5">
+      <c r="A13" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="46"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="49" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="46"/>
+      <c r="B15" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="48"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="51" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="48"/>
-      <c r="B15" s="50" t="s">
+      <c r="C15" s="51">
+        <v>26.03</v>
+      </c>
+      <c r="D15" s="51">
+        <v>2</v>
+      </c>
+      <c r="E15" s="51">
+        <v>48.02</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="46"/>
+      <c r="B16" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="53">
-        <v>26.03</v>
-      </c>
-      <c r="D15" s="53">
-        <v>2</v>
-      </c>
-      <c r="E15" s="53">
-        <v>48.02</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="48"/>
-      <c r="B16" s="50" t="s">
+      <c r="C16" s="51">
+        <v>1</v>
+      </c>
+      <c r="D16" s="51">
+        <v>1</v>
+      </c>
+      <c r="E16" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="46"/>
+      <c r="B17" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="53">
+      <c r="C17" s="51">
         <v>1</v>
       </c>
-      <c r="D16" s="53">
+      <c r="D17" s="51">
         <v>1</v>
       </c>
-      <c r="E16" s="53">
+      <c r="E17" s="51">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="48"/>
-      <c r="B17" s="50" t="s">
+    <row r="18" spans="1:5">
+      <c r="A18" s="46"/>
+      <c r="B18" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="53">
+      <c r="C18" s="51">
         <v>1</v>
       </c>
-      <c r="D17" s="53">
+      <c r="D18" s="51">
         <v>1</v>
       </c>
-      <c r="E17" s="53">
+      <c r="E18" s="51">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="48"/>
-      <c r="B18" s="50" t="s">
+    <row r="19" spans="1:5">
+      <c r="A19" s="46"/>
+      <c r="B19" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="53">
-        <v>1</v>
-      </c>
-      <c r="D18" s="53">
-        <v>1</v>
-      </c>
-      <c r="E18" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="48"/>
-      <c r="B19" s="50" t="s">
+      <c r="C19" s="51">
+        <v>3.49</v>
+      </c>
+      <c r="D19" s="51">
+        <v>1.76</v>
+      </c>
+      <c r="E19" s="51">
+        <v>6.92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="46"/>
+      <c r="B20" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="53">
-        <v>3.49</v>
-      </c>
-      <c r="D19" s="53">
-        <v>1.76</v>
-      </c>
-      <c r="E19" s="53">
-        <v>6.92</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="48"/>
-      <c r="B20" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" s="53">
+      <c r="C20" s="51">
         <v>7.17</v>
       </c>
-      <c r="D20" s="53">
+      <c r="D20" s="51">
         <v>3.9</v>
       </c>
-      <c r="E20" s="53">
+      <c r="E20" s="51">
         <v>12.08</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="38"/>
       <c r="B21" s="40"/>
       <c r="C21" s="38"/>
       <c r="D21" s="38"/>
       <c r="E21" s="38"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="38"/>
       <c r="B22" s="40"/>
       <c r="C22" s="38"/>
       <c r="D22" s="38"/>
       <c r="E22" s="38"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="38"/>
       <c r="B23" s="40"/>
       <c r="C23" s="38"/>
       <c r="D23" s="38"/>
       <c r="E23" s="38"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="49" t="s">
+    <row r="24" spans="1:5">
+      <c r="A24" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="46"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="49" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="46"/>
+      <c r="B26" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="B24" s="48"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="48"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25" s="51" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="48"/>
-      <c r="B26" s="50" t="s">
+      <c r="C26" s="52">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="D26" s="52">
+        <v>2</v>
+      </c>
+      <c r="E26" s="52">
+        <v>9.76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="46"/>
+      <c r="B27" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="52">
+        <v>1.05</v>
+      </c>
+      <c r="D27" s="52">
+        <v>0.86</v>
+      </c>
+      <c r="E27" s="52">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="46"/>
+      <c r="B28" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" s="52">
+        <v>0.33</v>
+      </c>
+      <c r="D28" s="52">
+        <v>0.32</v>
+      </c>
+      <c r="E28" s="52">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="46"/>
+      <c r="B29" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="54">
-        <v>4.1399999999999997</v>
-      </c>
-      <c r="D26" s="54">
-        <v>2</v>
-      </c>
-      <c r="E26" s="54">
-        <v>9.76</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="48"/>
-      <c r="B27" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" s="54">
-        <v>1.05</v>
-      </c>
-      <c r="D27" s="54">
-        <v>0.86</v>
-      </c>
-      <c r="E27" s="54">
-        <v>1.61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="48"/>
-      <c r="B28" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="C28" s="54">
-        <v>0.33</v>
-      </c>
-      <c r="D28" s="54">
-        <v>0.32</v>
-      </c>
-      <c r="E28" s="54">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="48"/>
-      <c r="B29" s="50" t="s">
+      <c r="C29" s="52">
+        <v>0.27</v>
+      </c>
+      <c r="D29" s="52">
+        <v>0.25</v>
+      </c>
+      <c r="E29" s="52">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="46"/>
+      <c r="B30" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="C29" s="54">
-        <v>0.27</v>
-      </c>
-      <c r="D29" s="54">
-        <v>0.25</v>
-      </c>
-      <c r="E29" s="54">
-        <v>0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="48"/>
-      <c r="B30" s="50" t="s">
-        <v>77</v>
-      </c>
-      <c r="C30" s="54">
+      <c r="C30" s="52">
         <v>0.67</v>
       </c>
-      <c r="D30" s="54">
+      <c r="D30" s="52">
         <v>0.44</v>
       </c>
-      <c r="E30" s="54">
+      <c r="E30" s="52">
         <v>0.88</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" s="38"/>
       <c r="B31" s="40"/>
       <c r="C31" s="38"/>
       <c r="D31" s="38"/>
       <c r="E31" s="38"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" s="38"/>
       <c r="B32" s="40"/>
       <c r="C32" s="38"/>
       <c r="D32" s="38"/>
       <c r="E32" s="38"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" s="38"/>
       <c r="B33" s="40"/>
       <c r="C33" s="38"/>
       <c r="D33" s="38"/>
       <c r="E33" s="38"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="49" t="s">
+    <row r="34" spans="1:5">
+      <c r="A34" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="46"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" s="49" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="46"/>
+      <c r="B36" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="B34" s="48"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="48"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="48"/>
-      <c r="B35" s="48"/>
-      <c r="C35" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="D35" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="E35" s="51" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="48"/>
-      <c r="B36" s="50" t="s">
+      <c r="C36" s="52">
+        <v>0.45</v>
+      </c>
+      <c r="D36" s="52">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E36" s="52">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="46"/>
+      <c r="B37" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="C36" s="54">
-        <v>0.45</v>
-      </c>
-      <c r="D36" s="54">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E36" s="54">
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="48"/>
-      <c r="B37" s="50" t="s">
+      <c r="C37" s="52">
+        <v>0.7</v>
+      </c>
+      <c r="D37" s="52">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E37" s="52">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="46"/>
+      <c r="B38" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="54">
-        <v>0.7</v>
-      </c>
-      <c r="D37" s="54">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="E37" s="54">
-        <v>1.1100000000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="48"/>
-      <c r="B38" s="50" t="s">
+      <c r="C38" s="52">
+        <v>0.47</v>
+      </c>
+      <c r="D38" s="52">
+        <v>0.33</v>
+      </c>
+      <c r="E38" s="52">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="46"/>
+      <c r="B39" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="C38" s="54">
-        <v>0.47</v>
-      </c>
-      <c r="D38" s="54">
-        <v>0.33</v>
-      </c>
-      <c r="E38" s="54">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="48"/>
-      <c r="B39" s="50" t="s">
-        <v>82</v>
-      </c>
-      <c r="C39" s="54">
+      <c r="C39" s="52">
         <v>1.52</v>
       </c>
-      <c r="D39" s="54">
+      <c r="D39" s="52">
         <v>1.06</v>
       </c>
-      <c r="E39" s="54">
+      <c r="E39" s="52">
         <v>1.96</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40" s="38"/>
       <c r="B40" s="40"/>
       <c r="C40" s="38"/>
       <c r="D40" s="38"/>
       <c r="E40" s="38"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="A41" s="38"/>
       <c r="B41" s="40"/>
       <c r="C41" s="38"/>
       <c r="D41" s="38"/>
       <c r="E41" s="38"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="A42" s="38"/>
       <c r="B42" s="40"/>
       <c r="C42" s="38"/>
       <c r="D42" s="38"/>
       <c r="E42" s="38"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="49" t="s">
+    <row r="43" spans="1:5">
+      <c r="A43" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" s="46"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="46"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="46"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" s="49" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="46"/>
+      <c r="B45" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" s="50">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="D45" s="50">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="E45" s="50">
+        <v>4.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="46"/>
+      <c r="B46" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46" s="50">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="D46" s="50">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="E46" s="50">
+        <v>4.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="46"/>
+      <c r="B47" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="B43" s="48"/>
-      <c r="C43" s="48"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="48"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="48"/>
-      <c r="B44" s="48"/>
-      <c r="C44" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="D44" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="E44" s="51" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="48"/>
-      <c r="B45" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="C45" s="52">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D45" s="52">
-        <v>2.8999999999999998E-3</v>
-      </c>
-      <c r="E45" s="52">
-        <v>4.4000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="48"/>
-      <c r="B46" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="C46" s="52">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D46" s="52">
-        <v>2.8999999999999998E-3</v>
-      </c>
-      <c r="E46" s="52">
-        <v>4.4000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="48"/>
-      <c r="B47" s="50" t="s">
-        <v>84</v>
-      </c>
-      <c r="C47" s="52">
+      <c r="C47" s="50">
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="D47" s="52">
+      <c r="D47" s="50">
         <v>4.7999999999999996E-3</v>
       </c>
-      <c r="E47" s="52">
+      <c r="E47" s="50">
         <v>7.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="48"/>
-      <c r="B48" s="50" t="s">
+    <row r="48" spans="1:5">
+      <c r="A48" s="46"/>
+      <c r="B48" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="C48" s="50">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="D48" s="50">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E48" s="50">
+        <v>1.01E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="46"/>
+      <c r="B49" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="C48" s="52">
-        <v>8.8000000000000005E-3</v>
-      </c>
-      <c r="D48" s="52">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="E48" s="52">
-        <v>1.01E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="48"/>
-      <c r="B49" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="C49" s="52">
+      <c r="C49" s="50">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="D49" s="52">
+      <c r="D49" s="50">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="E49" s="52">
+      <c r="E49" s="50">
         <v>7.9000000000000001E-2</v>
       </c>
       <c r="F49" s="38"/>
@@ -3529,18 +3539,18 @@
       <c r="H49" s="38"/>
       <c r="I49" s="38"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="48"/>
-      <c r="B50" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="C50" s="52">
+    <row r="50" spans="1:9">
+      <c r="A50" s="46"/>
+      <c r="B50" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="C50" s="50">
         <v>0.32300000000000001</v>
       </c>
-      <c r="D50" s="52">
+      <c r="D50" s="50">
         <v>0.29599999999999999</v>
       </c>
-      <c r="E50" s="52">
+      <c r="E50" s="50">
         <v>0.432</v>
       </c>
       <c r="F50" s="38"/>
@@ -3548,18 +3558,18 @@
       <c r="H50" s="38"/>
       <c r="I50" s="38"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="48"/>
-      <c r="B51" s="50" t="s">
-        <v>85</v>
-      </c>
-      <c r="C51" s="52">
+    <row r="51" spans="1:9">
+      <c r="A51" s="46"/>
+      <c r="B51" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="C51" s="50">
         <v>0.23</v>
       </c>
-      <c r="D51" s="52">
+      <c r="D51" s="50">
         <v>0.15</v>
       </c>
-      <c r="E51" s="52">
+      <c r="E51" s="50">
         <v>0.3</v>
       </c>
       <c r="F51" s="38"/>
@@ -3567,18 +3577,18 @@
       <c r="H51" s="38"/>
       <c r="I51" s="38"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="48"/>
-      <c r="B52" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="C52" s="52">
+    <row r="52" spans="1:9">
+      <c r="A52" s="46"/>
+      <c r="B52" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="C52" s="50">
         <v>2.17</v>
       </c>
-      <c r="D52" s="52">
+      <c r="D52" s="50">
         <v>1.27</v>
       </c>
-      <c r="E52" s="52">
+      <c r="E52" s="50">
         <v>3.71</v>
       </c>
       <c r="F52" s="38"/>
@@ -3586,7 +3596,7 @@
       <c r="H52" s="38"/>
       <c r="I52" s="38"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9">
       <c r="A53" s="38"/>
       <c r="B53" s="40"/>
       <c r="C53" s="38"/>
@@ -3597,7 +3607,7 @@
       <c r="H53" s="38"/>
       <c r="I53" s="38"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9">
       <c r="A54" s="38"/>
       <c r="B54" s="40"/>
       <c r="C54" s="38"/>
@@ -3608,7 +3618,7 @@
       <c r="H54" s="38"/>
       <c r="I54" s="38"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9">
       <c r="A55" s="38"/>
       <c r="B55" s="40"/>
       <c r="C55" s="38"/>
@@ -3619,48 +3629,48 @@
       <c r="H55" s="38"/>
       <c r="I55" s="38"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="49" t="s">
-        <v>115</v>
-      </c>
-      <c r="B56" s="48"/>
-      <c r="C56" s="48"/>
-      <c r="D56" s="48"/>
-      <c r="E56" s="48"/>
+    <row r="56" spans="1:9">
+      <c r="A56" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="B56" s="46"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="46"/>
+      <c r="E56" s="46"/>
       <c r="F56" s="38"/>
       <c r="G56" s="38"/>
       <c r="H56" s="38"/>
       <c r="I56" s="38"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="48"/>
-      <c r="B57" s="48"/>
-      <c r="C57" s="51" t="s">
+    <row r="57" spans="1:9">
+      <c r="A57" s="46"/>
+      <c r="B57" s="46"/>
+      <c r="C57" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="D57" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="D57" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="E57" s="51" t="s">
-        <v>23</v>
+      <c r="E57" s="49" t="s">
+        <v>22</v>
       </c>
       <c r="F57" s="38"/>
       <c r="G57" s="38"/>
       <c r="H57" s="38"/>
       <c r="I57" s="38"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="48"/>
-      <c r="B58" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="C58" s="54">
+    <row r="58" spans="1:9">
+      <c r="A58" s="46"/>
+      <c r="B58" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="C58" s="52">
         <v>0.95</v>
       </c>
-      <c r="D58" s="54">
+      <c r="D58" s="52">
         <v>0.8</v>
       </c>
-      <c r="E58" s="54">
+      <c r="E58" s="52">
         <v>0.98</v>
       </c>
       <c r="F58" s="38"/>
@@ -3668,18 +3678,18 @@
       <c r="H58" s="42"/>
       <c r="I58" s="42"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="48"/>
-      <c r="B59" s="50" t="s">
-        <v>88</v>
-      </c>
-      <c r="C59" s="54">
+    <row r="59" spans="1:9">
+      <c r="A59" s="46"/>
+      <c r="B59" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="C59" s="52">
         <v>0.57999999999999996</v>
       </c>
-      <c r="D59" s="54">
+      <c r="D59" s="52">
         <v>0.47</v>
       </c>
-      <c r="E59" s="54">
+      <c r="E59" s="52">
         <v>0.67</v>
       </c>
       <c r="F59" s="38"/>
@@ -3687,18 +3697,18 @@
       <c r="H59" s="42"/>
       <c r="I59" s="42"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="48"/>
-      <c r="B60" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="C60" s="54">
+    <row r="60" spans="1:9">
+      <c r="A60" s="46"/>
+      <c r="B60" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="C60" s="52">
         <v>0.54</v>
       </c>
-      <c r="D60" s="54">
+      <c r="D60" s="52">
         <v>0.33</v>
       </c>
-      <c r="E60" s="54">
+      <c r="E60" s="52">
         <v>0.68</v>
       </c>
       <c r="F60" s="38"/>
@@ -3706,18 +3716,18 @@
       <c r="H60" s="42"/>
       <c r="I60" s="42"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="48"/>
-      <c r="B61" s="50" t="s">
-        <v>109</v>
-      </c>
-      <c r="C61" s="54">
+    <row r="61" spans="1:9">
+      <c r="A61" s="46"/>
+      <c r="B61" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="C61" s="52">
         <v>0</v>
       </c>
-      <c r="D61" s="54">
+      <c r="D61" s="52">
         <v>0</v>
       </c>
-      <c r="E61" s="54">
+      <c r="E61" s="52">
         <v>0.68</v>
       </c>
       <c r="F61" s="38"/>
@@ -3725,18 +3735,18 @@
       <c r="H61" s="42"/>
       <c r="I61" s="42"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="48"/>
-      <c r="B62" s="50" t="s">
-        <v>90</v>
-      </c>
-      <c r="C62" s="54">
+    <row r="62" spans="1:9">
+      <c r="A62" s="46"/>
+      <c r="B62" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="C62" s="52">
         <v>2.65</v>
       </c>
-      <c r="D62" s="54">
+      <c r="D62" s="52">
         <v>1.35</v>
       </c>
-      <c r="E62" s="54">
+      <c r="E62" s="52">
         <v>5.19</v>
       </c>
       <c r="F62" s="38"/>
@@ -3744,18 +3754,18 @@
       <c r="H62" s="42"/>
       <c r="I62" s="42"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="48"/>
-      <c r="B63" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="C63" s="54">
+    <row r="63" spans="1:9">
+      <c r="A63" s="46"/>
+      <c r="B63" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63" s="52">
         <v>0.9</v>
       </c>
-      <c r="D63" s="54">
+      <c r="D63" s="52">
         <v>0.82</v>
       </c>
-      <c r="E63" s="54">
+      <c r="E63" s="52">
         <v>0.93</v>
       </c>
       <c r="F63" s="38"/>
@@ -3763,18 +3773,18 @@
       <c r="H63" s="42"/>
       <c r="I63" s="42"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="48"/>
-      <c r="B64" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="C64" s="54">
+    <row r="64" spans="1:9">
+      <c r="A64" s="46"/>
+      <c r="B64" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="C64" s="52">
         <v>0.73</v>
       </c>
-      <c r="D64" s="54">
+      <c r="D64" s="52">
         <v>0.65</v>
       </c>
-      <c r="E64" s="54">
+      <c r="E64" s="52">
         <v>0.8</v>
       </c>
       <c r="F64" s="38"/>
@@ -3782,18 +3792,18 @@
       <c r="H64" s="42"/>
       <c r="I64" s="42"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="48"/>
-      <c r="B65" s="50" t="s">
-        <v>116</v>
-      </c>
-      <c r="C65" s="54">
+    <row r="65" spans="1:10">
+      <c r="A65" s="46"/>
+      <c r="B65" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="C65" s="52">
         <v>0.5</v>
       </c>
-      <c r="D65" s="54">
+      <c r="D65" s="52">
         <v>0.3</v>
       </c>
-      <c r="E65" s="54">
+      <c r="E65" s="52">
         <v>0.8</v>
       </c>
       <c r="F65" s="38"/>
@@ -3801,18 +3811,18 @@
       <c r="H65" s="42"/>
       <c r="I65" s="42"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="48"/>
-      <c r="B66" s="50" t="s">
-        <v>117</v>
-      </c>
-      <c r="C66" s="54">
+    <row r="66" spans="1:10">
+      <c r="A66" s="46"/>
+      <c r="B66" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="C66" s="52">
         <v>0.92</v>
       </c>
-      <c r="D66" s="54">
+      <c r="D66" s="52">
         <v>0.8</v>
       </c>
-      <c r="E66" s="54">
+      <c r="E66" s="52">
         <v>0.95</v>
       </c>
       <c r="F66" s="38"/>
@@ -3820,18 +3830,18 @@
       <c r="H66" s="38"/>
       <c r="I66" s="38"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="48"/>
-      <c r="B67" s="50" t="s">
-        <v>118</v>
-      </c>
-      <c r="C67" s="54">
+    <row r="67" spans="1:10">
+      <c r="A67" s="46"/>
+      <c r="B67" s="48" t="s">
+        <v>115</v>
+      </c>
+      <c r="C67" s="52">
         <v>0.9</v>
       </c>
-      <c r="D67" s="54">
+      <c r="D67" s="52">
         <v>0.8</v>
       </c>
-      <c r="E67" s="54">
+      <c r="E67" s="52">
         <v>0.95</v>
       </c>
       <c r="F67" s="38"/>
@@ -3839,7 +3849,7 @@
       <c r="H67" s="38"/>
       <c r="I67" s="38"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10">
       <c r="A68" s="38"/>
       <c r="B68" s="40"/>
       <c r="C68" s="38"/>
@@ -3850,7 +3860,7 @@
       <c r="H68" s="38"/>
       <c r="I68" s="38"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10">
       <c r="A69" s="39"/>
       <c r="B69" s="40"/>
       <c r="C69" s="38"/>
@@ -3861,7 +3871,7 @@
       <c r="H69" s="38"/>
       <c r="I69" s="38"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10">
       <c r="A70" s="38"/>
       <c r="B70" s="40"/>
       <c r="C70" s="41"/>
@@ -3872,31 +3882,31 @@
       <c r="H70" s="38"/>
       <c r="I70" s="38"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="B71" s="48"/>
-      <c r="C71" s="48"/>
-      <c r="D71" s="48"/>
-      <c r="E71" s="48"/>
+    <row r="71" spans="1:10">
+      <c r="A71" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="B71" s="46"/>
+      <c r="C71" s="46"/>
+      <c r="D71" s="46"/>
+      <c r="E71" s="46"/>
       <c r="F71" s="38"/>
       <c r="G71" s="38"/>
       <c r="H71" s="38"/>
       <c r="I71" s="38"/>
       <c r="J71" s="27"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="48"/>
-      <c r="B72" s="48"/>
-      <c r="C72" s="51" t="s">
+    <row r="72" spans="1:10">
+      <c r="A72" s="46"/>
+      <c r="B72" s="46"/>
+      <c r="C72" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="D72" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="D72" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="E72" s="51" t="s">
-        <v>23</v>
+      <c r="E72" s="49" t="s">
+        <v>22</v>
       </c>
       <c r="F72" s="38"/>
       <c r="G72" s="38"/>
@@ -3904,18 +3914,18 @@
       <c r="I72" s="38"/>
       <c r="J72" s="27"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="48"/>
-      <c r="B73" s="50" t="s">
-        <v>93</v>
-      </c>
-      <c r="C73" s="53">
+    <row r="73" spans="1:10">
+      <c r="A73" s="46"/>
+      <c r="B73" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="C73" s="51">
         <v>0.14599999999999999</v>
       </c>
-      <c r="D73" s="53">
+      <c r="D73" s="51">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="E73" s="53">
+      <c r="E73" s="51">
         <v>0.20499999999999999</v>
       </c>
       <c r="F73" s="38"/>
@@ -3924,18 +3934,18 @@
       <c r="I73" s="38"/>
       <c r="J73" s="27"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="48"/>
-      <c r="B74" s="50" t="s">
-        <v>94</v>
-      </c>
-      <c r="C74" s="53">
+    <row r="74" spans="1:10">
+      <c r="A74" s="46"/>
+      <c r="B74" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="C74" s="51">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="D74" s="53">
+      <c r="D74" s="51">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E74" s="53">
+      <c r="E74" s="51">
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="F74" s="38"/>
@@ -3943,18 +3953,18 @@
       <c r="H74" s="38"/>
       <c r="I74" s="38"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="48"/>
-      <c r="B75" s="50" t="s">
-        <v>95</v>
-      </c>
-      <c r="C75" s="53">
+    <row r="75" spans="1:10">
+      <c r="A75" s="46"/>
+      <c r="B75" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="C75" s="51">
         <v>0.02</v>
       </c>
-      <c r="D75" s="53">
+      <c r="D75" s="51">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="E75" s="53">
+      <c r="E75" s="51">
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="F75" s="38"/>
@@ -3962,18 +3972,18 @@
       <c r="H75" s="38"/>
       <c r="I75" s="38"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="48"/>
-      <c r="B76" s="50" t="s">
-        <v>96</v>
-      </c>
-      <c r="C76" s="53">
+    <row r="76" spans="1:10">
+      <c r="A76" s="46"/>
+      <c r="B76" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="C76" s="51">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D76" s="53">
+      <c r="D76" s="51">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="E76" s="53">
+      <c r="E76" s="51">
         <v>9.4E-2</v>
       </c>
       <c r="F76" s="38"/>
@@ -3981,18 +3991,18 @@
       <c r="H76" s="38"/>
       <c r="I76" s="38"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="48"/>
-      <c r="B77" s="50" t="s">
-        <v>97</v>
-      </c>
-      <c r="C77" s="53">
+    <row r="77" spans="1:10">
+      <c r="A77" s="46"/>
+      <c r="B77" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="C77" s="51">
         <v>0.26500000000000001</v>
       </c>
-      <c r="D77" s="53">
+      <c r="D77" s="51">
         <v>0.114</v>
       </c>
-      <c r="E77" s="53">
+      <c r="E77" s="51">
         <v>0.47399999999999998</v>
       </c>
       <c r="F77" s="38"/>
@@ -4000,38 +4010,43 @@
       <c r="H77" s="38"/>
       <c r="I77" s="38"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="48"/>
-      <c r="B78" s="50" t="s">
+    <row r="78" spans="1:10">
+      <c r="A78" s="46"/>
+      <c r="B78" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="C78" s="51">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="D78" s="51">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="E78" s="51">
+        <v>0.71499999999999997</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="46"/>
+      <c r="B79" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="C78" s="53">
-        <v>0.54700000000000004</v>
-      </c>
-      <c r="D78" s="53">
-        <v>0.38200000000000001</v>
-      </c>
-      <c r="E78" s="53">
-        <v>0.71499999999999997</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="48"/>
-      <c r="B79" s="50" t="s">
-        <v>99</v>
-      </c>
-      <c r="C79" s="53">
+      <c r="C79" s="51">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="D79" s="53">
+      <c r="D79" s="51">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="E79" s="53">
+      <c r="E79" s="51">
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4040,58 +4055,57 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="40.7109375" customWidth="1"/>
-    <col min="5" max="6" width="8.85546875"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="40.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="G2" s="30" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="H2" s="31" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="B3" s="3">
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="G3" s="4">
         <v>15</v>
@@ -4100,21 +4114,21 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="B4" s="3">
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="E4" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G4" s="4">
         <v>15</v>
@@ -4123,21 +4137,21 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="B5" s="3">
         <v>3</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="E5" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G5" s="4">
         <v>15</v>
@@ -4146,21 +4160,21 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="B6" s="3">
         <v>4</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G6" s="4">
         <v>0</v>
@@ -4169,21 +4183,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="B7" s="3">
         <v>5</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="G7" s="4">
         <v>0</v>
@@ -4192,21 +4206,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="B8" s="3">
         <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G8" s="4">
         <v>15</v>
@@ -4215,21 +4229,21 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="B9" s="3">
         <v>7</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="G9" s="4">
         <v>15</v>
@@ -4240,6 +4254,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4251,21 +4270,21 @@
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="4" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="12" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K1" s="13"/>
     </row>
-    <row r="2" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26">
       <c r="D2" s="3">
         <v>2000</v>
       </c>
@@ -4330,16 +4349,16 @@
         <v>2020</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
       <c r="B3" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -4363,17 +4382,17 @@
       <c r="W3" s="7"/>
       <c r="X3" s="7"/>
       <c r="Y3" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z3" s="7"/>
     </row>
-    <row r="4" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26">
       <c r="B4" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="10">
         <v>139172.68199999997</v>
@@ -4419,17 +4438,17 @@
       <c r="W4" s="7"/>
       <c r="X4" s="7"/>
       <c r="Y4" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z4" s="7"/>
     </row>
-    <row r="5" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26">
       <c r="B5" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -4453,17 +4472,17 @@
       <c r="W5" s="7"/>
       <c r="X5" s="7"/>
       <c r="Y5" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z5" s="7"/>
     </row>
-    <row r="7" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26">
       <c r="B7" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -4487,17 +4506,17 @@
       <c r="W7" s="7"/>
       <c r="X7" s="7"/>
       <c r="Y7" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z7" s="7"/>
     </row>
-    <row r="8" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26">
       <c r="B8" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" s="11">
         <v>979330.74050000007</v>
@@ -4543,17 +4562,17 @@
       <c r="W8" s="7"/>
       <c r="X8" s="7"/>
       <c r="Y8" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z8" s="7"/>
     </row>
-    <row r="9" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26">
       <c r="B9" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
@@ -4577,17 +4596,17 @@
       <c r="W9" s="7"/>
       <c r="X9" s="7"/>
       <c r="Y9" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z9" s="7"/>
     </row>
-    <row r="11" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26">
       <c r="B11" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -4611,17 +4630,17 @@
       <c r="W11" s="7"/>
       <c r="X11" s="7"/>
       <c r="Y11" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z11" s="7"/>
     </row>
-    <row r="12" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26">
       <c r="B12" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" s="12">
         <v>233634.81954</v>
@@ -4667,17 +4686,17 @@
       <c r="W12" s="7"/>
       <c r="X12" s="7"/>
       <c r="Y12" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z12" s="7"/>
     </row>
-    <row r="13" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26">
       <c r="B13" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -4701,11 +4720,11 @@
       <c r="W13" s="7"/>
       <c r="X13" s="7"/>
       <c r="Y13" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z13" s="7"/>
     </row>
-    <row r="14" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26">
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
@@ -4718,13 +4737,13 @@
       <c r="M14" s="13"/>
       <c r="N14" s="13"/>
     </row>
-    <row r="15" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26">
       <c r="B15" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -4748,17 +4767,17 @@
       <c r="W15" s="7"/>
       <c r="X15" s="7"/>
       <c r="Y15" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z15" s="7"/>
     </row>
-    <row r="16" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26">
       <c r="B16" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16" s="10">
         <v>5723488.8407041095</v>
@@ -4804,17 +4823,17 @@
       <c r="W16" s="7"/>
       <c r="X16" s="7"/>
       <c r="Y16" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z16" s="7"/>
     </row>
-    <row r="17" spans="2:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:26">
       <c r="B17" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -4838,17 +4857,17 @@
       <c r="W17" s="7"/>
       <c r="X17" s="7"/>
       <c r="Y17" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z17" s="7"/>
     </row>
-    <row r="19" spans="2:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:26">
       <c r="B19" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
@@ -4872,17 +4891,17 @@
       <c r="W19" s="7"/>
       <c r="X19" s="7"/>
       <c r="Y19" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z19" s="7"/>
     </row>
-    <row r="20" spans="2:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:26">
       <c r="B20" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D20" s="10">
         <v>6556511.1592958905</v>
@@ -4928,17 +4947,17 @@
       <c r="W20" s="7"/>
       <c r="X20" s="7"/>
       <c r="Y20" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z20" s="7"/>
     </row>
-    <row r="21" spans="2:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:26">
       <c r="B21" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
@@ -4962,17 +4981,17 @@
       <c r="W21" s="7"/>
       <c r="X21" s="7"/>
       <c r="Y21" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z21" s="7"/>
     </row>
-    <row r="23" spans="2:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:26">
       <c r="B23" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15+</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
@@ -4996,17 +5015,17 @@
       <c r="W23" s="7"/>
       <c r="X23" s="7"/>
       <c r="Y23" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z23" s="7"/>
     </row>
-    <row r="24" spans="2:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:26">
       <c r="B24" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15+</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D24" s="11">
         <v>7233255.1607159991</v>
@@ -5052,17 +5071,17 @@
       <c r="W24" s="7"/>
       <c r="X24" s="7"/>
       <c r="Y24" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z24" s="7"/>
     </row>
-    <row r="25" spans="2:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:26">
       <c r="B25" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15+</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
@@ -5086,17 +5105,17 @@
       <c r="W25" s="7"/>
       <c r="X25" s="7"/>
       <c r="Y25" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z25" s="7"/>
     </row>
-    <row r="27" spans="2:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:26">
       <c r="B27" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15+</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
@@ -5120,17 +5139,17 @@
       <c r="W27" s="7"/>
       <c r="X27" s="7"/>
       <c r="Y27" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z27" s="7"/>
     </row>
-    <row r="28" spans="2:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:26">
       <c r="B28" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15+</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D28" s="11">
         <v>7787827.318</v>
@@ -5176,17 +5195,17 @@
       <c r="W28" s="7"/>
       <c r="X28" s="7"/>
       <c r="Y28" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z28" s="7"/>
     </row>
-    <row r="29" spans="2:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:26">
       <c r="B29" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15+</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
@@ -5210,22 +5229,22 @@
       <c r="W29" s="7"/>
       <c r="X29" s="7"/>
       <c r="Y29" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z29" s="7"/>
     </row>
-    <row r="31" spans="2:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:26">
       <c r="M31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N31" s="24">
         <f>SUM(N4:N30)</f>
         <v>36867651.141620994</v>
       </c>
     </row>
-    <row r="32" spans="2:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:26">
       <c r="M32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N32" s="25">
         <f>N31*0.0023</f>
@@ -5236,16 +5255,16 @@
         <v>68684.434076839912</v>
       </c>
       <c r="P32" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="14:16" ht="14.45" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="14:16">
       <c r="N33">
         <f>3529/N32*100</f>
         <v>4.1617726613312378</v>
       </c>
       <c r="P33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -5267,19 +5286,19 @@
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="16" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="16" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="8" customWidth="1"/>
-    <col min="26" max="27" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26">
       <c r="A1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
       <c r="D2" s="3">
         <v>2000</v>
       </c>
@@ -5344,16 +5363,16 @@
         <v>2020</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
       <c r="B3" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="5">
         <v>0.05</v>
@@ -5383,17 +5402,17 @@
       <c r="W3" s="5"/>
       <c r="X3" s="5"/>
       <c r="Y3" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z3" s="5"/>
     </row>
-    <row r="4" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26">
       <c r="B4" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="5">
         <v>3.5000000000000003E-2</v>
@@ -5423,17 +5442,17 @@
       <c r="W4" s="5"/>
       <c r="X4" s="5"/>
       <c r="Y4" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z4" s="5"/>
     </row>
-    <row r="5" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26">
       <c r="B5" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="5">
         <v>0.02</v>
@@ -5463,17 +5482,17 @@
       <c r="W5" s="5"/>
       <c r="X5" s="5"/>
       <c r="Y5" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z5" s="5"/>
     </row>
-    <row r="7" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26">
       <c r="B7" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -5497,17 +5516,17 @@
       <c r="W7" s="5"/>
       <c r="X7" s="5"/>
       <c r="Y7" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z7" s="5"/>
     </row>
-    <row r="8" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26">
       <c r="B8" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -5531,19 +5550,19 @@
       <c r="W8" s="5"/>
       <c r="X8" s="5"/>
       <c r="Y8" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z8" s="5">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26">
       <c r="B9" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -5567,17 +5586,17 @@
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
       <c r="Y9" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z9" s="5"/>
     </row>
-    <row r="11" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26">
       <c r="B11" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -5603,17 +5622,17 @@
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
       <c r="Y11" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z11" s="5"/>
     </row>
-    <row r="12" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26">
       <c r="B12" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -5645,17 +5664,17 @@
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
       <c r="Y12" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z12" s="5"/>
     </row>
-    <row r="13" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26">
       <c r="B13" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -5681,17 +5700,17 @@
       <c r="W13" s="5"/>
       <c r="X13" s="5"/>
       <c r="Y13" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z13" s="5"/>
     </row>
-    <row r="15" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26">
       <c r="B15" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -5715,17 +5734,17 @@
       <c r="W15" s="5"/>
       <c r="X15" s="5"/>
       <c r="Y15" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z15" s="5"/>
     </row>
-    <row r="16" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26">
       <c r="B16" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -5749,19 +5768,19 @@
       <c r="W16" s="5"/>
       <c r="X16" s="5"/>
       <c r="Y16" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z16" s="5">
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="17" spans="2:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:26">
       <c r="B17" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -5785,17 +5804,17 @@
       <c r="W17" s="5"/>
       <c r="X17" s="5"/>
       <c r="Y17" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z17" s="5"/>
     </row>
-    <row r="19" spans="2:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:26">
       <c r="B19" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -5819,17 +5838,17 @@
       <c r="W19" s="5"/>
       <c r="X19" s="5"/>
       <c r="Y19" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z19" s="5"/>
     </row>
-    <row r="20" spans="2:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:26">
       <c r="B20" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -5853,19 +5872,19 @@
       <c r="W20" s="5"/>
       <c r="X20" s="5"/>
       <c r="Y20" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z20" s="5">
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="21" spans="2:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:26">
       <c r="B21" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -5889,17 +5908,17 @@
       <c r="W21" s="5"/>
       <c r="X21" s="5"/>
       <c r="Y21" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z21" s="5"/>
     </row>
-    <row r="23" spans="2:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:26">
       <c r="B23" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15+</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -5923,17 +5942,17 @@
       <c r="W23" s="5"/>
       <c r="X23" s="5"/>
       <c r="Y23" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z23" s="5"/>
     </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:26">
       <c r="B24" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15+</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D24" s="5">
         <v>5.0000000000000001E-4</v>
@@ -5971,17 +5990,17 @@
       <c r="W24" s="5"/>
       <c r="X24" s="5"/>
       <c r="Y24" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z24" s="5"/>
     </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:26">
       <c r="B25" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15+</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -6005,17 +6024,17 @@
       <c r="W25" s="5"/>
       <c r="X25" s="5"/>
       <c r="Y25" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z25" s="5"/>
     </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:26">
       <c r="B27" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15+</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -6039,17 +6058,17 @@
       <c r="W27" s="5"/>
       <c r="X27" s="5"/>
       <c r="Y27" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z27" s="5"/>
     </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:26">
       <c r="B28" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15+</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D28" s="5">
         <v>8.4999999999999995E-4</v>
@@ -6087,17 +6106,17 @@
       <c r="W28" s="5"/>
       <c r="X28" s="5"/>
       <c r="Y28" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z28" s="5"/>
     </row>
-    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:26">
       <c r="B29" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15+</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -6121,7 +6140,7 @@
       <c r="W29" s="5"/>
       <c r="X29" s="5"/>
       <c r="Y29" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z29" s="5"/>
     </row>
@@ -6144,14 +6163,14 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
       <c r="C2" s="3">
         <v>2000</v>
       </c>
@@ -6216,10 +6235,10 @@
         <v>2020</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
       <c r="B3" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -6246,13 +6265,13 @@
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
       <c r="X3" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y3" s="5">
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25">
       <c r="B4" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -6279,13 +6298,13 @@
       <c r="V4" s="5"/>
       <c r="W4" s="5"/>
       <c r="X4" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y4" s="5">
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25">
       <c r="B5" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -6312,13 +6331,13 @@
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
       <c r="X5" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y5" s="5">
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25">
       <c r="B6" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -6345,13 +6364,13 @@
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
       <c r="X6" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y6" s="5">
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25">
       <c r="B7" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -6378,13 +6397,13 @@
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
       <c r="X7" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y7" s="5">
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25">
       <c r="B8" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15+</v>
@@ -6411,13 +6430,13 @@
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
       <c r="X8" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y8" s="5">
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25">
       <c r="B9" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15+</v>
@@ -6444,18 +6463,18 @@
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
       <c r="X9" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y9" s="5">
         <v>0.01</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25">
       <c r="A13" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
       <c r="C14" s="3">
         <v>2000</v>
       </c>
@@ -6520,10 +6539,10 @@
         <v>2020</v>
       </c>
       <c r="Y14" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
       <c r="B15" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -6552,11 +6571,11 @@
       <c r="V15" s="5"/>
       <c r="W15" s="5"/>
       <c r="X15" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y15" s="5"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25">
       <c r="B16" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -6583,13 +6602,13 @@
       <c r="V16" s="5"/>
       <c r="W16" s="5"/>
       <c r="X16" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y16" s="5">
         <v>0.02</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25">
       <c r="B17" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -6618,11 +6637,11 @@
       <c r="V17" s="5"/>
       <c r="W17" s="5"/>
       <c r="X17" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y17" s="5"/>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25">
       <c r="B18" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -6649,13 +6668,13 @@
       <c r="V18" s="5"/>
       <c r="W18" s="5"/>
       <c r="X18" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y18" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25">
       <c r="B19" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -6682,13 +6701,13 @@
       <c r="V19" s="5"/>
       <c r="W19" s="5"/>
       <c r="X19" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y19" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25">
       <c r="B20" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15+</v>
@@ -6715,13 +6734,13 @@
       <c r="V20" s="5"/>
       <c r="W20" s="5"/>
       <c r="X20" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y20" s="5">
         <v>0.01</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25">
       <c r="B21" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15+</v>
@@ -6748,18 +6767,18 @@
       <c r="V21" s="5"/>
       <c r="W21" s="5"/>
       <c r="X21" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y21" s="5">
         <v>0.01</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25">
       <c r="A25" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25">
       <c r="C26" s="3">
         <v>2000</v>
       </c>
@@ -6824,10 +6843,10 @@
         <v>2020</v>
       </c>
       <c r="Y26" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25">
       <c r="B27" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -6856,11 +6875,11 @@
       <c r="V27" s="5"/>
       <c r="W27" s="5"/>
       <c r="X27" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y27" s="5"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25">
       <c r="B28" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -6889,11 +6908,11 @@
       <c r="V28" s="5"/>
       <c r="W28" s="5"/>
       <c r="X28" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y28" s="5"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25">
       <c r="B29" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -6922,11 +6941,11 @@
       <c r="V29" s="5"/>
       <c r="W29" s="5"/>
       <c r="X29" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y29" s="5"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25">
       <c r="B30" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -6953,13 +6972,13 @@
       <c r="V30" s="5"/>
       <c r="W30" s="5"/>
       <c r="X30" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y30" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25">
       <c r="B31" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -6986,13 +7005,13 @@
       <c r="V31" s="5"/>
       <c r="W31" s="5"/>
       <c r="X31" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y31" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:25" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25">
       <c r="B32" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15+</v>
@@ -7021,11 +7040,11 @@
       <c r="V32" s="5"/>
       <c r="W32" s="5"/>
       <c r="X32" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y32" s="5"/>
     </row>
-    <row r="33" spans="2:25" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:25">
       <c r="B33" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15+</v>
@@ -7054,7 +7073,7 @@
       <c r="V33" s="5"/>
       <c r="W33" s="5"/>
       <c r="X33" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y33" s="5"/>
     </row>
@@ -7076,22 +7095,20 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="10" max="10" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875"/>
-    <col min="13" max="13" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.85546875"/>
-    <col min="15" max="16" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
       <c r="C2" s="3">
         <v>2000</v>
       </c>
@@ -7156,12 +7173,12 @@
         <v>2020</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
       <c r="B3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -7199,16 +7216,16 @@
       <c r="V3" s="8"/>
       <c r="W3" s="8"/>
       <c r="X3" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y3" s="8"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25">
       <c r="A7" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
       <c r="C8" s="3">
         <v>2000</v>
       </c>
@@ -7273,12 +7290,12 @@
         <v>2020</v>
       </c>
       <c r="Y8" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
       <c r="B9" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -7306,16 +7323,16 @@
       <c r="V9" s="8"/>
       <c r="W9" s="8"/>
       <c r="X9" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y9" s="8"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25">
       <c r="A13" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
       <c r="C14" s="3">
         <v>2000</v>
       </c>
@@ -7380,12 +7397,12 @@
         <v>2020</v>
       </c>
       <c r="Y14" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
       <c r="B15" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="16">
         <v>3121.27</v>
@@ -7437,16 +7454,16 @@
       <c r="V15" s="8"/>
       <c r="W15" s="8"/>
       <c r="X15" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y15" s="8"/>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35">
       <c r="A19" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35">
       <c r="C20" s="3">
         <v>2000</v>
       </c>
@@ -7511,12 +7528,12 @@
         <v>2020</v>
       </c>
       <c r="Y20" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35">
       <c r="B21" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" s="45">
         <v>1.1000000000000001E-3</v>
@@ -7568,13 +7585,13 @@
       <c r="V21" s="45"/>
       <c r="W21" s="45"/>
       <c r="X21" s="44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y21" s="43"/>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35">
       <c r="A25" s="33" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -7611,7 +7628,7 @@
       <c r="AH25" s="32"/>
       <c r="AI25" s="32"/>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35">
       <c r="A26" s="32"/>
       <c r="B26" s="32"/>
       <c r="C26" s="34">
@@ -7709,13 +7726,13 @@
       </c>
       <c r="AH26" s="32"/>
       <c r="AI26" s="34" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35">
       <c r="A27" s="32"/>
       <c r="B27" s="34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27" s="35"/>
       <c r="D27" s="35"/>
@@ -7749,16 +7766,16 @@
       <c r="AF27" s="35"/>
       <c r="AG27" s="35"/>
       <c r="AH27" s="36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI27" s="35"/>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35">
       <c r="A30" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:35">
       <c r="C31" s="3">
         <v>2000</v>
       </c>
@@ -7823,12 +7840,12 @@
         <v>2020</v>
       </c>
       <c r="Y31" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35">
       <c r="B32" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C32" s="16">
         <v>714</v>
@@ -7880,16 +7897,16 @@
       <c r="V32" s="8"/>
       <c r="W32" s="8"/>
       <c r="X32" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y32" s="8"/>
     </row>
-    <row r="36" spans="1:25" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25">
       <c r="A36" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25" ht="14.45" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25">
       <c r="C37" s="3">
         <v>2000</v>
       </c>
@@ -7954,12 +7971,12 @@
         <v>2020</v>
       </c>
       <c r="Y37" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="1:25" ht="14.45" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25">
       <c r="B38" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
@@ -7991,12 +8008,17 @@
       <c r="V38" s="8"/>
       <c r="W38" s="8"/>
       <c r="X38" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y38" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -8008,14 +8030,14 @@
       <selection activeCell="B28" sqref="B28:B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
       <c r="C2" s="3">
         <v>2000</v>
       </c>
@@ -8080,10 +8102,10 @@
         <v>2020</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
       <c r="B3" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -8114,11 +8136,11 @@
       <c r="V3" s="9"/>
       <c r="W3" s="9"/>
       <c r="X3" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y3" s="9"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25">
       <c r="B4" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -8151,11 +8173,11 @@
       <c r="V4" s="9"/>
       <c r="W4" s="9"/>
       <c r="X4" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y4" s="9"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25">
       <c r="B5" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -8184,11 +8206,11 @@
       <c r="V5" s="9"/>
       <c r="W5" s="9"/>
       <c r="X5" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y5" s="9"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25">
       <c r="B6" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -8215,13 +8237,13 @@
       <c r="V6" s="9"/>
       <c r="W6" s="9"/>
       <c r="X6" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y6" s="9">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25">
       <c r="B7" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -8248,13 +8270,13 @@
       <c r="V7" s="9"/>
       <c r="W7" s="9"/>
       <c r="X7" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y7" s="9">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25">
       <c r="B8" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15+</v>
@@ -8287,11 +8309,11 @@
       <c r="V8" s="9"/>
       <c r="W8" s="9"/>
       <c r="X8" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y8" s="9"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25">
       <c r="B9" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15+</v>
@@ -8324,16 +8346,16 @@
       <c r="V9" s="9"/>
       <c r="W9" s="9"/>
       <c r="X9" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y9" s="9"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25">
       <c r="A13" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
       <c r="C14" s="3">
         <v>2000</v>
       </c>
@@ -8398,12 +8420,12 @@
         <v>2020</v>
       </c>
       <c r="Y14" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
       <c r="B15" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -8429,16 +8451,16 @@
       <c r="V15" s="4"/>
       <c r="W15" s="4"/>
       <c r="X15" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y15" s="4"/>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25">
       <c r="A19" s="37" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
       <c r="C20" s="3">
         <v>2000</v>
       </c>
@@ -8503,12 +8525,12 @@
         <v>2020</v>
       </c>
       <c r="Y20" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
       <c r="B21" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" s="4">
         <v>0</v>
@@ -8550,16 +8572,16 @@
       <c r="V21" s="4"/>
       <c r="W21" s="4"/>
       <c r="X21" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y21" s="4"/>
     </row>
-    <row r="26" spans="1:25" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25">
       <c r="A26" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" ht="14.45" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25">
       <c r="C27" s="3">
         <v>2000</v>
       </c>
@@ -8624,10 +8646,10 @@
         <v>2020</v>
       </c>
       <c r="Y27" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" ht="14.45" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25">
       <c r="B28" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -8654,13 +8676,13 @@
       <c r="V28" s="9"/>
       <c r="W28" s="9"/>
       <c r="X28" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y28" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:25" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25">
       <c r="B29" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -8687,13 +8709,13 @@
       <c r="V29" s="9"/>
       <c r="W29" s="9"/>
       <c r="X29" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y29" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:25" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25">
       <c r="B30" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -8720,13 +8742,13 @@
       <c r="V30" s="9"/>
       <c r="W30" s="9"/>
       <c r="X30" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y30" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:25" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25">
       <c r="B31" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -8753,13 +8775,13 @@
       <c r="V31" s="9"/>
       <c r="W31" s="9"/>
       <c r="X31" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y31" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25">
       <c r="B32" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -8786,13 +8808,13 @@
       <c r="V32" s="9"/>
       <c r="W32" s="9"/>
       <c r="X32" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y32" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25">
       <c r="B33" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15+</v>
@@ -8819,13 +8841,13 @@
       <c r="V33" s="9"/>
       <c r="W33" s="9"/>
       <c r="X33" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y33" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25">
       <c r="B34" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15+</v>
@@ -8852,18 +8874,18 @@
       <c r="V34" s="9"/>
       <c r="W34" s="9"/>
       <c r="X34" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y34" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25">
       <c r="A38" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25">
       <c r="C39" s="3">
         <v>2000</v>
       </c>
@@ -8928,12 +8950,12 @@
         <v>2020</v>
       </c>
       <c r="Y39" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25">
       <c r="B40" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C40" s="19"/>
       <c r="D40" s="19"/>
@@ -8961,16 +8983,16 @@
       <c r="V40" s="19"/>
       <c r="W40" s="19"/>
       <c r="X40" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y40" s="4"/>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25">
       <c r="A44" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25">
       <c r="C45" s="3">
         <v>2000</v>
       </c>
@@ -9035,10 +9057,10 @@
         <v>2020</v>
       </c>
       <c r="Y45" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25">
       <c r="B46" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -9087,11 +9109,11 @@
       <c r="V46" s="8"/>
       <c r="W46" s="8"/>
       <c r="X46" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y46" s="8"/>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25">
       <c r="B47" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -9118,13 +9140,13 @@
       <c r="V47" s="8"/>
       <c r="W47" s="8"/>
       <c r="X47" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y47" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25">
       <c r="B48" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15+</v>
@@ -9173,16 +9195,16 @@
       <c r="V48" s="8"/>
       <c r="W48" s="8"/>
       <c r="X48" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y48" s="8"/>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25">
       <c r="A52" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25">
       <c r="C53" s="3">
         <v>2000</v>
       </c>
@@ -9247,12 +9269,12 @@
         <v>2020</v>
       </c>
       <c r="Y53" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25">
       <c r="B54" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
@@ -9278,13 +9300,18 @@
       <c r="V54" s="9"/>
       <c r="W54" s="9"/>
       <c r="X54" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y54" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -9292,2175 +9319,2180 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="55"/>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="55"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="57">
+    <row r="1" spans="1:25">
+      <c r="A1" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
+    </row>
+    <row r="2" spans="1:25">
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="55">
         <v>2000</v>
       </c>
-      <c r="D2" s="57">
+      <c r="D2" s="55">
         <v>2001</v>
       </c>
-      <c r="E2" s="57">
+      <c r="E2" s="55">
         <v>2002</v>
       </c>
-      <c r="F2" s="57">
+      <c r="F2" s="55">
         <v>2003</v>
       </c>
-      <c r="G2" s="57">
+      <c r="G2" s="55">
         <v>2004</v>
       </c>
-      <c r="H2" s="57">
+      <c r="H2" s="55">
         <v>2005</v>
       </c>
-      <c r="I2" s="57">
+      <c r="I2" s="55">
         <v>2006</v>
       </c>
-      <c r="J2" s="57">
+      <c r="J2" s="55">
         <v>2007</v>
       </c>
-      <c r="K2" s="57">
+      <c r="K2" s="55">
         <v>2008</v>
       </c>
-      <c r="L2" s="57">
+      <c r="L2" s="55">
         <v>2009</v>
       </c>
-      <c r="M2" s="57">
+      <c r="M2" s="55">
         <v>2010</v>
       </c>
-      <c r="N2" s="57">
+      <c r="N2" s="55">
         <v>2011</v>
       </c>
-      <c r="O2" s="57">
+      <c r="O2" s="55">
         <v>2012</v>
       </c>
-      <c r="P2" s="57">
+      <c r="P2" s="55">
         <v>2013</v>
       </c>
-      <c r="Q2" s="57">
+      <c r="Q2" s="55">
         <v>2014</v>
       </c>
-      <c r="R2" s="57">
+      <c r="R2" s="55">
         <v>2015</v>
       </c>
-      <c r="S2" s="57">
+      <c r="S2" s="55">
         <v>2016</v>
       </c>
-      <c r="T2" s="57">
+      <c r="T2" s="55">
         <v>2017</v>
       </c>
-      <c r="U2" s="57">
+      <c r="U2" s="55">
         <v>2018</v>
       </c>
-      <c r="V2" s="57">
+      <c r="V2" s="55">
         <v>2019</v>
       </c>
-      <c r="W2" s="57">
+      <c r="W2" s="55">
         <v>2020</v>
       </c>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="57" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="55"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="55" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="A3" s="53"/>
       <c r="B3" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="59"/>
-      <c r="X3" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y3" s="59">
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="57"/>
+      <c r="U3" s="57"/>
+      <c r="V3" s="57"/>
+      <c r="W3" s="57"/>
+      <c r="X3" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y3" s="57">
         <v>0.8</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="55"/>
+    <row r="4" spans="1:25">
+      <c r="A4" s="53"/>
       <c r="B4" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="59"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="59"/>
-      <c r="U4" s="59"/>
-      <c r="V4" s="59"/>
-      <c r="W4" s="59"/>
-      <c r="X4" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y4" s="59">
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="57"/>
+      <c r="U4" s="57"/>
+      <c r="V4" s="57"/>
+      <c r="W4" s="57"/>
+      <c r="X4" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y4" s="57">
         <v>0.8</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="55"/>
+    <row r="5" spans="1:25">
+      <c r="A5" s="53"/>
       <c r="B5" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
       </c>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="59"/>
-      <c r="O5" s="59"/>
-      <c r="P5" s="59"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="59"/>
-      <c r="S5" s="59"/>
-      <c r="T5" s="59"/>
-      <c r="U5" s="59"/>
-      <c r="V5" s="59"/>
-      <c r="W5" s="59"/>
-      <c r="X5" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y5" s="59">
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="57"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="57"/>
+      <c r="T5" s="57"/>
+      <c r="U5" s="57"/>
+      <c r="V5" s="57"/>
+      <c r="W5" s="57"/>
+      <c r="X5" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y5" s="57">
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="55"/>
+    <row r="6" spans="1:25">
+      <c r="A6" s="53"/>
       <c r="B6" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="59"/>
-      <c r="S6" s="59"/>
-      <c r="T6" s="59"/>
-      <c r="U6" s="59"/>
-      <c r="V6" s="59"/>
-      <c r="W6" s="59"/>
-      <c r="X6" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y6" s="59">
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="57"/>
+      <c r="R6" s="57"/>
+      <c r="S6" s="57"/>
+      <c r="T6" s="57"/>
+      <c r="U6" s="57"/>
+      <c r="V6" s="57"/>
+      <c r="W6" s="57"/>
+      <c r="X6" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y6" s="57">
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="55"/>
+    <row r="7" spans="1:25">
+      <c r="A7" s="53"/>
       <c r="B7" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
       </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="59"/>
-      <c r="S7" s="59"/>
-      <c r="T7" s="59"/>
-      <c r="U7" s="59"/>
-      <c r="V7" s="59"/>
-      <c r="W7" s="59"/>
-      <c r="X7" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y7" s="59">
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="57"/>
+      <c r="R7" s="57"/>
+      <c r="S7" s="57"/>
+      <c r="T7" s="57"/>
+      <c r="U7" s="57"/>
+      <c r="V7" s="57"/>
+      <c r="W7" s="57"/>
+      <c r="X7" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y7" s="57">
         <v>0.8</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="55"/>
+    <row r="8" spans="1:25">
+      <c r="A8" s="53"/>
       <c r="B8" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15+</v>
       </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="59"/>
-      <c r="M8" s="59"/>
-      <c r="N8" s="59"/>
-      <c r="O8" s="59"/>
-      <c r="P8" s="59"/>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="59"/>
-      <c r="S8" s="59"/>
-      <c r="T8" s="59"/>
-      <c r="U8" s="59"/>
-      <c r="V8" s="59"/>
-      <c r="W8" s="59"/>
-      <c r="X8" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y8" s="59">
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="57"/>
+      <c r="R8" s="57"/>
+      <c r="S8" s="57"/>
+      <c r="T8" s="57"/>
+      <c r="U8" s="57"/>
+      <c r="V8" s="57"/>
+      <c r="W8" s="57"/>
+      <c r="X8" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y8" s="57">
         <v>0.8</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="55"/>
+    <row r="9" spans="1:25">
+      <c r="A9" s="53"/>
       <c r="B9" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15+</v>
       </c>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="59"/>
-      <c r="O9" s="59"/>
-      <c r="P9" s="59"/>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="59"/>
-      <c r="S9" s="59"/>
-      <c r="T9" s="59"/>
-      <c r="U9" s="59"/>
-      <c r="V9" s="59"/>
-      <c r="W9" s="59"/>
-      <c r="X9" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y9" s="59">
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="57"/>
+      <c r="R9" s="57"/>
+      <c r="S9" s="57"/>
+      <c r="T9" s="57"/>
+      <c r="U9" s="57"/>
+      <c r="V9" s="57"/>
+      <c r="W9" s="57"/>
+      <c r="X9" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y9" s="57">
         <v>0.8</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="56" t="s">
-        <v>120</v>
-      </c>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="55"/>
-      <c r="N13" s="55"/>
-      <c r="O13" s="55"/>
-      <c r="P13" s="55"/>
-      <c r="Q13" s="55"/>
-      <c r="R13" s="55"/>
-      <c r="S13" s="55"/>
-      <c r="T13" s="55"/>
-      <c r="U13" s="55"/>
-      <c r="V13" s="55"/>
-      <c r="W13" s="55"/>
-      <c r="X13" s="55"/>
-      <c r="Y13" s="55"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="55"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="57">
+    <row r="13" spans="1:25">
+      <c r="A13" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="53"/>
+      <c r="R13" s="53"/>
+      <c r="S13" s="53"/>
+      <c r="T13" s="53"/>
+      <c r="U13" s="53"/>
+      <c r="V13" s="53"/>
+      <c r="W13" s="53"/>
+      <c r="X13" s="53"/>
+      <c r="Y13" s="53"/>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="A14" s="53"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="55">
         <v>2000</v>
       </c>
-      <c r="D14" s="57">
+      <c r="D14" s="55">
         <v>2001</v>
       </c>
-      <c r="E14" s="57">
+      <c r="E14" s="55">
         <v>2002</v>
       </c>
-      <c r="F14" s="57">
+      <c r="F14" s="55">
         <v>2003</v>
       </c>
-      <c r="G14" s="57">
+      <c r="G14" s="55">
         <v>2004</v>
       </c>
-      <c r="H14" s="57">
+      <c r="H14" s="55">
         <v>2005</v>
       </c>
-      <c r="I14" s="57">
+      <c r="I14" s="55">
         <v>2006</v>
       </c>
-      <c r="J14" s="57">
+      <c r="J14" s="55">
         <v>2007</v>
       </c>
-      <c r="K14" s="57">
+      <c r="K14" s="55">
         <v>2008</v>
       </c>
-      <c r="L14" s="57">
+      <c r="L14" s="55">
         <v>2009</v>
       </c>
-      <c r="M14" s="57">
+      <c r="M14" s="55">
         <v>2010</v>
       </c>
-      <c r="N14" s="57">
+      <c r="N14" s="55">
         <v>2011</v>
       </c>
-      <c r="O14" s="57">
+      <c r="O14" s="55">
         <v>2012</v>
       </c>
-      <c r="P14" s="57">
+      <c r="P14" s="55">
         <v>2013</v>
       </c>
-      <c r="Q14" s="57">
+      <c r="Q14" s="55">
         <v>2014</v>
       </c>
-      <c r="R14" s="57">
+      <c r="R14" s="55">
         <v>2015</v>
       </c>
-      <c r="S14" s="57">
+      <c r="S14" s="55">
         <v>2016</v>
       </c>
-      <c r="T14" s="57">
+      <c r="T14" s="55">
         <v>2017</v>
       </c>
-      <c r="U14" s="57">
+      <c r="U14" s="55">
         <v>2018</v>
       </c>
-      <c r="V14" s="57">
+      <c r="V14" s="55">
         <v>2019</v>
       </c>
-      <c r="W14" s="57">
+      <c r="W14" s="55">
         <v>2020</v>
       </c>
-      <c r="X14" s="55"/>
-      <c r="Y14" s="57" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="55"/>
+      <c r="X14" s="53"/>
+      <c r="Y14" s="55" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
+      <c r="A15" s="53"/>
       <c r="B15" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
       </c>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="59"/>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="59"/>
-      <c r="S15" s="59"/>
-      <c r="T15" s="59"/>
-      <c r="U15" s="59"/>
-      <c r="V15" s="59"/>
-      <c r="W15" s="59"/>
-      <c r="X15" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y15" s="59">
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="57"/>
+      <c r="Q15" s="57"/>
+      <c r="R15" s="57"/>
+      <c r="S15" s="57"/>
+      <c r="T15" s="57"/>
+      <c r="U15" s="57"/>
+      <c r="V15" s="57"/>
+      <c r="W15" s="57"/>
+      <c r="X15" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y15" s="57">
         <v>0.8</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="55"/>
+    <row r="16" spans="1:25">
+      <c r="A16" s="53"/>
       <c r="B16" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
       </c>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="59"/>
-      <c r="N16" s="59"/>
-      <c r="O16" s="59"/>
-      <c r="P16" s="59"/>
-      <c r="Q16" s="59"/>
-      <c r="R16" s="59"/>
-      <c r="S16" s="59"/>
-      <c r="T16" s="59"/>
-      <c r="U16" s="59"/>
-      <c r="V16" s="59"/>
-      <c r="W16" s="59"/>
-      <c r="X16" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y16" s="59">
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="57"/>
+      <c r="R16" s="57"/>
+      <c r="S16" s="57"/>
+      <c r="T16" s="57"/>
+      <c r="U16" s="57"/>
+      <c r="V16" s="57"/>
+      <c r="W16" s="57"/>
+      <c r="X16" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y16" s="57">
         <v>0.8</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="55"/>
+    <row r="17" spans="1:25">
+      <c r="A17" s="53"/>
       <c r="B17" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
       </c>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="59"/>
-      <c r="O17" s="59"/>
-      <c r="P17" s="59"/>
-      <c r="Q17" s="59"/>
-      <c r="R17" s="59"/>
-      <c r="S17" s="59"/>
-      <c r="T17" s="59"/>
-      <c r="U17" s="59"/>
-      <c r="V17" s="59"/>
-      <c r="W17" s="59"/>
-      <c r="X17" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y17" s="59">
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="57"/>
+      <c r="Q17" s="57"/>
+      <c r="R17" s="57"/>
+      <c r="S17" s="57"/>
+      <c r="T17" s="57"/>
+      <c r="U17" s="57"/>
+      <c r="V17" s="57"/>
+      <c r="W17" s="57"/>
+      <c r="X17" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y17" s="57">
         <v>0.8</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" s="55"/>
+    <row r="18" spans="1:25">
+      <c r="A18" s="53"/>
       <c r="B18" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
       </c>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="59"/>
-      <c r="N18" s="59"/>
-      <c r="O18" s="59"/>
-      <c r="P18" s="59"/>
-      <c r="Q18" s="59"/>
-      <c r="R18" s="59"/>
-      <c r="S18" s="59"/>
-      <c r="T18" s="59"/>
-      <c r="U18" s="59"/>
-      <c r="V18" s="59"/>
-      <c r="W18" s="59"/>
-      <c r="X18" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y18" s="59">
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="57"/>
+      <c r="P18" s="57"/>
+      <c r="Q18" s="57"/>
+      <c r="R18" s="57"/>
+      <c r="S18" s="57"/>
+      <c r="T18" s="57"/>
+      <c r="U18" s="57"/>
+      <c r="V18" s="57"/>
+      <c r="W18" s="57"/>
+      <c r="X18" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y18" s="57">
         <v>0.8</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A19" s="55"/>
+    <row r="19" spans="1:25">
+      <c r="A19" s="53"/>
       <c r="B19" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
       </c>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="59"/>
-      <c r="O19" s="59"/>
-      <c r="P19" s="59"/>
-      <c r="Q19" s="59"/>
-      <c r="R19" s="59"/>
-      <c r="S19" s="59"/>
-      <c r="T19" s="59"/>
-      <c r="U19" s="59"/>
-      <c r="V19" s="59"/>
-      <c r="W19" s="59"/>
-      <c r="X19" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y19" s="59">
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="57"/>
+      <c r="O19" s="57"/>
+      <c r="P19" s="57"/>
+      <c r="Q19" s="57"/>
+      <c r="R19" s="57"/>
+      <c r="S19" s="57"/>
+      <c r="T19" s="57"/>
+      <c r="U19" s="57"/>
+      <c r="V19" s="57"/>
+      <c r="W19" s="57"/>
+      <c r="X19" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y19" s="57">
         <v>0.8</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A20" s="55"/>
+    <row r="20" spans="1:25">
+      <c r="A20" s="53"/>
       <c r="B20" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15+</v>
       </c>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="59"/>
-      <c r="M20" s="59"/>
-      <c r="N20" s="59"/>
-      <c r="O20" s="59"/>
-      <c r="P20" s="59"/>
-      <c r="Q20" s="59"/>
-      <c r="R20" s="59"/>
-      <c r="S20" s="59"/>
-      <c r="T20" s="59"/>
-      <c r="U20" s="59"/>
-      <c r="V20" s="59"/>
-      <c r="W20" s="59"/>
-      <c r="X20" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y20" s="59">
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="57"/>
+      <c r="P20" s="57"/>
+      <c r="Q20" s="57"/>
+      <c r="R20" s="57"/>
+      <c r="S20" s="57"/>
+      <c r="T20" s="57"/>
+      <c r="U20" s="57"/>
+      <c r="V20" s="57"/>
+      <c r="W20" s="57"/>
+      <c r="X20" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y20" s="57">
         <v>0.8</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="55"/>
+    <row r="21" spans="1:25">
+      <c r="A21" s="53"/>
       <c r="B21" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15+</v>
       </c>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="59"/>
-      <c r="M21" s="59"/>
-      <c r="N21" s="59"/>
-      <c r="O21" s="59"/>
-      <c r="P21" s="59"/>
-      <c r="Q21" s="59"/>
-      <c r="R21" s="59"/>
-      <c r="S21" s="59"/>
-      <c r="T21" s="59"/>
-      <c r="U21" s="59"/>
-      <c r="V21" s="59"/>
-      <c r="W21" s="59"/>
-      <c r="X21" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y21" s="59">
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="57"/>
+      <c r="N21" s="57"/>
+      <c r="O21" s="57"/>
+      <c r="P21" s="57"/>
+      <c r="Q21" s="57"/>
+      <c r="R21" s="57"/>
+      <c r="S21" s="57"/>
+      <c r="T21" s="57"/>
+      <c r="U21" s="57"/>
+      <c r="V21" s="57"/>
+      <c r="W21" s="57"/>
+      <c r="X21" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y21" s="57">
         <v>0.8</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A25" s="56" t="s">
-        <v>121</v>
-      </c>
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="55"/>
-      <c r="M25" s="55"/>
-      <c r="N25" s="55"/>
-      <c r="O25" s="55"/>
-      <c r="P25" s="55"/>
-      <c r="Q25" s="55"/>
-      <c r="R25" s="55"/>
-      <c r="S25" s="55"/>
-      <c r="T25" s="55"/>
-      <c r="U25" s="55"/>
-      <c r="V25" s="55"/>
-      <c r="W25" s="55"/>
-      <c r="X25" s="55"/>
-      <c r="Y25" s="55"/>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A26" s="55"/>
-      <c r="B26" s="55"/>
-      <c r="C26" s="57">
+    <row r="25" spans="1:25">
+      <c r="A25" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="53"/>
+      <c r="N25" s="53"/>
+      <c r="O25" s="53"/>
+      <c r="P25" s="53"/>
+      <c r="Q25" s="53"/>
+      <c r="R25" s="53"/>
+      <c r="S25" s="53"/>
+      <c r="T25" s="53"/>
+      <c r="U25" s="53"/>
+      <c r="V25" s="53"/>
+      <c r="W25" s="53"/>
+      <c r="X25" s="53"/>
+      <c r="Y25" s="53"/>
+    </row>
+    <row r="26" spans="1:25">
+      <c r="A26" s="53"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="55">
         <v>2000</v>
       </c>
-      <c r="D26" s="57">
+      <c r="D26" s="55">
         <v>2001</v>
       </c>
-      <c r="E26" s="57">
+      <c r="E26" s="55">
         <v>2002</v>
       </c>
-      <c r="F26" s="57">
+      <c r="F26" s="55">
         <v>2003</v>
       </c>
-      <c r="G26" s="57">
+      <c r="G26" s="55">
         <v>2004</v>
       </c>
-      <c r="H26" s="57">
+      <c r="H26" s="55">
         <v>2005</v>
       </c>
-      <c r="I26" s="57">
+      <c r="I26" s="55">
         <v>2006</v>
       </c>
-      <c r="J26" s="57">
+      <c r="J26" s="55">
         <v>2007</v>
       </c>
-      <c r="K26" s="57">
+      <c r="K26" s="55">
         <v>2008</v>
       </c>
-      <c r="L26" s="57">
+      <c r="L26" s="55">
         <v>2009</v>
       </c>
-      <c r="M26" s="57">
+      <c r="M26" s="55">
         <v>2010</v>
       </c>
-      <c r="N26" s="57">
+      <c r="N26" s="55">
         <v>2011</v>
       </c>
-      <c r="O26" s="57">
+      <c r="O26" s="55">
         <v>2012</v>
       </c>
-      <c r="P26" s="57">
+      <c r="P26" s="55">
         <v>2013</v>
       </c>
-      <c r="Q26" s="57">
+      <c r="Q26" s="55">
         <v>2014</v>
       </c>
-      <c r="R26" s="57">
+      <c r="R26" s="55">
         <v>2015</v>
       </c>
-      <c r="S26" s="57">
+      <c r="S26" s="55">
         <v>2016</v>
       </c>
-      <c r="T26" s="57">
+      <c r="T26" s="55">
         <v>2017</v>
       </c>
-      <c r="U26" s="57">
+      <c r="U26" s="55">
         <v>2018</v>
       </c>
-      <c r="V26" s="57">
+      <c r="V26" s="55">
         <v>2019</v>
       </c>
-      <c r="W26" s="57">
+      <c r="W26" s="55">
         <v>2020</v>
       </c>
-      <c r="X26" s="55"/>
-      <c r="Y26" s="57" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A27" s="55"/>
+      <c r="X26" s="53"/>
+      <c r="Y26" s="55" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25">
+      <c r="A27" s="53"/>
       <c r="B27" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
       </c>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="59"/>
-      <c r="L27" s="59"/>
-      <c r="M27" s="59"/>
-      <c r="N27" s="59"/>
-      <c r="O27" s="59"/>
-      <c r="P27" s="59"/>
-      <c r="Q27" s="59"/>
-      <c r="R27" s="59"/>
-      <c r="S27" s="59"/>
-      <c r="T27" s="59"/>
-      <c r="U27" s="59"/>
-      <c r="V27" s="59"/>
-      <c r="W27" s="59"/>
-      <c r="X27" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y27" s="59">
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="57"/>
+      <c r="L27" s="57"/>
+      <c r="M27" s="57"/>
+      <c r="N27" s="57"/>
+      <c r="O27" s="57"/>
+      <c r="P27" s="57"/>
+      <c r="Q27" s="57"/>
+      <c r="R27" s="57"/>
+      <c r="S27" s="57"/>
+      <c r="T27" s="57"/>
+      <c r="U27" s="57"/>
+      <c r="V27" s="57"/>
+      <c r="W27" s="57"/>
+      <c r="X27" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y27" s="57">
         <v>0.8</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A28" s="55"/>
+    <row r="28" spans="1:25">
+      <c r="A28" s="53"/>
       <c r="B28" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
       </c>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="59"/>
-      <c r="J28" s="59"/>
-      <c r="K28" s="59"/>
-      <c r="L28" s="59"/>
-      <c r="M28" s="59"/>
-      <c r="N28" s="59"/>
-      <c r="O28" s="59"/>
-      <c r="P28" s="59"/>
-      <c r="Q28" s="59"/>
-      <c r="R28" s="59"/>
-      <c r="S28" s="59"/>
-      <c r="T28" s="59"/>
-      <c r="U28" s="59"/>
-      <c r="V28" s="59"/>
-      <c r="W28" s="59"/>
-      <c r="X28" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y28" s="59">
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="57"/>
+      <c r="M28" s="57"/>
+      <c r="N28" s="57"/>
+      <c r="O28" s="57"/>
+      <c r="P28" s="57"/>
+      <c r="Q28" s="57"/>
+      <c r="R28" s="57"/>
+      <c r="S28" s="57"/>
+      <c r="T28" s="57"/>
+      <c r="U28" s="57"/>
+      <c r="V28" s="57"/>
+      <c r="W28" s="57"/>
+      <c r="X28" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y28" s="57">
         <v>0.8</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A29" s="55"/>
+    <row r="29" spans="1:25">
+      <c r="A29" s="53"/>
       <c r="B29" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
       </c>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="59"/>
-      <c r="J29" s="59"/>
-      <c r="K29" s="59"/>
-      <c r="L29" s="59"/>
-      <c r="M29" s="59"/>
-      <c r="N29" s="59"/>
-      <c r="O29" s="59"/>
-      <c r="P29" s="59"/>
-      <c r="Q29" s="59"/>
-      <c r="R29" s="59"/>
-      <c r="S29" s="59"/>
-      <c r="T29" s="59"/>
-      <c r="U29" s="59"/>
-      <c r="V29" s="59"/>
-      <c r="W29" s="59"/>
-      <c r="X29" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y29" s="59">
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="57"/>
+      <c r="L29" s="57"/>
+      <c r="M29" s="57"/>
+      <c r="N29" s="57"/>
+      <c r="O29" s="57"/>
+      <c r="P29" s="57"/>
+      <c r="Q29" s="57"/>
+      <c r="R29" s="57"/>
+      <c r="S29" s="57"/>
+      <c r="T29" s="57"/>
+      <c r="U29" s="57"/>
+      <c r="V29" s="57"/>
+      <c r="W29" s="57"/>
+      <c r="X29" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y29" s="57">
         <v>0.8</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A30" s="55"/>
+    <row r="30" spans="1:25">
+      <c r="A30" s="53"/>
       <c r="B30" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
       </c>
-      <c r="C30" s="59"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="59"/>
-      <c r="I30" s="59"/>
-      <c r="J30" s="59"/>
-      <c r="K30" s="59"/>
-      <c r="L30" s="59"/>
-      <c r="M30" s="59"/>
-      <c r="N30" s="59"/>
-      <c r="O30" s="59"/>
-      <c r="P30" s="59"/>
-      <c r="Q30" s="59"/>
-      <c r="R30" s="59"/>
-      <c r="S30" s="59"/>
-      <c r="T30" s="59"/>
-      <c r="U30" s="59"/>
-      <c r="V30" s="59"/>
-      <c r="W30" s="59"/>
-      <c r="X30" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y30" s="59">
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="57"/>
+      <c r="M30" s="57"/>
+      <c r="N30" s="57"/>
+      <c r="O30" s="57"/>
+      <c r="P30" s="57"/>
+      <c r="Q30" s="57"/>
+      <c r="R30" s="57"/>
+      <c r="S30" s="57"/>
+      <c r="T30" s="57"/>
+      <c r="U30" s="57"/>
+      <c r="V30" s="57"/>
+      <c r="W30" s="57"/>
+      <c r="X30" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y30" s="57">
         <v>0.8</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A31" s="55"/>
+    <row r="31" spans="1:25">
+      <c r="A31" s="53"/>
       <c r="B31" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
       </c>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="59"/>
-      <c r="J31" s="59"/>
-      <c r="K31" s="59"/>
-      <c r="L31" s="59"/>
-      <c r="M31" s="59"/>
-      <c r="N31" s="59"/>
-      <c r="O31" s="59"/>
-      <c r="P31" s="59"/>
-      <c r="Q31" s="59"/>
-      <c r="R31" s="59"/>
-      <c r="S31" s="59"/>
-      <c r="T31" s="59"/>
-      <c r="U31" s="59"/>
-      <c r="V31" s="59"/>
-      <c r="W31" s="59"/>
-      <c r="X31" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y31" s="59">
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="57"/>
+      <c r="N31" s="57"/>
+      <c r="O31" s="57"/>
+      <c r="P31" s="57"/>
+      <c r="Q31" s="57"/>
+      <c r="R31" s="57"/>
+      <c r="S31" s="57"/>
+      <c r="T31" s="57"/>
+      <c r="U31" s="57"/>
+      <c r="V31" s="57"/>
+      <c r="W31" s="57"/>
+      <c r="X31" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y31" s="57">
         <v>0.8</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A32" s="55"/>
+    <row r="32" spans="1:25">
+      <c r="A32" s="53"/>
       <c r="B32" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15+</v>
       </c>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
-      <c r="I32" s="59"/>
-      <c r="J32" s="59"/>
-      <c r="K32" s="59"/>
-      <c r="L32" s="59"/>
-      <c r="M32" s="59"/>
-      <c r="N32" s="59"/>
-      <c r="O32" s="59"/>
-      <c r="P32" s="59"/>
-      <c r="Q32" s="59"/>
-      <c r="R32" s="59"/>
-      <c r="S32" s="59"/>
-      <c r="T32" s="59"/>
-      <c r="U32" s="59"/>
-      <c r="V32" s="59"/>
-      <c r="W32" s="59"/>
-      <c r="X32" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y32" s="59">
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="57"/>
+      <c r="N32" s="57"/>
+      <c r="O32" s="57"/>
+      <c r="P32" s="57"/>
+      <c r="Q32" s="57"/>
+      <c r="R32" s="57"/>
+      <c r="S32" s="57"/>
+      <c r="T32" s="57"/>
+      <c r="U32" s="57"/>
+      <c r="V32" s="57"/>
+      <c r="W32" s="57"/>
+      <c r="X32" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y32" s="57">
         <v>0.8</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A33" s="55"/>
+    <row r="33" spans="1:25">
+      <c r="A33" s="53"/>
       <c r="B33" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15+</v>
       </c>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="59"/>
-      <c r="J33" s="59"/>
-      <c r="K33" s="59"/>
-      <c r="L33" s="59"/>
-      <c r="M33" s="59"/>
-      <c r="N33" s="59"/>
-      <c r="O33" s="59"/>
-      <c r="P33" s="59"/>
-      <c r="Q33" s="59"/>
-      <c r="R33" s="59"/>
-      <c r="S33" s="59"/>
-      <c r="T33" s="59"/>
-      <c r="U33" s="59"/>
-      <c r="V33" s="59"/>
-      <c r="W33" s="59"/>
-      <c r="X33" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y33" s="59">
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="57"/>
+      <c r="J33" s="57"/>
+      <c r="K33" s="57"/>
+      <c r="L33" s="57"/>
+      <c r="M33" s="57"/>
+      <c r="N33" s="57"/>
+      <c r="O33" s="57"/>
+      <c r="P33" s="57"/>
+      <c r="Q33" s="57"/>
+      <c r="R33" s="57"/>
+      <c r="S33" s="57"/>
+      <c r="T33" s="57"/>
+      <c r="U33" s="57"/>
+      <c r="V33" s="57"/>
+      <c r="W33" s="57"/>
+      <c r="X33" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y33" s="57">
         <v>0.8</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A37" s="56" t="s">
-        <v>122</v>
-      </c>
-      <c r="B37" s="55"/>
-      <c r="C37" s="55"/>
-      <c r="D37" s="55"/>
-      <c r="E37" s="55"/>
-      <c r="F37" s="55"/>
-      <c r="G37" s="55"/>
-      <c r="H37" s="55"/>
-      <c r="I37" s="55"/>
-      <c r="J37" s="55"/>
-      <c r="K37" s="55"/>
-      <c r="L37" s="55"/>
-      <c r="M37" s="55"/>
-      <c r="N37" s="55"/>
-      <c r="O37" s="55"/>
-      <c r="P37" s="55"/>
-      <c r="Q37" s="55"/>
-      <c r="R37" s="55"/>
-      <c r="S37" s="55"/>
-      <c r="T37" s="55"/>
-      <c r="U37" s="55"/>
-      <c r="V37" s="55"/>
-      <c r="W37" s="55"/>
-      <c r="X37" s="55"/>
-      <c r="Y37" s="55"/>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A38" s="55"/>
-      <c r="B38" s="55"/>
-      <c r="C38" s="57">
+    <row r="37" spans="1:25">
+      <c r="A37" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="B37" s="53"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="53"/>
+      <c r="I37" s="53"/>
+      <c r="J37" s="53"/>
+      <c r="K37" s="53"/>
+      <c r="L37" s="53"/>
+      <c r="M37" s="53"/>
+      <c r="N37" s="53"/>
+      <c r="O37" s="53"/>
+      <c r="P37" s="53"/>
+      <c r="Q37" s="53"/>
+      <c r="R37" s="53"/>
+      <c r="S37" s="53"/>
+      <c r="T37" s="53"/>
+      <c r="U37" s="53"/>
+      <c r="V37" s="53"/>
+      <c r="W37" s="53"/>
+      <c r="X37" s="53"/>
+      <c r="Y37" s="53"/>
+    </row>
+    <row r="38" spans="1:25">
+      <c r="A38" s="53"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="55">
         <v>2000</v>
       </c>
-      <c r="D38" s="57">
+      <c r="D38" s="55">
         <v>2001</v>
       </c>
-      <c r="E38" s="57">
+      <c r="E38" s="55">
         <v>2002</v>
       </c>
-      <c r="F38" s="57">
+      <c r="F38" s="55">
         <v>2003</v>
       </c>
-      <c r="G38" s="57">
+      <c r="G38" s="55">
         <v>2004</v>
       </c>
-      <c r="H38" s="57">
+      <c r="H38" s="55">
         <v>2005</v>
       </c>
-      <c r="I38" s="57">
+      <c r="I38" s="55">
         <v>2006</v>
       </c>
-      <c r="J38" s="57">
+      <c r="J38" s="55">
         <v>2007</v>
       </c>
-      <c r="K38" s="57">
+      <c r="K38" s="55">
         <v>2008</v>
       </c>
-      <c r="L38" s="57">
+      <c r="L38" s="55">
         <v>2009</v>
       </c>
-      <c r="M38" s="57">
+      <c r="M38" s="55">
         <v>2010</v>
       </c>
-      <c r="N38" s="57">
+      <c r="N38" s="55">
         <v>2011</v>
       </c>
-      <c r="O38" s="57">
+      <c r="O38" s="55">
         <v>2012</v>
       </c>
-      <c r="P38" s="57">
+      <c r="P38" s="55">
         <v>2013</v>
       </c>
-      <c r="Q38" s="57">
+      <c r="Q38" s="55">
         <v>2014</v>
       </c>
-      <c r="R38" s="57">
+      <c r="R38" s="55">
         <v>2015</v>
       </c>
-      <c r="S38" s="57">
+      <c r="S38" s="55">
         <v>2016</v>
       </c>
-      <c r="T38" s="57">
+      <c r="T38" s="55">
         <v>2017</v>
       </c>
-      <c r="U38" s="57">
+      <c r="U38" s="55">
         <v>2018</v>
       </c>
-      <c r="V38" s="57">
+      <c r="V38" s="55">
         <v>2019</v>
       </c>
-      <c r="W38" s="57">
+      <c r="W38" s="55">
         <v>2020</v>
       </c>
-      <c r="X38" s="55"/>
-      <c r="Y38" s="57" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A39" s="55"/>
+      <c r="X38" s="53"/>
+      <c r="Y38" s="55" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25">
+      <c r="A39" s="53"/>
       <c r="B39" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
       </c>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="59"/>
-      <c r="G39" s="59"/>
-      <c r="H39" s="59"/>
-      <c r="I39" s="59"/>
-      <c r="J39" s="59"/>
-      <c r="K39" s="59"/>
-      <c r="L39" s="59"/>
-      <c r="M39" s="59"/>
-      <c r="N39" s="59"/>
-      <c r="O39" s="59"/>
-      <c r="P39" s="59"/>
-      <c r="Q39" s="59"/>
-      <c r="R39" s="59"/>
-      <c r="S39" s="59"/>
-      <c r="T39" s="59"/>
-      <c r="U39" s="59"/>
-      <c r="V39" s="59"/>
-      <c r="W39" s="59"/>
-      <c r="X39" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y39" s="59">
+      <c r="C39" s="57"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="57"/>
+      <c r="H39" s="57"/>
+      <c r="I39" s="57"/>
+      <c r="J39" s="57"/>
+      <c r="K39" s="57"/>
+      <c r="L39" s="57"/>
+      <c r="M39" s="57"/>
+      <c r="N39" s="57"/>
+      <c r="O39" s="57"/>
+      <c r="P39" s="57"/>
+      <c r="Q39" s="57"/>
+      <c r="R39" s="57"/>
+      <c r="S39" s="57"/>
+      <c r="T39" s="57"/>
+      <c r="U39" s="57"/>
+      <c r="V39" s="57"/>
+      <c r="W39" s="57"/>
+      <c r="X39" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y39" s="57">
         <v>0.8</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A40" s="55"/>
+    <row r="40" spans="1:25">
+      <c r="A40" s="53"/>
       <c r="B40" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
       </c>
-      <c r="C40" s="59"/>
-      <c r="D40" s="59"/>
-      <c r="E40" s="59"/>
-      <c r="F40" s="59"/>
-      <c r="G40" s="59"/>
-      <c r="H40" s="59"/>
-      <c r="I40" s="59"/>
-      <c r="J40" s="59"/>
-      <c r="K40" s="59"/>
-      <c r="L40" s="59"/>
-      <c r="M40" s="59"/>
-      <c r="N40" s="59"/>
-      <c r="O40" s="59"/>
-      <c r="P40" s="59"/>
-      <c r="Q40" s="59"/>
-      <c r="R40" s="59"/>
-      <c r="S40" s="59"/>
-      <c r="T40" s="59"/>
-      <c r="U40" s="59"/>
-      <c r="V40" s="59"/>
-      <c r="W40" s="59"/>
-      <c r="X40" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y40" s="59">
+      <c r="C40" s="57"/>
+      <c r="D40" s="57"/>
+      <c r="E40" s="57"/>
+      <c r="F40" s="57"/>
+      <c r="G40" s="57"/>
+      <c r="H40" s="57"/>
+      <c r="I40" s="57"/>
+      <c r="J40" s="57"/>
+      <c r="K40" s="57"/>
+      <c r="L40" s="57"/>
+      <c r="M40" s="57"/>
+      <c r="N40" s="57"/>
+      <c r="O40" s="57"/>
+      <c r="P40" s="57"/>
+      <c r="Q40" s="57"/>
+      <c r="R40" s="57"/>
+      <c r="S40" s="57"/>
+      <c r="T40" s="57"/>
+      <c r="U40" s="57"/>
+      <c r="V40" s="57"/>
+      <c r="W40" s="57"/>
+      <c r="X40" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y40" s="57">
         <v>0.8</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A41" s="55"/>
+    <row r="41" spans="1:25">
+      <c r="A41" s="53"/>
       <c r="B41" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
       </c>
-      <c r="C41" s="59"/>
-      <c r="D41" s="59"/>
-      <c r="E41" s="59"/>
-      <c r="F41" s="59"/>
-      <c r="G41" s="59"/>
-      <c r="H41" s="59"/>
-      <c r="I41" s="59"/>
-      <c r="J41" s="59"/>
-      <c r="K41" s="59"/>
-      <c r="L41" s="59"/>
-      <c r="M41" s="59"/>
-      <c r="N41" s="59"/>
-      <c r="O41" s="59"/>
-      <c r="P41" s="59"/>
-      <c r="Q41" s="59"/>
-      <c r="R41" s="59"/>
-      <c r="S41" s="59"/>
-      <c r="T41" s="59"/>
-      <c r="U41" s="59"/>
-      <c r="V41" s="59"/>
-      <c r="W41" s="59"/>
-      <c r="X41" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y41" s="59">
+      <c r="C41" s="57"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="57"/>
+      <c r="G41" s="57"/>
+      <c r="H41" s="57"/>
+      <c r="I41" s="57"/>
+      <c r="J41" s="57"/>
+      <c r="K41" s="57"/>
+      <c r="L41" s="57"/>
+      <c r="M41" s="57"/>
+      <c r="N41" s="57"/>
+      <c r="O41" s="57"/>
+      <c r="P41" s="57"/>
+      <c r="Q41" s="57"/>
+      <c r="R41" s="57"/>
+      <c r="S41" s="57"/>
+      <c r="T41" s="57"/>
+      <c r="U41" s="57"/>
+      <c r="V41" s="57"/>
+      <c r="W41" s="57"/>
+      <c r="X41" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y41" s="57">
         <v>0.8</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A42" s="55"/>
+    <row r="42" spans="1:25">
+      <c r="A42" s="53"/>
       <c r="B42" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
       </c>
-      <c r="C42" s="59"/>
-      <c r="D42" s="59"/>
-      <c r="E42" s="59"/>
-      <c r="F42" s="59"/>
-      <c r="G42" s="59"/>
-      <c r="H42" s="59"/>
-      <c r="I42" s="59"/>
-      <c r="J42" s="59"/>
-      <c r="K42" s="59"/>
-      <c r="L42" s="59"/>
-      <c r="M42" s="59"/>
-      <c r="N42" s="59"/>
-      <c r="O42" s="59"/>
-      <c r="P42" s="59"/>
-      <c r="Q42" s="59"/>
-      <c r="R42" s="59"/>
-      <c r="S42" s="59"/>
-      <c r="T42" s="59"/>
-      <c r="U42" s="59"/>
-      <c r="V42" s="59"/>
-      <c r="W42" s="59"/>
-      <c r="X42" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y42" s="59">
+      <c r="C42" s="57"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="57"/>
+      <c r="G42" s="57"/>
+      <c r="H42" s="57"/>
+      <c r="I42" s="57"/>
+      <c r="J42" s="57"/>
+      <c r="K42" s="57"/>
+      <c r="L42" s="57"/>
+      <c r="M42" s="57"/>
+      <c r="N42" s="57"/>
+      <c r="O42" s="57"/>
+      <c r="P42" s="57"/>
+      <c r="Q42" s="57"/>
+      <c r="R42" s="57"/>
+      <c r="S42" s="57"/>
+      <c r="T42" s="57"/>
+      <c r="U42" s="57"/>
+      <c r="V42" s="57"/>
+      <c r="W42" s="57"/>
+      <c r="X42" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y42" s="57">
         <v>0.8</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A43" s="55"/>
+    <row r="43" spans="1:25">
+      <c r="A43" s="53"/>
       <c r="B43" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
       </c>
-      <c r="C43" s="59"/>
-      <c r="D43" s="59"/>
-      <c r="E43" s="59"/>
-      <c r="F43" s="59"/>
-      <c r="G43" s="59"/>
-      <c r="H43" s="59"/>
-      <c r="I43" s="59"/>
-      <c r="J43" s="59"/>
-      <c r="K43" s="59"/>
-      <c r="L43" s="59"/>
-      <c r="M43" s="59"/>
-      <c r="N43" s="59"/>
-      <c r="O43" s="59"/>
-      <c r="P43" s="59"/>
-      <c r="Q43" s="59"/>
-      <c r="R43" s="59"/>
-      <c r="S43" s="59"/>
-      <c r="T43" s="59"/>
-      <c r="U43" s="59"/>
-      <c r="V43" s="59"/>
-      <c r="W43" s="59"/>
-      <c r="X43" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y43" s="59">
+      <c r="C43" s="57"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="57"/>
+      <c r="G43" s="57"/>
+      <c r="H43" s="57"/>
+      <c r="I43" s="57"/>
+      <c r="J43" s="57"/>
+      <c r="K43" s="57"/>
+      <c r="L43" s="57"/>
+      <c r="M43" s="57"/>
+      <c r="N43" s="57"/>
+      <c r="O43" s="57"/>
+      <c r="P43" s="57"/>
+      <c r="Q43" s="57"/>
+      <c r="R43" s="57"/>
+      <c r="S43" s="57"/>
+      <c r="T43" s="57"/>
+      <c r="U43" s="57"/>
+      <c r="V43" s="57"/>
+      <c r="W43" s="57"/>
+      <c r="X43" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y43" s="57">
         <v>0.8</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A44" s="55"/>
+    <row r="44" spans="1:25">
+      <c r="A44" s="53"/>
       <c r="B44" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15+</v>
       </c>
-      <c r="C44" s="59"/>
-      <c r="D44" s="59"/>
-      <c r="E44" s="59"/>
-      <c r="F44" s="59"/>
-      <c r="G44" s="59"/>
-      <c r="H44" s="59"/>
-      <c r="I44" s="59"/>
-      <c r="J44" s="59"/>
-      <c r="K44" s="59"/>
-      <c r="L44" s="59"/>
-      <c r="M44" s="59"/>
-      <c r="N44" s="59"/>
-      <c r="O44" s="59"/>
-      <c r="P44" s="59"/>
-      <c r="Q44" s="59"/>
-      <c r="R44" s="59"/>
-      <c r="S44" s="59"/>
-      <c r="T44" s="59"/>
-      <c r="U44" s="59"/>
-      <c r="V44" s="59"/>
-      <c r="W44" s="59"/>
-      <c r="X44" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y44" s="59">
+      <c r="C44" s="57"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="57"/>
+      <c r="G44" s="57"/>
+      <c r="H44" s="57"/>
+      <c r="I44" s="57"/>
+      <c r="J44" s="57"/>
+      <c r="K44" s="57"/>
+      <c r="L44" s="57"/>
+      <c r="M44" s="57"/>
+      <c r="N44" s="57"/>
+      <c r="O44" s="57"/>
+      <c r="P44" s="57"/>
+      <c r="Q44" s="57"/>
+      <c r="R44" s="57"/>
+      <c r="S44" s="57"/>
+      <c r="T44" s="57"/>
+      <c r="U44" s="57"/>
+      <c r="V44" s="57"/>
+      <c r="W44" s="57"/>
+      <c r="X44" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y44" s="57">
         <v>0.8</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A45" s="55"/>
+    <row r="45" spans="1:25">
+      <c r="A45" s="53"/>
       <c r="B45" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15+</v>
       </c>
-      <c r="C45" s="59"/>
-      <c r="D45" s="59"/>
-      <c r="E45" s="59"/>
-      <c r="F45" s="59"/>
-      <c r="G45" s="59"/>
-      <c r="H45" s="59"/>
-      <c r="I45" s="59"/>
-      <c r="J45" s="59"/>
-      <c r="K45" s="59"/>
-      <c r="L45" s="59"/>
-      <c r="M45" s="59"/>
-      <c r="N45" s="59"/>
-      <c r="O45" s="59"/>
-      <c r="P45" s="59"/>
-      <c r="Q45" s="59"/>
-      <c r="R45" s="59"/>
-      <c r="S45" s="59"/>
-      <c r="T45" s="59"/>
-      <c r="U45" s="59"/>
-      <c r="V45" s="59"/>
-      <c r="W45" s="59"/>
-      <c r="X45" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y45" s="59">
+      <c r="C45" s="57"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="57"/>
+      <c r="G45" s="57"/>
+      <c r="H45" s="57"/>
+      <c r="I45" s="57"/>
+      <c r="J45" s="57"/>
+      <c r="K45" s="57"/>
+      <c r="L45" s="57"/>
+      <c r="M45" s="57"/>
+      <c r="N45" s="57"/>
+      <c r="O45" s="57"/>
+      <c r="P45" s="57"/>
+      <c r="Q45" s="57"/>
+      <c r="R45" s="57"/>
+      <c r="S45" s="57"/>
+      <c r="T45" s="57"/>
+      <c r="U45" s="57"/>
+      <c r="V45" s="57"/>
+      <c r="W45" s="57"/>
+      <c r="X45" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y45" s="57">
         <v>0.8</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A49" s="56" t="s">
-        <v>123</v>
-      </c>
-      <c r="B49" s="55"/>
-      <c r="C49" s="55"/>
-      <c r="D49" s="55"/>
-      <c r="E49" s="55"/>
-      <c r="F49" s="55"/>
-      <c r="G49" s="55"/>
-      <c r="H49" s="55"/>
-      <c r="I49" s="55"/>
-      <c r="J49" s="55"/>
-      <c r="K49" s="55"/>
-      <c r="L49" s="55"/>
-      <c r="M49" s="55"/>
-      <c r="N49" s="55"/>
-      <c r="O49" s="55"/>
-      <c r="P49" s="55"/>
-      <c r="Q49" s="55"/>
-      <c r="R49" s="55"/>
-      <c r="S49" s="55"/>
-      <c r="T49" s="55"/>
-      <c r="U49" s="55"/>
-      <c r="V49" s="55"/>
-      <c r="W49" s="55"/>
-      <c r="X49" s="55"/>
-      <c r="Y49" s="55"/>
-    </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A50" s="55"/>
-      <c r="B50" s="55"/>
-      <c r="C50" s="57">
+    <row r="49" spans="1:25">
+      <c r="A49" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="B49" s="53"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="53"/>
+      <c r="E49" s="53"/>
+      <c r="F49" s="53"/>
+      <c r="G49" s="53"/>
+      <c r="H49" s="53"/>
+      <c r="I49" s="53"/>
+      <c r="J49" s="53"/>
+      <c r="K49" s="53"/>
+      <c r="L49" s="53"/>
+      <c r="M49" s="53"/>
+      <c r="N49" s="53"/>
+      <c r="O49" s="53"/>
+      <c r="P49" s="53"/>
+      <c r="Q49" s="53"/>
+      <c r="R49" s="53"/>
+      <c r="S49" s="53"/>
+      <c r="T49" s="53"/>
+      <c r="U49" s="53"/>
+      <c r="V49" s="53"/>
+      <c r="W49" s="53"/>
+      <c r="X49" s="53"/>
+      <c r="Y49" s="53"/>
+    </row>
+    <row r="50" spans="1:25">
+      <c r="A50" s="53"/>
+      <c r="B50" s="53"/>
+      <c r="C50" s="55">
         <v>2000</v>
       </c>
-      <c r="D50" s="57">
+      <c r="D50" s="55">
         <v>2001</v>
       </c>
-      <c r="E50" s="57">
+      <c r="E50" s="55">
         <v>2002</v>
       </c>
-      <c r="F50" s="57">
+      <c r="F50" s="55">
         <v>2003</v>
       </c>
-      <c r="G50" s="57">
+      <c r="G50" s="55">
         <v>2004</v>
       </c>
-      <c r="H50" s="57">
+      <c r="H50" s="55">
         <v>2005</v>
       </c>
-      <c r="I50" s="57">
+      <c r="I50" s="55">
         <v>2006</v>
       </c>
-      <c r="J50" s="57">
+      <c r="J50" s="55">
         <v>2007</v>
       </c>
-      <c r="K50" s="57">
+      <c r="K50" s="55">
         <v>2008</v>
       </c>
-      <c r="L50" s="57">
+      <c r="L50" s="55">
         <v>2009</v>
       </c>
-      <c r="M50" s="57">
+      <c r="M50" s="55">
         <v>2010</v>
       </c>
-      <c r="N50" s="57">
+      <c r="N50" s="55">
         <v>2011</v>
       </c>
-      <c r="O50" s="57">
+      <c r="O50" s="55">
         <v>2012</v>
       </c>
-      <c r="P50" s="57">
+      <c r="P50" s="55">
         <v>2013</v>
       </c>
-      <c r="Q50" s="57">
+      <c r="Q50" s="55">
         <v>2014</v>
       </c>
-      <c r="R50" s="57">
+      <c r="R50" s="55">
         <v>2015</v>
       </c>
-      <c r="S50" s="57">
+      <c r="S50" s="55">
         <v>2016</v>
       </c>
-      <c r="T50" s="57">
+      <c r="T50" s="55">
         <v>2017</v>
       </c>
-      <c r="U50" s="57">
+      <c r="U50" s="55">
         <v>2018</v>
       </c>
-      <c r="V50" s="57">
+      <c r="V50" s="55">
         <v>2019</v>
       </c>
-      <c r="W50" s="57">
+      <c r="W50" s="55">
         <v>2020</v>
       </c>
-      <c r="X50" s="55"/>
-      <c r="Y50" s="57" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A51" s="55"/>
+      <c r="X50" s="53"/>
+      <c r="Y50" s="55" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25">
+      <c r="A51" s="53"/>
       <c r="B51" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
       </c>
-      <c r="C51" s="59"/>
-      <c r="D51" s="59"/>
-      <c r="E51" s="59"/>
-      <c r="F51" s="59"/>
-      <c r="G51" s="59"/>
-      <c r="H51" s="59"/>
-      <c r="I51" s="59"/>
-      <c r="J51" s="59"/>
-      <c r="K51" s="59"/>
-      <c r="L51" s="59"/>
-      <c r="M51" s="59"/>
-      <c r="N51" s="59"/>
-      <c r="O51" s="59"/>
-      <c r="P51" s="59"/>
-      <c r="Q51" s="59"/>
-      <c r="R51" s="59"/>
-      <c r="S51" s="59"/>
-      <c r="T51" s="59"/>
-      <c r="U51" s="59"/>
-      <c r="V51" s="59"/>
-      <c r="W51" s="59"/>
-      <c r="X51" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y51" s="59">
+      <c r="C51" s="57"/>
+      <c r="D51" s="57"/>
+      <c r="E51" s="57"/>
+      <c r="F51" s="57"/>
+      <c r="G51" s="57"/>
+      <c r="H51" s="57"/>
+      <c r="I51" s="57"/>
+      <c r="J51" s="57"/>
+      <c r="K51" s="57"/>
+      <c r="L51" s="57"/>
+      <c r="M51" s="57"/>
+      <c r="N51" s="57"/>
+      <c r="O51" s="57"/>
+      <c r="P51" s="57"/>
+      <c r="Q51" s="57"/>
+      <c r="R51" s="57"/>
+      <c r="S51" s="57"/>
+      <c r="T51" s="57"/>
+      <c r="U51" s="57"/>
+      <c r="V51" s="57"/>
+      <c r="W51" s="57"/>
+      <c r="X51" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y51" s="57">
         <v>0.1</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A52" s="55"/>
+    <row r="52" spans="1:25">
+      <c r="A52" s="53"/>
       <c r="B52" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
       </c>
-      <c r="C52" s="59"/>
-      <c r="D52" s="59"/>
-      <c r="E52" s="59"/>
-      <c r="F52" s="59"/>
-      <c r="G52" s="59"/>
-      <c r="H52" s="59"/>
-      <c r="I52" s="59"/>
-      <c r="J52" s="59"/>
-      <c r="K52" s="59"/>
-      <c r="L52" s="59"/>
-      <c r="M52" s="59"/>
-      <c r="N52" s="59"/>
-      <c r="O52" s="59"/>
-      <c r="P52" s="59"/>
-      <c r="Q52" s="59"/>
-      <c r="R52" s="59"/>
-      <c r="S52" s="59"/>
-      <c r="T52" s="59"/>
-      <c r="U52" s="59"/>
-      <c r="V52" s="59"/>
-      <c r="W52" s="59"/>
-      <c r="X52" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y52" s="59">
+      <c r="C52" s="57"/>
+      <c r="D52" s="57"/>
+      <c r="E52" s="57"/>
+      <c r="F52" s="57"/>
+      <c r="G52" s="57"/>
+      <c r="H52" s="57"/>
+      <c r="I52" s="57"/>
+      <c r="J52" s="57"/>
+      <c r="K52" s="57"/>
+      <c r="L52" s="57"/>
+      <c r="M52" s="57"/>
+      <c r="N52" s="57"/>
+      <c r="O52" s="57"/>
+      <c r="P52" s="57"/>
+      <c r="Q52" s="57"/>
+      <c r="R52" s="57"/>
+      <c r="S52" s="57"/>
+      <c r="T52" s="57"/>
+      <c r="U52" s="57"/>
+      <c r="V52" s="57"/>
+      <c r="W52" s="57"/>
+      <c r="X52" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y52" s="57">
         <v>0.1</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A53" s="55"/>
+    <row r="53" spans="1:25">
+      <c r="A53" s="53"/>
       <c r="B53" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
       </c>
-      <c r="C53" s="59"/>
-      <c r="D53" s="59"/>
-      <c r="E53" s="59"/>
-      <c r="F53" s="59"/>
-      <c r="G53" s="59"/>
-      <c r="H53" s="59"/>
-      <c r="I53" s="59"/>
-      <c r="J53" s="59"/>
-      <c r="K53" s="59"/>
-      <c r="L53" s="59"/>
-      <c r="M53" s="59"/>
-      <c r="N53" s="59"/>
-      <c r="O53" s="59"/>
-      <c r="P53" s="59"/>
-      <c r="Q53" s="59"/>
-      <c r="R53" s="59"/>
-      <c r="S53" s="59"/>
-      <c r="T53" s="59"/>
-      <c r="U53" s="59"/>
-      <c r="V53" s="59"/>
-      <c r="W53" s="59"/>
-      <c r="X53" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y53" s="59">
+      <c r="C53" s="57"/>
+      <c r="D53" s="57"/>
+      <c r="E53" s="57"/>
+      <c r="F53" s="57"/>
+      <c r="G53" s="57"/>
+      <c r="H53" s="57"/>
+      <c r="I53" s="57"/>
+      <c r="J53" s="57"/>
+      <c r="K53" s="57"/>
+      <c r="L53" s="57"/>
+      <c r="M53" s="57"/>
+      <c r="N53" s="57"/>
+      <c r="O53" s="57"/>
+      <c r="P53" s="57"/>
+      <c r="Q53" s="57"/>
+      <c r="R53" s="57"/>
+      <c r="S53" s="57"/>
+      <c r="T53" s="57"/>
+      <c r="U53" s="57"/>
+      <c r="V53" s="57"/>
+      <c r="W53" s="57"/>
+      <c r="X53" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y53" s="57">
         <v>0.1</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A54" s="55"/>
+    <row r="54" spans="1:25">
+      <c r="A54" s="53"/>
       <c r="B54" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
       </c>
-      <c r="C54" s="59"/>
-      <c r="D54" s="59"/>
-      <c r="E54" s="59"/>
-      <c r="F54" s="59"/>
-      <c r="G54" s="59"/>
-      <c r="H54" s="59"/>
-      <c r="I54" s="59"/>
-      <c r="J54" s="59"/>
-      <c r="K54" s="59"/>
-      <c r="L54" s="59"/>
-      <c r="M54" s="59"/>
-      <c r="N54" s="59"/>
-      <c r="O54" s="59"/>
-      <c r="P54" s="59"/>
-      <c r="Q54" s="59"/>
-      <c r="R54" s="59"/>
-      <c r="S54" s="59"/>
-      <c r="T54" s="59"/>
-      <c r="U54" s="59"/>
-      <c r="V54" s="59"/>
-      <c r="W54" s="59"/>
-      <c r="X54" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y54" s="59">
+      <c r="C54" s="57"/>
+      <c r="D54" s="57"/>
+      <c r="E54" s="57"/>
+      <c r="F54" s="57"/>
+      <c r="G54" s="57"/>
+      <c r="H54" s="57"/>
+      <c r="I54" s="57"/>
+      <c r="J54" s="57"/>
+      <c r="K54" s="57"/>
+      <c r="L54" s="57"/>
+      <c r="M54" s="57"/>
+      <c r="N54" s="57"/>
+      <c r="O54" s="57"/>
+      <c r="P54" s="57"/>
+      <c r="Q54" s="57"/>
+      <c r="R54" s="57"/>
+      <c r="S54" s="57"/>
+      <c r="T54" s="57"/>
+      <c r="U54" s="57"/>
+      <c r="V54" s="57"/>
+      <c r="W54" s="57"/>
+      <c r="X54" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y54" s="57">
         <v>0.1</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A55" s="55"/>
+    <row r="55" spans="1:25">
+      <c r="A55" s="53"/>
       <c r="B55" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
       </c>
-      <c r="C55" s="59"/>
-      <c r="D55" s="59"/>
-      <c r="E55" s="59"/>
-      <c r="F55" s="59"/>
-      <c r="G55" s="59"/>
-      <c r="H55" s="59"/>
-      <c r="I55" s="59"/>
-      <c r="J55" s="59"/>
-      <c r="K55" s="59"/>
-      <c r="L55" s="59"/>
-      <c r="M55" s="59"/>
-      <c r="N55" s="59"/>
-      <c r="O55" s="59"/>
-      <c r="P55" s="59"/>
-      <c r="Q55" s="59"/>
-      <c r="R55" s="59"/>
-      <c r="S55" s="59"/>
-      <c r="T55" s="59"/>
-      <c r="U55" s="59"/>
-      <c r="V55" s="59"/>
-      <c r="W55" s="59"/>
-      <c r="X55" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y55" s="59">
+      <c r="C55" s="57"/>
+      <c r="D55" s="57"/>
+      <c r="E55" s="57"/>
+      <c r="F55" s="57"/>
+      <c r="G55" s="57"/>
+      <c r="H55" s="57"/>
+      <c r="I55" s="57"/>
+      <c r="J55" s="57"/>
+      <c r="K55" s="57"/>
+      <c r="L55" s="57"/>
+      <c r="M55" s="57"/>
+      <c r="N55" s="57"/>
+      <c r="O55" s="57"/>
+      <c r="P55" s="57"/>
+      <c r="Q55" s="57"/>
+      <c r="R55" s="57"/>
+      <c r="S55" s="57"/>
+      <c r="T55" s="57"/>
+      <c r="U55" s="57"/>
+      <c r="V55" s="57"/>
+      <c r="W55" s="57"/>
+      <c r="X55" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y55" s="57">
         <v>0.1</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A56" s="55"/>
+    <row r="56" spans="1:25">
+      <c r="A56" s="53"/>
       <c r="B56" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15+</v>
       </c>
-      <c r="C56" s="59"/>
-      <c r="D56" s="59"/>
-      <c r="E56" s="59"/>
-      <c r="F56" s="59"/>
-      <c r="G56" s="59"/>
-      <c r="H56" s="59"/>
-      <c r="I56" s="59"/>
-      <c r="J56" s="59"/>
-      <c r="K56" s="59"/>
-      <c r="L56" s="59"/>
-      <c r="M56" s="59"/>
-      <c r="N56" s="59"/>
-      <c r="O56" s="59"/>
-      <c r="P56" s="59"/>
-      <c r="Q56" s="59"/>
-      <c r="R56" s="59"/>
-      <c r="S56" s="59"/>
-      <c r="T56" s="59"/>
-      <c r="U56" s="59"/>
-      <c r="V56" s="59"/>
-      <c r="W56" s="59"/>
-      <c r="X56" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y56" s="59">
+      <c r="C56" s="57"/>
+      <c r="D56" s="57"/>
+      <c r="E56" s="57"/>
+      <c r="F56" s="57"/>
+      <c r="G56" s="57"/>
+      <c r="H56" s="57"/>
+      <c r="I56" s="57"/>
+      <c r="J56" s="57"/>
+      <c r="K56" s="57"/>
+      <c r="L56" s="57"/>
+      <c r="M56" s="57"/>
+      <c r="N56" s="57"/>
+      <c r="O56" s="57"/>
+      <c r="P56" s="57"/>
+      <c r="Q56" s="57"/>
+      <c r="R56" s="57"/>
+      <c r="S56" s="57"/>
+      <c r="T56" s="57"/>
+      <c r="U56" s="57"/>
+      <c r="V56" s="57"/>
+      <c r="W56" s="57"/>
+      <c r="X56" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y56" s="57">
         <v>0.1</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A57" s="55"/>
+    <row r="57" spans="1:25">
+      <c r="A57" s="53"/>
       <c r="B57" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15+</v>
       </c>
-      <c r="C57" s="59"/>
-      <c r="D57" s="59"/>
-      <c r="E57" s="59"/>
-      <c r="F57" s="59"/>
-      <c r="G57" s="59"/>
-      <c r="H57" s="59"/>
-      <c r="I57" s="59"/>
-      <c r="J57" s="59"/>
-      <c r="K57" s="59"/>
-      <c r="L57" s="59"/>
-      <c r="M57" s="59"/>
-      <c r="N57" s="59"/>
-      <c r="O57" s="59"/>
-      <c r="P57" s="59"/>
-      <c r="Q57" s="59"/>
-      <c r="R57" s="59"/>
-      <c r="S57" s="59"/>
-      <c r="T57" s="59"/>
-      <c r="U57" s="59"/>
-      <c r="V57" s="59"/>
-      <c r="W57" s="59"/>
-      <c r="X57" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y57" s="59">
+      <c r="C57" s="57"/>
+      <c r="D57" s="57"/>
+      <c r="E57" s="57"/>
+      <c r="F57" s="57"/>
+      <c r="G57" s="57"/>
+      <c r="H57" s="57"/>
+      <c r="I57" s="57"/>
+      <c r="J57" s="57"/>
+      <c r="K57" s="57"/>
+      <c r="L57" s="57"/>
+      <c r="M57" s="57"/>
+      <c r="N57" s="57"/>
+      <c r="O57" s="57"/>
+      <c r="P57" s="57"/>
+      <c r="Q57" s="57"/>
+      <c r="R57" s="57"/>
+      <c r="S57" s="57"/>
+      <c r="T57" s="57"/>
+      <c r="U57" s="57"/>
+      <c r="V57" s="57"/>
+      <c r="W57" s="57"/>
+      <c r="X57" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y57" s="57">
         <v>0.1</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A61" s="56" t="s">
-        <v>124</v>
-      </c>
-      <c r="B61" s="55"/>
-      <c r="C61" s="55"/>
-      <c r="D61" s="55"/>
-      <c r="E61" s="55"/>
-      <c r="F61" s="55"/>
-      <c r="G61" s="55"/>
-      <c r="H61" s="55"/>
-      <c r="I61" s="55"/>
-      <c r="J61" s="55"/>
-      <c r="K61" s="55"/>
-      <c r="L61" s="55"/>
-      <c r="M61" s="55"/>
-      <c r="N61" s="55"/>
-      <c r="O61" s="55"/>
-      <c r="P61" s="55"/>
-      <c r="Q61" s="55"/>
-      <c r="R61" s="55"/>
-      <c r="S61" s="55"/>
-      <c r="T61" s="55"/>
-      <c r="U61" s="55"/>
-      <c r="V61" s="55"/>
-      <c r="W61" s="55"/>
-      <c r="X61" s="55"/>
-      <c r="Y61" s="55"/>
-    </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A62" s="55"/>
-      <c r="B62" s="55"/>
-      <c r="C62" s="57">
+    <row r="61" spans="1:25">
+      <c r="A61" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="B61" s="53"/>
+      <c r="C61" s="53"/>
+      <c r="D61" s="53"/>
+      <c r="E61" s="53"/>
+      <c r="F61" s="53"/>
+      <c r="G61" s="53"/>
+      <c r="H61" s="53"/>
+      <c r="I61" s="53"/>
+      <c r="J61" s="53"/>
+      <c r="K61" s="53"/>
+      <c r="L61" s="53"/>
+      <c r="M61" s="53"/>
+      <c r="N61" s="53"/>
+      <c r="O61" s="53"/>
+      <c r="P61" s="53"/>
+      <c r="Q61" s="53"/>
+      <c r="R61" s="53"/>
+      <c r="S61" s="53"/>
+      <c r="T61" s="53"/>
+      <c r="U61" s="53"/>
+      <c r="V61" s="53"/>
+      <c r="W61" s="53"/>
+      <c r="X61" s="53"/>
+      <c r="Y61" s="53"/>
+    </row>
+    <row r="62" spans="1:25">
+      <c r="A62" s="53"/>
+      <c r="B62" s="53"/>
+      <c r="C62" s="55">
         <v>2000</v>
       </c>
-      <c r="D62" s="57">
+      <c r="D62" s="55">
         <v>2001</v>
       </c>
-      <c r="E62" s="57">
+      <c r="E62" s="55">
         <v>2002</v>
       </c>
-      <c r="F62" s="57">
+      <c r="F62" s="55">
         <v>2003</v>
       </c>
-      <c r="G62" s="57">
+      <c r="G62" s="55">
         <v>2004</v>
       </c>
-      <c r="H62" s="57">
+      <c r="H62" s="55">
         <v>2005</v>
       </c>
-      <c r="I62" s="57">
+      <c r="I62" s="55">
         <v>2006</v>
       </c>
-      <c r="J62" s="57">
+      <c r="J62" s="55">
         <v>2007</v>
       </c>
-      <c r="K62" s="57">
+      <c r="K62" s="55">
         <v>2008</v>
       </c>
-      <c r="L62" s="57">
+      <c r="L62" s="55">
         <v>2009</v>
       </c>
-      <c r="M62" s="57">
+      <c r="M62" s="55">
         <v>2010</v>
       </c>
-      <c r="N62" s="57">
+      <c r="N62" s="55">
         <v>2011</v>
       </c>
-      <c r="O62" s="57">
+      <c r="O62" s="55">
         <v>2012</v>
       </c>
-      <c r="P62" s="57">
+      <c r="P62" s="55">
         <v>2013</v>
       </c>
-      <c r="Q62" s="57">
+      <c r="Q62" s="55">
         <v>2014</v>
       </c>
-      <c r="R62" s="57">
+      <c r="R62" s="55">
         <v>2015</v>
       </c>
-      <c r="S62" s="57">
+      <c r="S62" s="55">
         <v>2016</v>
       </c>
-      <c r="T62" s="57">
+      <c r="T62" s="55">
         <v>2017</v>
       </c>
-      <c r="U62" s="57">
+      <c r="U62" s="55">
         <v>2018</v>
       </c>
-      <c r="V62" s="57">
+      <c r="V62" s="55">
         <v>2019</v>
       </c>
-      <c r="W62" s="57">
+      <c r="W62" s="55">
         <v>2020</v>
       </c>
-      <c r="X62" s="55"/>
-      <c r="Y62" s="57" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A63" s="55"/>
+      <c r="X62" s="53"/>
+      <c r="Y62" s="55" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25">
+      <c r="A63" s="53"/>
       <c r="B63" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
       </c>
-      <c r="C63" s="59"/>
-      <c r="D63" s="59"/>
-      <c r="E63" s="59"/>
-      <c r="F63" s="59"/>
-      <c r="G63" s="59"/>
-      <c r="H63" s="59"/>
-      <c r="I63" s="59"/>
-      <c r="J63" s="59"/>
-      <c r="K63" s="59"/>
-      <c r="L63" s="59"/>
-      <c r="M63" s="59"/>
-      <c r="N63" s="59"/>
-      <c r="O63" s="59"/>
-      <c r="P63" s="59"/>
-      <c r="Q63" s="59"/>
-      <c r="R63" s="59"/>
-      <c r="S63" s="59"/>
-      <c r="T63" s="59"/>
-      <c r="U63" s="59"/>
-      <c r="V63" s="59"/>
-      <c r="W63" s="59"/>
-      <c r="X63" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y63" s="59">
+      <c r="C63" s="57"/>
+      <c r="D63" s="57"/>
+      <c r="E63" s="57"/>
+      <c r="F63" s="57"/>
+      <c r="G63" s="57"/>
+      <c r="H63" s="57"/>
+      <c r="I63" s="57"/>
+      <c r="J63" s="57"/>
+      <c r="K63" s="57"/>
+      <c r="L63" s="57"/>
+      <c r="M63" s="57"/>
+      <c r="N63" s="57"/>
+      <c r="O63" s="57"/>
+      <c r="P63" s="57"/>
+      <c r="Q63" s="57"/>
+      <c r="R63" s="57"/>
+      <c r="S63" s="57"/>
+      <c r="T63" s="57"/>
+      <c r="U63" s="57"/>
+      <c r="V63" s="57"/>
+      <c r="W63" s="57"/>
+      <c r="X63" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y63" s="57">
         <v>0.1</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A64" s="55"/>
+    <row r="64" spans="1:25">
+      <c r="A64" s="53"/>
       <c r="B64" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
       </c>
-      <c r="C64" s="59"/>
-      <c r="D64" s="59"/>
-      <c r="E64" s="59"/>
-      <c r="F64" s="59"/>
-      <c r="G64" s="59"/>
-      <c r="H64" s="59"/>
-      <c r="I64" s="59"/>
-      <c r="J64" s="59"/>
-      <c r="K64" s="59"/>
-      <c r="L64" s="59"/>
-      <c r="M64" s="59"/>
-      <c r="N64" s="59"/>
-      <c r="O64" s="59"/>
-      <c r="P64" s="59"/>
-      <c r="Q64" s="59"/>
-      <c r="R64" s="59"/>
-      <c r="S64" s="59"/>
-      <c r="T64" s="59"/>
-      <c r="U64" s="59"/>
-      <c r="V64" s="59"/>
-      <c r="W64" s="59"/>
-      <c r="X64" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y64" s="59">
+      <c r="C64" s="57"/>
+      <c r="D64" s="57"/>
+      <c r="E64" s="57"/>
+      <c r="F64" s="57"/>
+      <c r="G64" s="57"/>
+      <c r="H64" s="57"/>
+      <c r="I64" s="57"/>
+      <c r="J64" s="57"/>
+      <c r="K64" s="57"/>
+      <c r="L64" s="57"/>
+      <c r="M64" s="57"/>
+      <c r="N64" s="57"/>
+      <c r="O64" s="57"/>
+      <c r="P64" s="57"/>
+      <c r="Q64" s="57"/>
+      <c r="R64" s="57"/>
+      <c r="S64" s="57"/>
+      <c r="T64" s="57"/>
+      <c r="U64" s="57"/>
+      <c r="V64" s="57"/>
+      <c r="W64" s="57"/>
+      <c r="X64" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y64" s="57">
         <v>0.1</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A65" s="55"/>
+    <row r="65" spans="1:25">
+      <c r="A65" s="53"/>
       <c r="B65" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
       </c>
-      <c r="C65" s="59"/>
-      <c r="D65" s="59"/>
-      <c r="E65" s="59"/>
-      <c r="F65" s="59"/>
-      <c r="G65" s="59"/>
-      <c r="H65" s="59"/>
-      <c r="I65" s="59"/>
-      <c r="J65" s="59"/>
-      <c r="K65" s="59"/>
-      <c r="L65" s="59"/>
-      <c r="M65" s="59"/>
-      <c r="N65" s="59"/>
-      <c r="O65" s="59"/>
-      <c r="P65" s="59"/>
-      <c r="Q65" s="59"/>
-      <c r="R65" s="59"/>
-      <c r="S65" s="59"/>
-      <c r="T65" s="59"/>
-      <c r="U65" s="59"/>
-      <c r="V65" s="59"/>
-      <c r="W65" s="59"/>
-      <c r="X65" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y65" s="59">
+      <c r="C65" s="57"/>
+      <c r="D65" s="57"/>
+      <c r="E65" s="57"/>
+      <c r="F65" s="57"/>
+      <c r="G65" s="57"/>
+      <c r="H65" s="57"/>
+      <c r="I65" s="57"/>
+      <c r="J65" s="57"/>
+      <c r="K65" s="57"/>
+      <c r="L65" s="57"/>
+      <c r="M65" s="57"/>
+      <c r="N65" s="57"/>
+      <c r="O65" s="57"/>
+      <c r="P65" s="57"/>
+      <c r="Q65" s="57"/>
+      <c r="R65" s="57"/>
+      <c r="S65" s="57"/>
+      <c r="T65" s="57"/>
+      <c r="U65" s="57"/>
+      <c r="V65" s="57"/>
+      <c r="W65" s="57"/>
+      <c r="X65" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y65" s="57">
         <v>0.1</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A66" s="55"/>
+    <row r="66" spans="1:25">
+      <c r="A66" s="53"/>
       <c r="B66" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
       </c>
-      <c r="C66" s="59"/>
-      <c r="D66" s="59"/>
-      <c r="E66" s="59"/>
-      <c r="F66" s="59"/>
-      <c r="G66" s="59"/>
-      <c r="H66" s="59"/>
-      <c r="I66" s="59"/>
-      <c r="J66" s="59"/>
-      <c r="K66" s="59"/>
-      <c r="L66" s="59"/>
-      <c r="M66" s="59"/>
-      <c r="N66" s="59"/>
-      <c r="O66" s="59"/>
-      <c r="P66" s="59"/>
-      <c r="Q66" s="59"/>
-      <c r="R66" s="59"/>
-      <c r="S66" s="59"/>
-      <c r="T66" s="59"/>
-      <c r="U66" s="59"/>
-      <c r="V66" s="59"/>
-      <c r="W66" s="59"/>
-      <c r="X66" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y66" s="59">
+      <c r="C66" s="57"/>
+      <c r="D66" s="57"/>
+      <c r="E66" s="57"/>
+      <c r="F66" s="57"/>
+      <c r="G66" s="57"/>
+      <c r="H66" s="57"/>
+      <c r="I66" s="57"/>
+      <c r="J66" s="57"/>
+      <c r="K66" s="57"/>
+      <c r="L66" s="57"/>
+      <c r="M66" s="57"/>
+      <c r="N66" s="57"/>
+      <c r="O66" s="57"/>
+      <c r="P66" s="57"/>
+      <c r="Q66" s="57"/>
+      <c r="R66" s="57"/>
+      <c r="S66" s="57"/>
+      <c r="T66" s="57"/>
+      <c r="U66" s="57"/>
+      <c r="V66" s="57"/>
+      <c r="W66" s="57"/>
+      <c r="X66" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y66" s="57">
         <v>0.1</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A67" s="55"/>
+    <row r="67" spans="1:25">
+      <c r="A67" s="53"/>
       <c r="B67" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
       </c>
-      <c r="C67" s="59"/>
-      <c r="D67" s="59"/>
-      <c r="E67" s="59"/>
-      <c r="F67" s="59"/>
-      <c r="G67" s="59"/>
-      <c r="H67" s="59"/>
-      <c r="I67" s="59"/>
-      <c r="J67" s="59"/>
-      <c r="K67" s="59"/>
-      <c r="L67" s="59"/>
-      <c r="M67" s="59"/>
-      <c r="N67" s="59"/>
-      <c r="O67" s="59"/>
-      <c r="P67" s="59"/>
-      <c r="Q67" s="59"/>
-      <c r="R67" s="59"/>
-      <c r="S67" s="59"/>
-      <c r="T67" s="59"/>
-      <c r="U67" s="59"/>
-      <c r="V67" s="59"/>
-      <c r="W67" s="59"/>
-      <c r="X67" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y67" s="59">
+      <c r="C67" s="57"/>
+      <c r="D67" s="57"/>
+      <c r="E67" s="57"/>
+      <c r="F67" s="57"/>
+      <c r="G67" s="57"/>
+      <c r="H67" s="57"/>
+      <c r="I67" s="57"/>
+      <c r="J67" s="57"/>
+      <c r="K67" s="57"/>
+      <c r="L67" s="57"/>
+      <c r="M67" s="57"/>
+      <c r="N67" s="57"/>
+      <c r="O67" s="57"/>
+      <c r="P67" s="57"/>
+      <c r="Q67" s="57"/>
+      <c r="R67" s="57"/>
+      <c r="S67" s="57"/>
+      <c r="T67" s="57"/>
+      <c r="U67" s="57"/>
+      <c r="V67" s="57"/>
+      <c r="W67" s="57"/>
+      <c r="X67" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y67" s="57">
         <v>0.1</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A68" s="55"/>
+    <row r="68" spans="1:25">
+      <c r="A68" s="53"/>
       <c r="B68" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15+</v>
       </c>
-      <c r="C68" s="59"/>
-      <c r="D68" s="59"/>
-      <c r="E68" s="59"/>
-      <c r="F68" s="59"/>
-      <c r="G68" s="59"/>
-      <c r="H68" s="59"/>
-      <c r="I68" s="59"/>
-      <c r="J68" s="59"/>
-      <c r="K68" s="59"/>
-      <c r="L68" s="59"/>
-      <c r="M68" s="59"/>
-      <c r="N68" s="59"/>
-      <c r="O68" s="59"/>
-      <c r="P68" s="59"/>
-      <c r="Q68" s="59"/>
-      <c r="R68" s="59"/>
-      <c r="S68" s="59"/>
-      <c r="T68" s="59"/>
-      <c r="U68" s="59"/>
-      <c r="V68" s="59"/>
-      <c r="W68" s="59"/>
-      <c r="X68" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y68" s="59">
+      <c r="C68" s="57"/>
+      <c r="D68" s="57"/>
+      <c r="E68" s="57"/>
+      <c r="F68" s="57"/>
+      <c r="G68" s="57"/>
+      <c r="H68" s="57"/>
+      <c r="I68" s="57"/>
+      <c r="J68" s="57"/>
+      <c r="K68" s="57"/>
+      <c r="L68" s="57"/>
+      <c r="M68" s="57"/>
+      <c r="N68" s="57"/>
+      <c r="O68" s="57"/>
+      <c r="P68" s="57"/>
+      <c r="Q68" s="57"/>
+      <c r="R68" s="57"/>
+      <c r="S68" s="57"/>
+      <c r="T68" s="57"/>
+      <c r="U68" s="57"/>
+      <c r="V68" s="57"/>
+      <c r="W68" s="57"/>
+      <c r="X68" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y68" s="57">
         <v>0.1</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A69" s="55"/>
+    <row r="69" spans="1:25">
+      <c r="A69" s="53"/>
       <c r="B69" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15+</v>
       </c>
-      <c r="C69" s="59"/>
-      <c r="D69" s="59"/>
-      <c r="E69" s="59"/>
-      <c r="F69" s="59"/>
-      <c r="G69" s="59"/>
-      <c r="H69" s="59"/>
-      <c r="I69" s="59"/>
-      <c r="J69" s="59"/>
-      <c r="K69" s="59"/>
-      <c r="L69" s="59"/>
-      <c r="M69" s="59"/>
-      <c r="N69" s="59"/>
-      <c r="O69" s="59"/>
-      <c r="P69" s="59"/>
-      <c r="Q69" s="59"/>
-      <c r="R69" s="59"/>
-      <c r="S69" s="59"/>
-      <c r="T69" s="59"/>
-      <c r="U69" s="59"/>
-      <c r="V69" s="59"/>
-      <c r="W69" s="59"/>
-      <c r="X69" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y69" s="59">
+      <c r="C69" s="57"/>
+      <c r="D69" s="57"/>
+      <c r="E69" s="57"/>
+      <c r="F69" s="57"/>
+      <c r="G69" s="57"/>
+      <c r="H69" s="57"/>
+      <c r="I69" s="57"/>
+      <c r="J69" s="57"/>
+      <c r="K69" s="57"/>
+      <c r="L69" s="57"/>
+      <c r="M69" s="57"/>
+      <c r="N69" s="57"/>
+      <c r="O69" s="57"/>
+      <c r="P69" s="57"/>
+      <c r="Q69" s="57"/>
+      <c r="R69" s="57"/>
+      <c r="S69" s="57"/>
+      <c r="T69" s="57"/>
+      <c r="U69" s="57"/>
+      <c r="V69" s="57"/>
+      <c r="W69" s="57"/>
+      <c r="X69" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y69" s="57">
         <v>0.1</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A73" s="56" t="s">
-        <v>125</v>
-      </c>
-      <c r="B73" s="55"/>
-      <c r="C73" s="55"/>
-      <c r="D73" s="55"/>
-      <c r="E73" s="55"/>
-      <c r="F73" s="55"/>
-      <c r="G73" s="55"/>
-      <c r="H73" s="55"/>
-      <c r="I73" s="55"/>
-      <c r="J73" s="55"/>
-      <c r="K73" s="55"/>
-      <c r="L73" s="55"/>
-      <c r="M73" s="55"/>
-      <c r="N73" s="55"/>
-      <c r="O73" s="55"/>
-      <c r="P73" s="55"/>
-      <c r="Q73" s="55"/>
-      <c r="R73" s="55"/>
-      <c r="S73" s="55"/>
-      <c r="T73" s="55"/>
-      <c r="U73" s="55"/>
-      <c r="V73" s="55"/>
-      <c r="W73" s="55"/>
-      <c r="X73" s="55"/>
-      <c r="Y73" s="55"/>
-    </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A74" s="55"/>
-      <c r="B74" s="55"/>
-      <c r="C74" s="57">
+    <row r="73" spans="1:25">
+      <c r="A73" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="B73" s="53"/>
+      <c r="C73" s="53"/>
+      <c r="D73" s="53"/>
+      <c r="E73" s="53"/>
+      <c r="F73" s="53"/>
+      <c r="G73" s="53"/>
+      <c r="H73" s="53"/>
+      <c r="I73" s="53"/>
+      <c r="J73" s="53"/>
+      <c r="K73" s="53"/>
+      <c r="L73" s="53"/>
+      <c r="M73" s="53"/>
+      <c r="N73" s="53"/>
+      <c r="O73" s="53"/>
+      <c r="P73" s="53"/>
+      <c r="Q73" s="53"/>
+      <c r="R73" s="53"/>
+      <c r="S73" s="53"/>
+      <c r="T73" s="53"/>
+      <c r="U73" s="53"/>
+      <c r="V73" s="53"/>
+      <c r="W73" s="53"/>
+      <c r="X73" s="53"/>
+      <c r="Y73" s="53"/>
+    </row>
+    <row r="74" spans="1:25">
+      <c r="A74" s="53"/>
+      <c r="B74" s="53"/>
+      <c r="C74" s="55">
         <v>2000</v>
       </c>
-      <c r="D74" s="57">
+      <c r="D74" s="55">
         <v>2001</v>
       </c>
-      <c r="E74" s="57">
+      <c r="E74" s="55">
         <v>2002</v>
       </c>
-      <c r="F74" s="57">
+      <c r="F74" s="55">
         <v>2003</v>
       </c>
-      <c r="G74" s="57">
+      <c r="G74" s="55">
         <v>2004</v>
       </c>
-      <c r="H74" s="57">
+      <c r="H74" s="55">
         <v>2005</v>
       </c>
-      <c r="I74" s="57">
+      <c r="I74" s="55">
         <v>2006</v>
       </c>
-      <c r="J74" s="57">
+      <c r="J74" s="55">
         <v>2007</v>
       </c>
-      <c r="K74" s="57">
+      <c r="K74" s="55">
         <v>2008</v>
       </c>
-      <c r="L74" s="57">
+      <c r="L74" s="55">
         <v>2009</v>
       </c>
-      <c r="M74" s="57">
+      <c r="M74" s="55">
         <v>2010</v>
       </c>
-      <c r="N74" s="57">
+      <c r="N74" s="55">
         <v>2011</v>
       </c>
-      <c r="O74" s="57">
+      <c r="O74" s="55">
         <v>2012</v>
       </c>
-      <c r="P74" s="57">
+      <c r="P74" s="55">
         <v>2013</v>
       </c>
-      <c r="Q74" s="57">
+      <c r="Q74" s="55">
         <v>2014</v>
       </c>
-      <c r="R74" s="57">
+      <c r="R74" s="55">
         <v>2015</v>
       </c>
-      <c r="S74" s="57">
+      <c r="S74" s="55">
         <v>2016</v>
       </c>
-      <c r="T74" s="57">
+      <c r="T74" s="55">
         <v>2017</v>
       </c>
-      <c r="U74" s="57">
+      <c r="U74" s="55">
         <v>2018</v>
       </c>
-      <c r="V74" s="57">
+      <c r="V74" s="55">
         <v>2019</v>
       </c>
-      <c r="W74" s="57">
+      <c r="W74" s="55">
         <v>2020</v>
       </c>
-      <c r="X74" s="55"/>
-      <c r="Y74" s="57" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A75" s="55"/>
-      <c r="B75" s="57" t="s">
-        <v>39</v>
-      </c>
-      <c r="C75" s="59"/>
-      <c r="D75" s="59"/>
-      <c r="E75" s="59"/>
-      <c r="F75" s="59"/>
-      <c r="G75" s="59"/>
-      <c r="H75" s="59"/>
-      <c r="I75" s="59"/>
-      <c r="J75" s="59"/>
-      <c r="K75" s="59"/>
-      <c r="L75" s="59"/>
-      <c r="M75" s="59"/>
-      <c r="N75" s="59"/>
-      <c r="O75" s="59"/>
-      <c r="P75" s="59"/>
-      <c r="Q75" s="59"/>
-      <c r="R75" s="59"/>
-      <c r="S75" s="59"/>
-      <c r="T75" s="59"/>
-      <c r="U75" s="59"/>
-      <c r="V75" s="59"/>
-      <c r="W75" s="59"/>
-      <c r="X75" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y75" s="59">
+      <c r="X74" s="53"/>
+      <c r="Y74" s="55" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25">
+      <c r="A75" s="53"/>
+      <c r="B75" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="C75" s="57"/>
+      <c r="D75" s="57"/>
+      <c r="E75" s="57"/>
+      <c r="F75" s="57"/>
+      <c r="G75" s="57"/>
+      <c r="H75" s="57"/>
+      <c r="I75" s="57"/>
+      <c r="J75" s="57"/>
+      <c r="K75" s="57"/>
+      <c r="L75" s="57"/>
+      <c r="M75" s="57"/>
+      <c r="N75" s="57"/>
+      <c r="O75" s="57"/>
+      <c r="P75" s="57"/>
+      <c r="Q75" s="57"/>
+      <c r="R75" s="57"/>
+      <c r="S75" s="57"/>
+      <c r="T75" s="57"/>
+      <c r="U75" s="57"/>
+      <c r="V75" s="57"/>
+      <c r="W75" s="57"/>
+      <c r="X75" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y75" s="57">
         <v>0.1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -11472,14 +11504,14 @@
       <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
       <c r="C2" s="3">
         <v>2000</v>
       </c>
@@ -11544,10 +11576,10 @@
         <v>2020</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
       <c r="B3" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -11576,11 +11608,11 @@
       <c r="V3" s="4"/>
       <c r="W3" s="4"/>
       <c r="X3" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y3" s="4"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25">
       <c r="B4" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -11609,11 +11641,11 @@
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
       <c r="X4" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y4" s="4"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25">
       <c r="B5" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -11642,11 +11674,11 @@
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
       <c r="X5" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y5" s="4"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25">
       <c r="B6" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -11673,13 +11705,13 @@
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
       <c r="X6" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y6" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25">
       <c r="B7" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -11706,13 +11738,13 @@
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
       <c r="X7" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y7" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25">
       <c r="B8" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15+</v>
@@ -11741,11 +11773,11 @@
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
       <c r="X8" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y8" s="4"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25">
       <c r="B9" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15+</v>
@@ -11774,16 +11806,16 @@
       <c r="V9" s="4"/>
       <c r="W9" s="4"/>
       <c r="X9" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y9" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25">
       <c r="A13" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
       <c r="C14" s="3">
         <v>2000</v>
       </c>
@@ -11848,10 +11880,10 @@
         <v>2020</v>
       </c>
       <c r="Y14" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
       <c r="B15" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -11880,11 +11912,11 @@
       <c r="V15" s="4"/>
       <c r="W15" s="4"/>
       <c r="X15" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25">
       <c r="B16" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -11913,11 +11945,11 @@
       <c r="V16" s="4"/>
       <c r="W16" s="4"/>
       <c r="X16" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y16" s="4"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25">
       <c r="B17" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -11946,11 +11978,11 @@
       <c r="V17" s="4"/>
       <c r="W17" s="4"/>
       <c r="X17" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y17" s="4"/>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25">
       <c r="B18" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -11977,13 +12009,13 @@
       <c r="V18" s="4"/>
       <c r="W18" s="4"/>
       <c r="X18" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y18" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25">
       <c r="B19" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -12010,13 +12042,13 @@
       <c r="V19" s="4"/>
       <c r="W19" s="4"/>
       <c r="X19" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y19" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25">
       <c r="B20" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15+</v>
@@ -12045,11 +12077,11 @@
       <c r="V20" s="4"/>
       <c r="W20" s="4"/>
       <c r="X20" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y20" s="4"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25">
       <c r="B21" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15+</v>
@@ -12078,16 +12110,16 @@
       <c r="V21" s="4"/>
       <c r="W21" s="4"/>
       <c r="X21" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y21" s="4"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25">
       <c r="A25" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25">
       <c r="C26" s="3">
         <v>2000</v>
       </c>
@@ -12152,10 +12184,10 @@
         <v>2020</v>
       </c>
       <c r="Y26" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25">
       <c r="B27" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -12184,11 +12216,11 @@
       <c r="V27" s="4"/>
       <c r="W27" s="4"/>
       <c r="X27" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y27" s="4"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25">
       <c r="B28" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -12217,11 +12249,11 @@
       <c r="V28" s="4"/>
       <c r="W28" s="4"/>
       <c r="X28" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y28" s="4"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25">
       <c r="B29" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -12248,13 +12280,13 @@
       <c r="V29" s="4"/>
       <c r="W29" s="4"/>
       <c r="X29" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y29" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25">
       <c r="B30" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -12281,13 +12313,13 @@
       <c r="V30" s="4"/>
       <c r="W30" s="4"/>
       <c r="X30" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y30" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25">
       <c r="B31" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -12314,13 +12346,13 @@
       <c r="V31" s="4"/>
       <c r="W31" s="4"/>
       <c r="X31" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y31" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25">
       <c r="B32" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15+</v>
@@ -12347,13 +12379,13 @@
       <c r="V32" s="4"/>
       <c r="W32" s="4"/>
       <c r="X32" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y32" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25">
       <c r="B33" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15+</v>
@@ -12380,18 +12412,18 @@
       <c r="V33" s="4"/>
       <c r="W33" s="4"/>
       <c r="X33" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y33" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25">
       <c r="A37" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25">
       <c r="C38" s="3">
         <v>2000</v>
       </c>
@@ -12456,10 +12488,10 @@
         <v>2020</v>
       </c>
       <c r="Y38" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25">
       <c r="B39" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -12488,11 +12520,11 @@
       <c r="V39" s="9"/>
       <c r="W39" s="9"/>
       <c r="X39" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y39" s="9"/>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25">
       <c r="B40" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -12521,11 +12553,11 @@
       <c r="V40" s="9"/>
       <c r="W40" s="9"/>
       <c r="X40" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y40" s="9"/>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25">
       <c r="B41" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -12554,11 +12586,11 @@
       <c r="V41" s="9"/>
       <c r="W41" s="9"/>
       <c r="X41" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y41" s="9"/>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25">
       <c r="B42" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -12585,13 +12617,13 @@
       <c r="V42" s="9"/>
       <c r="W42" s="9"/>
       <c r="X42" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y42" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25">
       <c r="B43" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -12618,13 +12650,13 @@
       <c r="V43" s="9"/>
       <c r="W43" s="9"/>
       <c r="X43" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y43" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25">
       <c r="B44" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15+</v>
@@ -12653,11 +12685,11 @@
       <c r="V44" s="9"/>
       <c r="W44" s="9"/>
       <c r="X44" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y44" s="9"/>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25">
       <c r="B45" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15+</v>
@@ -12686,16 +12718,16 @@
       <c r="V45" s="9"/>
       <c r="W45" s="9"/>
       <c r="X45" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y45" s="9"/>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25">
       <c r="A49" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25">
       <c r="C50" s="3">
         <v>2000</v>
       </c>
@@ -12760,10 +12792,10 @@
         <v>2020</v>
       </c>
       <c r="Y50" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25">
       <c r="B51" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -12792,11 +12824,11 @@
       <c r="V51" s="9"/>
       <c r="W51" s="9"/>
       <c r="X51" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y51" s="9"/>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25">
       <c r="B52" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -12829,11 +12861,11 @@
       <c r="V52" s="9"/>
       <c r="W52" s="9"/>
       <c r="X52" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y52" s="9"/>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25">
       <c r="B53" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -12862,11 +12894,11 @@
       <c r="V53" s="9"/>
       <c r="W53" s="9"/>
       <c r="X53" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y53" s="9"/>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25">
       <c r="B54" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -12893,13 +12925,13 @@
       <c r="V54" s="9"/>
       <c r="W54" s="9"/>
       <c r="X54" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y54" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25">
       <c r="B55" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -12926,13 +12958,13 @@
       <c r="V55" s="9"/>
       <c r="W55" s="9"/>
       <c r="X55" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y55" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25">
       <c r="B56" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15+</v>
@@ -12965,11 +12997,11 @@
       <c r="V56" s="9"/>
       <c r="W56" s="9"/>
       <c r="X56" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y56" s="9"/>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25">
       <c r="B57" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15+</v>
@@ -13002,16 +13034,16 @@
       <c r="V57" s="9"/>
       <c r="W57" s="9"/>
       <c r="X57" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y57" s="9"/>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25">
       <c r="A61" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25">
       <c r="C62" s="3">
         <v>2000</v>
       </c>
@@ -13076,10 +13108,10 @@
         <v>2020</v>
       </c>
       <c r="Y62" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25">
       <c r="B63" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -13110,11 +13142,11 @@
       <c r="V63" s="9"/>
       <c r="W63" s="9"/>
       <c r="X63" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y63" s="9"/>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25">
       <c r="B64" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -13141,13 +13173,13 @@
       <c r="V64" s="9"/>
       <c r="W64" s="9"/>
       <c r="X64" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y64" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25">
       <c r="B65" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -13174,13 +13206,13 @@
       <c r="V65" s="9"/>
       <c r="W65" s="9"/>
       <c r="X65" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y65" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25">
       <c r="B66" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -13207,13 +13239,13 @@
       <c r="V66" s="9"/>
       <c r="W66" s="9"/>
       <c r="X66" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y66" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25">
       <c r="B67" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -13240,13 +13272,13 @@
       <c r="V67" s="9"/>
       <c r="W67" s="9"/>
       <c r="X67" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y67" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25">
       <c r="B68" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15+</v>
@@ -13273,13 +13305,13 @@
       <c r="V68" s="9"/>
       <c r="W68" s="9"/>
       <c r="X68" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y68" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25">
       <c r="B69" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15+</v>
@@ -13306,18 +13338,18 @@
       <c r="V69" s="9"/>
       <c r="W69" s="9"/>
       <c r="X69" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y69" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25">
       <c r="A73" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25">
       <c r="C74" s="3">
         <v>2000</v>
       </c>
@@ -13382,10 +13414,10 @@
         <v>2020</v>
       </c>
       <c r="Y74" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25">
       <c r="B75" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -13414,11 +13446,11 @@
       <c r="V75" s="9"/>
       <c r="W75" s="9"/>
       <c r="X75" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y75" s="9"/>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25">
       <c r="B76" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -13447,11 +13479,11 @@
       <c r="V76" s="9"/>
       <c r="W76" s="9"/>
       <c r="X76" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y76" s="9"/>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25">
       <c r="B77" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -13480,11 +13512,11 @@
       <c r="V77" s="9"/>
       <c r="W77" s="9"/>
       <c r="X77" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y77" s="9"/>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25">
       <c r="B78" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15+</v>
@@ -13513,7 +13545,7 @@
       <c r="V78" s="9"/>
       <c r="W78" s="9"/>
       <c r="X78" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y78" s="9"/>
     </row>

--- a/tests/test7pops.xlsx
+++ b/tests/test7pops.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25725"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="19420" windowHeight="10960" tabRatio="901"/>
+    <workbookView xWindow="940" yWindow="2220" windowWidth="19420" windowHeight="10960" tabRatio="901" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -462,9 +462,6 @@
     <t>Probability of viral suppression on ART</t>
   </si>
   <si>
-    <t>Linkage to care rate (%/year)</t>
-  </si>
-  <si>
     <t>ART adherence achieving viral suppression (%/year)</t>
   </si>
   <si>
@@ -491,6 +488,9 @@
   <si>
     <t>Welcome to the Optima data entry spreadsheet. This is where all data for the model will be entered. Please ask someone from the Optima development team if you need help, or use the default contact (info@optimamodel.com).</t>
   </si>
+  <si>
+    <t>Percentage of HIV-diagnosed people not in care who are linked to care per year (%/year)</t>
+  </si>
 </sst>
 </file>
 
@@ -505,7 +505,7 @@
     <numFmt numFmtId="168" formatCode="#,##0.000"/>
     <numFmt numFmtId="169" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -596,6 +596,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -680,7 +688,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="168">
+  <cellStyleXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -848,6 +856,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="60">
@@ -995,7 +1005,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="168">
+  <cellStyles count="170">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Comma 2" xfId="6"/>
     <cellStyle name="Comma 2 2" xfId="4"/>
@@ -1060,6 +1070,7 @@
     <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="169" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink 10" xfId="79"/>
     <cellStyle name="Followed Hyperlink 11" xfId="80"/>
     <cellStyle name="Followed Hyperlink 12" xfId="81"/>
@@ -1157,6 +1168,7 @@
     <cellStyle name="Followed Hyperlink 96" xfId="165"/>
     <cellStyle name="Followed Hyperlink 97" xfId="166"/>
     <cellStyle name="Followed Hyperlink 98" xfId="167"/>
+    <cellStyle name="Hyperlink" xfId="168" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="7"/>
     <cellStyle name="Normal 3" xfId="8"/>
@@ -1464,8 +1476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1489,7 +1501,7 @@
     </row>
     <row r="5" spans="1:1" ht="28">
       <c r="A5" s="28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -1505,6 +1517,7 @@
     <mergeCell ref="A1:A3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4085,10 +4098,10 @@
         <v>5</v>
       </c>
       <c r="G2" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="H2" s="31" t="s">
         <v>123</v>
-      </c>
-      <c r="H2" s="31" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -9319,15 +9332,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y75"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" s="54" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B1" s="53"/>
       <c r="C1" s="53"/>
@@ -9665,7 +9678,7 @@
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="54" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="B13" s="53"/>
       <c r="C13" s="53"/>
@@ -10003,7 +10016,7 @@
     </row>
     <row r="25" spans="1:25">
       <c r="A25" s="54" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B25" s="53"/>
       <c r="C25" s="53"/>
@@ -10341,7 +10354,7 @@
     </row>
     <row r="37" spans="1:25">
       <c r="A37" s="54" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B37" s="53"/>
       <c r="C37" s="53"/>
@@ -10679,7 +10692,7 @@
     </row>
     <row r="49" spans="1:25">
       <c r="A49" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B49" s="53"/>
       <c r="C49" s="53"/>
@@ -11017,7 +11030,7 @@
     </row>
     <row r="61" spans="1:25">
       <c r="A61" s="54" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B61" s="53"/>
       <c r="C61" s="53"/>
@@ -11355,7 +11368,7 @@
     </row>
     <row r="73" spans="1:25">
       <c r="A73" s="54" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B73" s="53"/>
       <c r="C73" s="53"/>

--- a/tests/test7pops.xlsx
+++ b/tests/test7pops.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25725"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="2220" windowWidth="19420" windowHeight="10960" tabRatio="901" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="940" yWindow="2220" windowWidth="19420" windowHeight="10960" tabRatio="901" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="128">
   <si>
     <t>O P T I M A</t>
   </si>
@@ -491,6 +491,12 @@
   <si>
     <t>Percentage of HIV-diagnosed people not in care who are linked to care per year (%/year)</t>
   </si>
+  <si>
+    <t>Injects</t>
+  </si>
+  <si>
+    <t>Sex worker</t>
+  </si>
 </sst>
 </file>
 
@@ -688,7 +694,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="170">
+  <cellStyleXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -859,8 +865,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -998,6 +1006,10 @@
     <xf numFmtId="9" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="67" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1005,7 +1017,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="170">
+  <cellStyles count="172">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Comma 2" xfId="6"/>
     <cellStyle name="Comma 2 2" xfId="4"/>
@@ -1071,6 +1083,7 @@
     <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="169" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="171" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink 10" xfId="79"/>
     <cellStyle name="Followed Hyperlink 11" xfId="80"/>
     <cellStyle name="Followed Hyperlink 12" xfId="81"/>
@@ -1169,6 +1182,7 @@
     <cellStyle name="Followed Hyperlink 97" xfId="166"/>
     <cellStyle name="Followed Hyperlink 98" xfId="167"/>
     <cellStyle name="Hyperlink" xfId="168" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="170" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="7"/>
     <cellStyle name="Normal 3" xfId="8"/>
@@ -1486,15 +1500,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="59"/>
+      <c r="A2" s="61"/>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="59"/>
+      <c r="A3" s="61"/>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="28"/>
@@ -4065,10 +4079,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4079,12 +4093,12 @@
     <col min="8" max="8" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:10">
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -4103,8 +4117,14 @@
       <c r="H2" s="31" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="J2" s="58" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="B3" s="3">
         <v>1</v>
       </c>
@@ -4126,8 +4146,14 @@
       <c r="H3" s="4">
         <v>49</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="59">
+        <v>0</v>
+      </c>
+      <c r="J3" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="B4" s="3">
         <v>2</v>
       </c>
@@ -4149,8 +4175,14 @@
       <c r="H4" s="4">
         <v>49</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="59">
+        <v>1</v>
+      </c>
+      <c r="J4" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="B5" s="3">
         <v>3</v>
       </c>
@@ -4172,8 +4204,14 @@
       <c r="H5" s="4">
         <v>49</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="59">
+        <v>0</v>
+      </c>
+      <c r="J5" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="B6" s="3">
         <v>4</v>
       </c>
@@ -4195,8 +4233,14 @@
       <c r="H6" s="4">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="59">
+        <v>0</v>
+      </c>
+      <c r="J6" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="B7" s="3">
         <v>5</v>
       </c>
@@ -4218,8 +4262,14 @@
       <c r="H7" s="4">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="59">
+        <v>0</v>
+      </c>
+      <c r="J7" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="B8" s="3">
         <v>6</v>
       </c>
@@ -4241,8 +4291,14 @@
       <c r="H8" s="4">
         <v>49</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="59">
+        <v>0</v>
+      </c>
+      <c r="J8" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="B9" s="3">
         <v>7</v>
       </c>
@@ -4264,9 +4320,16 @@
       <c r="H9" s="4">
         <v>49</v>
       </c>
+      <c r="I9" s="59">
+        <v>0</v>
+      </c>
+      <c r="J9" s="59">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -9332,7 +9395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>

--- a/tests/test7pops.xlsx
+++ b/tests/test7pops.xlsx
@@ -4082,7 +4082,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4176,7 +4176,7 @@
         <v>49</v>
       </c>
       <c r="I4" s="59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="59">
         <v>0</v>
@@ -4208,7 +4208,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:10">

--- a/tests/test7pops.xlsx
+++ b/tests/test7pops.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25725"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="2220" windowWidth="19420" windowHeight="10960" tabRatio="901" firstSheet="6" activeTab="11"/>
+    <workbookView xWindow="1860" yWindow="1480" windowWidth="19420" windowHeight="10960" tabRatio="901" firstSheet="6" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="129">
   <si>
     <t>O P T I M A</t>
   </si>
@@ -497,6 +497,9 @@
   <si>
     <t>Sex worker</t>
   </si>
+  <si>
+    <t>Births</t>
+  </si>
 </sst>
 </file>
 
@@ -694,7 +697,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="174">
+  <cellStyleXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -862,6 +865,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1019,7 +1026,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="174">
+  <cellStyles count="178">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Comma 2" xfId="6"/>
     <cellStyle name="Comma 2 2" xfId="4"/>
@@ -1087,6 +1094,8 @@
     <cellStyle name="Followed Hyperlink" xfId="169" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="171" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="173" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="175" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="177" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink 10" xfId="79"/>
     <cellStyle name="Followed Hyperlink 11" xfId="80"/>
     <cellStyle name="Followed Hyperlink 12" xfId="81"/>
@@ -1187,6 +1196,8 @@
     <cellStyle name="Hyperlink" xfId="168" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="170" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="172" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="174" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="176" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="7"/>
     <cellStyle name="Normal 3" xfId="8"/>
@@ -2279,10 +2290,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H61" sqref="H61"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2814,12 +2825,12 @@
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
     </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+    <row r="49" spans="1:9" s="53" customFormat="1">
+      <c r="A49" s="54" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" s="53" customFormat="1">
       <c r="C50" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -2849,7 +2860,7 @@
         <v>F 15+</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" s="53" customFormat="1">
       <c r="B51" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -2857,95 +2868,181 @@
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
+      <c r="F51" s="4">
+        <v>1</v>
+      </c>
+      <c r="G51" s="4">
+        <v>1</v>
+      </c>
       <c r="H51" s="4"/>
-      <c r="I51" s="4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+      <c r="I51" s="4"/>
+    </row>
+    <row r="52" spans="1:9" s="53" customFormat="1">
       <c r="B52" s="3" t="str">
-        <f>Populations!$C$4</f>
-        <v>Clients</v>
+        <f>Populations!$C$7</f>
+        <v>F 0-14</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
-      <c r="H52" s="4">
-        <v>15</v>
-      </c>
+      <c r="H52" s="4"/>
       <c r="I52" s="4"/>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" s="53" customFormat="1">
       <c r="B53" s="3" t="str">
-        <f>Populations!$C$5</f>
-        <v>MSM</v>
+        <f>Populations!$C$9</f>
+        <v>F 15+</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
+      <c r="F53" s="4">
+        <v>1</v>
+      </c>
+      <c r="G53" s="4">
+        <v>1</v>
+      </c>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
     </row>
-    <row r="54" spans="1:9">
-      <c r="B54" s="3" t="str">
+    <row r="54" spans="1:9" s="53" customFormat="1"/>
+    <row r="55" spans="1:9" s="53" customFormat="1"/>
+    <row r="56" spans="1:9" s="53" customFormat="1"/>
+    <row r="57" spans="1:9">
+      <c r="A57" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="C58" s="3" t="str">
+        <f>Populations!$C$3</f>
+        <v>FSW</v>
+      </c>
+      <c r="D58" s="3" t="str">
+        <f>Populations!$C$4</f>
+        <v>Clients</v>
+      </c>
+      <c r="E58" s="3" t="str">
+        <f>Populations!$C$5</f>
+        <v>MSM</v>
+      </c>
+      <c r="F58" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
       </c>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="B55" s="3" t="str">
+      <c r="G58" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
       </c>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="B56" s="3" t="str">
+      <c r="H58" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15+</v>
       </c>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="B57" s="3" t="str">
+      <c r="I58" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15+</v>
       </c>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="B59" s="3" t="str">
+        <f>Populations!$C$3</f>
+        <v>FSW</v>
+      </c>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="B60" s="3" t="str">
+        <f>Populations!$C$4</f>
+        <v>Clients</v>
+      </c>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4">
+        <v>15</v>
+      </c>
+      <c r="I60" s="4"/>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="B61" s="3" t="str">
+        <f>Populations!$C$5</f>
+        <v>MSM</v>
+      </c>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="B62" s="3" t="str">
+        <f>Populations!$C$6</f>
+        <v>M 0-14</v>
+      </c>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="B63" s="3" t="str">
+        <f>Populations!$C$7</f>
+        <v>F 0-14</v>
+      </c>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="B64" s="3" t="str">
+        <f>Populations!$C$8</f>
+        <v>M 15+</v>
+      </c>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+    </row>
+    <row r="65" spans="2:9">
+      <c r="B65" s="3" t="str">
+        <f>Populations!$C$9</f>
+        <v>F 15+</v>
+      </c>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2958,7 +3055,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+    <sheetView topLeftCell="A59" workbookViewId="0">
       <selection activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
